--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,18 @@
     <t>['17', '45+2']</t>
   </si>
   <si>
+    <t>['21', '88']</t>
+  </si>
+  <si>
+    <t>['3', '60']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['15', '48', '83']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -644,6 +656,15 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['80', '90+2']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['20', '34']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK94"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1270,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1336,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT2">
         <v>1.2</v>
@@ -1440,7 +1461,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1822,7 +1843,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -1912,7 +1933,7 @@
         <v>0.6</v>
       </c>
       <c r="AT5">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2013,7 +2034,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2485,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="AT8">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2586,7 +2607,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -2676,7 +2697,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2867,7 +2888,7 @@
         <v>1.2</v>
       </c>
       <c r="AT10">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2968,7 +2989,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3055,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT11">
         <v>1.2</v>
@@ -3159,7 +3180,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3350,7 +3371,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3628,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT14">
         <v>2</v>
@@ -3732,7 +3753,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3819,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT15">
         <v>2.17</v>
@@ -3923,7 +3944,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4013,7 +4034,7 @@
         <v>1.8</v>
       </c>
       <c r="AT16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4114,7 +4135,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4392,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT18">
         <v>1.5</v>
@@ -4687,7 +4708,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4878,7 +4899,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -4965,10 +4986,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU21">
         <v>2.13</v>
@@ -5069,7 +5090,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5156,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT22">
         <v>1.6</v>
@@ -5451,7 +5472,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5541,7 +5562,7 @@
         <v>0.6</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU24">
         <v>2.46</v>
@@ -5642,7 +5663,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>10</v>
@@ -5732,7 +5753,7 @@
         <v>1.2</v>
       </c>
       <c r="AT25">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU25">
         <v>1.59</v>
@@ -5833,7 +5854,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6114,7 +6135,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU27">
         <v>2.41</v>
@@ -6215,7 +6236,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6305,7 +6326,7 @@
         <v>1.2</v>
       </c>
       <c r="AT28">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU28">
         <v>2.35</v>
@@ -6597,7 +6618,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -6684,7 +6705,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT30">
         <v>1.8</v>
@@ -6788,7 +6809,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6979,7 +7000,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7639,7 +7660,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT35">
         <v>2.2</v>
@@ -7743,7 +7764,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7934,7 +7955,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8021,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
         <v>2</v>
@@ -8125,7 +8146,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8215,7 +8236,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU38">
         <v>1.88</v>
@@ -8316,7 +8337,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8403,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
         <v>1.2</v>
@@ -8507,7 +8528,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8597,7 +8618,7 @@
         <v>3</v>
       </c>
       <c r="AT40">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU40">
         <v>1.35</v>
@@ -8698,7 +8719,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8788,7 +8809,7 @@
         <v>1.33</v>
       </c>
       <c r="AT41">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU41">
         <v>2.12</v>
@@ -9271,7 +9292,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9361,7 +9382,7 @@
         <v>0.33</v>
       </c>
       <c r="AT44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU44">
         <v>1.91</v>
@@ -9462,7 +9483,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9549,10 +9570,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU45">
         <v>1.82</v>
@@ -9653,7 +9674,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9740,7 +9761,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT46">
         <v>1.2</v>
@@ -10035,7 +10056,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10313,7 +10334,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
         <v>2.2</v>
@@ -10417,7 +10438,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10608,7 +10629,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10799,7 +10820,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -10990,7 +11011,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11181,7 +11202,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11372,7 +11393,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11459,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
         <v>1.6</v>
@@ -11563,7 +11584,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11650,10 +11671,10 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT56">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU56">
         <v>2.04</v>
@@ -11841,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
         <v>1.17</v>
@@ -11945,7 +11966,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12417,7 +12438,7 @@
         <v>2.17</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU60">
         <v>1.88</v>
@@ -12518,7 +12539,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12605,10 +12626,10 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT61">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.71</v>
@@ -12709,7 +12730,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -12900,7 +12921,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -12987,10 +13008,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU63">
         <v>1.48</v>
@@ -13091,7 +13112,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13181,7 +13202,7 @@
         <v>1.2</v>
       </c>
       <c r="AT64">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU64">
         <v>1.87</v>
@@ -13282,7 +13303,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13664,7 +13685,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -13855,7 +13876,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14237,7 +14258,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14428,7 +14449,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14619,7 +14640,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14706,7 +14727,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
         <v>1.8</v>
@@ -14810,7 +14831,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15088,10 +15109,10 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU74">
         <v>1.54</v>
@@ -15192,7 +15213,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15282,7 +15303,7 @@
         <v>0.67</v>
       </c>
       <c r="AT75">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU75">
         <v>1.38</v>
@@ -15383,7 +15404,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15574,7 +15595,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -15956,7 +15977,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16043,10 +16064,10 @@
         <v>0.75</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU79">
         <v>1.99</v>
@@ -16237,7 +16258,7 @@
         <v>0.33</v>
       </c>
       <c r="AT80">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.93</v>
@@ -16338,7 +16359,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16425,10 +16446,10 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT81">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>1.93</v>
@@ -16529,7 +16550,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16720,7 +16741,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -16911,7 +16932,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17293,7 +17314,7 @@
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17484,7 +17505,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17675,7 +17696,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -17762,7 +17783,7 @@
         <v>1.25</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT88">
         <v>1.2</v>
@@ -17866,7 +17887,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18057,7 +18078,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18377,7 +18398,7 @@
         <v>5</v>
       </c>
       <c r="BG91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH91">
         <v>3</v>
@@ -18389,7 +18410,7 @@
         <v>8</v>
       </c>
       <c r="BK91">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:63">
@@ -18821,7 +18842,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -18963,6 +18984,1152 @@
       </c>
       <c r="BK94">
         <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>2812313</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44864.33333333334</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>148</v>
+      </c>
+      <c r="P95" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q95">
+        <v>2</v>
+      </c>
+      <c r="R95">
+        <v>5</v>
+      </c>
+      <c r="S95">
+        <v>7</v>
+      </c>
+      <c r="T95">
+        <v>2.4</v>
+      </c>
+      <c r="U95">
+        <v>2.05</v>
+      </c>
+      <c r="V95">
+        <v>4.5</v>
+      </c>
+      <c r="W95">
+        <v>1.42</v>
+      </c>
+      <c r="X95">
+        <v>2.65</v>
+      </c>
+      <c r="Y95">
+        <v>2.87</v>
+      </c>
+      <c r="Z95">
+        <v>1.36</v>
+      </c>
+      <c r="AA95">
+        <v>7.5</v>
+      </c>
+      <c r="AB95">
+        <v>1.07</v>
+      </c>
+      <c r="AC95">
+        <v>1.81</v>
+      </c>
+      <c r="AD95">
+        <v>3.45</v>
+      </c>
+      <c r="AE95">
+        <v>3.9</v>
+      </c>
+      <c r="AF95">
+        <v>1.07</v>
+      </c>
+      <c r="AG95">
+        <v>7.5</v>
+      </c>
+      <c r="AH95">
+        <v>1.33</v>
+      </c>
+      <c r="AI95">
+        <v>3.2</v>
+      </c>
+      <c r="AJ95">
+        <v>2</v>
+      </c>
+      <c r="AK95">
+        <v>1.76</v>
+      </c>
+      <c r="AL95">
+        <v>1.88</v>
+      </c>
+      <c r="AM95">
+        <v>1.8</v>
+      </c>
+      <c r="AN95">
+        <v>1.21</v>
+      </c>
+      <c r="AO95">
+        <v>1.29</v>
+      </c>
+      <c r="AP95">
+        <v>1.93</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>1.4</v>
+      </c>
+      <c r="AS95">
+        <v>1.33</v>
+      </c>
+      <c r="AT95">
+        <v>1.17</v>
+      </c>
+      <c r="AU95">
+        <v>1.81</v>
+      </c>
+      <c r="AV95">
+        <v>1.71</v>
+      </c>
+      <c r="AW95">
+        <v>3.52</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95">
+        <v>0</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>1.27</v>
+      </c>
+      <c r="BC95">
+        <v>1.48</v>
+      </c>
+      <c r="BD95">
+        <v>1.8</v>
+      </c>
+      <c r="BE95">
+        <v>2.35</v>
+      </c>
+      <c r="BF95">
+        <v>6</v>
+      </c>
+      <c r="BG95">
+        <v>9</v>
+      </c>
+      <c r="BH95">
+        <v>5</v>
+      </c>
+      <c r="BI95">
+        <v>5</v>
+      </c>
+      <c r="BJ95">
+        <v>11</v>
+      </c>
+      <c r="BK95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2812320</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>65</v>
+      </c>
+      <c r="H96" t="s">
+        <v>66</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>149</v>
+      </c>
+      <c r="P96" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q96">
+        <v>6</v>
+      </c>
+      <c r="R96">
+        <v>15</v>
+      </c>
+      <c r="S96">
+        <v>21</v>
+      </c>
+      <c r="T96">
+        <v>2.2</v>
+      </c>
+      <c r="U96">
+        <v>2.3</v>
+      </c>
+      <c r="V96">
+        <v>5.5</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
+        <v>3</v>
+      </c>
+      <c r="Y96">
+        <v>2.63</v>
+      </c>
+      <c r="Z96">
+        <v>1.44</v>
+      </c>
+      <c r="AA96">
+        <v>7</v>
+      </c>
+      <c r="AB96">
+        <v>1.1</v>
+      </c>
+      <c r="AC96">
+        <v>1.54</v>
+      </c>
+      <c r="AD96">
+        <v>3.9</v>
+      </c>
+      <c r="AE96">
+        <v>5.2</v>
+      </c>
+      <c r="AF96">
+        <v>1.01</v>
+      </c>
+      <c r="AG96">
+        <v>11</v>
+      </c>
+      <c r="AH96">
+        <v>1.27</v>
+      </c>
+      <c r="AI96">
+        <v>3.9</v>
+      </c>
+      <c r="AJ96">
+        <v>1.81</v>
+      </c>
+      <c r="AK96">
+        <v>1.94</v>
+      </c>
+      <c r="AL96">
+        <v>1.83</v>
+      </c>
+      <c r="AM96">
+        <v>1.83</v>
+      </c>
+      <c r="AN96">
+        <v>1.1</v>
+      </c>
+      <c r="AO96">
+        <v>1.22</v>
+      </c>
+      <c r="AP96">
+        <v>2.3</v>
+      </c>
+      <c r="AQ96">
+        <v>2</v>
+      </c>
+      <c r="AR96">
+        <v>0.6</v>
+      </c>
+      <c r="AS96">
+        <v>2.2</v>
+      </c>
+      <c r="AT96">
+        <v>0.5</v>
+      </c>
+      <c r="AU96">
+        <v>1.79</v>
+      </c>
+      <c r="AV96">
+        <v>1.49</v>
+      </c>
+      <c r="AW96">
+        <v>3.28</v>
+      </c>
+      <c r="AX96">
+        <v>1.27</v>
+      </c>
+      <c r="AY96">
+        <v>7</v>
+      </c>
+      <c r="AZ96">
+        <v>4.35</v>
+      </c>
+      <c r="BA96">
+        <v>1.15</v>
+      </c>
+      <c r="BB96">
+        <v>1.28</v>
+      </c>
+      <c r="BC96">
+        <v>1.53</v>
+      </c>
+      <c r="BD96">
+        <v>1.9</v>
+      </c>
+      <c r="BE96">
+        <v>2.44</v>
+      </c>
+      <c r="BF96">
+        <v>10</v>
+      </c>
+      <c r="BG96">
+        <v>3</v>
+      </c>
+      <c r="BH96">
+        <v>5</v>
+      </c>
+      <c r="BI96">
+        <v>6</v>
+      </c>
+      <c r="BJ96">
+        <v>15</v>
+      </c>
+      <c r="BK96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>2812316</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44864.52083333334</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s">
+        <v>82</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>150</v>
+      </c>
+      <c r="P97" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q97">
+        <v>7</v>
+      </c>
+      <c r="R97">
+        <v>9</v>
+      </c>
+      <c r="S97">
+        <v>16</v>
+      </c>
+      <c r="T97">
+        <v>3.94</v>
+      </c>
+      <c r="U97">
+        <v>2.07</v>
+      </c>
+      <c r="V97">
+        <v>2.87</v>
+      </c>
+      <c r="W97">
+        <v>1.43</v>
+      </c>
+      <c r="X97">
+        <v>2.7</v>
+      </c>
+      <c r="Y97">
+        <v>3.04</v>
+      </c>
+      <c r="Z97">
+        <v>1.35</v>
+      </c>
+      <c r="AA97">
+        <v>7.9</v>
+      </c>
+      <c r="AB97">
+        <v>1.06</v>
+      </c>
+      <c r="AC97">
+        <v>2.96</v>
+      </c>
+      <c r="AD97">
+        <v>3.2</v>
+      </c>
+      <c r="AE97">
+        <v>2.22</v>
+      </c>
+      <c r="AF97">
+        <v>1.06</v>
+      </c>
+      <c r="AG97">
+        <v>8.25</v>
+      </c>
+      <c r="AH97">
+        <v>1.34</v>
+      </c>
+      <c r="AI97">
+        <v>3</v>
+      </c>
+      <c r="AJ97">
+        <v>2.02</v>
+      </c>
+      <c r="AK97">
+        <v>1.71</v>
+      </c>
+      <c r="AL97">
+        <v>1.84</v>
+      </c>
+      <c r="AM97">
+        <v>1.92</v>
+      </c>
+      <c r="AN97">
+        <v>1.6</v>
+      </c>
+      <c r="AO97">
+        <v>1.29</v>
+      </c>
+      <c r="AP97">
+        <v>1.31</v>
+      </c>
+      <c r="AQ97">
+        <v>0</v>
+      </c>
+      <c r="AR97">
+        <v>0.8</v>
+      </c>
+      <c r="AS97">
+        <v>0</v>
+      </c>
+      <c r="AT97">
+        <v>1.17</v>
+      </c>
+      <c r="AU97">
+        <v>1.34</v>
+      </c>
+      <c r="AV97">
+        <v>1.66</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>2.55</v>
+      </c>
+      <c r="AY97">
+        <v>6.25</v>
+      </c>
+      <c r="AZ97">
+        <v>1.62</v>
+      </c>
+      <c r="BA97">
+        <v>1.1</v>
+      </c>
+      <c r="BB97">
+        <v>1.19</v>
+      </c>
+      <c r="BC97">
+        <v>1.3</v>
+      </c>
+      <c r="BD97">
+        <v>1.52</v>
+      </c>
+      <c r="BE97">
+        <v>1.95</v>
+      </c>
+      <c r="BF97">
+        <v>7</v>
+      </c>
+      <c r="BG97">
+        <v>8</v>
+      </c>
+      <c r="BH97">
+        <v>4</v>
+      </c>
+      <c r="BI97">
+        <v>8</v>
+      </c>
+      <c r="BJ97">
+        <v>11</v>
+      </c>
+      <c r="BK97">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2812321</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44864.625</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>74</v>
+      </c>
+      <c r="H98" t="s">
+        <v>68</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>85</v>
+      </c>
+      <c r="P98" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q98">
+        <v>9</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>11</v>
+      </c>
+      <c r="T98">
+        <v>2.38</v>
+      </c>
+      <c r="U98">
+        <v>2.1</v>
+      </c>
+      <c r="V98">
+        <v>4.4</v>
+      </c>
+      <c r="W98">
+        <v>1.4</v>
+      </c>
+      <c r="X98">
+        <v>2.75</v>
+      </c>
+      <c r="Y98">
+        <v>2.75</v>
+      </c>
+      <c r="Z98">
+        <v>1.4</v>
+      </c>
+      <c r="AA98">
+        <v>7</v>
+      </c>
+      <c r="AB98">
+        <v>1.08</v>
+      </c>
+      <c r="AC98">
+        <v>1.72</v>
+      </c>
+      <c r="AD98">
+        <v>3.6</v>
+      </c>
+      <c r="AE98">
+        <v>4.1</v>
+      </c>
+      <c r="AF98">
+        <v>1.06</v>
+      </c>
+      <c r="AG98">
+        <v>8</v>
+      </c>
+      <c r="AH98">
+        <v>1.33</v>
+      </c>
+      <c r="AI98">
+        <v>3.25</v>
+      </c>
+      <c r="AJ98">
+        <v>1.92</v>
+      </c>
+      <c r="AK98">
+        <v>1.9</v>
+      </c>
+      <c r="AL98">
+        <v>1.85</v>
+      </c>
+      <c r="AM98">
+        <v>1.85</v>
+      </c>
+      <c r="AN98">
+        <v>1.2</v>
+      </c>
+      <c r="AO98">
+        <v>1.29</v>
+      </c>
+      <c r="AP98">
+        <v>1.95</v>
+      </c>
+      <c r="AQ98">
+        <v>1.2</v>
+      </c>
+      <c r="AR98">
+        <v>1</v>
+      </c>
+      <c r="AS98">
+        <v>1.17</v>
+      </c>
+      <c r="AT98">
+        <v>1</v>
+      </c>
+      <c r="AU98">
+        <v>1.97</v>
+      </c>
+      <c r="AV98">
+        <v>1.43</v>
+      </c>
+      <c r="AW98">
+        <v>3.4</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>1.18</v>
+      </c>
+      <c r="BB98">
+        <v>1.34</v>
+      </c>
+      <c r="BC98">
+        <v>1.61</v>
+      </c>
+      <c r="BD98">
+        <v>2.02</v>
+      </c>
+      <c r="BE98">
+        <v>2.7</v>
+      </c>
+      <c r="BF98">
+        <v>6</v>
+      </c>
+      <c r="BG98">
+        <v>2</v>
+      </c>
+      <c r="BH98">
+        <v>7</v>
+      </c>
+      <c r="BI98">
+        <v>3</v>
+      </c>
+      <c r="BJ98">
+        <v>13</v>
+      </c>
+      <c r="BK98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>2812317</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44865.625</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>79</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>110</v>
+      </c>
+      <c r="P99" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q99">
+        <v>6</v>
+      </c>
+      <c r="R99">
+        <v>3</v>
+      </c>
+      <c r="S99">
+        <v>9</v>
+      </c>
+      <c r="T99">
+        <v>3.25</v>
+      </c>
+      <c r="U99">
+        <v>2.05</v>
+      </c>
+      <c r="V99">
+        <v>3.5</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>2.63</v>
+      </c>
+      <c r="Y99">
+        <v>3.25</v>
+      </c>
+      <c r="Z99">
+        <v>1.33</v>
+      </c>
+      <c r="AA99">
+        <v>10</v>
+      </c>
+      <c r="AB99">
+        <v>1.06</v>
+      </c>
+      <c r="AC99">
+        <v>2.48</v>
+      </c>
+      <c r="AD99">
+        <v>3.15</v>
+      </c>
+      <c r="AE99">
+        <v>2.64</v>
+      </c>
+      <c r="AF99">
+        <v>1.08</v>
+      </c>
+      <c r="AG99">
+        <v>7</v>
+      </c>
+      <c r="AH99">
+        <v>1.36</v>
+      </c>
+      <c r="AI99">
+        <v>2.95</v>
+      </c>
+      <c r="AJ99">
+        <v>2.07</v>
+      </c>
+      <c r="AK99">
+        <v>1.72</v>
+      </c>
+      <c r="AL99">
+        <v>1.83</v>
+      </c>
+      <c r="AM99">
+        <v>1.83</v>
+      </c>
+      <c r="AN99">
+        <v>1.44</v>
+      </c>
+      <c r="AO99">
+        <v>1.35</v>
+      </c>
+      <c r="AP99">
+        <v>1.44</v>
+      </c>
+      <c r="AQ99">
+        <v>1.8</v>
+      </c>
+      <c r="AR99">
+        <v>1.4</v>
+      </c>
+      <c r="AS99">
+        <v>1.67</v>
+      </c>
+      <c r="AT99">
+        <v>1.33</v>
+      </c>
+      <c r="AU99">
+        <v>1.55</v>
+      </c>
+      <c r="AV99">
+        <v>1.48</v>
+      </c>
+      <c r="AW99">
+        <v>3.03</v>
+      </c>
+      <c r="AX99">
+        <v>1.8</v>
+      </c>
+      <c r="AY99">
+        <v>5.75</v>
+      </c>
+      <c r="AZ99">
+        <v>2.25</v>
+      </c>
+      <c r="BA99">
+        <v>1.2</v>
+      </c>
+      <c r="BB99">
+        <v>1.35</v>
+      </c>
+      <c r="BC99">
+        <v>1.65</v>
+      </c>
+      <c r="BD99">
+        <v>2.09</v>
+      </c>
+      <c r="BE99">
+        <v>2.76</v>
+      </c>
+      <c r="BF99">
+        <v>3</v>
+      </c>
+      <c r="BG99">
+        <v>4</v>
+      </c>
+      <c r="BH99">
+        <v>6</v>
+      </c>
+      <c r="BI99">
+        <v>7</v>
+      </c>
+      <c r="BJ99">
+        <v>9</v>
+      </c>
+      <c r="BK99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2812324</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44869.625</v>
+      </c>
+      <c r="F100">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100" t="s">
+        <v>151</v>
+      </c>
+      <c r="P100" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q100">
+        <v>4</v>
+      </c>
+      <c r="R100">
+        <v>5</v>
+      </c>
+      <c r="S100">
+        <v>9</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>2.1</v>
+      </c>
+      <c r="V100">
+        <v>4.8</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>2.62</v>
+      </c>
+      <c r="Y100">
+        <v>3</v>
+      </c>
+      <c r="Z100">
+        <v>1.36</v>
+      </c>
+      <c r="AA100">
+        <v>7.5</v>
+      </c>
+      <c r="AB100">
+        <v>1.07</v>
+      </c>
+      <c r="AC100">
+        <v>1.6</v>
+      </c>
+      <c r="AD100">
+        <v>3.5</v>
+      </c>
+      <c r="AE100">
+        <v>4.75</v>
+      </c>
+      <c r="AF100">
+        <v>1.07</v>
+      </c>
+      <c r="AG100">
+        <v>7.5</v>
+      </c>
+      <c r="AH100">
+        <v>1.36</v>
+      </c>
+      <c r="AI100">
+        <v>3</v>
+      </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
+      <c r="AK100">
+        <v>1.7</v>
+      </c>
+      <c r="AL100">
+        <v>2</v>
+      </c>
+      <c r="AM100">
+        <v>1.73</v>
+      </c>
+      <c r="AN100">
+        <v>1.12</v>
+      </c>
+      <c r="AO100">
+        <v>1.29</v>
+      </c>
+      <c r="AP100">
+        <v>2.2</v>
+      </c>
+      <c r="AQ100">
+        <v>1</v>
+      </c>
+      <c r="AR100">
+        <v>1</v>
+      </c>
+      <c r="AS100">
+        <v>1.33</v>
+      </c>
+      <c r="AT100">
+        <v>0.83</v>
+      </c>
+      <c r="AU100">
+        <v>1.82</v>
+      </c>
+      <c r="AV100">
+        <v>1.35</v>
+      </c>
+      <c r="AW100">
+        <v>3.17</v>
+      </c>
+      <c r="AX100">
+        <v>1.29</v>
+      </c>
+      <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
+        <v>4.28</v>
+      </c>
+      <c r="BA100">
+        <v>1.13</v>
+      </c>
+      <c r="BB100">
+        <v>1.29</v>
+      </c>
+      <c r="BC100">
+        <v>1.5</v>
+      </c>
+      <c r="BD100">
+        <v>1.85</v>
+      </c>
+      <c r="BE100">
+        <v>2.43</v>
+      </c>
+      <c r="BF100">
+        <v>7</v>
+      </c>
+      <c r="BG100">
+        <v>4</v>
+      </c>
+      <c r="BH100">
+        <v>9</v>
+      </c>
+      <c r="BI100">
+        <v>0</v>
+      </c>
+      <c r="BJ100">
+        <v>16</v>
+      </c>
+      <c r="BK100">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,33 @@
     <t>['15', '48', '83']</t>
   </si>
   <si>
+    <t>['27', '70', '76']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['7', '39', '53', '85']</t>
+  </si>
+  <si>
+    <t>['45+2', '71', '75']</t>
+  </si>
+  <si>
+    <t>['38', '47', '87']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -479,9 +506,6 @@
   </si>
   <si>
     <t>['35', '88']</t>
-  </si>
-  <si>
-    <t>['60']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -577,13 +601,7 @@
     <t>['9', '82', '90+3']</t>
   </si>
   <si>
-    <t>['6']</t>
-  </si>
-  <si>
     <t>['64']</t>
-  </si>
-  <si>
-    <t>['32']</t>
   </si>
   <si>
     <t>['22']</t>
@@ -665,6 +683,30 @@
   </si>
   <si>
     <t>['20', '34']</t>
+  </si>
+  <si>
+    <t>['19', '83']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['50', '90+5']</t>
+  </si>
+  <si>
+    <t>['22', '62', '79']</t>
+  </si>
+  <si>
+    <t>['65', '82']</t>
+  </si>
+  <si>
+    <t>['63', '89']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1312,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1357,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AT2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1461,7 +1503,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1548,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
         <v>1.17</v>
@@ -1739,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT4">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1843,7 +1885,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -1930,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT5">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2034,7 +2076,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2121,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT6">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2312,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2506,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2607,7 +2649,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -2885,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2989,7 +3031,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3076,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3180,7 +3222,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3267,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AT12">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3371,7 +3413,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3458,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3649,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3753,7 +3795,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3840,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT15">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3944,7 +3986,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4031,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4135,7 +4177,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4222,10 +4264,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT17">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4413,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4604,10 +4646,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4708,7 +4750,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4795,10 +4837,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT20">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU20">
         <v>1.67</v>
@@ -4899,7 +4941,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -4986,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT21">
         <v>0.83</v>
@@ -5090,7 +5132,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5177,10 +5219,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AT22">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU22">
         <v>1.77</v>
@@ -5371,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="AT23">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>1.21</v>
@@ -5472,7 +5514,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5559,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT24">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU24">
         <v>2.46</v>
@@ -5663,7 +5705,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>10</v>
@@ -5750,10 +5792,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT25">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU25">
         <v>1.59</v>
@@ -5854,7 +5896,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5941,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT26">
         <v>1.17</v>
@@ -6135,7 +6177,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU27">
         <v>2.41</v>
@@ -6236,7 +6278,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6323,10 +6365,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU28">
         <v>2.35</v>
@@ -6514,10 +6556,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT29">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU29">
         <v>1.76</v>
@@ -6618,7 +6660,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -6705,10 +6747,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT30">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU30">
         <v>0.91</v>
@@ -6809,7 +6851,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6896,10 +6938,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT31">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <v>1.24</v>
@@ -7000,7 +7042,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7087,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU32">
         <v>1.18</v>
@@ -7278,10 +7320,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>1.41</v>
@@ -7469,10 +7511,10 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT34">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU34">
         <v>1.65</v>
@@ -7660,10 +7702,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT35">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="AU35">
         <v>1.56</v>
@@ -7764,7 +7806,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7851,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU36">
         <v>2.17</v>
@@ -7955,7 +7997,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8042,10 +8084,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8146,7 +8188,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8233,10 +8275,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT38">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU38">
         <v>1.88</v>
@@ -8337,7 +8379,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8424,10 +8466,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.6</v>
@@ -8528,7 +8570,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8618,7 +8660,7 @@
         <v>3</v>
       </c>
       <c r="AT40">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU40">
         <v>1.35</v>
@@ -8719,7 +8761,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8809,7 +8851,7 @@
         <v>1.33</v>
       </c>
       <c r="AT41">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU41">
         <v>2.12</v>
@@ -8997,10 +9039,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU42">
         <v>2.15</v>
@@ -9188,7 +9230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT43">
         <v>1.17</v>
@@ -9292,7 +9334,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9379,10 +9421,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT44">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU44">
         <v>1.91</v>
@@ -9483,7 +9525,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9570,7 +9612,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AT45">
         <v>0.83</v>
@@ -9674,7 +9716,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9761,10 +9803,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT46">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>2.43</v>
@@ -9952,10 +9994,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT47">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10056,7 +10098,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10143,10 +10185,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU48">
         <v>1.24</v>
@@ -10334,10 +10376,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT49">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="AU49">
         <v>1.59</v>
@@ -10438,7 +10480,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10525,10 +10567,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AT50">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.13</v>
@@ -10629,7 +10671,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10716,10 +10758,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT51">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU51">
         <v>1.56</v>
@@ -10820,7 +10862,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -10907,10 +10949,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT52">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU52">
         <v>1.63</v>
@@ -11011,7 +11053,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11098,10 +11140,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT53">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU53">
         <v>1.55</v>
@@ -11202,7 +11244,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11289,10 +11331,10 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT54">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -11393,7 +11435,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11480,10 +11522,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT55">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU55">
         <v>1.7</v>
@@ -11584,7 +11626,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11671,10 +11713,10 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT56">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU56">
         <v>2.04</v>
@@ -11862,7 +11904,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT57">
         <v>1.17</v>
@@ -11966,7 +12008,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12053,10 +12095,10 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT58">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU58">
         <v>1.97</v>
@@ -12247,7 +12289,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU59">
         <v>1.88</v>
@@ -12435,7 +12477,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT60">
         <v>0.83</v>
@@ -12539,7 +12581,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12626,10 +12668,10 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AT61">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU61">
         <v>1.71</v>
@@ -12730,7 +12772,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -12817,10 +12859,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU62">
         <v>1.84</v>
@@ -12921,7 +12963,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13008,10 +13050,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT63">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU63">
         <v>1.48</v>
@@ -13112,7 +13154,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13199,10 +13241,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT64">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU64">
         <v>1.87</v>
@@ -13303,7 +13345,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13390,10 +13432,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT65">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU65">
         <v>1.6</v>
@@ -13581,10 +13623,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT66">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="AU66">
         <v>1.4</v>
@@ -13685,7 +13727,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -13772,10 +13814,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU67">
         <v>1.81</v>
@@ -13876,7 +13918,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -13963,10 +14005,10 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT68">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU68">
         <v>1.64</v>
@@ -14154,10 +14196,10 @@
         <v>1.67</v>
       </c>
       <c r="AS69">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT69">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU69">
         <v>1.34</v>
@@ -14258,7 +14300,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14345,10 +14387,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AT70">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU70">
         <v>1.32</v>
@@ -14449,7 +14491,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14539,7 +14581,7 @@
         <v>3</v>
       </c>
       <c r="AT71">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU71">
         <v>1.38</v>
@@ -14640,7 +14682,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14727,10 +14769,10 @@
         <v>2.33</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT72">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU72">
         <v>1.85</v>
@@ -14831,7 +14873,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -14918,10 +14960,10 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT73">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU73">
         <v>1.77</v>
@@ -15109,7 +15151,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT74">
         <v>0.83</v>
@@ -15213,7 +15255,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15300,10 +15342,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT75">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU75">
         <v>1.38</v>
@@ -15404,7 +15446,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15491,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT76">
         <v>1.17</v>
@@ -15595,7 +15637,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -15682,10 +15724,10 @@
         <v>2.5</v>
       </c>
       <c r="AS77">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT77">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU77">
         <v>1.94</v>
@@ -15876,7 +15918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU78">
         <v>1.89</v>
@@ -15977,7 +16019,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16064,10 +16106,10 @@
         <v>0.75</v>
       </c>
       <c r="AS79">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT79">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU79">
         <v>1.99</v>
@@ -16255,10 +16297,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU80">
         <v>1.93</v>
@@ -16359,7 +16401,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16446,10 +16488,10 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU81">
         <v>1.93</v>
@@ -16550,7 +16592,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16637,10 +16679,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AT82">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.24</v>
@@ -16741,7 +16783,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -16828,10 +16870,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT83">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU83">
         <v>1.69</v>
@@ -16932,7 +16974,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17019,10 +17061,10 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT84">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="AU84">
         <v>1.64</v>
@@ -17210,10 +17252,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU85">
         <v>1.84</v>
@@ -17314,7 +17356,7 @@
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17401,10 +17443,10 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT86">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU86">
         <v>2</v>
@@ -17505,7 +17547,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17595,7 +17637,7 @@
         <v>3</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -17696,7 +17738,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -17783,10 +17825,10 @@
         <v>1.25</v>
       </c>
       <c r="AS88">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT88">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU88">
         <v>1.7</v>
@@ -17887,7 +17929,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -17974,10 +18016,10 @@
         <v>1.25</v>
       </c>
       <c r="AS89">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT89">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU89">
         <v>1.51</v>
@@ -18078,7 +18120,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18165,10 +18207,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT90">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU90">
         <v>1.34</v>
@@ -18356,7 +18398,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT91">
         <v>1.17</v>
@@ -18550,7 +18592,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU92">
         <v>1.81</v>
@@ -18738,10 +18780,10 @@
         <v>1.6</v>
       </c>
       <c r="AS93">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT93">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU93">
         <v>1.77</v>
@@ -18842,7 +18884,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -18929,10 +18971,10 @@
         <v>2.6</v>
       </c>
       <c r="AS94">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT94">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU94">
         <v>1.96</v>
@@ -19033,7 +19075,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19120,10 +19162,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT95">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU95">
         <v>1.81</v>
@@ -19311,10 +19353,10 @@
         <v>0.6</v>
       </c>
       <c r="AS96">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AT96">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU96">
         <v>1.79</v>
@@ -19415,7 +19457,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19502,10 +19544,10 @@
         <v>0.8</v>
       </c>
       <c r="AS97">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AT97">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU97">
         <v>1.34</v>
@@ -19693,10 +19735,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU98">
         <v>1.97</v>
@@ -19797,7 +19839,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19884,10 +19926,10 @@
         <v>1.4</v>
       </c>
       <c r="AS99">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT99">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU99">
         <v>1.55</v>
@@ -19988,7 +20030,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20075,7 +20117,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT100">
         <v>0.83</v>
@@ -20130,6 +20172,3444 @@
       </c>
       <c r="BK100">
         <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2812330</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44870.33333333334</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>152</v>
+      </c>
+      <c r="P101" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+      <c r="S101">
+        <v>8</v>
+      </c>
+      <c r="T101">
+        <v>2.43</v>
+      </c>
+      <c r="U101">
+        <v>2.25</v>
+      </c>
+      <c r="V101">
+        <v>4.2</v>
+      </c>
+      <c r="W101">
+        <v>1.3</v>
+      </c>
+      <c r="X101">
+        <v>3.2</v>
+      </c>
+      <c r="Y101">
+        <v>2.65</v>
+      </c>
+      <c r="Z101">
+        <v>1.41</v>
+      </c>
+      <c r="AA101">
+        <v>6.45</v>
+      </c>
+      <c r="AB101">
+        <v>1.09</v>
+      </c>
+      <c r="AC101">
+        <v>1.77</v>
+      </c>
+      <c r="AD101">
+        <v>3.45</v>
+      </c>
+      <c r="AE101">
+        <v>3.9</v>
+      </c>
+      <c r="AF101">
+        <v>1.04</v>
+      </c>
+      <c r="AG101">
+        <v>12.5</v>
+      </c>
+      <c r="AH101">
+        <v>1.23</v>
+      </c>
+      <c r="AI101">
+        <v>4</v>
+      </c>
+      <c r="AJ101">
+        <v>1.83</v>
+      </c>
+      <c r="AK101">
+        <v>2.03</v>
+      </c>
+      <c r="AL101">
+        <v>1.68</v>
+      </c>
+      <c r="AM101">
+        <v>2.08</v>
+      </c>
+      <c r="AN101">
+        <v>1.22</v>
+      </c>
+      <c r="AO101">
+        <v>1.25</v>
+      </c>
+      <c r="AP101">
+        <v>1.88</v>
+      </c>
+      <c r="AQ101">
+        <v>3</v>
+      </c>
+      <c r="AR101">
+        <v>2.2</v>
+      </c>
+      <c r="AS101">
+        <v>3</v>
+      </c>
+      <c r="AT101">
+        <v>1.57</v>
+      </c>
+      <c r="AU101">
+        <v>1.54</v>
+      </c>
+      <c r="AV101">
+        <v>1.73</v>
+      </c>
+      <c r="AW101">
+        <v>3.27</v>
+      </c>
+      <c r="AX101">
+        <v>1.55</v>
+      </c>
+      <c r="AY101">
+        <v>8.5</v>
+      </c>
+      <c r="AZ101">
+        <v>2.97</v>
+      </c>
+      <c r="BA101">
+        <v>1.18</v>
+      </c>
+      <c r="BB101">
+        <v>1.34</v>
+      </c>
+      <c r="BC101">
+        <v>1.61</v>
+      </c>
+      <c r="BD101">
+        <v>2.02</v>
+      </c>
+      <c r="BE101">
+        <v>2.7</v>
+      </c>
+      <c r="BF101">
+        <v>9</v>
+      </c>
+      <c r="BG101">
+        <v>5</v>
+      </c>
+      <c r="BH101">
+        <v>6</v>
+      </c>
+      <c r="BI101">
+        <v>5</v>
+      </c>
+      <c r="BJ101">
+        <v>15</v>
+      </c>
+      <c r="BK101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2812325</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s">
+        <v>74</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>153</v>
+      </c>
+      <c r="P102" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>6</v>
+      </c>
+      <c r="S102">
+        <v>9</v>
+      </c>
+      <c r="T102">
+        <v>3.01</v>
+      </c>
+      <c r="U102">
+        <v>2.09</v>
+      </c>
+      <c r="V102">
+        <v>3.62</v>
+      </c>
+      <c r="W102">
+        <v>1.42</v>
+      </c>
+      <c r="X102">
+        <v>2.73</v>
+      </c>
+      <c r="Y102">
+        <v>2.94</v>
+      </c>
+      <c r="Z102">
+        <v>1.37</v>
+      </c>
+      <c r="AA102">
+        <v>7.6</v>
+      </c>
+      <c r="AB102">
+        <v>1.06</v>
+      </c>
+      <c r="AC102">
+        <v>2.38</v>
+      </c>
+      <c r="AD102">
+        <v>3.2</v>
+      </c>
+      <c r="AE102">
+        <v>2.65</v>
+      </c>
+      <c r="AF102">
+        <v>1.03</v>
+      </c>
+      <c r="AG102">
+        <v>8.4</v>
+      </c>
+      <c r="AH102">
+        <v>1.33</v>
+      </c>
+      <c r="AI102">
+        <v>3.1</v>
+      </c>
+      <c r="AJ102">
+        <v>1.93</v>
+      </c>
+      <c r="AK102">
+        <v>1.93</v>
+      </c>
+      <c r="AL102">
+        <v>1.8</v>
+      </c>
+      <c r="AM102">
+        <v>1.96</v>
+      </c>
+      <c r="AN102">
+        <v>1.31</v>
+      </c>
+      <c r="AO102">
+        <v>1.29</v>
+      </c>
+      <c r="AP102">
+        <v>1.47</v>
+      </c>
+      <c r="AQ102">
+        <v>1.8</v>
+      </c>
+      <c r="AR102">
+        <v>1.8</v>
+      </c>
+      <c r="AS102">
+        <v>1.67</v>
+      </c>
+      <c r="AT102">
+        <v>1.67</v>
+      </c>
+      <c r="AU102">
+        <v>1.59</v>
+      </c>
+      <c r="AV102">
+        <v>1.24</v>
+      </c>
+      <c r="AW102">
+        <v>2.83</v>
+      </c>
+      <c r="AX102">
+        <v>1.62</v>
+      </c>
+      <c r="AY102">
+        <v>8</v>
+      </c>
+      <c r="AZ102">
+        <v>2.82</v>
+      </c>
+      <c r="BA102">
+        <v>1.2</v>
+      </c>
+      <c r="BB102">
+        <v>1.38</v>
+      </c>
+      <c r="BC102">
+        <v>1.67</v>
+      </c>
+      <c r="BD102">
+        <v>2.12</v>
+      </c>
+      <c r="BE102">
+        <v>2.85</v>
+      </c>
+      <c r="BF102">
+        <v>4</v>
+      </c>
+      <c r="BG102">
+        <v>3</v>
+      </c>
+      <c r="BH102">
+        <v>7</v>
+      </c>
+      <c r="BI102">
+        <v>5</v>
+      </c>
+      <c r="BJ102">
+        <v>11</v>
+      </c>
+      <c r="BK102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2812329</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>82</v>
+      </c>
+      <c r="H103" t="s">
+        <v>76</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>154</v>
+      </c>
+      <c r="P103" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103">
+        <v>6</v>
+      </c>
+      <c r="S103">
+        <v>10</v>
+      </c>
+      <c r="T103">
+        <v>2.65</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103">
+        <v>4.1</v>
+      </c>
+      <c r="W103">
+        <v>1.46</v>
+      </c>
+      <c r="X103">
+        <v>2.5</v>
+      </c>
+      <c r="Y103">
+        <v>3.1</v>
+      </c>
+      <c r="Z103">
+        <v>1.32</v>
+      </c>
+      <c r="AA103">
+        <v>8.5</v>
+      </c>
+      <c r="AB103">
+        <v>1.06</v>
+      </c>
+      <c r="AC103">
+        <v>2.03</v>
+      </c>
+      <c r="AD103">
+        <v>3.1</v>
+      </c>
+      <c r="AE103">
+        <v>3.45</v>
+      </c>
+      <c r="AF103">
+        <v>1.07</v>
+      </c>
+      <c r="AG103">
+        <v>7.75</v>
+      </c>
+      <c r="AH103">
+        <v>1.36</v>
+      </c>
+      <c r="AI103">
+        <v>2.95</v>
+      </c>
+      <c r="AJ103">
+        <v>2.1</v>
+      </c>
+      <c r="AK103">
+        <v>1.65</v>
+      </c>
+      <c r="AL103">
+        <v>1.93</v>
+      </c>
+      <c r="AM103">
+        <v>1.77</v>
+      </c>
+      <c r="AN103">
+        <v>1.24</v>
+      </c>
+      <c r="AO103">
+        <v>1.26</v>
+      </c>
+      <c r="AP103">
+        <v>1.61</v>
+      </c>
+      <c r="AQ103">
+        <v>1.6</v>
+      </c>
+      <c r="AR103">
+        <v>1.2</v>
+      </c>
+      <c r="AS103">
+        <v>1.83</v>
+      </c>
+      <c r="AT103">
+        <v>1</v>
+      </c>
+      <c r="AU103">
+        <v>1.43</v>
+      </c>
+      <c r="AV103">
+        <v>1.44</v>
+      </c>
+      <c r="AW103">
+        <v>2.87</v>
+      </c>
+      <c r="AX103">
+        <v>1.41</v>
+      </c>
+      <c r="AY103">
+        <v>9.5</v>
+      </c>
+      <c r="AZ103">
+        <v>3.42</v>
+      </c>
+      <c r="BA103">
+        <v>0</v>
+      </c>
+      <c r="BB103">
+        <v>1.22</v>
+      </c>
+      <c r="BC103">
+        <v>1.4</v>
+      </c>
+      <c r="BD103">
+        <v>1.68</v>
+      </c>
+      <c r="BE103">
+        <v>2.12</v>
+      </c>
+      <c r="BF103">
+        <v>5</v>
+      </c>
+      <c r="BG103">
+        <v>3</v>
+      </c>
+      <c r="BH103">
+        <v>2</v>
+      </c>
+      <c r="BI103">
+        <v>6</v>
+      </c>
+      <c r="BJ103">
+        <v>7</v>
+      </c>
+      <c r="BK103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2812323</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44870.52083333334</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104" t="s">
+        <v>65</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>85</v>
+      </c>
+      <c r="P104" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q104">
+        <v>8</v>
+      </c>
+      <c r="R104">
+        <v>4</v>
+      </c>
+      <c r="S104">
+        <v>12</v>
+      </c>
+      <c r="T104">
+        <v>3.36</v>
+      </c>
+      <c r="U104">
+        <v>2.05</v>
+      </c>
+      <c r="V104">
+        <v>3.24</v>
+      </c>
+      <c r="W104">
+        <v>1.45</v>
+      </c>
+      <c r="X104">
+        <v>2.65</v>
+      </c>
+      <c r="Y104">
+        <v>3.1</v>
+      </c>
+      <c r="Z104">
+        <v>1.34</v>
+      </c>
+      <c r="AA104">
+        <v>8.1</v>
+      </c>
+      <c r="AB104">
+        <v>1.06</v>
+      </c>
+      <c r="AC104">
+        <v>2.65</v>
+      </c>
+      <c r="AD104">
+        <v>3.2</v>
+      </c>
+      <c r="AE104">
+        <v>2.38</v>
+      </c>
+      <c r="AF104">
+        <v>1.03</v>
+      </c>
+      <c r="AG104">
+        <v>8</v>
+      </c>
+      <c r="AH104">
+        <v>1.36</v>
+      </c>
+      <c r="AI104">
+        <v>2.95</v>
+      </c>
+      <c r="AJ104">
+        <v>2</v>
+      </c>
+      <c r="AK104">
+        <v>1.7</v>
+      </c>
+      <c r="AL104">
+        <v>1.85</v>
+      </c>
+      <c r="AM104">
+        <v>1.91</v>
+      </c>
+      <c r="AN104">
+        <v>1.44</v>
+      </c>
+      <c r="AO104">
+        <v>1.3</v>
+      </c>
+      <c r="AP104">
+        <v>1.43</v>
+      </c>
+      <c r="AQ104">
+        <v>1.2</v>
+      </c>
+      <c r="AR104">
+        <v>2</v>
+      </c>
+      <c r="AS104">
+        <v>1</v>
+      </c>
+      <c r="AT104">
+        <v>2.17</v>
+      </c>
+      <c r="AU104">
+        <v>1.94</v>
+      </c>
+      <c r="AV104">
+        <v>1.81</v>
+      </c>
+      <c r="AW104">
+        <v>3.75</v>
+      </c>
+      <c r="AX104">
+        <v>1.83</v>
+      </c>
+      <c r="AY104">
+        <v>5.5</v>
+      </c>
+      <c r="AZ104">
+        <v>2.2</v>
+      </c>
+      <c r="BA104">
+        <v>1.18</v>
+      </c>
+      <c r="BB104">
+        <v>1.3</v>
+      </c>
+      <c r="BC104">
+        <v>1.63</v>
+      </c>
+      <c r="BD104">
+        <v>1.93</v>
+      </c>
+      <c r="BE104">
+        <v>2.45</v>
+      </c>
+      <c r="BF104">
+        <v>3</v>
+      </c>
+      <c r="BG104">
+        <v>4</v>
+      </c>
+      <c r="BH104">
+        <v>8</v>
+      </c>
+      <c r="BI104">
+        <v>2</v>
+      </c>
+      <c r="BJ104">
+        <v>11</v>
+      </c>
+      <c r="BK104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2812326</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44870.625</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>66</v>
+      </c>
+      <c r="H105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>92</v>
+      </c>
+      <c r="P105" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q105">
+        <v>11</v>
+      </c>
+      <c r="R105">
+        <v>7</v>
+      </c>
+      <c r="S105">
+        <v>18</v>
+      </c>
+      <c r="T105">
+        <v>3.6</v>
+      </c>
+      <c r="U105">
+        <v>2.2</v>
+      </c>
+      <c r="V105">
+        <v>3</v>
+      </c>
+      <c r="W105">
+        <v>1.4</v>
+      </c>
+      <c r="X105">
+        <v>2.75</v>
+      </c>
+      <c r="Y105">
+        <v>2.75</v>
+      </c>
+      <c r="Z105">
+        <v>1.4</v>
+      </c>
+      <c r="AA105">
+        <v>8</v>
+      </c>
+      <c r="AB105">
+        <v>1.08</v>
+      </c>
+      <c r="AC105">
+        <v>2.41</v>
+      </c>
+      <c r="AD105">
+        <v>3.4</v>
+      </c>
+      <c r="AE105">
+        <v>2.65</v>
+      </c>
+      <c r="AF105">
+        <v>1.04</v>
+      </c>
+      <c r="AG105">
+        <v>11</v>
+      </c>
+      <c r="AH105">
+        <v>1.3</v>
+      </c>
+      <c r="AI105">
+        <v>3.3</v>
+      </c>
+      <c r="AJ105">
+        <v>1.86</v>
+      </c>
+      <c r="AK105">
+        <v>1.94</v>
+      </c>
+      <c r="AL105">
+        <v>1.73</v>
+      </c>
+      <c r="AM105">
+        <v>2</v>
+      </c>
+      <c r="AN105">
+        <v>1.55</v>
+      </c>
+      <c r="AO105">
+        <v>1.31</v>
+      </c>
+      <c r="AP105">
+        <v>1.4</v>
+      </c>
+      <c r="AQ105">
+        <v>1.4</v>
+      </c>
+      <c r="AR105">
+        <v>1.6</v>
+      </c>
+      <c r="AS105">
+        <v>1.33</v>
+      </c>
+      <c r="AT105">
+        <v>1.5</v>
+      </c>
+      <c r="AU105">
+        <v>1.89</v>
+      </c>
+      <c r="AV105">
+        <v>1.71</v>
+      </c>
+      <c r="AW105">
+        <v>3.6</v>
+      </c>
+      <c r="AX105">
+        <v>1.95</v>
+      </c>
+      <c r="AY105">
+        <v>5.5</v>
+      </c>
+      <c r="AZ105">
+        <v>2.05</v>
+      </c>
+      <c r="BA105">
+        <v>1.19</v>
+      </c>
+      <c r="BB105">
+        <v>1.31</v>
+      </c>
+      <c r="BC105">
+        <v>1.58</v>
+      </c>
+      <c r="BD105">
+        <v>2</v>
+      </c>
+      <c r="BE105">
+        <v>2.58</v>
+      </c>
+      <c r="BF105">
+        <v>6</v>
+      </c>
+      <c r="BG105">
+        <v>8</v>
+      </c>
+      <c r="BH105">
+        <v>9</v>
+      </c>
+      <c r="BI105">
+        <v>8</v>
+      </c>
+      <c r="BJ105">
+        <v>15</v>
+      </c>
+      <c r="BK105">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2812328</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44871.33333333334</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>67</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>155</v>
+      </c>
+      <c r="P106" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q106">
+        <v>9</v>
+      </c>
+      <c r="R106">
+        <v>3</v>
+      </c>
+      <c r="S106">
+        <v>12</v>
+      </c>
+      <c r="T106">
+        <v>2.6</v>
+      </c>
+      <c r="U106">
+        <v>2.05</v>
+      </c>
+      <c r="V106">
+        <v>3.9</v>
+      </c>
+      <c r="W106">
+        <v>1.39</v>
+      </c>
+      <c r="X106">
+        <v>2.75</v>
+      </c>
+      <c r="Y106">
+        <v>2.7</v>
+      </c>
+      <c r="Z106">
+        <v>1.4</v>
+      </c>
+      <c r="AA106">
+        <v>7</v>
+      </c>
+      <c r="AB106">
+        <v>1.09</v>
+      </c>
+      <c r="AC106">
+        <v>2.24</v>
+      </c>
+      <c r="AD106">
+        <v>3.27</v>
+      </c>
+      <c r="AE106">
+        <v>2.75</v>
+      </c>
+      <c r="AF106">
+        <v>1.06</v>
+      </c>
+      <c r="AG106">
+        <v>8</v>
+      </c>
+      <c r="AH106">
+        <v>1.3</v>
+      </c>
+      <c r="AI106">
+        <v>3.3</v>
+      </c>
+      <c r="AJ106">
+        <v>1.9</v>
+      </c>
+      <c r="AK106">
+        <v>1.8</v>
+      </c>
+      <c r="AL106">
+        <v>1.72</v>
+      </c>
+      <c r="AM106">
+        <v>1.98</v>
+      </c>
+      <c r="AN106">
+        <v>1.28</v>
+      </c>
+      <c r="AO106">
+        <v>1.31</v>
+      </c>
+      <c r="AP106">
+        <v>1.73</v>
+      </c>
+      <c r="AQ106">
+        <v>1.2</v>
+      </c>
+      <c r="AR106">
+        <v>1.4</v>
+      </c>
+      <c r="AS106">
+        <v>1.17</v>
+      </c>
+      <c r="AT106">
+        <v>1.33</v>
+      </c>
+      <c r="AU106">
+        <v>2.03</v>
+      </c>
+      <c r="AV106">
+        <v>1.32</v>
+      </c>
+      <c r="AW106">
+        <v>3.35</v>
+      </c>
+      <c r="AX106">
+        <v>1.36</v>
+      </c>
+      <c r="AY106">
+        <v>9</v>
+      </c>
+      <c r="AZ106">
+        <v>4.05</v>
+      </c>
+      <c r="BA106">
+        <v>1.14</v>
+      </c>
+      <c r="BB106">
+        <v>1.22</v>
+      </c>
+      <c r="BC106">
+        <v>1.4</v>
+      </c>
+      <c r="BD106">
+        <v>1.68</v>
+      </c>
+      <c r="BE106">
+        <v>2.12</v>
+      </c>
+      <c r="BF106">
+        <v>6</v>
+      </c>
+      <c r="BG106">
+        <v>4</v>
+      </c>
+      <c r="BH106">
+        <v>15</v>
+      </c>
+      <c r="BI106">
+        <v>6</v>
+      </c>
+      <c r="BJ106">
+        <v>21</v>
+      </c>
+      <c r="BK106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2812327</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44871.52083333334</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>117</v>
+      </c>
+      <c r="P107" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q107">
+        <v>10</v>
+      </c>
+      <c r="R107">
+        <v>3</v>
+      </c>
+      <c r="S107">
+        <v>13</v>
+      </c>
+      <c r="T107">
+        <v>3.04</v>
+      </c>
+      <c r="U107">
+        <v>2.12</v>
+      </c>
+      <c r="V107">
+        <v>3.5</v>
+      </c>
+      <c r="W107">
+        <v>1.4</v>
+      </c>
+      <c r="X107">
+        <v>2.75</v>
+      </c>
+      <c r="Y107">
+        <v>2.75</v>
+      </c>
+      <c r="Z107">
+        <v>1.4</v>
+      </c>
+      <c r="AA107">
+        <v>7</v>
+      </c>
+      <c r="AB107">
+        <v>1.08</v>
+      </c>
+      <c r="AC107">
+        <v>2.37</v>
+      </c>
+      <c r="AD107">
+        <v>3.35</v>
+      </c>
+      <c r="AE107">
+        <v>2.64</v>
+      </c>
+      <c r="AF107">
+        <v>1.06</v>
+      </c>
+      <c r="AG107">
+        <v>8</v>
+      </c>
+      <c r="AH107">
+        <v>1.33</v>
+      </c>
+      <c r="AI107">
+        <v>3.25</v>
+      </c>
+      <c r="AJ107">
+        <v>2.05</v>
+      </c>
+      <c r="AK107">
+        <v>1.83</v>
+      </c>
+      <c r="AL107">
+        <v>1.75</v>
+      </c>
+      <c r="AM107">
+        <v>2.03</v>
+      </c>
+      <c r="AN107">
+        <v>1.39</v>
+      </c>
+      <c r="AO107">
+        <v>1.28</v>
+      </c>
+      <c r="AP107">
+        <v>1.51</v>
+      </c>
+      <c r="AQ107">
+        <v>0.2</v>
+      </c>
+      <c r="AR107">
+        <v>1.2</v>
+      </c>
+      <c r="AS107">
+        <v>0.17</v>
+      </c>
+      <c r="AT107">
+        <v>1.5</v>
+      </c>
+      <c r="AU107">
+        <v>1.63</v>
+      </c>
+      <c r="AV107">
+        <v>1.2</v>
+      </c>
+      <c r="AW107">
+        <v>2.83</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>5.5</v>
+      </c>
+      <c r="AZ107">
+        <v>2.1</v>
+      </c>
+      <c r="BA107">
+        <v>1.2</v>
+      </c>
+      <c r="BB107">
+        <v>1.38</v>
+      </c>
+      <c r="BC107">
+        <v>1.67</v>
+      </c>
+      <c r="BD107">
+        <v>2.12</v>
+      </c>
+      <c r="BE107">
+        <v>2.85</v>
+      </c>
+      <c r="BF107">
+        <v>10</v>
+      </c>
+      <c r="BG107">
+        <v>9</v>
+      </c>
+      <c r="BH107">
+        <v>7</v>
+      </c>
+      <c r="BI107">
+        <v>4</v>
+      </c>
+      <c r="BJ107">
+        <v>17</v>
+      </c>
+      <c r="BK107">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2812322</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44872.625</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>68</v>
+      </c>
+      <c r="H108" t="s">
+        <v>69</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>156</v>
+      </c>
+      <c r="P108" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q108">
+        <v>5</v>
+      </c>
+      <c r="R108">
+        <v>4</v>
+      </c>
+      <c r="S108">
+        <v>9</v>
+      </c>
+      <c r="T108">
+        <v>4.75</v>
+      </c>
+      <c r="U108">
+        <v>2.25</v>
+      </c>
+      <c r="V108">
+        <v>2.38</v>
+      </c>
+      <c r="W108">
+        <v>1.36</v>
+      </c>
+      <c r="X108">
+        <v>3</v>
+      </c>
+      <c r="Y108">
+        <v>2.63</v>
+      </c>
+      <c r="Z108">
+        <v>1.44</v>
+      </c>
+      <c r="AA108">
+        <v>7</v>
+      </c>
+      <c r="AB108">
+        <v>1.1</v>
+      </c>
+      <c r="AC108">
+        <v>3.95</v>
+      </c>
+      <c r="AD108">
+        <v>3.55</v>
+      </c>
+      <c r="AE108">
+        <v>1.8</v>
+      </c>
+      <c r="AF108">
+        <v>1.04</v>
+      </c>
+      <c r="AG108">
+        <v>8.5</v>
+      </c>
+      <c r="AH108">
+        <v>1.22</v>
+      </c>
+      <c r="AI108">
+        <v>3.7</v>
+      </c>
+      <c r="AJ108">
+        <v>1.8</v>
+      </c>
+      <c r="AK108">
+        <v>2</v>
+      </c>
+      <c r="AL108">
+        <v>1.8</v>
+      </c>
+      <c r="AM108">
+        <v>1.91</v>
+      </c>
+      <c r="AN108">
+        <v>1.95</v>
+      </c>
+      <c r="AO108">
+        <v>1.3</v>
+      </c>
+      <c r="AP108">
+        <v>1.13</v>
+      </c>
+      <c r="AQ108">
+        <v>0.6</v>
+      </c>
+      <c r="AR108">
+        <v>1.2</v>
+      </c>
+      <c r="AS108">
+        <v>0.5</v>
+      </c>
+      <c r="AT108">
+        <v>1.5</v>
+      </c>
+      <c r="AU108">
+        <v>1.44</v>
+      </c>
+      <c r="AV108">
+        <v>1.52</v>
+      </c>
+      <c r="AW108">
+        <v>2.96</v>
+      </c>
+      <c r="AX108">
+        <v>2.73</v>
+      </c>
+      <c r="AY108">
+        <v>8</v>
+      </c>
+      <c r="AZ108">
+        <v>1.64</v>
+      </c>
+      <c r="BA108">
+        <v>1.17</v>
+      </c>
+      <c r="BB108">
+        <v>1.29</v>
+      </c>
+      <c r="BC108">
+        <v>1.5</v>
+      </c>
+      <c r="BD108">
+        <v>1.93</v>
+      </c>
+      <c r="BE108">
+        <v>2.43</v>
+      </c>
+      <c r="BF108">
+        <v>4</v>
+      </c>
+      <c r="BG108">
+        <v>7</v>
+      </c>
+      <c r="BH108">
+        <v>11</v>
+      </c>
+      <c r="BI108">
+        <v>10</v>
+      </c>
+      <c r="BJ108">
+        <v>15</v>
+      </c>
+      <c r="BK108">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2812335</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44876.71875</v>
+      </c>
+      <c r="F109">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>85</v>
+      </c>
+      <c r="P109" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>6</v>
+      </c>
+      <c r="S109">
+        <v>7</v>
+      </c>
+      <c r="T109">
+        <v>3.5</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109">
+        <v>3.1</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>2.75</v>
+      </c>
+      <c r="Y109">
+        <v>3</v>
+      </c>
+      <c r="Z109">
+        <v>1.36</v>
+      </c>
+      <c r="AA109">
+        <v>7.5</v>
+      </c>
+      <c r="AB109">
+        <v>1.07</v>
+      </c>
+      <c r="AC109">
+        <v>2.8</v>
+      </c>
+      <c r="AD109">
+        <v>3.08</v>
+      </c>
+      <c r="AE109">
+        <v>2.34</v>
+      </c>
+      <c r="AF109">
+        <v>1.07</v>
+      </c>
+      <c r="AG109">
+        <v>7.5</v>
+      </c>
+      <c r="AH109">
+        <v>1.36</v>
+      </c>
+      <c r="AI109">
+        <v>3</v>
+      </c>
+      <c r="AJ109">
+        <v>2.15</v>
+      </c>
+      <c r="AK109">
+        <v>1.65</v>
+      </c>
+      <c r="AL109">
+        <v>1.8</v>
+      </c>
+      <c r="AM109">
+        <v>1.91</v>
+      </c>
+      <c r="AN109">
+        <v>1.55</v>
+      </c>
+      <c r="AO109">
+        <v>1.28</v>
+      </c>
+      <c r="AP109">
+        <v>1.4</v>
+      </c>
+      <c r="AQ109">
+        <v>0.67</v>
+      </c>
+      <c r="AR109">
+        <v>1.33</v>
+      </c>
+      <c r="AS109">
+        <v>0.57</v>
+      </c>
+      <c r="AT109">
+        <v>1.57</v>
+      </c>
+      <c r="AU109">
+        <v>1.37</v>
+      </c>
+      <c r="AV109">
+        <v>1.47</v>
+      </c>
+      <c r="AW109">
+        <v>2.84</v>
+      </c>
+      <c r="AX109">
+        <v>1.96</v>
+      </c>
+      <c r="AY109">
+        <v>7.2</v>
+      </c>
+      <c r="AZ109">
+        <v>2.25</v>
+      </c>
+      <c r="BA109">
+        <v>1.18</v>
+      </c>
+      <c r="BB109">
+        <v>1.34</v>
+      </c>
+      <c r="BC109">
+        <v>1.61</v>
+      </c>
+      <c r="BD109">
+        <v>2.02</v>
+      </c>
+      <c r="BE109">
+        <v>2.7</v>
+      </c>
+      <c r="BF109">
+        <v>7</v>
+      </c>
+      <c r="BG109">
+        <v>3</v>
+      </c>
+      <c r="BH109">
+        <v>3</v>
+      </c>
+      <c r="BI109">
+        <v>4</v>
+      </c>
+      <c r="BJ109">
+        <v>10</v>
+      </c>
+      <c r="BK109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2812338</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44877.33333333334</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" t="s">
+        <v>66</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>157</v>
+      </c>
+      <c r="P110" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q110">
+        <v>7</v>
+      </c>
+      <c r="R110">
+        <v>6</v>
+      </c>
+      <c r="S110">
+        <v>13</v>
+      </c>
+      <c r="T110">
+        <v>2.88</v>
+      </c>
+      <c r="U110">
+        <v>2.1</v>
+      </c>
+      <c r="V110">
+        <v>4</v>
+      </c>
+      <c r="W110">
+        <v>1.44</v>
+      </c>
+      <c r="X110">
+        <v>2.63</v>
+      </c>
+      <c r="Y110">
+        <v>3.25</v>
+      </c>
+      <c r="Z110">
+        <v>1.33</v>
+      </c>
+      <c r="AA110">
+        <v>9</v>
+      </c>
+      <c r="AB110">
+        <v>1.07</v>
+      </c>
+      <c r="AC110">
+        <v>2.07</v>
+      </c>
+      <c r="AD110">
+        <v>3.44</v>
+      </c>
+      <c r="AE110">
+        <v>3.26</v>
+      </c>
+      <c r="AF110">
+        <v>1.07</v>
+      </c>
+      <c r="AG110">
+        <v>7.5</v>
+      </c>
+      <c r="AH110">
+        <v>1.33</v>
+      </c>
+      <c r="AI110">
+        <v>3</v>
+      </c>
+      <c r="AJ110">
+        <v>1.86</v>
+      </c>
+      <c r="AK110">
+        <v>1.94</v>
+      </c>
+      <c r="AL110">
+        <v>1.83</v>
+      </c>
+      <c r="AM110">
+        <v>1.83</v>
+      </c>
+      <c r="AN110">
+        <v>1.32</v>
+      </c>
+      <c r="AO110">
+        <v>1.3</v>
+      </c>
+      <c r="AP110">
+        <v>1.66</v>
+      </c>
+      <c r="AQ110">
+        <v>1.67</v>
+      </c>
+      <c r="AR110">
+        <v>0.5</v>
+      </c>
+      <c r="AS110">
+        <v>1.86</v>
+      </c>
+      <c r="AT110">
+        <v>0.43</v>
+      </c>
+      <c r="AU110">
+        <v>1.49</v>
+      </c>
+      <c r="AV110">
+        <v>1.45</v>
+      </c>
+      <c r="AW110">
+        <v>2.94</v>
+      </c>
+      <c r="AX110">
+        <v>1.61</v>
+      </c>
+      <c r="AY110">
+        <v>8.4</v>
+      </c>
+      <c r="AZ110">
+        <v>2.83</v>
+      </c>
+      <c r="BA110">
+        <v>1.18</v>
+      </c>
+      <c r="BB110">
+        <v>1.34</v>
+      </c>
+      <c r="BC110">
+        <v>1.61</v>
+      </c>
+      <c r="BD110">
+        <v>2.02</v>
+      </c>
+      <c r="BE110">
+        <v>2.62</v>
+      </c>
+      <c r="BF110">
+        <v>5</v>
+      </c>
+      <c r="BG110">
+        <v>2</v>
+      </c>
+      <c r="BH110">
+        <v>9</v>
+      </c>
+      <c r="BI110">
+        <v>5</v>
+      </c>
+      <c r="BJ110">
+        <v>14</v>
+      </c>
+      <c r="BK110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2812337</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>65</v>
+      </c>
+      <c r="H111" t="s">
+        <v>70</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" t="s">
+        <v>85</v>
+      </c>
+      <c r="P111" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q111">
+        <v>8</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>10</v>
+      </c>
+      <c r="T111">
+        <v>2.62</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
+        <v>4.2</v>
+      </c>
+      <c r="W111">
+        <v>1.44</v>
+      </c>
+      <c r="X111">
+        <v>2.62</v>
+      </c>
+      <c r="Y111">
+        <v>3</v>
+      </c>
+      <c r="Z111">
+        <v>1.36</v>
+      </c>
+      <c r="AA111">
+        <v>7.5</v>
+      </c>
+      <c r="AB111">
+        <v>1.07</v>
+      </c>
+      <c r="AC111">
+        <v>1.99</v>
+      </c>
+      <c r="AD111">
+        <v>3.4</v>
+      </c>
+      <c r="AE111">
+        <v>3.52</v>
+      </c>
+      <c r="AF111">
+        <v>1.07</v>
+      </c>
+      <c r="AG111">
+        <v>7.5</v>
+      </c>
+      <c r="AH111">
+        <v>1.36</v>
+      </c>
+      <c r="AI111">
+        <v>3</v>
+      </c>
+      <c r="AJ111">
+        <v>2.02</v>
+      </c>
+      <c r="AK111">
+        <v>1.79</v>
+      </c>
+      <c r="AL111">
+        <v>1.8</v>
+      </c>
+      <c r="AM111">
+        <v>1.91</v>
+      </c>
+      <c r="AN111">
+        <v>1.22</v>
+      </c>
+      <c r="AO111">
+        <v>1.33</v>
+      </c>
+      <c r="AP111">
+        <v>1.8</v>
+      </c>
+      <c r="AQ111">
+        <v>2.2</v>
+      </c>
+      <c r="AR111">
+        <v>1.83</v>
+      </c>
+      <c r="AS111">
+        <v>2.14</v>
+      </c>
+      <c r="AT111">
+        <v>1.71</v>
+      </c>
+      <c r="AU111">
+        <v>1.85</v>
+      </c>
+      <c r="AV111">
+        <v>1.27</v>
+      </c>
+      <c r="AW111">
+        <v>3.12</v>
+      </c>
+      <c r="AX111">
+        <v>1.39</v>
+      </c>
+      <c r="AY111">
+        <v>9.5</v>
+      </c>
+      <c r="AZ111">
+        <v>3.72</v>
+      </c>
+      <c r="BA111">
+        <v>1.16</v>
+      </c>
+      <c r="BB111">
+        <v>1.22</v>
+      </c>
+      <c r="BC111">
+        <v>1.42</v>
+      </c>
+      <c r="BD111">
+        <v>1.8</v>
+      </c>
+      <c r="BE111">
+        <v>2.11</v>
+      </c>
+      <c r="BF111">
+        <v>5</v>
+      </c>
+      <c r="BG111">
+        <v>4</v>
+      </c>
+      <c r="BH111">
+        <v>7</v>
+      </c>
+      <c r="BI111">
+        <v>8</v>
+      </c>
+      <c r="BJ111">
+        <v>12</v>
+      </c>
+      <c r="BK111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2812339</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>69</v>
+      </c>
+      <c r="H112" t="s">
+        <v>73</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>98</v>
+      </c>
+      <c r="P112" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q112">
+        <v>3</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>4</v>
+      </c>
+      <c r="T112">
+        <v>2.8</v>
+      </c>
+      <c r="U112">
+        <v>2.15</v>
+      </c>
+      <c r="V112">
+        <v>3.8</v>
+      </c>
+      <c r="W112">
+        <v>1.38</v>
+      </c>
+      <c r="X112">
+        <v>2.9</v>
+      </c>
+      <c r="Y112">
+        <v>2.77</v>
+      </c>
+      <c r="Z112">
+        <v>1.41</v>
+      </c>
+      <c r="AA112">
+        <v>7</v>
+      </c>
+      <c r="AB112">
+        <v>1.08</v>
+      </c>
+      <c r="AC112">
+        <v>2.4</v>
+      </c>
+      <c r="AD112">
+        <v>3.2</v>
+      </c>
+      <c r="AE112">
+        <v>2.9</v>
+      </c>
+      <c r="AF112">
+        <v>1.02</v>
+      </c>
+      <c r="AG112">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH112">
+        <v>1.28</v>
+      </c>
+      <c r="AI112">
+        <v>3.5</v>
+      </c>
+      <c r="AJ112">
+        <v>1.93</v>
+      </c>
+      <c r="AK112">
+        <v>1.83</v>
+      </c>
+      <c r="AL112">
+        <v>1.73</v>
+      </c>
+      <c r="AM112">
+        <v>2.06</v>
+      </c>
+      <c r="AN112">
+        <v>1.32</v>
+      </c>
+      <c r="AO112">
+        <v>1.27</v>
+      </c>
+      <c r="AP112">
+        <v>1.61</v>
+      </c>
+      <c r="AQ112">
+        <v>2.17</v>
+      </c>
+      <c r="AR112">
+        <v>1.5</v>
+      </c>
+      <c r="AS112">
+        <v>1.86</v>
+      </c>
+      <c r="AT112">
+        <v>1.71</v>
+      </c>
+      <c r="AU112">
+        <v>1.88</v>
+      </c>
+      <c r="AV112">
+        <v>1.12</v>
+      </c>
+      <c r="AW112">
+        <v>3</v>
+      </c>
+      <c r="AX112">
+        <v>1.66</v>
+      </c>
+      <c r="AY112">
+        <v>7.6</v>
+      </c>
+      <c r="AZ112">
+        <v>2.79</v>
+      </c>
+      <c r="BA112">
+        <v>1.17</v>
+      </c>
+      <c r="BB112">
+        <v>1.3</v>
+      </c>
+      <c r="BC112">
+        <v>1.56</v>
+      </c>
+      <c r="BD112">
+        <v>2</v>
+      </c>
+      <c r="BE112">
+        <v>2.52</v>
+      </c>
+      <c r="BF112">
+        <v>6</v>
+      </c>
+      <c r="BG112">
+        <v>5</v>
+      </c>
+      <c r="BH112">
+        <v>6</v>
+      </c>
+      <c r="BI112">
+        <v>5</v>
+      </c>
+      <c r="BJ112">
+        <v>12</v>
+      </c>
+      <c r="BK112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2812336</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>67</v>
+      </c>
+      <c r="H113" t="s">
+        <v>72</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>158</v>
+      </c>
+      <c r="P113" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>8</v>
+      </c>
+      <c r="S113">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>3.4</v>
+      </c>
+      <c r="U113">
+        <v>2.05</v>
+      </c>
+      <c r="V113">
+        <v>2.9</v>
+      </c>
+      <c r="W113">
+        <v>1.4</v>
+      </c>
+      <c r="X113">
+        <v>2.75</v>
+      </c>
+      <c r="Y113">
+        <v>3</v>
+      </c>
+      <c r="Z113">
+        <v>1.36</v>
+      </c>
+      <c r="AA113">
+        <v>7</v>
+      </c>
+      <c r="AB113">
+        <v>1.08</v>
+      </c>
+      <c r="AC113">
+        <v>3</v>
+      </c>
+      <c r="AD113">
+        <v>3.3</v>
+      </c>
+      <c r="AE113">
+        <v>2.3</v>
+      </c>
+      <c r="AF113">
+        <v>1.07</v>
+      </c>
+      <c r="AG113">
+        <v>7.5</v>
+      </c>
+      <c r="AH113">
+        <v>1.36</v>
+      </c>
+      <c r="AI113">
+        <v>3</v>
+      </c>
+      <c r="AJ113">
+        <v>2.25</v>
+      </c>
+      <c r="AK113">
+        <v>1.62</v>
+      </c>
+      <c r="AL113">
+        <v>1.8</v>
+      </c>
+      <c r="AM113">
+        <v>1.91</v>
+      </c>
+      <c r="AN113">
+        <v>1.5</v>
+      </c>
+      <c r="AO113">
+        <v>1.33</v>
+      </c>
+      <c r="AP113">
+        <v>1.4</v>
+      </c>
+      <c r="AQ113">
+        <v>0.33</v>
+      </c>
+      <c r="AR113">
+        <v>1.83</v>
+      </c>
+      <c r="AS113">
+        <v>0.71</v>
+      </c>
+      <c r="AT113">
+        <v>1.57</v>
+      </c>
+      <c r="AU113">
+        <v>1.74</v>
+      </c>
+      <c r="AV113">
+        <v>1.67</v>
+      </c>
+      <c r="AW113">
+        <v>3.41</v>
+      </c>
+      <c r="AX113">
+        <v>2.65</v>
+      </c>
+      <c r="AY113">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ113">
+        <v>1.68</v>
+      </c>
+      <c r="BA113">
+        <v>1.13</v>
+      </c>
+      <c r="BB113">
+        <v>1.24</v>
+      </c>
+      <c r="BC113">
+        <v>1.43</v>
+      </c>
+      <c r="BD113">
+        <v>1.74</v>
+      </c>
+      <c r="BE113">
+        <v>2.2</v>
+      </c>
+      <c r="BF113">
+        <v>5</v>
+      </c>
+      <c r="BG113">
+        <v>5</v>
+      </c>
+      <c r="BH113">
+        <v>3</v>
+      </c>
+      <c r="BI113">
+        <v>9</v>
+      </c>
+      <c r="BJ113">
+        <v>8</v>
+      </c>
+      <c r="BK113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2812333</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44878.33333333334</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s">
+        <v>68</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>159</v>
+      </c>
+      <c r="P114" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q114">
+        <v>12</v>
+      </c>
+      <c r="R114">
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <v>15</v>
+      </c>
+      <c r="T114">
+        <v>2.4</v>
+      </c>
+      <c r="U114">
+        <v>2.2</v>
+      </c>
+      <c r="V114">
+        <v>4.75</v>
+      </c>
+      <c r="W114">
+        <v>1.4</v>
+      </c>
+      <c r="X114">
+        <v>2.75</v>
+      </c>
+      <c r="Y114">
+        <v>2.75</v>
+      </c>
+      <c r="Z114">
+        <v>1.4</v>
+      </c>
+      <c r="AA114">
+        <v>8</v>
+      </c>
+      <c r="AB114">
+        <v>1.08</v>
+      </c>
+      <c r="AC114">
+        <v>1.7</v>
+      </c>
+      <c r="AD114">
+        <v>3.5</v>
+      </c>
+      <c r="AE114">
+        <v>4.33</v>
+      </c>
+      <c r="AF114">
+        <v>1.05</v>
+      </c>
+      <c r="AG114">
+        <v>9</v>
+      </c>
+      <c r="AH114">
+        <v>1.3</v>
+      </c>
+      <c r="AI114">
+        <v>3.4</v>
+      </c>
+      <c r="AJ114">
+        <v>1.85</v>
+      </c>
+      <c r="AK114">
+        <v>2</v>
+      </c>
+      <c r="AL114">
+        <v>1.8</v>
+      </c>
+      <c r="AM114">
+        <v>1.91</v>
+      </c>
+      <c r="AN114">
+        <v>1.13</v>
+      </c>
+      <c r="AO114">
+        <v>1.28</v>
+      </c>
+      <c r="AP114">
+        <v>2</v>
+      </c>
+      <c r="AQ114">
+        <v>1.33</v>
+      </c>
+      <c r="AR114">
+        <v>1</v>
+      </c>
+      <c r="AS114">
+        <v>1.57</v>
+      </c>
+      <c r="AT114">
+        <v>0.71</v>
+      </c>
+      <c r="AU114">
+        <v>1.75</v>
+      </c>
+      <c r="AV114">
+        <v>1.3</v>
+      </c>
+      <c r="AW114">
+        <v>3.05</v>
+      </c>
+      <c r="AX114">
+        <v>1.49</v>
+      </c>
+      <c r="AY114">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ114">
+        <v>3.24</v>
+      </c>
+      <c r="BA114">
+        <v>1.17</v>
+      </c>
+      <c r="BB114">
+        <v>1.31</v>
+      </c>
+      <c r="BC114">
+        <v>1.56</v>
+      </c>
+      <c r="BD114">
+        <v>1.93</v>
+      </c>
+      <c r="BE114">
+        <v>2.46</v>
+      </c>
+      <c r="BF114">
+        <v>8</v>
+      </c>
+      <c r="BG114">
+        <v>3</v>
+      </c>
+      <c r="BH114">
+        <v>12</v>
+      </c>
+      <c r="BI114">
+        <v>1</v>
+      </c>
+      <c r="BJ114">
+        <v>20</v>
+      </c>
+      <c r="BK114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2812331</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>75</v>
+      </c>
+      <c r="H115" t="s">
+        <v>80</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>88</v>
+      </c>
+      <c r="P115" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q115">
+        <v>8</v>
+      </c>
+      <c r="R115">
+        <v>4</v>
+      </c>
+      <c r="S115">
+        <v>12</v>
+      </c>
+      <c r="T115">
+        <v>3.44</v>
+      </c>
+      <c r="U115">
+        <v>2.19</v>
+      </c>
+      <c r="V115">
+        <v>3.29</v>
+      </c>
+      <c r="W115">
+        <v>1.42</v>
+      </c>
+      <c r="X115">
+        <v>2.92</v>
+      </c>
+      <c r="Y115">
+        <v>3.08</v>
+      </c>
+      <c r="Z115">
+        <v>1.38</v>
+      </c>
+      <c r="AA115">
+        <v>6.8</v>
+      </c>
+      <c r="AB115">
+        <v>1.07</v>
+      </c>
+      <c r="AC115">
+        <v>2.54</v>
+      </c>
+      <c r="AD115">
+        <v>3.25</v>
+      </c>
+      <c r="AE115">
+        <v>2.54</v>
+      </c>
+      <c r="AF115">
+        <v>1.04</v>
+      </c>
+      <c r="AG115">
+        <v>8</v>
+      </c>
+      <c r="AH115">
+        <v>1.3</v>
+      </c>
+      <c r="AI115">
+        <v>3.2</v>
+      </c>
+      <c r="AJ115">
+        <v>1.96</v>
+      </c>
+      <c r="AK115">
+        <v>1.7</v>
+      </c>
+      <c r="AL115">
+        <v>1.81</v>
+      </c>
+      <c r="AM115">
+        <v>2</v>
+      </c>
+      <c r="AN115">
+        <v>1.52</v>
+      </c>
+      <c r="AO115">
+        <v>1.32</v>
+      </c>
+      <c r="AP115">
+        <v>1.47</v>
+      </c>
+      <c r="AQ115">
+        <v>0</v>
+      </c>
+      <c r="AR115">
+        <v>1.17</v>
+      </c>
+      <c r="AS115">
+        <v>0.14</v>
+      </c>
+      <c r="AT115">
+        <v>1.14</v>
+      </c>
+      <c r="AU115">
+        <v>1.39</v>
+      </c>
+      <c r="AV115">
+        <v>1.75</v>
+      </c>
+      <c r="AW115">
+        <v>3.14</v>
+      </c>
+      <c r="AX115">
+        <v>2.06</v>
+      </c>
+      <c r="AY115">
+        <v>7.4</v>
+      </c>
+      <c r="AZ115">
+        <v>2.12</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>1.23</v>
+      </c>
+      <c r="BC115">
+        <v>1.45</v>
+      </c>
+      <c r="BD115">
+        <v>1.78</v>
+      </c>
+      <c r="BE115">
+        <v>2</v>
+      </c>
+      <c r="BF115">
+        <v>3</v>
+      </c>
+      <c r="BG115">
+        <v>3</v>
+      </c>
+      <c r="BH115">
+        <v>8</v>
+      </c>
+      <c r="BI115">
+        <v>8</v>
+      </c>
+      <c r="BJ115">
+        <v>11</v>
+      </c>
+      <c r="BK115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2812332</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44879.625</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>81</v>
+      </c>
+      <c r="H116" t="s">
+        <v>82</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>98</v>
+      </c>
+      <c r="P116" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <v>4</v>
+      </c>
+      <c r="S116">
+        <v>8</v>
+      </c>
+      <c r="T116">
+        <v>2.88</v>
+      </c>
+      <c r="U116">
+        <v>2.1</v>
+      </c>
+      <c r="V116">
+        <v>3.75</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>2.75</v>
+      </c>
+      <c r="Y116">
+        <v>3</v>
+      </c>
+      <c r="Z116">
+        <v>1.36</v>
+      </c>
+      <c r="AA116">
+        <v>8</v>
+      </c>
+      <c r="AB116">
+        <v>1.08</v>
+      </c>
+      <c r="AC116">
+        <v>2.15</v>
+      </c>
+      <c r="AD116">
+        <v>3.3</v>
+      </c>
+      <c r="AE116">
+        <v>3.1</v>
+      </c>
+      <c r="AF116">
+        <v>1.07</v>
+      </c>
+      <c r="AG116">
+        <v>7.5</v>
+      </c>
+      <c r="AH116">
+        <v>1.33</v>
+      </c>
+      <c r="AI116">
+        <v>3.25</v>
+      </c>
+      <c r="AJ116">
+        <v>1.95</v>
+      </c>
+      <c r="AK116">
+        <v>1.81</v>
+      </c>
+      <c r="AL116">
+        <v>1.8</v>
+      </c>
+      <c r="AM116">
+        <v>1.91</v>
+      </c>
+      <c r="AN116">
+        <v>1.28</v>
+      </c>
+      <c r="AO116">
+        <v>1.25</v>
+      </c>
+      <c r="AP116">
+        <v>1.66</v>
+      </c>
+      <c r="AQ116">
+        <v>1.33</v>
+      </c>
+      <c r="AR116">
+        <v>1.17</v>
+      </c>
+      <c r="AS116">
+        <v>1.29</v>
+      </c>
+      <c r="AT116">
+        <v>1.14</v>
+      </c>
+      <c r="AU116">
+        <v>1.86</v>
+      </c>
+      <c r="AV116">
+        <v>1.7</v>
+      </c>
+      <c r="AW116">
+        <v>3.56</v>
+      </c>
+      <c r="AX116">
+        <v>1.7</v>
+      </c>
+      <c r="AY116">
+        <v>8.5</v>
+      </c>
+      <c r="AZ116">
+        <v>2.58</v>
+      </c>
+      <c r="BA116">
+        <v>1.15</v>
+      </c>
+      <c r="BB116">
+        <v>1.26</v>
+      </c>
+      <c r="BC116">
+        <v>1.48</v>
+      </c>
+      <c r="BD116">
+        <v>1.83</v>
+      </c>
+      <c r="BE116">
+        <v>2.29</v>
+      </c>
+      <c r="BF116">
+        <v>7</v>
+      </c>
+      <c r="BG116">
+        <v>4</v>
+      </c>
+      <c r="BH116">
+        <v>10</v>
+      </c>
+      <c r="BI116">
+        <v>3</v>
+      </c>
+      <c r="BJ116">
+        <v>17</v>
+      </c>
+      <c r="BK116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2812334</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44879.625</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s">
+        <v>71</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>90</v>
+      </c>
+      <c r="P117" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q117">
+        <v>6</v>
+      </c>
+      <c r="R117">
+        <v>5</v>
+      </c>
+      <c r="S117">
+        <v>11</v>
+      </c>
+      <c r="T117">
+        <v>3.4</v>
+      </c>
+      <c r="U117">
+        <v>2.1</v>
+      </c>
+      <c r="V117">
+        <v>3.2</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>2.63</v>
+      </c>
+      <c r="Y117">
+        <v>3</v>
+      </c>
+      <c r="Z117">
+        <v>1.36</v>
+      </c>
+      <c r="AA117">
+        <v>9</v>
+      </c>
+      <c r="AB117">
+        <v>1.07</v>
+      </c>
+      <c r="AC117">
+        <v>2.7</v>
+      </c>
+      <c r="AD117">
+        <v>3.1</v>
+      </c>
+      <c r="AE117">
+        <v>2.5</v>
+      </c>
+      <c r="AF117">
+        <v>1.07</v>
+      </c>
+      <c r="AG117">
+        <v>7.5</v>
+      </c>
+      <c r="AH117">
+        <v>1.33</v>
+      </c>
+      <c r="AI117">
+        <v>3.25</v>
+      </c>
+      <c r="AJ117">
+        <v>2.08</v>
+      </c>
+      <c r="AK117">
+        <v>1.7</v>
+      </c>
+      <c r="AL117">
+        <v>1.8</v>
+      </c>
+      <c r="AM117">
+        <v>1.91</v>
+      </c>
+      <c r="AN117">
+        <v>1.47</v>
+      </c>
+      <c r="AO117">
+        <v>1.3</v>
+      </c>
+      <c r="AP117">
+        <v>1.41</v>
+      </c>
+      <c r="AQ117">
+        <v>1.17</v>
+      </c>
+      <c r="AR117">
+        <v>2.17</v>
+      </c>
+      <c r="AS117">
+        <v>1.14</v>
+      </c>
+      <c r="AT117">
+        <v>2</v>
+      </c>
+      <c r="AU117">
+        <v>1.93</v>
+      </c>
+      <c r="AV117">
+        <v>1.76</v>
+      </c>
+      <c r="AW117">
+        <v>3.69</v>
+      </c>
+      <c r="AX117">
+        <v>1.95</v>
+      </c>
+      <c r="AY117">
+        <v>5.75</v>
+      </c>
+      <c r="AZ117">
+        <v>2.05</v>
+      </c>
+      <c r="BA117">
+        <v>1.22</v>
+      </c>
+      <c r="BB117">
+        <v>1.42</v>
+      </c>
+      <c r="BC117">
+        <v>1.74</v>
+      </c>
+      <c r="BD117">
+        <v>2.23</v>
+      </c>
+      <c r="BE117">
+        <v>3</v>
+      </c>
+      <c r="BF117">
+        <v>4</v>
+      </c>
+      <c r="BG117">
+        <v>6</v>
+      </c>
+      <c r="BH117">
+        <v>9</v>
+      </c>
+      <c r="BI117">
+        <v>9</v>
+      </c>
+      <c r="BJ117">
+        <v>13</v>
+      </c>
+      <c r="BK117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2812302</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44881.71875</v>
+      </c>
+      <c r="F118">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>65</v>
+      </c>
+      <c r="H118" t="s">
+        <v>68</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>160</v>
+      </c>
+      <c r="P118" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q118">
+        <v>5</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118">
+        <v>10</v>
+      </c>
+      <c r="T118">
+        <v>1.97</v>
+      </c>
+      <c r="U118">
+        <v>2.25</v>
+      </c>
+      <c r="V118">
+        <v>6.1</v>
+      </c>
+      <c r="W118">
+        <v>1.36</v>
+      </c>
+      <c r="X118">
+        <v>3</v>
+      </c>
+      <c r="Y118">
+        <v>2.62</v>
+      </c>
+      <c r="Z118">
+        <v>1.44</v>
+      </c>
+      <c r="AA118">
+        <v>6.5</v>
+      </c>
+      <c r="AB118">
+        <v>1.1</v>
+      </c>
+      <c r="AC118">
+        <v>1.45</v>
+      </c>
+      <c r="AD118">
+        <v>3.75</v>
+      </c>
+      <c r="AE118">
+        <v>6.5</v>
+      </c>
+      <c r="AF118">
+        <v>1.06</v>
+      </c>
+      <c r="AG118">
+        <v>8</v>
+      </c>
+      <c r="AH118">
+        <v>1.33</v>
+      </c>
+      <c r="AI118">
+        <v>3.25</v>
+      </c>
+      <c r="AJ118">
+        <v>1.9</v>
+      </c>
+      <c r="AK118">
+        <v>1.85</v>
+      </c>
+      <c r="AL118">
+        <v>2.05</v>
+      </c>
+      <c r="AM118">
+        <v>1.73</v>
+      </c>
+      <c r="AN118">
+        <v>1.08</v>
+      </c>
+      <c r="AO118">
+        <v>1.22</v>
+      </c>
+      <c r="AP118">
+        <v>2.6</v>
+      </c>
+      <c r="AQ118">
+        <v>2</v>
+      </c>
+      <c r="AR118">
+        <v>0.83</v>
+      </c>
+      <c r="AS118">
+        <v>2.14</v>
+      </c>
+      <c r="AT118">
+        <v>0.71</v>
+      </c>
+      <c r="AU118">
+        <v>1.82</v>
+      </c>
+      <c r="AV118">
+        <v>1.2</v>
+      </c>
+      <c r="AW118">
+        <v>3.02</v>
+      </c>
+      <c r="AX118">
+        <v>1.16</v>
+      </c>
+      <c r="AY118">
+        <v>8.75</v>
+      </c>
+      <c r="AZ118">
+        <v>6</v>
+      </c>
+      <c r="BA118">
+        <v>1.16</v>
+      </c>
+      <c r="BB118">
+        <v>1.27</v>
+      </c>
+      <c r="BC118">
+        <v>1.48</v>
+      </c>
+      <c r="BD118">
+        <v>1.8</v>
+      </c>
+      <c r="BE118">
+        <v>2.35</v>
+      </c>
+      <c r="BF118">
+        <v>11</v>
+      </c>
+      <c r="BG118">
+        <v>6</v>
+      </c>
+      <c r="BH118">
+        <v>2</v>
+      </c>
+      <c r="BI118">
+        <v>3</v>
+      </c>
+      <c r="BJ118">
+        <v>13</v>
+      </c>
+      <c r="BK118">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK118"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.71</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT7" t="n">
         <v>1.5</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT16" t="n">
         <v>0.43</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT25" t="n">
         <v>1.14</v>
@@ -5775,7 +5775,7 @@
         <v>0.71</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU26" t="n">
         <v>1.5</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT29" t="n">
         <v>1.71</v>
@@ -6587,7 +6587,7 @@
         <v>1.57</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU30" t="n">
         <v>0.91</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU43" t="n">
         <v>1.79</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT48" t="n">
         <v>1.5</v>
@@ -11256,7 +11256,7 @@
         <v>0.57</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU53" t="n">
         <v>1.55</v>
@@ -12068,7 +12068,7 @@
         <v>1.57</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU57" t="n">
         <v>2</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT64" t="n">
         <v>0.43</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT68" t="n">
         <v>1.71</v>
@@ -15113,7 +15113,7 @@
         <v>1.29</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU72" t="n">
         <v>1.85</v>
@@ -15925,7 +15925,7 @@
         <v>1.86</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU76" t="n">
         <v>2.03</v>
@@ -16125,7 +16125,7 @@
         <v>2.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT77" t="n">
         <v>2</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT89" t="n">
         <v>1.5</v>
@@ -18767,7 +18767,7 @@
         <v>1.83</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU90" t="n">
         <v>1.34</v>
@@ -18970,7 +18970,7 @@
         <v>0.57</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU91" t="n">
         <v>1.43</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU102" t="n">
         <v>1.59</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT106" t="n">
         <v>1.33</v>
@@ -24503,6 +24503,412 @@
       </c>
       <c r="BK118" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2812344</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44918.66666666666</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Vilafranquense</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>CD Mafra</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2</v>
+      </c>
+      <c r="K119" t="n">
+        <v>4</v>
+      </c>
+      <c r="L119" t="n">
+        <v>3</v>
+      </c>
+      <c r="M119" t="n">
+        <v>3</v>
+      </c>
+      <c r="N119" t="n">
+        <v>6</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['31', '42', '82']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['6', '15', '52']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>3</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V119" t="n">
+        <v>4</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2812345</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44918.76041666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>14</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>CD Feirense</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>CD Tondela</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>5</v>
+      </c>
+      <c r="R120" t="n">
+        <v>4</v>
+      </c>
+      <c r="S120" t="n">
+        <v>9</v>
+      </c>
+      <c r="T120" t="n">
+        <v>3</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V120" t="n">
+        <v>4</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT9" t="n">
         <v>0.83</v>
@@ -3339,7 +3339,7 @@
         <v>1.86</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT27" t="n">
         <v>0.43</v>
@@ -8008,7 +8008,7 @@
         <v>1.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8067,7 +8067,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>2812265</v>
+        <v>2812261</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -8087,110 +8087,110 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Benfica II</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Leixões</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
         <v>3</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['10', '62']</t>
+          <t>['52']</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>['88']</t>
+          <t>['24', '32']</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="R38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="T38" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="U38" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="V38" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="W38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH38" t="n">
         <v>1.36</v>
       </c>
-      <c r="X38" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE38" t="n">
+      <c r="AI38" t="n">
         <v>2.95</v>
       </c>
-      <c r="AF38" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AJ38" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AK38" t="n">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="AL38" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="AM38" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="AN38" t="n">
         <v>1.28</v>
@@ -8205,64 +8205,64 @@
         <v>0.5</v>
       </c>
       <c r="AR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="AV38" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.12</v>
+        <v>3.31</v>
       </c>
       <c r="AX38" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AY38" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ38" t="n">
-        <v>2.6</v>
+        <v>3.76</v>
       </c>
       <c r="BA38" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="BB38" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="BC38" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="BD38" t="n">
-        <v>1.88</v>
+        <v>2.23</v>
       </c>
       <c r="BE38" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="BF38" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BG38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH38" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BI38" t="n">
         <v>4</v>
       </c>
       <c r="BJ38" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="BK38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -8270,7 +8270,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>2812261</v>
+        <v>2812265</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8290,110 +8290,110 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Benfica II</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leixões</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
         <v>3</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['52']</t>
+          <t>['10', '62']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>['24', '32']</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S39" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="T39" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="U39" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="V39" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="W39" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X39" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.9</v>
+        <v>6.45</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AC39" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AD39" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AE39" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AG39" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AI39" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="AJ39" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="AN39" t="n">
         <v>1.28</v>
@@ -8408,64 +8408,64 @@
         <v>0.5</v>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU39" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="AV39" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="AW39" t="n">
-        <v>3.31</v>
+        <v>3.12</v>
       </c>
       <c r="AX39" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AY39" t="n">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="AZ39" t="n">
-        <v>3.76</v>
+        <v>2.6</v>
       </c>
       <c r="BA39" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="BB39" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="BC39" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="BD39" t="n">
-        <v>2.23</v>
+        <v>1.88</v>
       </c>
       <c r="BE39" t="n">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="BF39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BG39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH39" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BI39" t="n">
         <v>4</v>
       </c>
       <c r="BJ39" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="BK39" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT41" t="n">
         <v>1.57</v>
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>2812262</v>
+        <v>2812260</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -9305,12 +9305,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CD Nacional</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Belenenses</t>
+          <t>Sporting Covilhã</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -9323,164 +9323,164 @@
         <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
         <v>4</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['27', '85']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>['42', '62', '90+4']</t>
+          <t>['21', '78']</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>7</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V44" t="n">
         <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>11</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V44" t="n">
-        <v>4.75</v>
       </c>
       <c r="W44" t="n">
         <v>1.44</v>
       </c>
       <c r="X44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA44" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AB44" t="n">
         <v>1.07</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="AD44" t="n">
-        <v>3.35</v>
+        <v>3.61</v>
       </c>
       <c r="AE44" t="n">
-        <v>3.95</v>
+        <v>5.07</v>
       </c>
       <c r="AF44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ44" t="n">
         <v>10</v>
       </c>
-      <c r="AH44" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>11</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ44" t="n">
+      <c r="BK44" t="n">
         <v>12</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -9488,7 +9488,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>2812260</v>
+        <v>2812262</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -9508,12 +9508,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>CD Nacional</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sporting Covilhã</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -9526,164 +9526,164 @@
         <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
         <v>4</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>['27', '85']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>['21', '78']</t>
+          <t>['42', '62', '90+4']</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T45" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="U45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="W45" t="n">
         <v>1.44</v>
       </c>
       <c r="X45" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AB45" t="n">
         <v>1.07</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="AD45" t="n">
-        <v>3.61</v>
+        <v>3.35</v>
       </c>
       <c r="AE45" t="n">
-        <v>5.07</v>
+        <v>3.95</v>
       </c>
       <c r="AF45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG45" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AH45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX45" t="n">
         <v>1.4</v>
       </c>
-      <c r="AI45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>1.18</v>
-      </c>
       <c r="AY45" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="AZ45" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="BA45" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="BB45" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="BC45" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="BD45" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="BE45" t="n">
-        <v>2.48</v>
+        <v>2.69</v>
       </c>
       <c r="BF45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH45" t="n">
         <v>8</v>
       </c>
-      <c r="BH45" t="n">
-        <v>5</v>
-      </c>
       <c r="BI45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK45" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -11053,7 +11053,7 @@
         <v>1.83</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>0.17</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -15578,7 +15578,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>2812299</v>
+        <v>2812300</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -15598,86 +15598,86 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Benfica II</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Belenenses</t>
+          <t>CD Mafra</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['10', '19', '27', '31', '77']</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>['26']</t>
+          <t>['40']</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R75" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S75" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T75" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="U75" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V75" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="W75" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X75" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Y75" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AA75" t="n">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.91</v>
+        <v>2.17</v>
       </c>
       <c r="AD75" t="n">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="AE75" t="n">
-        <v>3.8</v>
+        <v>3.22</v>
       </c>
       <c r="AF75" t="n">
         <v>1.06</v>
@@ -15698,82 +15698,82 @@
         <v>1.8</v>
       </c>
       <c r="AL75" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AM75" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AN75" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AO75" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR75" t="n">
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.57</v>
+        <v>1.86</v>
       </c>
       <c r="AT75" t="n">
         <v>1.14</v>
       </c>
       <c r="AU75" t="n">
-        <v>1.38</v>
+        <v>2.03</v>
       </c>
       <c r="AV75" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AW75" t="n">
-        <v>3</v>
+        <v>3.63</v>
       </c>
       <c r="AX75" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="AY75" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AZ75" t="n">
-        <v>2.96</v>
+        <v>2.38</v>
       </c>
       <c r="BA75" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BB75" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BC75" t="n">
         <v>1.61</v>
       </c>
       <c r="BD75" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="BE75" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="BF75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH75" t="n">
         <v>4</v>
       </c>
-      <c r="BG75" t="n">
-        <v>10</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>6</v>
-      </c>
       <c r="BI75" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BJ75" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK75" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
@@ -15781,7 +15781,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>2812300</v>
+        <v>2812299</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -15801,86 +15801,86 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Benfica II</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CD Mafra</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7</v>
+      </c>
+      <c r="S76" t="n">
+        <v>8</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V76" t="n">
         <v>4</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="n">
-        <v>5</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="n">
-        <v>6</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>['10', '19', '27', '31', '77']</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>['40']</t>
-        </is>
-      </c>
-      <c r="Q76" t="n">
-        <v>2</v>
-      </c>
-      <c r="R76" t="n">
-        <v>10</v>
-      </c>
-      <c r="S76" t="n">
-        <v>12</v>
-      </c>
-      <c r="T76" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U76" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V76" t="n">
-        <v>3.6</v>
-      </c>
       <c r="W76" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X76" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Y76" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AA76" t="n">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="AB76" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC76" t="n">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="AD76" t="n">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="AE76" t="n">
-        <v>3.22</v>
+        <v>3.8</v>
       </c>
       <c r="AF76" t="n">
         <v>1.06</v>
@@ -15901,82 +15901,82 @@
         <v>1.8</v>
       </c>
       <c r="AL76" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AM76" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AN76" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AO76" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.86</v>
+        <v>0.57</v>
       </c>
       <c r="AT76" t="n">
         <v>1.14</v>
       </c>
       <c r="AU76" t="n">
-        <v>2.03</v>
+        <v>1.38</v>
       </c>
       <c r="AV76" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AW76" t="n">
-        <v>3.63</v>
+        <v>3</v>
       </c>
       <c r="AX76" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="AY76" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ76" t="n">
-        <v>2.38</v>
+        <v>2.96</v>
       </c>
       <c r="BA76" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BB76" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="BC76" t="n">
         <v>1.61</v>
       </c>
       <c r="BD76" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="BE76" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="BF76" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG76" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BH76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI76" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BJ76" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK76" t="n">
         <v>12</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -16187,7 +16187,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>2812298</v>
+        <v>2812295</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -16207,59 +16207,59 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Porto II</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>FC Penafiel</t>
+          <t>Leixões</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['4', '48']</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['78', '89']</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R78" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S78" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T78" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U78" t="n">
         <v>2.1</v>
       </c>
       <c r="V78" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="W78" t="n">
         <v>1.44</v>
@@ -16274,31 +16274,31 @@
         <v>1.33</v>
       </c>
       <c r="AA78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB78" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC78" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AD78" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AE78" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="AF78" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG78" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="AH78" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AI78" t="n">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="AJ78" t="n">
         <v>2.1</v>
@@ -16307,82 +16307,82 @@
         <v>1.7</v>
       </c>
       <c r="AL78" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AM78" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AN78" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AO78" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR78" t="n">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AU78" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="AV78" t="n">
-        <v>1.02</v>
+        <v>1.39</v>
       </c>
       <c r="AW78" t="n">
-        <v>2.91</v>
+        <v>3.38</v>
       </c>
       <c r="AX78" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AY78" t="n">
         <v>6</v>
       </c>
       <c r="AZ78" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="BA78" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="BB78" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="BC78" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="BD78" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="BE78" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="BF78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH78" t="n">
         <v>5</v>
       </c>
-      <c r="BG78" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH78" t="n">
-        <v>6</v>
-      </c>
       <c r="BI78" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BJ78" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BK78" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
@@ -16390,7 +16390,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>2812295</v>
+        <v>2812298</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -16410,59 +16410,59 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Porto II</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Leixões</t>
+          <t>FC Penafiel</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
         <v>4</v>
       </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>['4', '48']</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>['78', '89']</t>
-        </is>
-      </c>
-      <c r="Q79" t="n">
-        <v>4</v>
-      </c>
-      <c r="R79" t="n">
-        <v>10</v>
-      </c>
       <c r="S79" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T79" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U79" t="n">
         <v>2.1</v>
       </c>
       <c r="V79" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="W79" t="n">
         <v>1.44</v>
@@ -16477,31 +16477,31 @@
         <v>1.33</v>
       </c>
       <c r="AA79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB79" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC79" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AD79" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AE79" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="AF79" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG79" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="AH79" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AI79" t="n">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="AJ79" t="n">
         <v>2.1</v>
@@ -16510,82 +16510,82 @@
         <v>1.7</v>
       </c>
       <c r="AL79" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AM79" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AO79" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR79" t="n">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="AS79" t="n">
         <v>1.57</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AU79" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="AV79" t="n">
-        <v>1.39</v>
+        <v>1.02</v>
       </c>
       <c r="AW79" t="n">
-        <v>3.38</v>
+        <v>2.91</v>
       </c>
       <c r="AX79" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AY79" t="n">
         <v>6</v>
       </c>
       <c r="AZ79" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="BA79" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="BB79" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BC79" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="BD79" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="BE79" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="BF79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI79" t="n">
         <v>4</v>
       </c>
-      <c r="BG79" t="n">
-        <v>10</v>
-      </c>
-      <c r="BH79" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>13</v>
-      </c>
       <c r="BJ79" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BK79" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -17608,7 +17608,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>2812307</v>
+        <v>2812311</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -17628,12 +17628,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>UD Oliveirense</t>
+          <t>FC Penafiel</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>CD Nacional</t>
+          <t>CD Feirense</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -17649,10 +17649,10 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -17661,53 +17661,53 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T85" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="U85" t="n">
         <v>2.05</v>
       </c>
       <c r="V85" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W85" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X85" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="Y85" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Z85" t="n">
         <v>1.33</v>
       </c>
       <c r="AA85" t="n">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="AB85" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC85" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AD85" t="n">
         <v>3.1</v>
       </c>
       <c r="AE85" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="AF85" t="n">
         <v>1.07</v>
@@ -17719,79 +17719,79 @@
         <v>1.36</v>
       </c>
       <c r="AI85" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AJ85" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AK85" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AL85" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AM85" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AN85" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AO85" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.5</v>
       </c>
       <c r="AR85" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AU85" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="AV85" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AW85" t="n">
-        <v>3.23</v>
+        <v>3.48</v>
       </c>
       <c r="AX85" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="AY85" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AZ85" t="n">
-        <v>2.05</v>
+        <v>3.15</v>
       </c>
       <c r="BA85" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BB85" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="BC85" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BD85" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="BE85" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="BF85" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH85" t="n">
         <v>9</v>
@@ -17800,10 +17800,10 @@
         <v>4</v>
       </c>
       <c r="BJ85" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BK85" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -17811,7 +17811,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>2812311</v>
+        <v>2812307</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -17831,12 +17831,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>FC Penafiel</t>
+          <t>UD Oliveirense</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>CD Feirense</t>
+          <t>CD Nacional</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -17852,10 +17852,10 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -17864,53 +17864,53 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T86" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="U86" t="n">
         <v>2.05</v>
       </c>
       <c r="V86" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W86" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X86" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="Y86" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="Z86" t="n">
         <v>1.33</v>
       </c>
       <c r="AA86" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="AB86" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC86" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="AD86" t="n">
         <v>3.1</v>
       </c>
       <c r="AE86" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="AF86" t="n">
         <v>1.07</v>
@@ -17922,79 +17922,79 @@
         <v>1.36</v>
       </c>
       <c r="AI86" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AJ86" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AK86" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AL86" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AM86" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AN86" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AO86" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.5</v>
       </c>
       <c r="AR86" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AU86" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="AV86" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="AW86" t="n">
-        <v>3.48</v>
+        <v>3.23</v>
       </c>
       <c r="AX86" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AY86" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AZ86" t="n">
-        <v>3.15</v>
+        <v>2.05</v>
       </c>
       <c r="BA86" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BB86" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="BC86" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BD86" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="BE86" t="n">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="BF86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG86" t="n">
         <v>4</v>
-      </c>
-      <c r="BG86" t="n">
-        <v>2</v>
       </c>
       <c r="BH86" t="n">
         <v>9</v>
@@ -18003,10 +18003,10 @@
         <v>4</v>
       </c>
       <c r="BJ86" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BK86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -18158,7 +18158,7 @@
         <v>3</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU87" t="n">
         <v>1.49</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT92" t="n">
         <v>1.71</v>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -24909,6 +24909,209 @@
       </c>
       <c r="BK120" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2812343</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44923.58333333334</v>
+      </c>
+      <c r="F121" t="n">
+        <v>14</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Porto II</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>4</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>4</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['16', '65', '72', '79']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>6</v>
+      </c>
+      <c r="S121" t="n">
+        <v>11</v>
+      </c>
+      <c r="T121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT17" t="n">
         <v>1.57</v>
@@ -5572,7 +5572,7 @@
         <v>1.14</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.59</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -8414,7 +8414,7 @@
         <v>1.86</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.88</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT51" t="n">
         <v>1.71</v>
@@ -13286,7 +13286,7 @@
         <v>1.86</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.48</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT65" t="n">
         <v>1.86</v>
@@ -16331,7 +16331,7 @@
         <v>1.57</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.99</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT83" t="n">
         <v>1.5</v>
@@ -20188,7 +20188,7 @@
         <v>0.14</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.34</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT107" t="n">
         <v>1.5</v>
@@ -24045,7 +24045,7 @@
         <v>1.29</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU116" t="n">
         <v>1.86</v>
@@ -25112,6 +25112,209 @@
       </c>
       <c r="BK121" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2812348</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44924.58333333334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Belenenses</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Leixões</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['13', '53']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>6</v>
+      </c>
+      <c r="R122" t="n">
+        <v>6</v>
+      </c>
+      <c r="S122" t="n">
+        <v>12</v>
+      </c>
+      <c r="T122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>1.57</v>
@@ -2730,7 +2730,7 @@
         <v>1.14</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>1.14</v>
@@ -7399,7 +7399,7 @@
         <v>0.57</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU34" t="n">
         <v>1.65</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
         <v>1.14</v>
@@ -10241,7 +10241,7 @@
         <v>1.57</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU48" t="n">
         <v>1.24</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
         <v>0.71</v>
@@ -14098,7 +14098,7 @@
         <v>1.33</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU67" t="n">
         <v>1.81</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT80" t="n">
         <v>1.57</v>
@@ -17346,7 +17346,7 @@
         <v>0.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU83" t="n">
         <v>1.69</v>
@@ -19373,7 +19373,7 @@
         <v>1.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
         <v>1.71</v>
@@ -22421,7 +22421,7 @@
         <v>0.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU108" t="n">
         <v>1.44</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT113" t="n">
         <v>1.57</v>
@@ -25315,6 +25315,209 @@
       </c>
       <c r="BK122" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2812347</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44924.66666666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>14</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>CD Nacional</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Benfica II</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['15', '43']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>2</v>
+      </c>
+      <c r="R123" t="n">
+        <v>5</v>
+      </c>
+      <c r="S123" t="n">
+        <v>7</v>
+      </c>
+      <c r="T123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X123" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK123"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.14</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT3" t="n">
         <v>1.14</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT5" t="n">
         <v>1.14</v>
@@ -1715,7 +1715,7 @@
         <v>1.86</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.57</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>1.14</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU21" t="n">
         <v>2.13</v>
@@ -4963,7 +4963,7 @@
         <v>2.14</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5166,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU23" t="n">
         <v>1.21</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT24" t="n">
         <v>1.57</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT28" t="n">
         <v>1.14</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT36" t="n">
         <v>0.71</v>
@@ -8211,7 +8211,7 @@
         <v>1.57</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT42" t="n">
         <v>0.71</v>
@@ -9429,7 +9429,7 @@
         <v>2.14</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU44" t="n">
         <v>1.82</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT47" t="n">
         <v>1.71</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT54" t="n">
         <v>2</v>
@@ -11662,7 +11662,7 @@
         <v>1.86</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT58" t="n">
         <v>2</v>
@@ -12474,7 +12474,7 @@
         <v>1.57</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU59" t="n">
         <v>1.88</v>
@@ -12677,7 +12677,7 @@
         <v>1.86</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU60" t="n">
         <v>1.88</v>
@@ -14095,7 +14095,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT67" t="n">
         <v>1.29</v>
@@ -14707,7 +14707,7 @@
         <v>0.14</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU70" t="n">
         <v>1.32</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT73" t="n">
         <v>1.71</v>
@@ -15519,7 +15519,7 @@
         <v>1.86</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU74" t="n">
         <v>1.54</v>
@@ -17143,7 +17143,7 @@
         <v>0.14</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU82" t="n">
         <v>1.24</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT84" t="n">
         <v>1.57</v>
@@ -17749,7 +17749,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT85" t="n">
         <v>1.71</v>
@@ -17952,7 +17952,7 @@
         <v>1.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT86" t="n">
         <v>1.33</v>
@@ -18564,7 +18564,7 @@
         <v>1.57</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU89" t="n">
         <v>1.51</v>
@@ -20797,7 +20797,7 @@
         <v>1.29</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU100" t="n">
         <v>1.82</v>
@@ -21406,7 +21406,7 @@
         <v>1.83</v>
       </c>
       <c r="AT103" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU103" t="n">
         <v>1.43</v>
@@ -21606,7 +21606,7 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT104" t="n">
         <v>1.86</v>
@@ -21809,10 +21809,10 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU105" t="n">
         <v>1.89</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT108" t="n">
         <v>1.29</v>
@@ -25517,6 +25517,615 @@
         <v>17</v>
       </c>
       <c r="BK123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2812341</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44925.58333333334</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Sporting Covilhã</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['2', '37']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>1</v>
+      </c>
+      <c r="R124" t="n">
+        <v>9</v>
+      </c>
+      <c r="S124" t="n">
+        <v>10</v>
+      </c>
+      <c r="T124" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V124" t="n">
+        <v>5</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2812342</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>44925.66666666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>5</v>
+      </c>
+      <c r="R125" t="n">
+        <v>4</v>
+      </c>
+      <c r="S125" t="n">
+        <v>9</v>
+      </c>
+      <c r="T125" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2812346</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>44926.33333333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>FC Penafiel</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['5', '65']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>15</v>
+      </c>
+      <c r="R126" t="n">
+        <v>3</v>
+      </c>
+      <c r="S126" t="n">
+        <v>18</v>
+      </c>
+      <c r="T126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK126" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.14</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT8" t="n">
         <v>1.57</v>
@@ -4557,7 +4557,7 @@
         <v>1.86</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU20" t="n">
         <v>1.67</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT23" t="n">
         <v>1.29</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT40" t="n">
         <v>0.43</v>
@@ -9835,7 +9835,7 @@
         <v>1.14</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU46" t="n">
         <v>2.43</v>
@@ -14504,7 +14504,7 @@
         <v>0.57</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU69" t="n">
         <v>1.34</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT71" t="n">
         <v>1.33</v>
@@ -18155,7 +18155,7 @@
         <v>2.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT87" t="n">
         <v>1.86</v>
@@ -18361,7 +18361,7 @@
         <v>1.29</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU88" t="n">
         <v>1.7</v>
@@ -20997,7 +20997,7 @@
         <v>2.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT101" t="n">
         <v>1.57</v>
@@ -22218,7 +22218,7 @@
         <v>0.57</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU107" t="n">
         <v>1.63</v>
@@ -26126,6 +26126,209 @@
         <v>12</v>
       </c>
       <c r="BK126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2812340</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44926.45833333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>14</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>11</v>
+      </c>
+      <c r="R127" t="n">
+        <v>3</v>
+      </c>
+      <c r="S127" t="n">
+        <v>14</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V127" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK127" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3542,7 +3542,7 @@
         <v>1.57</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT19" t="n">
         <v>0.71</v>
@@ -6790,7 +6790,7 @@
         <v>0.57</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU31" t="n">
         <v>1.24</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT33" t="n">
         <v>1.33</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT52" t="n">
         <v>1.86</v>
@@ -11459,7 +11459,7 @@
         <v>0.43</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -12271,7 +12271,7 @@
         <v>0.86</v>
       </c>
       <c r="AT58" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU58" t="n">
         <v>1.97</v>
@@ -13892,7 +13892,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT66" t="n">
         <v>1.57</v>
@@ -16128,7 +16128,7 @@
         <v>1.14</v>
       </c>
       <c r="AT77" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU77" t="n">
         <v>1.94</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT90" t="n">
         <v>1.57</v>
@@ -19579,7 +19579,7 @@
         <v>1.86</v>
       </c>
       <c r="AT94" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU94" t="n">
         <v>1.96</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT103" t="n">
         <v>1.29</v>
@@ -24248,7 +24248,7 @@
         <v>1.14</v>
       </c>
       <c r="AT117" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU117" t="n">
         <v>1.93</v>
@@ -26330,6 +26330,209 @@
       </c>
       <c r="BK127" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2812354</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44931.625</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Leixões</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>7</v>
+      </c>
+      <c r="R128" t="n">
+        <v>8</v>
+      </c>
+      <c r="S128" t="n">
+        <v>15</v>
+      </c>
+      <c r="T128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT2" t="n">
         <v>1.29</v>
@@ -3136,7 +3136,7 @@
         <v>0.57</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT15" t="n">
         <v>2.13</v>
@@ -3948,7 +3948,7 @@
         <v>0.57</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT22" t="n">
         <v>1.71</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT30" t="n">
         <v>1.57</v>
@@ -7196,7 +7196,7 @@
         <v>1.57</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU33" t="n">
         <v>1.41</v>
@@ -7602,7 +7602,7 @@
         <v>1.86</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU35" t="n">
         <v>1.56</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT38" t="n">
         <v>1.29</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT44" t="n">
         <v>0.71</v>
@@ -10444,7 +10444,7 @@
         <v>1.29</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU49" t="n">
         <v>1.59</v>
@@ -10647,7 +10647,7 @@
         <v>0.14</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU50" t="n">
         <v>1.13</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT57" t="n">
         <v>1.14</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT61" t="n">
         <v>1.57</v>
@@ -13895,7 +13895,7 @@
         <v>1.57</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU66" t="n">
         <v>1.4</v>
@@ -14910,7 +14910,7 @@
         <v>2.71</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU71" t="n">
         <v>1.38</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -17549,7 +17549,7 @@
         <v>0.43</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU84" t="n">
         <v>1.64</v>
@@ -17955,7 +17955,7 @@
         <v>1.57</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT95" t="n">
         <v>1.14</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT96" t="n">
         <v>0.43</v>
@@ -21000,7 +21000,7 @@
         <v>2.71</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU101" t="n">
         <v>1.54</v>
@@ -22015,7 +22015,7 @@
         <v>1.14</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU106" t="n">
         <v>2.03</v>
@@ -23027,7 +23027,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT111" t="n">
         <v>1.71</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU113" t="n">
         <v>1.74</v>
@@ -23636,7 +23636,7 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT114" t="n">
         <v>0.71</v>
@@ -24448,7 +24448,7 @@
         <v>0.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT118" t="n">
         <v>0.71</v>
@@ -26533,6 +26533,412 @@
       </c>
       <c r="BK128" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2812350</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44933.33333333334</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Porto II</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['49', '88']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>8</v>
+      </c>
+      <c r="R129" t="n">
+        <v>4</v>
+      </c>
+      <c r="S129" t="n">
+        <v>12</v>
+      </c>
+      <c r="T129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V129" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2812355</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44933.45833333334</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>CD Nacional</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>7</v>
+      </c>
+      <c r="R130" t="n">
+        <v>4</v>
+      </c>
+      <c r="S130" t="n">
+        <v>11</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V130" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X130" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK130"/>
+  <dimension ref="A1:BK132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>0.43</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT13" t="n">
         <v>1.14</v>
@@ -3745,7 +3745,7 @@
         <v>1.57</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT18" t="n">
         <v>1.71</v>
@@ -5978,7 +5978,7 @@
         <v>1.57</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU27" t="n">
         <v>2.41</v>
@@ -6181,7 +6181,7 @@
         <v>0.86</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU28" t="n">
         <v>2.35</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT34" t="n">
         <v>1.29</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT37" t="n">
         <v>1.86</v>
@@ -8617,7 +8617,7 @@
         <v>2.71</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU45" t="n">
         <v>1.91</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT49" t="n">
         <v>1.38</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT53" t="n">
         <v>1.57</v>
@@ -11865,7 +11865,7 @@
         <v>1.14</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU56" t="n">
         <v>2.04</v>
@@ -13489,7 +13489,7 @@
         <v>1.14</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.87</v>
@@ -14501,7 +14501,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT69" t="n">
         <v>1.43</v>
@@ -15110,7 +15110,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT72" t="n">
         <v>1.57</v>
@@ -15922,10 +15922,10 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU76" t="n">
         <v>1.38</v>
@@ -16940,7 +16940,7 @@
         <v>1.14</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.93</v>
@@ -18358,7 +18358,7 @@
         <v>1.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT88" t="n">
         <v>1.43</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT91" t="n">
         <v>1.14</v>
@@ -19782,7 +19782,7 @@
         <v>1.75</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -19985,7 +19985,7 @@
         <v>2.25</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.79</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT100" t="n">
         <v>0.71</v>
@@ -22621,7 +22621,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT109" t="n">
         <v>1.57</v>
@@ -22827,7 +22827,7 @@
         <v>1.86</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.49</v>
@@ -23842,7 +23842,7 @@
         <v>0.14</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU115" t="n">
         <v>1.39</v>
@@ -24042,7 +24042,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT116" t="n">
         <v>1</v>
@@ -26923,21 +26923,427 @@
         <v>2.15</v>
       </c>
       <c r="BF130" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG130" t="n">
         <v>5</v>
       </c>
       <c r="BH130" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2812351</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44933.52083333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>2</v>
+      </c>
+      <c r="R131" t="n">
+        <v>4</v>
+      </c>
+      <c r="S131" t="n">
         <v>6</v>
       </c>
-      <c r="BI130" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ130" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK130" t="n">
+      <c r="T131" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V131" t="n">
+        <v>4</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2812352</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44933.52083333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>CD Mafra</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Belenenses</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>5</v>
+      </c>
+      <c r="R132" t="n">
+        <v>3</v>
+      </c>
+      <c r="S132" t="n">
+        <v>8</v>
+      </c>
+      <c r="T132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X132" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK132" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK132"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT6" t="n">
         <v>1.71</v>
@@ -2121,7 +2121,7 @@
         <v>2.71</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.29</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT14" t="n">
         <v>1.86</v>
@@ -4151,7 +4151,7 @@
         <v>1.13</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.57</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT20" t="n">
         <v>1.43</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>0.71</v>
@@ -5369,7 +5369,7 @@
         <v>0.43</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>2.46</v>
@@ -6384,7 +6384,7 @@
         <v>1.57</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU29" t="n">
         <v>1.76</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT35" t="n">
         <v>1.38</v>
@@ -7805,7 +7805,7 @@
         <v>1.57</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU36" t="n">
         <v>2.17</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>1.57</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>2.12</v>
@@ -9023,7 +9023,7 @@
         <v>0.86</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU42" t="n">
         <v>2.15</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.43</v>
@@ -10038,7 +10038,7 @@
         <v>1.57</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU47" t="n">
         <v>1.61</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT50" t="n">
         <v>1.14</v>
@@ -10850,7 +10850,7 @@
         <v>0.57</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU51" t="n">
         <v>1.56</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT55" t="n">
         <v>1.71</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
         <v>1.38</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT60" t="n">
         <v>0.71</v>
@@ -12880,7 +12880,7 @@
         <v>2.25</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.71</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU62" t="n">
         <v>1.84</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>1.57</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU68" t="n">
         <v>1.64</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT70" t="n">
         <v>1.71</v>
@@ -15316,7 +15316,7 @@
         <v>0.43</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU73" t="n">
         <v>1.77</v>
@@ -15516,7 +15516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT74" t="n">
         <v>0.71</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT75" t="n">
         <v>1.14</v>
@@ -16534,7 +16534,7 @@
         <v>1.57</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU79" t="n">
         <v>1.89</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.93</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
         <v>0.5</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT82" t="n">
         <v>1.29</v>
@@ -17752,7 +17752,7 @@
         <v>0.86</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU85" t="n">
         <v>2</v>
@@ -19173,7 +19173,7 @@
         <v>1.57</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU93" t="n">
         <v>1.77</v>
@@ -19576,7 +19576,7 @@
         <v>2.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT94" t="n">
         <v>2.13</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU98" t="n">
         <v>1.97</v>
@@ -20591,10 +20591,10 @@
         <v>1.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -22624,7 +22624,7 @@
         <v>0.63</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.37</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT110" t="n">
         <v>0.5</v>
@@ -23030,7 +23030,7 @@
         <v>2.25</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU111" t="n">
         <v>1.85</v>
@@ -23230,10 +23230,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU112" t="n">
         <v>1.88</v>
@@ -23639,7 +23639,7 @@
         <v>1.75</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -23839,7 +23839,7 @@
         <v>1.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT115" t="n">
         <v>1.38</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT117" t="n">
         <v>2.13</v>
@@ -24451,7 +24451,7 @@
         <v>2.25</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU118" t="n">
         <v>1.82</v>
@@ -27345,6 +27345,818 @@
       </c>
       <c r="BK132" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2812353</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44934.33333333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Sporting Covilhã</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Vilafranquense</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>4</v>
+      </c>
+      <c r="R133" t="n">
+        <v>7</v>
+      </c>
+      <c r="S133" t="n">
+        <v>11</v>
+      </c>
+      <c r="T133" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2812356</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44934.45833333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['66', '74']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['38', '61']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>7</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>9</v>
+      </c>
+      <c r="T134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V134" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2812357</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44934.45833333334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Benfica II</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>CD Feirense</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>3</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>4</v>
+      </c>
+      <c r="L135" t="n">
+        <v>3</v>
+      </c>
+      <c r="M135" t="n">
+        <v>6</v>
+      </c>
+      <c r="N135" t="n">
+        <v>9</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['8', '19', '28']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['26', '51', '64', '75', '85', '87']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>8</v>
+      </c>
+      <c r="R135" t="n">
+        <v>5</v>
+      </c>
+      <c r="S135" t="n">
+        <v>13</v>
+      </c>
+      <c r="T135" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X135" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2812349</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44935.71875</v>
+      </c>
+      <c r="F136" t="n">
+        <v>15</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>CD Tondela</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>FC Penafiel</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>5</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2</v>
+      </c>
+      <c r="S136" t="n">
+        <v>7</v>
+      </c>
+      <c r="T136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.57</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT5" t="n">
         <v>1.38</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT8" t="n">
         <v>1.5</v>
@@ -2324,7 +2324,7 @@
         <v>1.57</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU21" t="n">
         <v>2.13</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.21</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -5572,7 +5572,7 @@
         <v>1.14</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU25" t="n">
         <v>1.59</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.5</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT28" t="n">
         <v>1.38</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT29" t="n">
         <v>1.88</v>
@@ -8211,7 +8211,7 @@
         <v>1.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -8414,7 +8414,7 @@
         <v>1.63</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU39" t="n">
         <v>1.88</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT40" t="n">
         <v>0.5</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT42" t="n">
         <v>0.75</v>
@@ -9226,7 +9226,7 @@
         <v>1.14</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>1.79</v>
@@ -9429,7 +9429,7 @@
         <v>2.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU44" t="n">
         <v>1.82</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT48" t="n">
         <v>1.29</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT54" t="n">
         <v>2.13</v>
@@ -12068,7 +12068,7 @@
         <v>1.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>2</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT58" t="n">
         <v>2.13</v>
@@ -12474,7 +12474,7 @@
         <v>1.57</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU59" t="n">
         <v>1.88</v>
@@ -12677,7 +12677,7 @@
         <v>1.63</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU60" t="n">
         <v>1.88</v>
@@ -13286,7 +13286,7 @@
         <v>1.75</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU63" t="n">
         <v>1.48</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT68" t="n">
         <v>1.88</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT71" t="n">
         <v>1.14</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT73" t="n">
         <v>1.88</v>
@@ -15519,7 +15519,7 @@
         <v>1.75</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU74" t="n">
         <v>1.54</v>
@@ -15722,7 +15722,7 @@
         <v>1.63</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>2.03</v>
@@ -16331,7 +16331,7 @@
         <v>1.75</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU78" t="n">
         <v>1.99</v>
@@ -17143,7 +17143,7 @@
         <v>0.25</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU82" t="n">
         <v>1.24</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT84" t="n">
         <v>1.38</v>
@@ -17749,7 +17749,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT85" t="n">
         <v>1.88</v>
@@ -18155,7 +18155,7 @@
         <v>2.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT87" t="n">
         <v>1.86</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT89" t="n">
         <v>1.71</v>
@@ -18970,7 +18970,7 @@
         <v>0.63</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.43</v>
@@ -20188,7 +20188,7 @@
         <v>0.25</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU97" t="n">
         <v>1.34</v>
@@ -20797,7 +20797,7 @@
         <v>1.13</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU100" t="n">
         <v>1.82</v>
@@ -20997,7 +20997,7 @@
         <v>2.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT101" t="n">
         <v>1.38</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT102" t="n">
         <v>1.57</v>
@@ -21406,7 +21406,7 @@
         <v>1.57</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU103" t="n">
         <v>1.43</v>
@@ -21606,7 +21606,7 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT104" t="n">
         <v>1.86</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT108" t="n">
         <v>1.29</v>
@@ -24045,7 +24045,7 @@
         <v>1.13</v>
       </c>
       <c r="AT116" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU116" t="n">
         <v>1.86</v>
@@ -24651,10 +24651,10 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.53</v>
@@ -25263,7 +25263,7 @@
         <v>0.57</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU122" t="n">
         <v>1.74</v>
@@ -25669,7 +25669,7 @@
         <v>1.57</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU124" t="n">
         <v>1.88</v>
@@ -25869,10 +25869,10 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26072,7 +26072,7 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT126" t="n">
         <v>1.71</v>
@@ -26275,7 +26275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT127" t="n">
         <v>1.43</v>
@@ -28157,6 +28157,818 @@
       </c>
       <c r="BK136" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2812358</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44939.625</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>CD Mafra</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>4</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>6</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['48', '60', '81', '89']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['45+2', '56']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>9</v>
+      </c>
+      <c r="R137" t="n">
+        <v>6</v>
+      </c>
+      <c r="S137" t="n">
+        <v>15</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V137" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2812363</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44940.33333333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>FC Penafiel</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>6</v>
+      </c>
+      <c r="R138" t="n">
+        <v>4</v>
+      </c>
+      <c r="S138" t="n">
+        <v>10</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2812360</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44940.45833333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Sporting Covilhã</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['12', '22']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>4</v>
+      </c>
+      <c r="R139" t="n">
+        <v>5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>9</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2812361</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44940.52083333334</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Vilafranquense</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Leixões</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['66', '81']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>3</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1</v>
+      </c>
+      <c r="S140" t="n">
+        <v>4</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.63</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT7" t="n">
         <v>1.43</v>
@@ -4963,7 +4963,7 @@
         <v>2.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT25" t="n">
         <v>0.89</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT64" t="n">
         <v>0.5</v>
@@ -14707,7 +14707,7 @@
         <v>0.25</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU70" t="n">
         <v>1.32</v>
@@ -16125,7 +16125,7 @@
         <v>2.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT77" t="n">
         <v>2.13</v>
@@ -18564,7 +18564,7 @@
         <v>1.75</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU89" t="n">
         <v>1.51</v>
@@ -21812,7 +21812,7 @@
         <v>1.57</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU105" t="n">
         <v>1.89</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT106" t="n">
         <v>1.14</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT120" t="n">
         <v>1.57</v>
@@ -26075,7 +26075,7 @@
         <v>0.88</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU126" t="n">
         <v>1.85</v>
@@ -28750,19 +28750,19 @@
         <v>2.1</v>
       </c>
       <c r="BF139" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG139" t="n">
         <v>3</v>
       </c>
       <c r="BH139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI139" t="n">
         <v>1</v>
       </c>
       <c r="BJ139" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BK139" t="n">
         <v>4</v>
@@ -28830,13 +28830,13 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S140" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T140" t="n">
         <v>3.1</v>
@@ -28953,22 +28953,225 @@
         <v>2.5</v>
       </c>
       <c r="BF140" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG140" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2812366</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44941.33333333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>CD Feirense</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>7</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1</v>
+      </c>
+      <c r="S141" t="n">
+        <v>8</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U141" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF141" t="n">
         <v>4</v>
       </c>
-      <c r="BI140" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ140" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK140" t="n">
+      <c r="BG141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH141" t="n">
         <v>4</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT2" t="n">
         <v>1.25</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0.75</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.13</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.63</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.63</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU20" t="n">
         <v>1.67</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT22" t="n">
         <v>1.63</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>0.5</v>
@@ -6181,7 +6181,7 @@
         <v>0.88</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU28" t="n">
         <v>2.35</v>
@@ -6587,7 +6587,7 @@
         <v>1.75</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU30" t="n">
         <v>0.91</v>
@@ -7399,7 +7399,7 @@
         <v>0.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU34" t="n">
         <v>1.65</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT36" t="n">
         <v>0.75</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT44" t="n">
         <v>0.63</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU45" t="n">
         <v>1.91</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU46" t="n">
         <v>2.43</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
         <v>1.88</v>
@@ -10241,7 +10241,7 @@
         <v>1.75</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU48" t="n">
         <v>1.24</v>
@@ -11256,7 +11256,7 @@
         <v>0.63</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.55</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU56" t="n">
         <v>2.04</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
         <v>1.25</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT61" t="n">
         <v>1.5</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT62" t="n">
         <v>0.75</v>
@@ -14095,10 +14095,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU67" t="n">
         <v>1.81</v>
@@ -14504,7 +14504,7 @@
         <v>0.63</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU69" t="n">
         <v>1.34</v>
@@ -15113,7 +15113,7 @@
         <v>1.13</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.85</v>
@@ -15925,7 +15925,7 @@
         <v>0.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU76" t="n">
         <v>1.38</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT79" t="n">
         <v>1.88</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>0.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU83" t="n">
         <v>1.69</v>
@@ -17952,7 +17952,7 @@
         <v>1.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT86" t="n">
         <v>1.14</v>
@@ -18361,7 +18361,7 @@
         <v>1.13</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU88" t="n">
         <v>1.7</v>
@@ -18767,7 +18767,7 @@
         <v>1.57</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.34</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
         <v>1.88</v>
@@ -19373,7 +19373,7 @@
         <v>1.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT93" t="n">
         <v>1.88</v>
@@ -19782,7 +19782,7 @@
         <v>1.75</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT96" t="n">
         <v>0.5</v>
@@ -21203,7 +21203,7 @@
         <v>1.75</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU102" t="n">
         <v>1.59</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT105" t="n">
         <v>1.63</v>
@@ -22218,7 +22218,7 @@
         <v>0.57</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU107" t="n">
         <v>1.63</v>
@@ -22421,7 +22421,7 @@
         <v>0.75</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU108" t="n">
         <v>1.44</v>
@@ -23027,7 +23027,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT111" t="n">
         <v>1.88</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT113" t="n">
         <v>1.38</v>
@@ -23842,7 +23842,7 @@
         <v>0.25</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU115" t="n">
         <v>1.39</v>
@@ -24448,7 +24448,7 @@
         <v>0.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT118" t="n">
         <v>0.75</v>
@@ -24857,7 +24857,7 @@
         <v>1.13</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU120" t="n">
         <v>2.07</v>
@@ -25057,7 +25057,7 @@
         <v>2.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT121" t="n">
         <v>1.86</v>
@@ -25463,10 +25463,10 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU123" t="n">
         <v>1.66</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT124" t="n">
         <v>0.63</v>
@@ -26278,7 +26278,7 @@
         <v>2.75</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU127" t="n">
         <v>1.59</v>
@@ -26884,7 +26884,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT130" t="n">
         <v>1.14</v>
@@ -27293,7 +27293,7 @@
         <v>1.13</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU132" t="n">
         <v>1.88</v>
@@ -29033,13 +29033,13 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S141" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T141" t="n">
         <v>2.97</v>
@@ -29156,22 +29156,834 @@
         <v>2.2</v>
       </c>
       <c r="BF141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2812359</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44941.45833333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>CD Nacional</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>8</v>
+      </c>
+      <c r="R142" t="n">
+        <v>8</v>
+      </c>
+      <c r="S142" t="n">
+        <v>16</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2812362</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44941.52083333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Benfica II</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K143" t="n">
+        <v>5</v>
+      </c>
+      <c r="L143" t="n">
+        <v>5</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2</v>
+      </c>
+      <c r="N143" t="n">
+        <v>7</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['10', '27', '37', '48', '57']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['17', '21']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
         <v>4</v>
       </c>
-      <c r="BG141" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH141" t="n">
+      <c r="R143" t="n">
+        <v>5</v>
+      </c>
+      <c r="S143" t="n">
+        <v>9</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V143" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH143" t="n">
         <v>4</v>
       </c>
-      <c r="BI141" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ141" t="n">
+      <c r="BI143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2812364</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44941.52083333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Porto II</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>CD Tondela</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>11</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2</v>
+      </c>
+      <c r="S144" t="n">
+        <v>13</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK144" t="n">
         <v>8</v>
       </c>
-      <c r="BK141" t="n">
-        <v>6</v>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2812365</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44941.625</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Belenenses</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['68', '90']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>5</v>
+      </c>
+      <c r="R145" t="n">
+        <v>5</v>
+      </c>
+      <c r="S145" t="n">
+        <v>10</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V145" t="n">
+        <v>4</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT6" t="n">
         <v>1.63</v>
@@ -2121,7 +2121,7 @@
         <v>2.75</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT11" t="n">
         <v>1.13</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT12" t="n">
         <v>1.88</v>
@@ -3136,7 +3136,7 @@
         <v>0.63</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT18" t="n">
         <v>1.88</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT20" t="n">
         <v>1.63</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT21" t="n">
         <v>0.63</v>
@@ -5369,7 +5369,7 @@
         <v>0.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU24" t="n">
         <v>2.46</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU27" t="n">
         <v>2.41</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT30" t="n">
         <v>1.5</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.24</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT32" t="n">
         <v>1.88</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU33" t="n">
         <v>1.41</v>
@@ -7602,7 +7602,7 @@
         <v>1.75</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.56</v>
@@ -7805,7 +7805,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU36" t="n">
         <v>2.17</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT38" t="n">
         <v>1.25</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT39" t="n">
         <v>0.89</v>
@@ -8617,7 +8617,7 @@
         <v>2.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU41" t="n">
         <v>2.12</v>
@@ -9023,7 +9023,7 @@
         <v>0.88</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU42" t="n">
         <v>2.15</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT46" t="n">
         <v>1.63</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1.59</v>
@@ -10644,10 +10644,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU50" t="n">
         <v>1.13</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT51" t="n">
         <v>1.88</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -11459,7 +11459,7 @@
         <v>0.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT56" t="n">
         <v>1.22</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12271,7 +12271,7 @@
         <v>0.88</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU58" t="n">
         <v>1.97</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT60" t="n">
         <v>0.63</v>
@@ -12880,7 +12880,7 @@
         <v>2.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU61" t="n">
         <v>1.71</v>
@@ -13083,7 +13083,7 @@
         <v>0.89</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU62" t="n">
         <v>1.84</v>
@@ -13489,7 +13489,7 @@
         <v>1.13</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU64" t="n">
         <v>1.87</v>
@@ -13689,10 +13689,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -13892,10 +13892,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU66" t="n">
         <v>1.4</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT70" t="n">
         <v>1.63</v>
@@ -14910,7 +14910,7 @@
         <v>2.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU71" t="n">
         <v>1.38</v>
@@ -15110,7 +15110,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT72" t="n">
         <v>1.5</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT75" t="n">
         <v>1</v>
@@ -16128,7 +16128,7 @@
         <v>1.13</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU77" t="n">
         <v>1.94</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT78" t="n">
         <v>0.89</v>
@@ -16737,7 +16737,7 @@
         <v>0.89</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU80" t="n">
         <v>1.93</v>
@@ -16937,10 +16937,10 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU81" t="n">
         <v>1.93</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT82" t="n">
         <v>1.25</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT83" t="n">
         <v>1.13</v>
@@ -17549,7 +17549,7 @@
         <v>0.75</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU84" t="n">
         <v>1.64</v>
@@ -17955,7 +17955,7 @@
         <v>1.75</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -18158,7 +18158,7 @@
         <v>2.75</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU87" t="n">
         <v>1.49</v>
@@ -18358,7 +18358,7 @@
         <v>1.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT88" t="n">
         <v>1.63</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT90" t="n">
         <v>1.5</v>
@@ -19576,10 +19576,10 @@
         <v>2.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.96</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT95" t="n">
         <v>1.22</v>
@@ -19985,7 +19985,7 @@
         <v>2.33</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU96" t="n">
         <v>1.79</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT97" t="n">
         <v>0.89</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU98" t="n">
         <v>1.97</v>
@@ -20594,7 +20594,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT100" t="n">
         <v>0.63</v>
@@ -21000,7 +21000,7 @@
         <v>2.75</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU101" t="n">
         <v>1.54</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT103" t="n">
         <v>1.25</v>
@@ -21609,7 +21609,7 @@
         <v>0.88</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -22015,7 +22015,7 @@
         <v>1.13</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU106" t="n">
         <v>2.03</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT107" t="n">
         <v>1.63</v>
@@ -22624,7 +22624,7 @@
         <v>0.63</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU109" t="n">
         <v>1.37</v>
@@ -22827,7 +22827,7 @@
         <v>1.75</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU110" t="n">
         <v>1.49</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT112" t="n">
         <v>1.88</v>
@@ -23436,7 +23436,7 @@
         <v>0.89</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU113" t="n">
         <v>1.74</v>
@@ -23636,10 +23636,10 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -23839,7 +23839,7 @@
         <v>1.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT115" t="n">
         <v>1.22</v>
@@ -24042,7 +24042,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT116" t="n">
         <v>0.89</v>
@@ -24245,10 +24245,10 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.93</v>
@@ -24451,7 +24451,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU118" t="n">
         <v>1.82</v>
@@ -25060,7 +25060,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU121" t="n">
         <v>1.75</v>
@@ -25260,7 +25260,7 @@
         <v>1.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT122" t="n">
         <v>0.89</v>
@@ -26478,10 +26478,10 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU128" t="n">
         <v>1.38</v>
@@ -26681,10 +26681,10 @@
         <v>1.57</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU129" t="n">
         <v>1.82</v>
@@ -26887,7 +26887,7 @@
         <v>2.33</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU130" t="n">
         <v>1.86</v>
@@ -27090,7 +27090,7 @@
         <v>0.63</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU131" t="n">
         <v>1.4</v>
@@ -27290,7 +27290,7 @@
         <v>1.14</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT132" t="n">
         <v>1.22</v>
@@ -27493,10 +27493,10 @@
         <v>1.57</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU133" t="n">
         <v>1.42</v>
@@ -27699,7 +27699,7 @@
         <v>1.75</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU134" t="n">
         <v>1.51</v>
@@ -27899,7 +27899,7 @@
         <v>1.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT135" t="n">
         <v>1.88</v>
@@ -28102,7 +28102,7 @@
         <v>1.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT136" t="n">
         <v>1.88</v>
@@ -29983,6 +29983,1427 @@
         <v>10</v>
       </c>
       <c r="BK145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2812368</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44947.33333333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>CD Nacional</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>8</v>
+      </c>
+      <c r="R146" t="n">
+        <v>5</v>
+      </c>
+      <c r="S146" t="n">
+        <v>13</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V146" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2812375</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44947.40625</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Belenenses</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Vilafranquense</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>3</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['9', '44', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>9</v>
+      </c>
+      <c r="R147" t="n">
+        <v>6</v>
+      </c>
+      <c r="S147" t="n">
+        <v>15</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2812373</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44947.52083333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Leixões</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['18', '30']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>8</v>
+      </c>
+      <c r="R148" t="n">
+        <v>8</v>
+      </c>
+      <c r="S148" t="n">
+        <v>16</v>
+      </c>
+      <c r="T148" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V148" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2812374</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44947.52083333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>CD Mafra</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>2</v>
+      </c>
+      <c r="R149" t="n">
+        <v>9</v>
+      </c>
+      <c r="S149" t="n">
+        <v>11</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V149" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2812370</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44948.33333333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Sporting Covilhã</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>5</v>
+      </c>
+      <c r="R150" t="n">
+        <v>6</v>
+      </c>
+      <c r="S150" t="n">
+        <v>11</v>
+      </c>
+      <c r="T150" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2812369</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44948.45833333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>CD Tondela</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>6</v>
+      </c>
+      <c r="S151" t="n">
+        <v>6</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2812372</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44948.45833333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Benfica II</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Porto II</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>2</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" t="n">
+        <v>4</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['66', '85']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['52', '88']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>6</v>
+      </c>
+      <c r="R152" t="n">
+        <v>5</v>
+      </c>
+      <c r="S152" t="n">
+        <v>11</v>
+      </c>
+      <c r="T152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK152" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT14" t="n">
         <v>1.63</v>
@@ -4151,7 +4151,7 @@
         <v>1.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT35" t="n">
         <v>1.33</v>
@@ -10038,7 +10038,7 @@
         <v>1.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU47" t="n">
         <v>1.61</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT55" t="n">
         <v>1.63</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT63" t="n">
         <v>0.89</v>
@@ -14301,7 +14301,7 @@
         <v>1.75</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU68" t="n">
         <v>1.64</v>
@@ -15516,7 +15516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT74" t="n">
         <v>0.63</v>
@@ -16534,7 +16534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU79" t="n">
         <v>1.89</v>
@@ -19376,7 +19376,7 @@
         <v>0.89</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.77</v>
@@ -20591,7 +20591,7 @@
         <v>1.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT99" t="n">
         <v>1.67</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT110" t="n">
         <v>0.78</v>
@@ -23233,7 +23233,7 @@
         <v>1.56</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU112" t="n">
         <v>1.88</v>
@@ -27696,7 +27696,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT134" t="n">
         <v>0.67</v>
@@ -28105,7 +28105,7 @@
         <v>1.22</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU136" t="n">
         <v>1.86</v>
@@ -31405,6 +31405,209 @@
       </c>
       <c r="BK152" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2812371</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44948.52083333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>17</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>FC Penafiel</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>3</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['12', '40', '54']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>5</v>
+      </c>
+      <c r="R153" t="n">
+        <v>5</v>
+      </c>
+      <c r="S153" t="n">
+        <v>10</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V153" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>0.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT13" t="n">
         <v>1.13</v>
@@ -6384,7 +6384,7 @@
         <v>1.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU29" t="n">
         <v>1.76</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT34" t="n">
         <v>1.13</v>
@@ -10850,7 +10850,7 @@
         <v>0.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU51" t="n">
         <v>1.56</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -14501,7 +14501,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT69" t="n">
         <v>1.63</v>
@@ -15316,7 +15316,7 @@
         <v>0.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU73" t="n">
         <v>1.77</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT76" t="n">
         <v>1.22</v>
@@ -17752,7 +17752,7 @@
         <v>0.88</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU85" t="n">
         <v>2</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -22621,7 +22621,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT109" t="n">
         <v>1.67</v>
@@ -23030,7 +23030,7 @@
         <v>2.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU111" t="n">
         <v>1.85</v>
@@ -27087,7 +27087,7 @@
         <v>0.43</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT131" t="n">
         <v>0.78</v>
@@ -27902,7 +27902,7 @@
         <v>1.56</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU135" t="n">
         <v>1.85</v>
@@ -31608,6 +31608,209 @@
       </c>
       <c r="BK153" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2812367</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44949.6875</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>CD Feirense</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>4</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>6</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['7', '34', '76', '81']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['60', '83']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>4</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2</v>
+      </c>
+      <c r="S154" t="n">
+        <v>6</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT11" t="n">
         <v>1.13</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT18" t="n">
         <v>1.67</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT21" t="n">
         <v>0.63</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>2.41</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.76</v>
@@ -6790,7 +6790,7 @@
         <v>0.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.24</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT32" t="n">
         <v>1.67</v>
@@ -7196,7 +7196,7 @@
         <v>1.38</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.41</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT34" t="n">
         <v>1.13</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.56</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8617,7 +8617,7 @@
         <v>2.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT46" t="n">
         <v>1.63</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT48" t="n">
         <v>1.13</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.59</v>
@@ -10644,10 +10644,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.13</v>
@@ -10850,7 +10850,7 @@
         <v>0.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.56</v>
@@ -11053,7 +11053,7 @@
         <v>1.38</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -11459,7 +11459,7 @@
         <v>0.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>1.63</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT56" t="n">
         <v>1.22</v>
@@ -12271,7 +12271,7 @@
         <v>0.88</v>
       </c>
       <c r="AT58" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.97</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>0.89</v>
@@ -13489,7 +13489,7 @@
         <v>1.13</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.87</v>
@@ -13692,7 +13692,7 @@
         <v>0.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -13895,7 +13895,7 @@
         <v>1.38</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.4</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT68" t="n">
         <v>1.67</v>
@@ -14501,7 +14501,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT69" t="n">
         <v>1.63</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT70" t="n">
         <v>1.63</v>
@@ -14910,7 +14910,7 @@
         <v>2.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.38</v>
@@ -15110,7 +15110,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT72" t="n">
         <v>1.5</v>
@@ -15316,7 +15316,7 @@
         <v>0.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.77</v>
@@ -15516,7 +15516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>0.63</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT76" t="n">
         <v>1.22</v>
@@ -16128,7 +16128,7 @@
         <v>1.13</v>
       </c>
       <c r="AT77" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.94</v>
@@ -16937,10 +16937,10 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.93</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT82" t="n">
         <v>1.25</v>
@@ -17549,7 +17549,7 @@
         <v>0.75</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU84" t="n">
         <v>1.64</v>
@@ -17752,7 +17752,7 @@
         <v>0.88</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU85" t="n">
         <v>2</v>
@@ -17955,7 +17955,7 @@
         <v>1.75</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -18158,7 +18158,7 @@
         <v>2.75</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU87" t="n">
         <v>1.49</v>
@@ -18358,7 +18358,7 @@
         <v>1.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT88" t="n">
         <v>1.63</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT89" t="n">
         <v>1.63</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -19579,7 +19579,7 @@
         <v>1.56</v>
       </c>
       <c r="AT94" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.96</v>
@@ -19985,7 +19985,7 @@
         <v>2.33</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.79</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT97" t="n">
         <v>0.89</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT98" t="n">
         <v>0.67</v>
@@ -20591,7 +20591,7 @@
         <v>1.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT99" t="n">
         <v>1.67</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT100" t="n">
         <v>0.63</v>
@@ -21000,7 +21000,7 @@
         <v>2.75</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU101" t="n">
         <v>1.54</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT102" t="n">
         <v>1.5</v>
@@ -21609,7 +21609,7 @@
         <v>0.88</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -22015,7 +22015,7 @@
         <v>1.13</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>2.03</v>
@@ -22621,7 +22621,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT109" t="n">
         <v>1.67</v>
@@ -22824,10 +22824,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.49</v>
@@ -23030,7 +23030,7 @@
         <v>2.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.85</v>
@@ -23436,7 +23436,7 @@
         <v>0.89</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.74</v>
@@ -23839,7 +23839,7 @@
         <v>1.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT115" t="n">
         <v>1.22</v>
@@ -24042,7 +24042,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT116" t="n">
         <v>0.89</v>
@@ -24245,10 +24245,10 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT117" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.93</v>
@@ -24651,7 +24651,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -25060,7 +25060,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU121" t="n">
         <v>1.75</v>
@@ -26481,7 +26481,7 @@
         <v>1.38</v>
       </c>
       <c r="AT128" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.38</v>
@@ -26684,7 +26684,7 @@
         <v>1.67</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.82</v>
@@ -26887,7 +26887,7 @@
         <v>2.33</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.86</v>
@@ -27087,10 +27087,10 @@
         <v>0.43</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.4</v>
@@ -27290,7 +27290,7 @@
         <v>1.14</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT132" t="n">
         <v>1.22</v>
@@ -27493,7 +27493,7 @@
         <v>1.57</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT133" t="n">
         <v>1.67</v>
@@ -27696,7 +27696,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT134" t="n">
         <v>0.67</v>
@@ -27902,7 +27902,7 @@
         <v>1.56</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU135" t="n">
         <v>1.85</v>
@@ -28102,7 +28102,7 @@
         <v>1.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT136" t="n">
         <v>1.67</v>
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT140" t="n">
         <v>0.89</v>
@@ -30135,7 +30135,7 @@
         <v>1.67</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU146" t="n">
         <v>1.85</v>
@@ -30541,7 +30541,7 @@
         <v>1.38</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -30741,7 +30741,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT149" t="n">
         <v>0.67</v>
@@ -30944,10 +30944,10 @@
         <v>2.13</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT150" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.44</v>
@@ -31147,10 +31147,10 @@
         <v>1.86</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU151" t="n">
         <v>1.82</v>
@@ -31353,7 +31353,7 @@
         <v>1.56</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU152" t="n">
         <v>1.86</v>
@@ -31553,7 +31553,7 @@
         <v>1.88</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT153" t="n">
         <v>1.67</v>
@@ -31756,10 +31756,10 @@
         <v>1.88</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU154" t="n">
         <v>1.41</v>
@@ -31810,6 +31810,1224 @@
         <v>16</v>
       </c>
       <c r="BK154" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2812383</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44955.33333333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>4</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2</v>
+      </c>
+      <c r="S155" t="n">
+        <v>6</v>
+      </c>
+      <c r="T155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2812378</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44955.40625</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Sporting Covilhã</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Porto II</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['31', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>11</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2</v>
+      </c>
+      <c r="S156" t="n">
+        <v>13</v>
+      </c>
+      <c r="T156" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2812382</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>CD Tondela</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>CD Nacional</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>5</v>
+      </c>
+      <c r="R157" t="n">
+        <v>8</v>
+      </c>
+      <c r="S157" t="n">
+        <v>13</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V157" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2812384</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Vilafranquense</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['32', '57']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>5</v>
+      </c>
+      <c r="R158" t="n">
+        <v>4</v>
+      </c>
+      <c r="S158" t="n">
+        <v>9</v>
+      </c>
+      <c r="T158" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2812376</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44955.52083333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>CD Mafra</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>3</v>
+      </c>
+      <c r="N159" t="n">
+        <v>5</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['83', '88']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['32', '35', '90']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>12</v>
+      </c>
+      <c r="R159" t="n">
+        <v>3</v>
+      </c>
+      <c r="S159" t="n">
+        <v>15</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V159" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2812377</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44955.52083333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>CD Feirense</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>4</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>5</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['45+1', '58', '84', '90+1']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>8</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1</v>
+      </c>
+      <c r="S160" t="n">
+        <v>9</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V160" t="n">
+        <v>4</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK160" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4151,7 +4151,7 @@
         <v>1.2</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT19" t="n">
         <v>0.67</v>
@@ -6993,7 +6993,7 @@
         <v>0.3</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>1.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.61</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT52" t="n">
         <v>1.44</v>
@@ -13892,7 +13892,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT66" t="n">
         <v>1.5</v>
@@ -14301,7 +14301,7 @@
         <v>1.56</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.64</v>
@@ -16534,7 +16534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.89</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT90" t="n">
         <v>1.5</v>
@@ -19376,7 +19376,7 @@
         <v>0.89</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU93" t="n">
         <v>1.77</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT103" t="n">
         <v>1.25</v>
@@ -23233,7 +23233,7 @@
         <v>1.56</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU112" t="n">
         <v>1.88</v>
@@ -26478,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT128" t="n">
         <v>2.1</v>
@@ -28105,7 +28105,7 @@
         <v>1.4</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU136" t="n">
         <v>1.86</v>
@@ -30538,7 +30538,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -31556,7 +31556,7 @@
         <v>2</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU153" t="n">
         <v>1.57</v>
@@ -31875,13 +31875,13 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R155" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S155" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T155" t="n">
         <v>3.75</v>
@@ -33029,6 +33029,209 @@
       </c>
       <c r="BK160" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2812379</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44955.625</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Leixões</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>FC Penafiel</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>2</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['49', '76']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>3</v>
+      </c>
+      <c r="R161" t="n">
+        <v>9</v>
+      </c>
+      <c r="S161" t="n">
+        <v>12</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4354,7 +4354,7 @@
         <v>1.56</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT31" t="n">
         <v>2.1</v>
@@ -7805,7 +7805,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU36" t="n">
         <v>2.17</v>
@@ -9023,7 +9023,7 @@
         <v>0.88</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU42" t="n">
         <v>2.15</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT51" t="n">
         <v>1.5</v>
@@ -13083,7 +13083,7 @@
         <v>0.89</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU62" t="n">
         <v>1.84</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT65" t="n">
         <v>1.44</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT83" t="n">
         <v>1.13</v>
@@ -20391,7 +20391,7 @@
         <v>1.4</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU98" t="n">
         <v>1.97</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT107" t="n">
         <v>1.63</v>
@@ -23639,7 +23639,7 @@
         <v>1.67</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -24451,7 +24451,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU118" t="n">
         <v>1.82</v>
@@ -25260,7 +25260,7 @@
         <v>1.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT122" t="n">
         <v>0.89</v>
@@ -27699,7 +27699,7 @@
         <v>2</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU134" t="n">
         <v>1.51</v>
@@ -30335,7 +30335,7 @@
         <v>1.5</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT147" t="n">
         <v>1.67</v>
@@ -30744,7 +30744,7 @@
         <v>1.2</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU149" t="n">
         <v>1.9</v>
@@ -33232,6 +33232,209 @@
       </c>
       <c r="BK161" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2812380</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44956.625</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Belenenses</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>4</v>
+      </c>
+      <c r="R162" t="n">
+        <v>8</v>
+      </c>
+      <c r="S162" t="n">
+        <v>12</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT15" t="n">
         <v>2.1</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT30" t="n">
         <v>1.5</v>
@@ -7399,7 +7399,7 @@
         <v>1.1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.65</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT38" t="n">
         <v>1.25</v>
@@ -10241,7 +10241,7 @@
         <v>1.56</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.24</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>1.75</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.81</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT78" t="n">
         <v>0.89</v>
@@ -17346,7 +17346,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.69</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT95" t="n">
         <v>1.22</v>
@@ -22421,7 +22421,7 @@
         <v>0.75</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.44</v>
@@ -23636,7 +23636,7 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT114" t="n">
         <v>0.7</v>
@@ -25466,7 +25466,7 @@
         <v>0.89</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU123" t="n">
         <v>1.66</v>
@@ -26681,7 +26681,7 @@
         <v>1.57</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT129" t="n">
         <v>1.5</v>
@@ -29526,7 +29526,7 @@
         <v>2.33</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.9</v>
@@ -30132,7 +30132,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -33434,6 +33434,209 @@
         <v>13</v>
       </c>
       <c r="BK162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2812381</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44957.625</v>
+      </c>
+      <c r="F163" t="n">
+        <v>18</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Benfica II</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['50', '90+1']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>9</v>
+      </c>
+      <c r="R163" t="n">
+        <v>5</v>
+      </c>
+      <c r="S163" t="n">
+        <v>14</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK163" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT4" t="n">
         <v>1.5</v>
@@ -1512,7 +1512,7 @@
         <v>0.75</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.56</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.13</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
         <v>0.63</v>
@@ -4557,7 +4557,7 @@
         <v>1.56</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU20" t="n">
         <v>1.67</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU23" t="n">
         <v>1.21</v>
@@ -5369,7 +5369,7 @@
         <v>0.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU24" t="n">
         <v>2.46</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>0.88</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU28" t="n">
         <v>2.35</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT36" t="n">
         <v>0.7</v>
@@ -8211,7 +8211,7 @@
         <v>1.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU41" t="n">
         <v>2.12</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT44" t="n">
         <v>0.63</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU45" t="n">
         <v>1.91</v>
@@ -9835,7 +9835,7 @@
         <v>1.4</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU46" t="n">
         <v>2.43</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
         <v>1.5</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -11865,7 +11865,7 @@
         <v>1.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU56" t="n">
         <v>2.04</v>
@@ -12471,10 +12471,10 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU59" t="n">
         <v>1.88</v>
@@ -12877,10 +12877,10 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU61" t="n">
         <v>1.71</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT62" t="n">
         <v>0.7</v>
@@ -14095,7 +14095,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>1.1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU69" t="n">
         <v>1.34</v>
@@ -14707,7 +14707,7 @@
         <v>0.3</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU70" t="n">
         <v>1.32</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT71" t="n">
         <v>1</v>
@@ -15925,7 +15925,7 @@
         <v>1.1</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU76" t="n">
         <v>1.38</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT79" t="n">
         <v>1.5</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU80" t="n">
         <v>1.93</v>
@@ -17143,7 +17143,7 @@
         <v>0.3</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU82" t="n">
         <v>1.24</v>
@@ -17952,7 +17952,7 @@
         <v>1.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -18155,7 +18155,7 @@
         <v>2.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT87" t="n">
         <v>1.44</v>
@@ -18361,7 +18361,7 @@
         <v>1.2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU88" t="n">
         <v>1.7</v>
@@ -18564,7 +18564,7 @@
         <v>1.56</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU89" t="n">
         <v>1.51</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT92" t="n">
         <v>1.5</v>
@@ -19373,7 +19373,7 @@
         <v>1.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT93" t="n">
         <v>1.5</v>
@@ -19782,7 +19782,7 @@
         <v>1.8</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20997,7 +20997,7 @@
         <v>2.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT101" t="n">
         <v>1.5</v>
@@ -21406,7 +21406,7 @@
         <v>1.56</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU103" t="n">
         <v>1.43</v>
@@ -21809,10 +21809,10 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU105" t="n">
         <v>1.89</v>
@@ -22218,7 +22218,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU107" t="n">
         <v>1.63</v>
@@ -22624,7 +22624,7 @@
         <v>1.1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU109" t="n">
         <v>1.37</v>
@@ -23027,7 +23027,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT111" t="n">
         <v>1.5</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT113" t="n">
         <v>1.5</v>
@@ -23842,7 +23842,7 @@
         <v>0.3</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU115" t="n">
         <v>1.39</v>
@@ -24448,7 +24448,7 @@
         <v>0.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT118" t="n">
         <v>0.7</v>
@@ -25057,7 +25057,7 @@
         <v>2.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT121" t="n">
         <v>1.44</v>
@@ -25463,7 +25463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT124" t="n">
         <v>0.63</v>
@@ -25872,7 +25872,7 @@
         <v>0.75</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26075,7 +26075,7 @@
         <v>0.88</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU126" t="n">
         <v>1.85</v>
@@ -26275,10 +26275,10 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU127" t="n">
         <v>1.59</v>
@@ -26884,7 +26884,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27293,7 +27293,7 @@
         <v>1.2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU132" t="n">
         <v>1.88</v>
@@ -27496,7 +27496,7 @@
         <v>0.3</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU133" t="n">
         <v>1.42</v>
@@ -28305,7 +28305,7 @@
         <v>1.14</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -28511,7 +28511,7 @@
         <v>0.88</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU138" t="n">
         <v>1.82</v>
@@ -29120,7 +29120,7 @@
         <v>1.13</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU141" t="n">
         <v>2.01</v>
@@ -29320,10 +29320,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU142" t="n">
         <v>1.68</v>
@@ -29523,7 +29523,7 @@
         <v>1.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT143" t="n">
         <v>1</v>
@@ -29726,7 +29726,7 @@
         <v>1.57</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT144" t="n">
         <v>1.5</v>
@@ -29929,10 +29929,10 @@
         <v>1.38</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU145" t="n">
         <v>1.75</v>
@@ -30338,7 +30338,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU147" t="n">
         <v>1.73</v>
@@ -33638,6 +33638,1021 @@
       </c>
       <c r="BK163" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2812392</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44960.71875</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['40', '90+2']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['9', '64']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>6</v>
+      </c>
+      <c r="R164" t="n">
+        <v>7</v>
+      </c>
+      <c r="S164" t="n">
+        <v>13</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2</v>
+      </c>
+      <c r="V164" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2812387</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44961.33333333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Vilafranquense</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>4</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['55', '85']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['6', '10']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>6</v>
+      </c>
+      <c r="R165" t="n">
+        <v>3</v>
+      </c>
+      <c r="S165" t="n">
+        <v>9</v>
+      </c>
+      <c r="T165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2812388</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44961.45833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>8</v>
+      </c>
+      <c r="R166" t="n">
+        <v>5</v>
+      </c>
+      <c r="S166" t="n">
+        <v>13</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V166" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2812393</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44961.52083333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Porto II</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Belenenses</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2</v>
+      </c>
+      <c r="N167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['13', '75']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>4</v>
+      </c>
+      <c r="R167" t="n">
+        <v>4</v>
+      </c>
+      <c r="S167" t="n">
+        <v>8</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V167" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2812386</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44961.52083333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>CD Nacional</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>3</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>4</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['2', '51', '79']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>6</v>
+      </c>
+      <c r="R168" t="n">
+        <v>7</v>
+      </c>
+      <c r="S168" t="n">
+        <v>13</v>
+      </c>
+      <c r="T168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT5" t="n">
         <v>1.4</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT6" t="n">
         <v>1.44</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT20" t="n">
         <v>1.56</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT24" t="n">
         <v>1.6</v>
@@ -5572,7 +5572,7 @@
         <v>1.13</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.59</v>
@@ -5775,7 +5775,7 @@
         <v>1.1</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU26" t="n">
         <v>1.5</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT28" t="n">
         <v>1.4</v>
@@ -6587,7 +6587,7 @@
         <v>1.8</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>0.91</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.88</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT42" t="n">
         <v>0.7</v>
@@ -9226,7 +9226,7 @@
         <v>1.13</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU43" t="n">
         <v>1.79</v>
@@ -11256,7 +11256,7 @@
         <v>1.1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU53" t="n">
         <v>1.55</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT54" t="n">
         <v>2.1</v>
@@ -12068,7 +12068,7 @@
         <v>1.8</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU57" t="n">
         <v>2</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT58" t="n">
         <v>2.1</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT60" t="n">
         <v>0.63</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.48</v>
@@ -15113,7 +15113,7 @@
         <v>1.2</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.85</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT73" t="n">
         <v>1.5</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU75" t="n">
         <v>2.03</v>
@@ -16331,7 +16331,7 @@
         <v>1.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.99</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT84" t="n">
         <v>1.5</v>
@@ -17749,7 +17749,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT85" t="n">
         <v>1.5</v>
@@ -18767,7 +18767,7 @@
         <v>1.56</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU90" t="n">
         <v>1.34</v>
@@ -18970,7 +18970,7 @@
         <v>1.1</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU91" t="n">
         <v>1.43</v>
@@ -19576,7 +19576,7 @@
         <v>2.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT94" t="n">
         <v>2.1</v>
@@ -20188,7 +20188,7 @@
         <v>0.3</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.34</v>
@@ -21203,7 +21203,7 @@
         <v>1.56</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU102" t="n">
         <v>1.59</v>
@@ -21606,7 +21606,7 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT104" t="n">
         <v>1.44</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT112" t="n">
         <v>1.5</v>
@@ -24045,7 +24045,7 @@
         <v>1.2</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU116" t="n">
         <v>1.86</v>
@@ -24654,7 +24654,7 @@
         <v>1.56</v>
       </c>
       <c r="AT119" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU119" t="n">
         <v>1.53</v>
@@ -24857,7 +24857,7 @@
         <v>1.13</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU120" t="n">
         <v>2.07</v>
@@ -25263,7 +25263,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.74</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT125" t="n">
         <v>1.11</v>
@@ -26072,7 +26072,7 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT126" t="n">
         <v>1.44</v>
@@ -27899,7 +27899,7 @@
         <v>1.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT135" t="n">
         <v>1.5</v>
@@ -28308,7 +28308,7 @@
         <v>2.78</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU137" t="n">
         <v>1.62</v>
@@ -28508,7 +28508,7 @@
         <v>1.29</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT138" t="n">
         <v>1.11</v>
@@ -28711,7 +28711,7 @@
         <v>0.71</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT139" t="n">
         <v>0.63</v>
@@ -28917,7 +28917,7 @@
         <v>1.56</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU140" t="n">
         <v>1.53</v>
@@ -29729,7 +29729,7 @@
         <v>1.33</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU144" t="n">
         <v>1.81</v>
@@ -31350,7 +31350,7 @@
         <v>1.38</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT152" t="n">
         <v>1.5</v>
@@ -34653,6 +34653,615 @@
       </c>
       <c r="BK168" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2812391</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44962.33333333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>FC Penafiel</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>CD Mafra</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>5</v>
+      </c>
+      <c r="R169" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" t="n">
+        <v>8</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V169" t="n">
+        <v>4</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2812390</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Leixões</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>8</v>
+      </c>
+      <c r="R170" t="n">
+        <v>4</v>
+      </c>
+      <c r="S170" t="n">
+        <v>12</v>
+      </c>
+      <c r="T170" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2812385</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Benfica II</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>CD Tondela</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['69', '75']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>5</v>
+      </c>
+      <c r="R171" t="n">
+        <v>8</v>
+      </c>
+      <c r="S171" t="n">
+        <v>13</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>1.56</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU21" t="n">
         <v>2.13</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>1.1</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
         <v>0.89</v>
@@ -9429,7 +9429,7 @@
         <v>2.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU44" t="n">
         <v>1.82</v>
@@ -12677,7 +12677,7 @@
         <v>1.7</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU60" t="n">
         <v>1.88</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU74" t="n">
         <v>1.54</v>
@@ -16125,7 +16125,7 @@
         <v>2.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT77" t="n">
         <v>2.1</v>
@@ -20797,7 +20797,7 @@
         <v>1.2</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU100" t="n">
         <v>1.82</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
         <v>1</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
         <v>1.33</v>
@@ -25669,7 +25669,7 @@
         <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU124" t="n">
         <v>1.88</v>
@@ -28714,7 +28714,7 @@
         <v>0.67</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU139" t="n">
         <v>1.48</v>
@@ -29117,7 +29117,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT141" t="n">
         <v>1.44</v>
@@ -35262,6 +35262,209 @@
       </c>
       <c r="BK171" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2812389</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44963.625</v>
+      </c>
+      <c r="F172" t="n">
+        <v>19</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>CD Feirense</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Sporting Covilhã</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['34', '53']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>5</v>
+      </c>
+      <c r="R172" t="n">
+        <v>1</v>
+      </c>
+      <c r="S172" t="n">
+        <v>6</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V172" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1236,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>1.8</v>
       </c>
       <c r="AT15">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT31">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU31">
         <v>1.24</v>
@@ -7679,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT53">
         <v>1.33</v>
@@ -11502,7 +11502,7 @@
         <v>0.67</v>
       </c>
       <c r="AT54">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -12266,7 +12266,7 @@
         <v>1.11</v>
       </c>
       <c r="AT58">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU58">
         <v>1.97</v>
@@ -14364,7 +14364,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT69">
         <v>1.56</v>
@@ -15701,7 +15701,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT76">
         <v>1.4</v>
@@ -15895,7 +15895,7 @@
         <v>1</v>
       </c>
       <c r="AT77">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU77">
         <v>1.94</v>
@@ -18566,7 +18566,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT91">
         <v>0.89</v>
@@ -19142,7 +19142,7 @@
         <v>1.7</v>
       </c>
       <c r="AT94">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU94">
         <v>1.96</v>
@@ -22004,7 +22004,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT109">
         <v>1.6</v>
@@ -23535,7 +23535,7 @@
         <v>1.4</v>
       </c>
       <c r="AT117">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU117">
         <v>1.93</v>
@@ -25636,7 +25636,7 @@
         <v>1.56</v>
       </c>
       <c r="AT128">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU128">
         <v>1.38</v>
@@ -26206,7 +26206,7 @@
         <v>0.43</v>
       </c>
       <c r="AS131">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT131">
         <v>1</v>
@@ -29838,7 +29838,7 @@
         <v>0.3</v>
       </c>
       <c r="AT150">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU150">
         <v>1.44</v>
@@ -30599,7 +30599,7 @@
         <v>1.88</v>
       </c>
       <c r="AS154">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT154">
         <v>1.5</v>
@@ -30790,7 +30790,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT155">
         <v>1.44</v>
@@ -31366,7 +31366,7 @@
         <v>1.56</v>
       </c>
       <c r="AT158">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU158">
         <v>1.54</v>
@@ -34092,6 +34092,197 @@
       </c>
       <c r="BK172">
         <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2812402</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44967.625</v>
+      </c>
+      <c r="F173">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>76</v>
+      </c>
+      <c r="H173" t="s">
+        <v>71</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
+        <v>87</v>
+      </c>
+      <c r="P173" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q173">
+        <v>1</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>1</v>
+      </c>
+      <c r="T173">
+        <v>3.6</v>
+      </c>
+      <c r="U173">
+        <v>2</v>
+      </c>
+      <c r="V173">
+        <v>2.9</v>
+      </c>
+      <c r="W173">
+        <v>1.47</v>
+      </c>
+      <c r="X173">
+        <v>2.5</v>
+      </c>
+      <c r="Y173">
+        <v>3.15</v>
+      </c>
+      <c r="Z173">
+        <v>1.32</v>
+      </c>
+      <c r="AA173">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB173">
+        <v>1.04</v>
+      </c>
+      <c r="AC173">
+        <v>3.2</v>
+      </c>
+      <c r="AD173">
+        <v>3.1</v>
+      </c>
+      <c r="AE173">
+        <v>2.2</v>
+      </c>
+      <c r="AF173">
+        <v>1.08</v>
+      </c>
+      <c r="AG173">
+        <v>7</v>
+      </c>
+      <c r="AH173">
+        <v>1.38</v>
+      </c>
+      <c r="AI173">
+        <v>2.9</v>
+      </c>
+      <c r="AJ173">
+        <v>2.2</v>
+      </c>
+      <c r="AK173">
+        <v>1.6</v>
+      </c>
+      <c r="AL173">
+        <v>1.91</v>
+      </c>
+      <c r="AM173">
+        <v>1.8</v>
+      </c>
+      <c r="AN173">
+        <v>1.57</v>
+      </c>
+      <c r="AO173">
+        <v>1.28</v>
+      </c>
+      <c r="AP173">
+        <v>1.36</v>
+      </c>
+      <c r="AQ173">
+        <v>1.1</v>
+      </c>
+      <c r="AR173">
+        <v>2.1</v>
+      </c>
+      <c r="AS173">
+        <v>1.27</v>
+      </c>
+      <c r="AT173">
+        <v>1.91</v>
+      </c>
+      <c r="AU173">
+        <v>1.46</v>
+      </c>
+      <c r="AV173">
+        <v>1.66</v>
+      </c>
+      <c r="AW173">
+        <v>3.12</v>
+      </c>
+      <c r="AX173">
+        <v>2.4</v>
+      </c>
+      <c r="AY173">
+        <v>5.75</v>
+      </c>
+      <c r="AZ173">
+        <v>1.71</v>
+      </c>
+      <c r="BA173">
+        <v>1.16</v>
+      </c>
+      <c r="BB173">
+        <v>1.33</v>
+      </c>
+      <c r="BC173">
+        <v>1.61</v>
+      </c>
+      <c r="BD173">
+        <v>2.03</v>
+      </c>
+      <c r="BE173">
+        <v>2.64</v>
+      </c>
+      <c r="BF173">
+        <v>3</v>
+      </c>
+      <c r="BG173">
+        <v>0</v>
+      </c>
+      <c r="BH173">
+        <v>2</v>
+      </c>
+      <c r="BI173">
+        <v>4</v>
+      </c>
+      <c r="BJ173">
+        <v>5</v>
+      </c>
+      <c r="BK173">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,15 @@
     <t>['69', '75']</t>
   </si>
   <si>
+    <t>['54', '66']</t>
+  </si>
+  <si>
+    <t>['18', '55']</t>
+  </si>
+  <si>
+    <t>['45', '77']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -875,6 +884,9 @@
   </si>
   <si>
     <t>['34', '53']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK173"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,7 +1492,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1758,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT3">
         <v>0.89</v>
@@ -1952,7 +1964,7 @@
         <v>1.1</v>
       </c>
       <c r="AT4">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2053,7 +2065,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2817,7 +2829,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -3199,7 +3211,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3289,7 +3301,7 @@
         <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3390,7 +3402,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3477,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3581,7 +3593,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3859,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT14">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3963,7 +3975,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4050,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT15">
         <v>1.91</v>
@@ -4154,7 +4166,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4241,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -4345,7 +4357,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4435,7 +4447,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4814,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT19">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4918,7 +4930,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5109,7 +5121,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5300,7 +5312,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5682,7 +5694,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6064,7 +6076,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6446,7 +6458,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6724,10 +6736,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU29">
         <v>1.76</v>
@@ -6828,7 +6840,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -6915,10 +6927,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT30">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU30">
         <v>0.91</v>
@@ -7019,7 +7031,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7210,7 +7222,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7297,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT32">
         <v>1.5</v>
@@ -7488,7 +7500,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -7682,7 +7694,7 @@
         <v>1.27</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU34">
         <v>1.65</v>
@@ -7870,10 +7882,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT35">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU35">
         <v>1.56</v>
@@ -7974,7 +7986,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8061,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT36">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU36">
         <v>2.17</v>
@@ -8165,7 +8177,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8255,7 +8267,7 @@
         <v>1.2</v>
       </c>
       <c r="AT37">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8356,7 +8368,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -8443,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT38">
         <v>1.11</v>
@@ -8547,7 +8559,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8738,7 +8750,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8929,7 +8941,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9210,7 +9222,7 @@
         <v>1.11</v>
       </c>
       <c r="AT42">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU42">
         <v>2.15</v>
@@ -9502,7 +9514,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9693,7 +9705,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9884,7 +9896,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10162,7 +10174,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT47">
         <v>1.5</v>
@@ -10266,7 +10278,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10353,10 +10365,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU48">
         <v>1.24</v>
@@ -10547,7 +10559,7 @@
         <v>1.2</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU49">
         <v>1.59</v>
@@ -10648,7 +10660,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10735,7 +10747,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -10839,7 +10851,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10929,7 +10941,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT51">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU51">
         <v>1.56</v>
@@ -11030,7 +11042,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11117,10 +11129,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT52">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU52">
         <v>1.63</v>
@@ -11221,7 +11233,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11311,7 +11323,7 @@
         <v>1.27</v>
       </c>
       <c r="AT53">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU53">
         <v>1.55</v>
@@ -11412,7 +11424,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11690,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT55">
         <v>1.44</v>
@@ -12072,7 +12084,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT57">
         <v>0.89</v>
@@ -12749,7 +12761,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12940,7 +12952,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -13030,7 +13042,7 @@
         <v>1.1</v>
       </c>
       <c r="AT62">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU62">
         <v>1.84</v>
@@ -13131,7 +13143,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13218,7 +13230,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT63">
         <v>1.1</v>
@@ -13322,7 +13334,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13513,7 +13525,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13603,7 +13615,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT65">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU65">
         <v>1.6</v>
@@ -13791,10 +13803,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU66">
         <v>1.4</v>
@@ -13895,7 +13907,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -13982,10 +13994,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU67">
         <v>1.81</v>
@@ -14086,7 +14098,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14173,7 +14185,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT68">
         <v>1.5</v>
@@ -14468,7 +14480,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14555,7 +14567,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT70">
         <v>1.44</v>
@@ -14659,7 +14671,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14850,7 +14862,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14940,7 +14952,7 @@
         <v>1.2</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU72">
         <v>1.85</v>
@@ -15041,7 +15053,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15131,7 +15143,7 @@
         <v>0.67</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU73">
         <v>1.77</v>
@@ -15319,7 +15331,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT74">
         <v>0.89</v>
@@ -15423,7 +15435,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15614,7 +15626,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15805,7 +15817,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -15996,7 +16008,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16083,7 +16095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT78">
         <v>1.1</v>
@@ -16569,7 +16581,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16760,7 +16772,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16847,7 +16859,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT82">
         <v>1.11</v>
@@ -16951,7 +16963,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17041,7 +17053,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU83">
         <v>1.69</v>
@@ -17142,7 +17154,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17232,7 +17244,7 @@
         <v>0.67</v>
       </c>
       <c r="AT84">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU84">
         <v>1.64</v>
@@ -17423,7 +17435,7 @@
         <v>1.11</v>
       </c>
       <c r="AT85">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -17611,7 +17623,7 @@
         <v>1.5</v>
       </c>
       <c r="AS86">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17715,7 +17727,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17805,7 +17817,7 @@
         <v>2.78</v>
       </c>
       <c r="AT87">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -17906,7 +17918,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18097,7 +18109,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18184,7 +18196,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT89">
         <v>1.44</v>
@@ -18288,7 +18300,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18375,10 +18387,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT90">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU90">
         <v>1.34</v>
@@ -18760,7 +18772,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU92">
         <v>1.81</v>
@@ -19052,7 +19064,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19243,7 +19255,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19330,7 +19342,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT95">
         <v>1.4</v>
@@ -19625,7 +19637,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19712,7 +19724,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT97">
         <v>1.1</v>
@@ -19906,7 +19918,7 @@
         <v>1.4</v>
       </c>
       <c r="AT98">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU98">
         <v>1.97</v>
@@ -20007,7 +20019,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20094,7 +20106,7 @@
         <v>1.4</v>
       </c>
       <c r="AS99">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT99">
         <v>1.6</v>
@@ -20198,7 +20210,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20389,7 +20401,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20479,7 +20491,7 @@
         <v>2.78</v>
       </c>
       <c r="AT101">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU101">
         <v>1.54</v>
@@ -20580,7 +20592,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20667,10 +20679,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT102">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU102">
         <v>1.59</v>
@@ -20858,7 +20870,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT103">
         <v>1.11</v>
@@ -20962,7 +20974,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21052,7 +21064,7 @@
         <v>1.11</v>
       </c>
       <c r="AT104">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU104">
         <v>1.94</v>
@@ -21153,7 +21165,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21240,7 +21252,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT105">
         <v>1.44</v>
@@ -21535,7 +21547,7 @@
         <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21726,7 +21738,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21816,7 +21828,7 @@
         <v>0.67</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU108">
         <v>1.44</v>
@@ -22195,7 +22207,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT110">
         <v>1</v>
@@ -22389,7 +22401,7 @@
         <v>2.2</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU111">
         <v>1.85</v>
@@ -22490,7 +22502,7 @@
         <v>98</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22771,7 +22783,7 @@
         <v>1.1</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU113">
         <v>1.74</v>
@@ -22959,10 +22971,10 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT114">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU114">
         <v>1.75</v>
@@ -23063,7 +23075,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23150,7 +23162,7 @@
         <v>1.17</v>
       </c>
       <c r="AS115">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT115">
         <v>1.4</v>
@@ -23254,7 +23266,7 @@
         <v>98</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23726,7 +23738,7 @@
         <v>2.2</v>
       </c>
       <c r="AT118">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU118">
         <v>1.82</v>
@@ -23827,7 +23839,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -23914,7 +23926,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT119">
         <v>0.89</v>
@@ -24108,7 +24120,7 @@
         <v>1</v>
       </c>
       <c r="AT120">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU120">
         <v>2.07</v>
@@ -24299,7 +24311,7 @@
         <v>1.33</v>
       </c>
       <c r="AT121">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU121">
         <v>1.75</v>
@@ -24681,7 +24693,7 @@
         <v>1.1</v>
       </c>
       <c r="AT123">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU123">
         <v>1.66</v>
@@ -24869,7 +24881,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT124">
         <v>0.89</v>
@@ -24973,7 +24985,7 @@
         <v>85</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25164,7 +25176,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q126">
         <v>15</v>
@@ -25546,7 +25558,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25633,7 +25645,7 @@
         <v>2</v>
       </c>
       <c r="AS128">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT128">
         <v>1.91</v>
@@ -25824,10 +25836,10 @@
         <v>1.57</v>
       </c>
       <c r="AS129">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT129">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU129">
         <v>1.82</v>
@@ -26119,7 +26131,7 @@
         <v>169</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26310,7 +26322,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26588,7 +26600,7 @@
         <v>1.57</v>
       </c>
       <c r="AS133">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT133">
         <v>1.6</v>
@@ -26692,7 +26704,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26779,10 +26791,10 @@
         <v>0.71</v>
       </c>
       <c r="AS134">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT134">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU134">
         <v>1.51</v>
@@ -26883,7 +26895,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -26973,7 +26985,7 @@
         <v>1.7</v>
       </c>
       <c r="AT135">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU135">
         <v>1.85</v>
@@ -27074,7 +27086,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27265,7 +27277,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27925,7 +27937,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT140">
         <v>1.1</v>
@@ -28029,7 +28041,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28220,7 +28232,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28411,7 +28423,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28501,7 +28513,7 @@
         <v>2.2</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU143">
         <v>1.9</v>
@@ -28692,7 +28704,7 @@
         <v>1.33</v>
       </c>
       <c r="AT144">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU144">
         <v>1.81</v>
@@ -28880,7 +28892,7 @@
         <v>1.38</v>
       </c>
       <c r="AS145">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT145">
         <v>1.4</v>
@@ -28984,7 +28996,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29071,7 +29083,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT146">
         <v>1</v>
@@ -29175,7 +29187,7 @@
         <v>85</v>
       </c>
       <c r="P147" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29366,7 +29378,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29453,7 +29465,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -29647,7 +29659,7 @@
         <v>1.2</v>
       </c>
       <c r="AT149">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU149">
         <v>1.9</v>
@@ -29835,7 +29847,7 @@
         <v>2.13</v>
       </c>
       <c r="AS150">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT150">
         <v>1.91</v>
@@ -30029,7 +30041,7 @@
         <v>1.4</v>
       </c>
       <c r="AT151">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU151">
         <v>1.82</v>
@@ -30130,7 +30142,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30220,7 +30232,7 @@
         <v>1.7</v>
       </c>
       <c r="AT152">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU152">
         <v>1.86</v>
@@ -30408,7 +30420,7 @@
         <v>1.88</v>
       </c>
       <c r="AS153">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT153">
         <v>1.5</v>
@@ -30512,7 +30524,7 @@
         <v>182</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30602,7 +30614,7 @@
         <v>1.27</v>
       </c>
       <c r="AT154">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU154">
         <v>1.41</v>
@@ -30793,7 +30805,7 @@
         <v>1.27</v>
       </c>
       <c r="AT155">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU155">
         <v>1.47</v>
@@ -30894,7 +30906,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -30981,10 +30993,10 @@
         <v>1.33</v>
       </c>
       <c r="AS156">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT156">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU156">
         <v>1.39</v>
@@ -31276,7 +31288,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31363,7 +31375,7 @@
         <v>2</v>
       </c>
       <c r="AS158">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT158">
         <v>1.91</v>
@@ -31467,7 +31479,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q159">
         <v>12</v>
@@ -31658,7 +31670,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q160">
         <v>8</v>
@@ -31745,10 +31757,10 @@
         <v>1.67</v>
       </c>
       <c r="AS160">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT160">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU160">
         <v>1.57</v>
@@ -31849,7 +31861,7 @@
         <v>188</v>
       </c>
       <c r="P161" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31936,7 +31948,7 @@
         <v>1.67</v>
       </c>
       <c r="AS161">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT161">
         <v>1.5</v>
@@ -32040,7 +32052,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32130,7 +32142,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT162">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU162">
         <v>1.68</v>
@@ -32318,10 +32330,10 @@
         <v>1.13</v>
       </c>
       <c r="AS163">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT163">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU163">
         <v>1.92</v>
@@ -32422,7 +32434,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32613,7 +32625,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32700,7 +32712,7 @@
         <v>1.67</v>
       </c>
       <c r="AS165">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT165">
         <v>1.6</v>
@@ -32995,7 +33007,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33186,7 +33198,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33759,7 +33771,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33849,7 +33861,7 @@
         <v>1.7</v>
       </c>
       <c r="AT171">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU171">
         <v>1.83</v>
@@ -33950,7 +33962,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34144,13 +34156,13 @@
         <v>85</v>
       </c>
       <c r="Q173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T173">
         <v>3.6</v>
@@ -34267,22 +34279,1168 @@
         <v>2.64</v>
       </c>
       <c r="BF173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH173">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI173">
+        <v>8</v>
+      </c>
+      <c r="BJ173">
+        <v>10</v>
+      </c>
+      <c r="BK173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2812399</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44968.33333333334</v>
+      </c>
+      <c r="F174">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>82</v>
+      </c>
+      <c r="H174" t="s">
+        <v>70</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>85</v>
+      </c>
+      <c r="P174" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q174">
+        <v>10</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="S174">
+        <v>11</v>
+      </c>
+      <c r="T174">
+        <v>3.25</v>
+      </c>
+      <c r="U174">
+        <v>2</v>
+      </c>
+      <c r="V174">
+        <v>3.5</v>
+      </c>
+      <c r="W174">
+        <v>1.5</v>
+      </c>
+      <c r="X174">
+        <v>2.5</v>
+      </c>
+      <c r="Y174">
+        <v>3.4</v>
+      </c>
+      <c r="Z174">
+        <v>1.3</v>
+      </c>
+      <c r="AA174">
+        <v>10</v>
+      </c>
+      <c r="AB174">
+        <v>1.06</v>
+      </c>
+      <c r="AC174">
+        <v>5.33</v>
+      </c>
+      <c r="AD174">
+        <v>2.91</v>
+      </c>
+      <c r="AE174">
+        <v>1.73</v>
+      </c>
+      <c r="AF174">
+        <v>1.08</v>
+      </c>
+      <c r="AG174">
+        <v>7</v>
+      </c>
+      <c r="AH174">
+        <v>1.4</v>
+      </c>
+      <c r="AI174">
+        <v>2.8</v>
+      </c>
+      <c r="AJ174">
+        <v>2.23</v>
+      </c>
+      <c r="AK174">
+        <v>1.61</v>
+      </c>
+      <c r="AL174">
+        <v>1.83</v>
+      </c>
+      <c r="AM174">
+        <v>1.83</v>
+      </c>
+      <c r="AN174">
+        <v>1.41</v>
+      </c>
+      <c r="AO174">
+        <v>1.33</v>
+      </c>
+      <c r="AP174">
+        <v>1.5</v>
+      </c>
+      <c r="AQ174">
+        <v>1.56</v>
+      </c>
+      <c r="AR174">
+        <v>1.5</v>
+      </c>
+      <c r="AS174">
+        <v>1.4</v>
+      </c>
+      <c r="AT174">
+        <v>1.64</v>
+      </c>
+      <c r="AU174">
+        <v>1.5</v>
+      </c>
+      <c r="AV174">
+        <v>1.5</v>
+      </c>
+      <c r="AW174">
+        <v>3</v>
+      </c>
+      <c r="AX174">
+        <v>1.87</v>
+      </c>
+      <c r="AY174">
+        <v>7.8</v>
+      </c>
+      <c r="AZ174">
+        <v>2.26</v>
+      </c>
+      <c r="BA174">
+        <v>1.11</v>
+      </c>
+      <c r="BB174">
+        <v>1.24</v>
+      </c>
+      <c r="BC174">
+        <v>1.55</v>
+      </c>
+      <c r="BD174">
+        <v>1.86</v>
+      </c>
+      <c r="BE174">
+        <v>2.27</v>
+      </c>
+      <c r="BF174">
+        <v>8</v>
+      </c>
+      <c r="BG174">
+        <v>6</v>
+      </c>
+      <c r="BH174">
+        <v>7</v>
+      </c>
+      <c r="BI174">
+        <v>7</v>
+      </c>
+      <c r="BJ174">
+        <v>15</v>
+      </c>
+      <c r="BK174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2812400</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>77</v>
+      </c>
+      <c r="H175" t="s">
+        <v>69</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>198</v>
+      </c>
+      <c r="P175" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q175">
+        <v>3</v>
+      </c>
+      <c r="R175">
+        <v>5</v>
+      </c>
+      <c r="S175">
+        <v>8</v>
+      </c>
+      <c r="T175">
+        <v>2.4</v>
+      </c>
+      <c r="U175">
+        <v>2.38</v>
+      </c>
+      <c r="V175">
+        <v>4.33</v>
+      </c>
+      <c r="W175">
+        <v>1.3</v>
+      </c>
+      <c r="X175">
+        <v>3.4</v>
+      </c>
+      <c r="Y175">
+        <v>2.5</v>
+      </c>
+      <c r="Z175">
+        <v>1.5</v>
+      </c>
+      <c r="AA175">
+        <v>6</v>
+      </c>
+      <c r="AB175">
+        <v>1.13</v>
+      </c>
+      <c r="AC175">
+        <v>1.75</v>
+      </c>
+      <c r="AD175">
+        <v>3.6</v>
+      </c>
+      <c r="AE175">
+        <v>3.8</v>
+      </c>
+      <c r="AF175">
+        <v>1.03</v>
+      </c>
+      <c r="AG175">
+        <v>11</v>
+      </c>
+      <c r="AH175">
+        <v>1.22</v>
+      </c>
+      <c r="AI175">
         <v>4</v>
       </c>
-      <c r="BJ173">
+      <c r="AJ175">
+        <v>1.64</v>
+      </c>
+      <c r="AK175">
+        <v>2.17</v>
+      </c>
+      <c r="AL175">
+        <v>1.62</v>
+      </c>
+      <c r="AM175">
+        <v>2.2</v>
+      </c>
+      <c r="AN175">
+        <v>1.2</v>
+      </c>
+      <c r="AO175">
+        <v>1.24</v>
+      </c>
+      <c r="AP175">
+        <v>2.05</v>
+      </c>
+      <c r="AQ175">
+        <v>2</v>
+      </c>
+      <c r="AR175">
+        <v>1</v>
+      </c>
+      <c r="AS175">
+        <v>2.09</v>
+      </c>
+      <c r="AT175">
+        <v>0.9</v>
+      </c>
+      <c r="AU175">
+        <v>1.65</v>
+      </c>
+      <c r="AV175">
+        <v>1.51</v>
+      </c>
+      <c r="AW175">
+        <v>3.16</v>
+      </c>
+      <c r="AX175">
+        <v>1.35</v>
+      </c>
+      <c r="AY175">
+        <v>7</v>
+      </c>
+      <c r="AZ175">
+        <v>3.7</v>
+      </c>
+      <c r="BA175">
+        <v>1.18</v>
+      </c>
+      <c r="BB175">
+        <v>1.34</v>
+      </c>
+      <c r="BC175">
+        <v>1.61</v>
+      </c>
+      <c r="BD175">
+        <v>2.02</v>
+      </c>
+      <c r="BE175">
+        <v>2.7</v>
+      </c>
+      <c r="BF175">
+        <v>6</v>
+      </c>
+      <c r="BG175">
+        <v>4</v>
+      </c>
+      <c r="BH175">
+        <v>7</v>
+      </c>
+      <c r="BI175">
+        <v>2</v>
+      </c>
+      <c r="BJ175">
+        <v>13</v>
+      </c>
+      <c r="BK175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2812395</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44968.52083333334</v>
+      </c>
+      <c r="F176">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>75</v>
+      </c>
+      <c r="H176" t="s">
+        <v>74</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>145</v>
+      </c>
+      <c r="P176" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q176">
+        <v>3</v>
+      </c>
+      <c r="R176">
+        <v>6</v>
+      </c>
+      <c r="S176">
+        <v>9</v>
+      </c>
+      <c r="T176">
+        <v>4</v>
+      </c>
+      <c r="U176">
+        <v>2.05</v>
+      </c>
+      <c r="V176">
+        <v>2.88</v>
+      </c>
+      <c r="W176">
+        <v>1.44</v>
+      </c>
+      <c r="X176">
+        <v>2.63</v>
+      </c>
+      <c r="Y176">
+        <v>3.25</v>
+      </c>
+      <c r="Z176">
+        <v>1.33</v>
+      </c>
+      <c r="AA176">
+        <v>10</v>
+      </c>
+      <c r="AB176">
+        <v>1.06</v>
+      </c>
+      <c r="AC176">
+        <v>4.04</v>
+      </c>
+      <c r="AD176">
+        <v>3.4</v>
+      </c>
+      <c r="AE176">
+        <v>1.89</v>
+      </c>
+      <c r="AF176">
+        <v>1.08</v>
+      </c>
+      <c r="AG176">
+        <v>7</v>
+      </c>
+      <c r="AH176">
+        <v>1.36</v>
+      </c>
+      <c r="AI176">
+        <v>2.95</v>
+      </c>
+      <c r="AJ176">
+        <v>2.18</v>
+      </c>
+      <c r="AK176">
+        <v>1.68</v>
+      </c>
+      <c r="AL176">
+        <v>1.83</v>
+      </c>
+      <c r="AM176">
+        <v>1.83</v>
+      </c>
+      <c r="AN176">
+        <v>1.77</v>
+      </c>
+      <c r="AO176">
+        <v>1.31</v>
+      </c>
+      <c r="AP176">
+        <v>1.26</v>
+      </c>
+      <c r="AQ176">
+        <v>0.3</v>
+      </c>
+      <c r="AR176">
+        <v>1.33</v>
+      </c>
+      <c r="AS176">
+        <v>0.55</v>
+      </c>
+      <c r="AT176">
+        <v>1.2</v>
+      </c>
+      <c r="AU176">
+        <v>1.47</v>
+      </c>
+      <c r="AV176">
+        <v>1.27</v>
+      </c>
+      <c r="AW176">
+        <v>2.74</v>
+      </c>
+      <c r="AX176">
+        <v>1.98</v>
+      </c>
+      <c r="AY176">
+        <v>7.6</v>
+      </c>
+      <c r="AZ176">
+        <v>2.13</v>
+      </c>
+      <c r="BA176">
+        <v>1.14</v>
+      </c>
+      <c r="BB176">
+        <v>1.29</v>
+      </c>
+      <c r="BC176">
+        <v>1.62</v>
+      </c>
+      <c r="BD176">
+        <v>1.88</v>
+      </c>
+      <c r="BE176">
+        <v>2.42</v>
+      </c>
+      <c r="BF176">
+        <v>4</v>
+      </c>
+      <c r="BG176">
+        <v>3</v>
+      </c>
+      <c r="BH176">
+        <v>3</v>
+      </c>
+      <c r="BI176">
+        <v>6</v>
+      </c>
+      <c r="BJ176">
+        <v>7</v>
+      </c>
+      <c r="BK176">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2812398</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44968.52083333334</v>
+      </c>
+      <c r="F177">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>79</v>
+      </c>
+      <c r="H177" t="s">
+        <v>68</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>85</v>
+      </c>
+      <c r="P177" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
         <v>5</v>
       </c>
-      <c r="BK173">
+      <c r="S177">
+        <v>5</v>
+      </c>
+      <c r="T177">
+        <v>2.4</v>
+      </c>
+      <c r="U177">
+        <v>2.1</v>
+      </c>
+      <c r="V177">
+        <v>5.5</v>
+      </c>
+      <c r="W177">
+        <v>1.44</v>
+      </c>
+      <c r="X177">
+        <v>2.63</v>
+      </c>
+      <c r="Y177">
+        <v>3.4</v>
+      </c>
+      <c r="Z177">
+        <v>1.3</v>
+      </c>
+      <c r="AA177">
+        <v>10</v>
+      </c>
+      <c r="AB177">
+        <v>1.06</v>
+      </c>
+      <c r="AC177">
+        <v>1.72</v>
+      </c>
+      <c r="AD177">
+        <v>3.58</v>
+      </c>
+      <c r="AE177">
+        <v>4.8</v>
+      </c>
+      <c r="AF177">
+        <v>1.08</v>
+      </c>
+      <c r="AG177">
+        <v>7</v>
+      </c>
+      <c r="AH177">
+        <v>1.38</v>
+      </c>
+      <c r="AI177">
+        <v>2.9</v>
+      </c>
+      <c r="AJ177">
+        <v>2.13</v>
+      </c>
+      <c r="AK177">
+        <v>1.71</v>
+      </c>
+      <c r="AL177">
+        <v>2.1</v>
+      </c>
+      <c r="AM177">
+        <v>1.67</v>
+      </c>
+      <c r="AN177">
+        <v>1.18</v>
+      </c>
+      <c r="AO177">
+        <v>1.28</v>
+      </c>
+      <c r="AP177">
+        <v>2.05</v>
+      </c>
+      <c r="AQ177">
+        <v>1.56</v>
+      </c>
+      <c r="AR177">
+        <v>0.7</v>
+      </c>
+      <c r="AS177">
+        <v>1.4</v>
+      </c>
+      <c r="AT177">
+        <v>0.91</v>
+      </c>
+      <c r="AU177">
+        <v>1.54</v>
+      </c>
+      <c r="AV177">
+        <v>1.25</v>
+      </c>
+      <c r="AW177">
+        <v>2.79</v>
+      </c>
+      <c r="AX177">
+        <v>1.45</v>
+      </c>
+      <c r="AY177">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ177">
+        <v>3.5</v>
+      </c>
+      <c r="BA177">
+        <v>1.18</v>
+      </c>
+      <c r="BB177">
+        <v>1.36</v>
+      </c>
+      <c r="BC177">
+        <v>1.73</v>
+      </c>
+      <c r="BD177">
+        <v>2.12</v>
+      </c>
+      <c r="BE177">
+        <v>2.79</v>
+      </c>
+      <c r="BF177">
+        <v>2</v>
+      </c>
+      <c r="BG177">
         <v>4</v>
+      </c>
+      <c r="BH177">
+        <v>5</v>
+      </c>
+      <c r="BI177">
+        <v>4</v>
+      </c>
+      <c r="BJ177">
+        <v>7</v>
+      </c>
+      <c r="BK177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2812396</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44969.33333333334</v>
+      </c>
+      <c r="F178">
+        <v>20</v>
+      </c>
+      <c r="G178" t="s">
+        <v>66</v>
+      </c>
+      <c r="H178" t="s">
+        <v>72</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>199</v>
+      </c>
+      <c r="P178" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>9</v>
+      </c>
+      <c r="S178">
+        <v>12</v>
+      </c>
+      <c r="T178">
+        <v>3.2</v>
+      </c>
+      <c r="U178">
+        <v>2.2</v>
+      </c>
+      <c r="V178">
+        <v>3.25</v>
+      </c>
+      <c r="W178">
+        <v>1.4</v>
+      </c>
+      <c r="X178">
+        <v>2.75</v>
+      </c>
+      <c r="Y178">
+        <v>2.75</v>
+      </c>
+      <c r="Z178">
+        <v>1.4</v>
+      </c>
+      <c r="AA178">
+        <v>8</v>
+      </c>
+      <c r="AB178">
+        <v>1.08</v>
+      </c>
+      <c r="AC178">
+        <v>2.64</v>
+      </c>
+      <c r="AD178">
+        <v>3.25</v>
+      </c>
+      <c r="AE178">
+        <v>2.39</v>
+      </c>
+      <c r="AF178">
+        <v>1.06</v>
+      </c>
+      <c r="AG178">
+        <v>8</v>
+      </c>
+      <c r="AH178">
+        <v>1.3</v>
+      </c>
+      <c r="AI178">
+        <v>3.3</v>
+      </c>
+      <c r="AJ178">
+        <v>1.9</v>
+      </c>
+      <c r="AK178">
+        <v>1.8</v>
+      </c>
+      <c r="AL178">
+        <v>1.67</v>
+      </c>
+      <c r="AM178">
+        <v>2.1</v>
+      </c>
+      <c r="AN178">
+        <v>1.46</v>
+      </c>
+      <c r="AO178">
+        <v>1.3</v>
+      </c>
+      <c r="AP178">
+        <v>1.49</v>
+      </c>
+      <c r="AQ178">
+        <v>1.67</v>
+      </c>
+      <c r="AR178">
+        <v>1.5</v>
+      </c>
+      <c r="AS178">
+        <v>1.8</v>
+      </c>
+      <c r="AT178">
+        <v>1.36</v>
+      </c>
+      <c r="AU178">
+        <v>1.75</v>
+      </c>
+      <c r="AV178">
+        <v>1.6</v>
+      </c>
+      <c r="AW178">
+        <v>3.35</v>
+      </c>
+      <c r="AX178">
+        <v>2.14</v>
+      </c>
+      <c r="AY178">
+        <v>7.7</v>
+      </c>
+      <c r="AZ178">
+        <v>1.97</v>
+      </c>
+      <c r="BA178">
+        <v>1.14</v>
+      </c>
+      <c r="BB178">
+        <v>1.28</v>
+      </c>
+      <c r="BC178">
+        <v>1.61</v>
+      </c>
+      <c r="BD178">
+        <v>1.88</v>
+      </c>
+      <c r="BE178">
+        <v>2.42</v>
+      </c>
+      <c r="BF178">
+        <v>4</v>
+      </c>
+      <c r="BG178">
+        <v>5</v>
+      </c>
+      <c r="BH178">
+        <v>3</v>
+      </c>
+      <c r="BI178">
+        <v>9</v>
+      </c>
+      <c r="BJ178">
+        <v>7</v>
+      </c>
+      <c r="BK178">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2812401</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F179">
+        <v>20</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>65</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>200</v>
+      </c>
+      <c r="P179" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q179">
+        <v>5</v>
+      </c>
+      <c r="R179">
+        <v>9</v>
+      </c>
+      <c r="S179">
+        <v>14</v>
+      </c>
+      <c r="T179">
+        <v>2.88</v>
+      </c>
+      <c r="U179">
+        <v>2.1</v>
+      </c>
+      <c r="V179">
+        <v>3.75</v>
+      </c>
+      <c r="W179">
+        <v>1.44</v>
+      </c>
+      <c r="X179">
+        <v>2.63</v>
+      </c>
+      <c r="Y179">
+        <v>3.25</v>
+      </c>
+      <c r="Z179">
+        <v>1.33</v>
+      </c>
+      <c r="AA179">
+        <v>9</v>
+      </c>
+      <c r="AB179">
+        <v>1.07</v>
+      </c>
+      <c r="AC179">
+        <v>2.15</v>
+      </c>
+      <c r="AD179">
+        <v>3.25</v>
+      </c>
+      <c r="AE179">
+        <v>3.01</v>
+      </c>
+      <c r="AF179">
+        <v>1.08</v>
+      </c>
+      <c r="AG179">
+        <v>7</v>
+      </c>
+      <c r="AH179">
+        <v>1.36</v>
+      </c>
+      <c r="AI179">
+        <v>2.95</v>
+      </c>
+      <c r="AJ179">
+        <v>2.03</v>
+      </c>
+      <c r="AK179">
+        <v>1.7</v>
+      </c>
+      <c r="AL179">
+        <v>1.83</v>
+      </c>
+      <c r="AM179">
+        <v>1.83</v>
+      </c>
+      <c r="AN179">
+        <v>1.28</v>
+      </c>
+      <c r="AO179">
+        <v>1.25</v>
+      </c>
+      <c r="AP179">
+        <v>1.68</v>
+      </c>
+      <c r="AQ179">
+        <v>1.8</v>
+      </c>
+      <c r="AR179">
+        <v>1.44</v>
+      </c>
+      <c r="AS179">
+        <v>1.91</v>
+      </c>
+      <c r="AT179">
+        <v>1.3</v>
+      </c>
+      <c r="AU179">
+        <v>2.03</v>
+      </c>
+      <c r="AV179">
+        <v>1.57</v>
+      </c>
+      <c r="AW179">
+        <v>3.6</v>
+      </c>
+      <c r="AX179">
+        <v>1.65</v>
+      </c>
+      <c r="AY179">
+        <v>8.1</v>
+      </c>
+      <c r="AZ179">
+        <v>2.73</v>
+      </c>
+      <c r="BA179">
+        <v>1.1</v>
+      </c>
+      <c r="BB179">
+        <v>1.24</v>
+      </c>
+      <c r="BC179">
+        <v>1.43</v>
+      </c>
+      <c r="BD179">
+        <v>1.74</v>
+      </c>
+      <c r="BE179">
+        <v>2.2</v>
+      </c>
+      <c r="BF179">
+        <v>5</v>
+      </c>
+      <c r="BG179">
+        <v>7</v>
+      </c>
+      <c r="BH179">
+        <v>8</v>
+      </c>
+      <c r="BI179">
+        <v>6</v>
+      </c>
+      <c r="BJ179">
+        <v>13</v>
+      </c>
+      <c r="BK179">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,12 @@
     <t>['45', '77']</t>
   </si>
   <si>
+    <t>['18', '57', '78']</t>
+  </si>
+  <si>
+    <t>['23', '60']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -887,6 +893,12 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['12', '28', '53']</t>
+  </si>
+  <si>
+    <t>['27', '72']</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1492,7 +1504,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2065,7 +2077,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2829,7 +2841,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -3211,7 +3223,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3402,7 +3414,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3593,7 +3605,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3975,7 +3987,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4166,7 +4178,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4357,7 +4369,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4444,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT17">
         <v>1.36</v>
@@ -4635,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4930,7 +4942,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5121,7 +5133,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5312,7 +5324,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5694,7 +5706,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6076,7 +6088,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6458,7 +6470,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6840,7 +6852,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -7031,7 +7043,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7118,7 +7130,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT31">
         <v>1.91</v>
@@ -7222,7 +7234,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7312,7 +7324,7 @@
         <v>0.55</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU32">
         <v>1.18</v>
@@ -7986,7 +7998,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8177,7 +8189,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8264,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT37">
         <v>1.3</v>
@@ -8368,7 +8380,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -8559,7 +8571,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8750,7 +8762,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8941,7 +8953,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9514,7 +9526,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9705,7 +9717,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9896,7 +9908,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10177,7 +10189,7 @@
         <v>1.8</v>
       </c>
       <c r="AT47">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10278,7 +10290,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10556,7 +10568,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT49">
         <v>1.36</v>
@@ -10660,7 +10672,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10851,7 +10863,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10938,7 +10950,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT51">
         <v>1.64</v>
@@ -11042,7 +11054,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11233,7 +11245,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11424,7 +11436,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12761,7 +12773,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12952,7 +12964,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -13143,7 +13155,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13334,7 +13346,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13525,7 +13537,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13612,7 +13624,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT65">
         <v>1.3</v>
@@ -13907,7 +13919,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14098,7 +14110,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14188,7 +14200,7 @@
         <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU68">
         <v>1.64</v>
@@ -14480,7 +14492,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14671,7 +14683,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14862,7 +14874,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14949,7 +14961,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT72">
         <v>1.2</v>
@@ -15053,7 +15065,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15435,7 +15447,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15626,7 +15638,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15817,7 +15829,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -16008,7 +16020,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16289,7 +16301,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU79">
         <v>1.89</v>
@@ -16581,7 +16593,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16772,7 +16784,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16963,7 +16975,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17050,7 +17062,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT83">
         <v>0.9</v>
@@ -17154,7 +17166,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17727,7 +17739,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17918,7 +17930,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18005,7 +18017,7 @@
         <v>1.25</v>
       </c>
       <c r="AS88">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT88">
         <v>1.56</v>
@@ -18109,7 +18121,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18300,7 +18312,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18963,7 +18975,7 @@
         <v>1.1</v>
       </c>
       <c r="AT93">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU93">
         <v>1.77</v>
@@ -19064,7 +19076,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19255,7 +19267,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19637,7 +19649,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -20019,7 +20031,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20210,7 +20222,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20297,7 +20309,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT100">
         <v>0.89</v>
@@ -20401,7 +20413,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20592,7 +20604,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20974,7 +20986,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21165,7 +21177,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21547,7 +21559,7 @@
         <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21634,7 +21646,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT107">
         <v>1.56</v>
@@ -21738,7 +21750,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22502,7 +22514,7 @@
         <v>98</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22592,7 +22604,7 @@
         <v>1.7</v>
       </c>
       <c r="AT112">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU112">
         <v>1.88</v>
@@ -23075,7 +23087,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23266,7 +23278,7 @@
         <v>98</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23353,7 +23365,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT116">
         <v>1.1</v>
@@ -23839,7 +23851,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24499,7 +24511,7 @@
         <v>1.14</v>
       </c>
       <c r="AS122">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT122">
         <v>1.1</v>
@@ -24985,7 +24997,7 @@
         <v>85</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25176,7 +25188,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>15</v>
@@ -25558,7 +25570,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -26131,7 +26143,7 @@
         <v>169</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26322,7 +26334,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26409,7 +26421,7 @@
         <v>1.14</v>
       </c>
       <c r="AS132">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT132">
         <v>1.4</v>
@@ -26704,7 +26716,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26895,7 +26907,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27086,7 +27098,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27176,7 +27188,7 @@
         <v>1.4</v>
       </c>
       <c r="AT136">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU136">
         <v>1.86</v>
@@ -27277,7 +27289,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -28041,7 +28053,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28232,7 +28244,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28423,7 +28435,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28996,7 +29008,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29187,7 +29199,7 @@
         <v>85</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29274,7 +29286,7 @@
         <v>1.5</v>
       </c>
       <c r="AS147">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT147">
         <v>1.6</v>
@@ -29378,7 +29390,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29656,7 +29668,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT149">
         <v>0.91</v>
@@ -30142,7 +30154,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30423,7 +30435,7 @@
         <v>2.09</v>
       </c>
       <c r="AT153">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU153">
         <v>1.57</v>
@@ -30524,7 +30536,7 @@
         <v>182</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30906,7 +30918,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31288,7 +31300,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31479,7 +31491,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q159">
         <v>12</v>
@@ -31566,7 +31578,7 @@
         <v>0.78</v>
       </c>
       <c r="AS159">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT159">
         <v>1</v>
@@ -31670,7 +31682,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>8</v>
@@ -31861,7 +31873,7 @@
         <v>188</v>
       </c>
       <c r="P161" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31951,7 +31963,7 @@
         <v>1.4</v>
       </c>
       <c r="AT161">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU161">
         <v>1.46</v>
@@ -32052,7 +32064,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32139,7 +32151,7 @@
         <v>0.67</v>
       </c>
       <c r="AS162">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT162">
         <v>0.91</v>
@@ -32434,7 +32446,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32625,7 +32637,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33007,7 +33019,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33198,7 +33210,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33771,7 +33783,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33962,7 +33974,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34535,7 +34547,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34917,7 +34929,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -35108,7 +35120,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35441,6 +35453,388 @@
       </c>
       <c r="BK179">
         <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2812394</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44970.625</v>
+      </c>
+      <c r="F180">
+        <v>20</v>
+      </c>
+      <c r="G180" t="s">
+        <v>81</v>
+      </c>
+      <c r="H180" t="s">
+        <v>67</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
+      </c>
+      <c r="K180">
+        <v>3</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>3</v>
+      </c>
+      <c r="N180">
+        <v>6</v>
+      </c>
+      <c r="O180" t="s">
+        <v>201</v>
+      </c>
+      <c r="P180" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q180">
+        <v>11</v>
+      </c>
+      <c r="R180">
+        <v>4</v>
+      </c>
+      <c r="S180">
+        <v>15</v>
+      </c>
+      <c r="T180">
+        <v>2.63</v>
+      </c>
+      <c r="U180">
+        <v>2.1</v>
+      </c>
+      <c r="V180">
+        <v>4.33</v>
+      </c>
+      <c r="W180">
+        <v>1.4</v>
+      </c>
+      <c r="X180">
+        <v>2.75</v>
+      </c>
+      <c r="Y180">
+        <v>3</v>
+      </c>
+      <c r="Z180">
+        <v>1.36</v>
+      </c>
+      <c r="AA180">
+        <v>8</v>
+      </c>
+      <c r="AB180">
+        <v>1.08</v>
+      </c>
+      <c r="AC180">
+        <v>1.86</v>
+      </c>
+      <c r="AD180">
+        <v>3.68</v>
+      </c>
+      <c r="AE180">
+        <v>4.4</v>
+      </c>
+      <c r="AF180">
+        <v>1.03</v>
+      </c>
+      <c r="AG180">
+        <v>8.5</v>
+      </c>
+      <c r="AH180">
+        <v>1.27</v>
+      </c>
+      <c r="AI180">
+        <v>3.4</v>
+      </c>
+      <c r="AJ180">
+        <v>1.96</v>
+      </c>
+      <c r="AK180">
+        <v>1.82</v>
+      </c>
+      <c r="AL180">
+        <v>1.83</v>
+      </c>
+      <c r="AM180">
+        <v>1.83</v>
+      </c>
+      <c r="AN180">
+        <v>1.26</v>
+      </c>
+      <c r="AO180">
+        <v>1.29</v>
+      </c>
+      <c r="AP180">
+        <v>1.82</v>
+      </c>
+      <c r="AQ180">
+        <v>1.2</v>
+      </c>
+      <c r="AR180">
+        <v>1</v>
+      </c>
+      <c r="AS180">
+        <v>1.18</v>
+      </c>
+      <c r="AT180">
+        <v>1</v>
+      </c>
+      <c r="AU180">
+        <v>1.86</v>
+      </c>
+      <c r="AV180">
+        <v>1.31</v>
+      </c>
+      <c r="AW180">
+        <v>3.17</v>
+      </c>
+      <c r="AX180">
+        <v>1.46</v>
+      </c>
+      <c r="AY180">
+        <v>8.4</v>
+      </c>
+      <c r="AZ180">
+        <v>3.32</v>
+      </c>
+      <c r="BA180">
+        <v>1.12</v>
+      </c>
+      <c r="BB180">
+        <v>1.26</v>
+      </c>
+      <c r="BC180">
+        <v>1.49</v>
+      </c>
+      <c r="BD180">
+        <v>1.84</v>
+      </c>
+      <c r="BE180">
+        <v>2.34</v>
+      </c>
+      <c r="BF180">
+        <v>6</v>
+      </c>
+      <c r="BG180">
+        <v>5</v>
+      </c>
+      <c r="BH180">
+        <v>10</v>
+      </c>
+      <c r="BI180">
+        <v>3</v>
+      </c>
+      <c r="BJ180">
+        <v>16</v>
+      </c>
+      <c r="BK180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2812397</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44970.625</v>
+      </c>
+      <c r="F181">
+        <v>20</v>
+      </c>
+      <c r="G181" t="s">
+        <v>80</v>
+      </c>
+      <c r="H181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181" t="s">
+        <v>202</v>
+      </c>
+      <c r="P181" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q181">
+        <v>3</v>
+      </c>
+      <c r="R181">
+        <v>10</v>
+      </c>
+      <c r="S181">
+        <v>13</v>
+      </c>
+      <c r="T181">
+        <v>3.75</v>
+      </c>
+      <c r="U181">
+        <v>2.05</v>
+      </c>
+      <c r="V181">
+        <v>3.1</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>2.63</v>
+      </c>
+      <c r="Y181">
+        <v>3.25</v>
+      </c>
+      <c r="Z181">
+        <v>1.33</v>
+      </c>
+      <c r="AA181">
+        <v>10</v>
+      </c>
+      <c r="AB181">
+        <v>1.06</v>
+      </c>
+      <c r="AC181">
+        <v>2.8</v>
+      </c>
+      <c r="AD181">
+        <v>3.05</v>
+      </c>
+      <c r="AE181">
+        <v>2.4</v>
+      </c>
+      <c r="AF181">
+        <v>1.08</v>
+      </c>
+      <c r="AG181">
+        <v>7</v>
+      </c>
+      <c r="AH181">
+        <v>1.4</v>
+      </c>
+      <c r="AI181">
+        <v>2.8</v>
+      </c>
+      <c r="AJ181">
+        <v>2.13</v>
+      </c>
+      <c r="AK181">
+        <v>1.59</v>
+      </c>
+      <c r="AL181">
+        <v>1.91</v>
+      </c>
+      <c r="AM181">
+        <v>1.8</v>
+      </c>
+      <c r="AN181">
+        <v>1.51</v>
+      </c>
+      <c r="AO181">
+        <v>1.33</v>
+      </c>
+      <c r="AP181">
+        <v>1.4</v>
+      </c>
+      <c r="AQ181">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR181">
+        <v>1.5</v>
+      </c>
+      <c r="AS181">
+        <v>0.6</v>
+      </c>
+      <c r="AT181">
+        <v>1.45</v>
+      </c>
+      <c r="AU181">
+        <v>1.65</v>
+      </c>
+      <c r="AV181">
+        <v>1.25</v>
+      </c>
+      <c r="AW181">
+        <v>2.9</v>
+      </c>
+      <c r="AX181">
+        <v>2.31</v>
+      </c>
+      <c r="AY181">
+        <v>7.8</v>
+      </c>
+      <c r="AZ181">
+        <v>1.84</v>
+      </c>
+      <c r="BA181">
+        <v>1.14</v>
+      </c>
+      <c r="BB181">
+        <v>1.29</v>
+      </c>
+      <c r="BC181">
+        <v>1.54</v>
+      </c>
+      <c r="BD181">
+        <v>1.93</v>
+      </c>
+      <c r="BE181">
+        <v>2.5</v>
+      </c>
+      <c r="BF181">
+        <v>6</v>
+      </c>
+      <c r="BG181">
+        <v>4</v>
+      </c>
+      <c r="BH181">
+        <v>2</v>
+      </c>
+      <c r="BI181">
+        <v>3</v>
+      </c>
+      <c r="BJ181">
+        <v>8</v>
+      </c>
+      <c r="BK181">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,12 @@
     <t>['23', '60']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -899,6 +905,9 @@
   </si>
   <si>
     <t>['27', '72']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1513,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2077,7 +2086,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2358,7 +2367,7 @@
         <v>1.7</v>
       </c>
       <c r="AT6">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2841,7 +2850,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -2931,7 +2940,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3119,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT10">
         <v>1.1</v>
@@ -3223,7 +3232,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3310,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT11">
         <v>0.9</v>
@@ -3414,7 +3423,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3605,7 +3614,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3987,7 +3996,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4178,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4369,7 +4378,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4942,7 +4951,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5133,7 +5142,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5220,10 +5229,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT21">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU21">
         <v>2.13</v>
@@ -5324,7 +5333,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5414,7 +5423,7 @@
         <v>2.2</v>
       </c>
       <c r="AT22">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU22">
         <v>1.77</v>
@@ -5706,7 +5715,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6088,7 +6097,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6470,7 +6479,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6557,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT28">
         <v>1.4</v>
@@ -6852,7 +6861,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -7043,7 +7052,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7234,7 +7243,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7998,7 +8007,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8189,7 +8198,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8380,7 +8389,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -8571,7 +8580,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8762,7 +8771,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8953,7 +8962,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9231,7 +9240,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT42">
         <v>0.91</v>
@@ -9526,7 +9535,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9616,7 +9625,7 @@
         <v>2.2</v>
       </c>
       <c r="AT44">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU44">
         <v>1.82</v>
@@ -9717,7 +9726,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9908,7 +9917,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9995,7 +10004,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT46">
         <v>1.56</v>
@@ -10290,7 +10299,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10672,7 +10681,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10863,7 +10872,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11054,7 +11063,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11245,7 +11254,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11436,7 +11445,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11717,7 +11726,7 @@
         <v>2.09</v>
       </c>
       <c r="AT55">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU55">
         <v>1.7</v>
@@ -11905,7 +11914,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT56">
         <v>1.4</v>
@@ -12287,7 +12296,7 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT58">
         <v>1.91</v>
@@ -12672,7 +12681,7 @@
         <v>1.7</v>
       </c>
       <c r="AT60">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU60">
         <v>1.88</v>
@@ -12773,7 +12782,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12964,7 +12973,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -13155,7 +13164,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13346,7 +13355,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13537,7 +13546,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13919,7 +13928,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14110,7 +14119,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14492,7 +14501,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14582,7 +14591,7 @@
         <v>0.55</v>
       </c>
       <c r="AT70">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU70">
         <v>1.32</v>
@@ -14683,7 +14692,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14874,7 +14883,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15065,7 +15074,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15346,7 +15355,7 @@
         <v>2.09</v>
       </c>
       <c r="AT74">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU74">
         <v>1.54</v>
@@ -15447,7 +15456,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15638,7 +15647,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15829,7 +15838,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -16020,7 +16029,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16593,7 +16602,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16680,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16784,7 +16793,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16975,7 +16984,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17166,7 +17175,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17444,7 +17453,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT85">
         <v>1.64</v>
@@ -17739,7 +17748,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17930,7 +17939,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18121,7 +18130,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18211,7 +18220,7 @@
         <v>1.4</v>
       </c>
       <c r="AT89">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU89">
         <v>1.51</v>
@@ -18312,7 +18321,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -19076,7 +19085,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19267,7 +19276,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19649,7 +19658,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19927,7 +19936,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT98">
         <v>0.91</v>
@@ -20031,7 +20040,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20222,7 +20231,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20312,7 +20321,7 @@
         <v>1.18</v>
       </c>
       <c r="AT100">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU100">
         <v>1.82</v>
@@ -20413,7 +20422,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20604,7 +20613,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20986,7 +20995,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21073,7 +21082,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT104">
         <v>1.3</v>
@@ -21177,7 +21186,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21267,7 +21276,7 @@
         <v>1.8</v>
       </c>
       <c r="AT105">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU105">
         <v>1.89</v>
@@ -21559,7 +21568,7 @@
         <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21750,7 +21759,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22514,7 +22523,7 @@
         <v>98</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23087,7 +23096,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23278,7 +23287,7 @@
         <v>98</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23556,7 +23565,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT117">
         <v>1.91</v>
@@ -23851,7 +23860,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24896,7 +24905,7 @@
         <v>1.8</v>
       </c>
       <c r="AT124">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU124">
         <v>1.88</v>
@@ -24997,7 +25006,7 @@
         <v>85</v>
       </c>
       <c r="P125" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25188,7 +25197,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q126">
         <v>15</v>
@@ -25275,10 +25284,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT126">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU126">
         <v>1.85</v>
@@ -25570,7 +25579,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -26143,7 +26152,7 @@
         <v>169</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26334,7 +26343,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26716,7 +26725,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26907,7 +26916,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27098,7 +27107,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27185,7 +27194,7 @@
         <v>1.71</v>
       </c>
       <c r="AS136">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT136">
         <v>1.45</v>
@@ -27289,7 +27298,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27567,7 +27576,7 @@
         <v>1.29</v>
       </c>
       <c r="AS138">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT138">
         <v>1.11</v>
@@ -27761,7 +27770,7 @@
         <v>0.67</v>
       </c>
       <c r="AT139">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU139">
         <v>1.48</v>
@@ -28053,7 +28062,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28143,7 +28152,7 @@
         <v>1</v>
       </c>
       <c r="AT141">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU141">
         <v>2.01</v>
@@ -28244,7 +28253,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28435,7 +28444,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -29008,7 +29017,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29199,7 +29208,7 @@
         <v>85</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29390,7 +29399,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -30050,7 +30059,7 @@
         <v>1.86</v>
       </c>
       <c r="AS151">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT151">
         <v>1.3</v>
@@ -30154,7 +30163,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30536,7 +30545,7 @@
         <v>182</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30918,7 +30927,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31196,7 +31205,7 @@
         <v>1.13</v>
       </c>
       <c r="AS157">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT157">
         <v>1</v>
@@ -31300,7 +31309,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31491,7 +31500,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q159">
         <v>12</v>
@@ -31682,7 +31691,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q160">
         <v>8</v>
@@ -31873,7 +31882,7 @@
         <v>188</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32064,7 +32073,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32446,7 +32455,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32637,7 +32646,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32918,7 +32927,7 @@
         <v>2.78</v>
       </c>
       <c r="AT166">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU166">
         <v>1.62</v>
@@ -33019,7 +33028,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33210,7 +33219,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33488,7 +33497,7 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT169">
         <v>0.89</v>
@@ -33783,7 +33792,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33974,7 +33983,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34064,7 +34073,7 @@
         <v>1</v>
       </c>
       <c r="AT172">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU172">
         <v>2.02</v>
@@ -34547,7 +34556,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34929,7 +34938,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -35120,7 +35129,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35502,7 +35511,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35693,7 +35702,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35835,6 +35844,388 @@
       </c>
       <c r="BK181">
         <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2812406</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44974.625</v>
+      </c>
+      <c r="F182">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>74</v>
+      </c>
+      <c r="H182" t="s">
+        <v>78</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>203</v>
+      </c>
+      <c r="P182" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q182">
+        <v>3</v>
+      </c>
+      <c r="R182">
+        <v>3</v>
+      </c>
+      <c r="S182">
+        <v>6</v>
+      </c>
+      <c r="T182">
+        <v>3.25</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
+      <c r="V182">
+        <v>3.3</v>
+      </c>
+      <c r="W182">
+        <v>1.46</v>
+      </c>
+      <c r="X182">
+        <v>2.55</v>
+      </c>
+      <c r="Y182">
+        <v>3.05</v>
+      </c>
+      <c r="Z182">
+        <v>1.33</v>
+      </c>
+      <c r="AA182">
+        <v>7.9</v>
+      </c>
+      <c r="AB182">
+        <v>1.05</v>
+      </c>
+      <c r="AC182">
+        <v>2.54</v>
+      </c>
+      <c r="AD182">
+        <v>3.08</v>
+      </c>
+      <c r="AE182">
+        <v>2.81</v>
+      </c>
+      <c r="AF182">
+        <v>1.08</v>
+      </c>
+      <c r="AG182">
+        <v>7</v>
+      </c>
+      <c r="AH182">
+        <v>1.36</v>
+      </c>
+      <c r="AI182">
+        <v>2.95</v>
+      </c>
+      <c r="AJ182">
+        <v>2.1</v>
+      </c>
+      <c r="AK182">
+        <v>1.67</v>
+      </c>
+      <c r="AL182">
+        <v>1.83</v>
+      </c>
+      <c r="AM182">
+        <v>1.93</v>
+      </c>
+      <c r="AN182">
+        <v>1.45</v>
+      </c>
+      <c r="AO182">
+        <v>1.28</v>
+      </c>
+      <c r="AP182">
+        <v>1.47</v>
+      </c>
+      <c r="AQ182">
+        <v>1.4</v>
+      </c>
+      <c r="AR182">
+        <v>1.44</v>
+      </c>
+      <c r="AS182">
+        <v>1.36</v>
+      </c>
+      <c r="AT182">
+        <v>1.4</v>
+      </c>
+      <c r="AU182">
+        <v>1.68</v>
+      </c>
+      <c r="AV182">
+        <v>1.67</v>
+      </c>
+      <c r="AW182">
+        <v>3.35</v>
+      </c>
+      <c r="AX182">
+        <v>2</v>
+      </c>
+      <c r="AY182">
+        <v>6</v>
+      </c>
+      <c r="AZ182">
+        <v>2.05</v>
+      </c>
+      <c r="BA182">
+        <v>1.16</v>
+      </c>
+      <c r="BB182">
+        <v>1.29</v>
+      </c>
+      <c r="BC182">
+        <v>1.5</v>
+      </c>
+      <c r="BD182">
+        <v>1.85</v>
+      </c>
+      <c r="BE182">
+        <v>2.43</v>
+      </c>
+      <c r="BF182">
+        <v>5</v>
+      </c>
+      <c r="BG182">
+        <v>2</v>
+      </c>
+      <c r="BH182">
+        <v>6</v>
+      </c>
+      <c r="BI182">
+        <v>2</v>
+      </c>
+      <c r="BJ182">
+        <v>11</v>
+      </c>
+      <c r="BK182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2812410</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44975.33333333334</v>
+      </c>
+      <c r="F183">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>73</v>
+      </c>
+      <c r="H183" t="s">
+        <v>75</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>204</v>
+      </c>
+      <c r="P183" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q183">
+        <v>4</v>
+      </c>
+      <c r="R183">
+        <v>4</v>
+      </c>
+      <c r="S183">
+        <v>8</v>
+      </c>
+      <c r="T183">
+        <v>2.15</v>
+      </c>
+      <c r="U183">
+        <v>2.15</v>
+      </c>
+      <c r="V183">
+        <v>5.25</v>
+      </c>
+      <c r="W183">
+        <v>1.4</v>
+      </c>
+      <c r="X183">
+        <v>2.75</v>
+      </c>
+      <c r="Y183">
+        <v>2.75</v>
+      </c>
+      <c r="Z183">
+        <v>1.4</v>
+      </c>
+      <c r="AA183">
+        <v>7</v>
+      </c>
+      <c r="AB183">
+        <v>1.08</v>
+      </c>
+      <c r="AC183">
+        <v>1.61</v>
+      </c>
+      <c r="AD183">
+        <v>3.5</v>
+      </c>
+      <c r="AE183">
+        <v>5.1</v>
+      </c>
+      <c r="AF183">
+        <v>1.07</v>
+      </c>
+      <c r="AG183">
+        <v>7.5</v>
+      </c>
+      <c r="AH183">
+        <v>1.33</v>
+      </c>
+      <c r="AI183">
+        <v>3.25</v>
+      </c>
+      <c r="AJ183">
+        <v>2.14</v>
+      </c>
+      <c r="AK183">
+        <v>1.67</v>
+      </c>
+      <c r="AL183">
+        <v>2.05</v>
+      </c>
+      <c r="AM183">
+        <v>1.7</v>
+      </c>
+      <c r="AN183">
+        <v>1.15</v>
+      </c>
+      <c r="AO183">
+        <v>1.24</v>
+      </c>
+      <c r="AP183">
+        <v>2.25</v>
+      </c>
+      <c r="AQ183">
+        <v>1.11</v>
+      </c>
+      <c r="AR183">
+        <v>0.89</v>
+      </c>
+      <c r="AS183">
+        <v>1.1</v>
+      </c>
+      <c r="AT183">
+        <v>0.9</v>
+      </c>
+      <c r="AU183">
+        <v>1.75</v>
+      </c>
+      <c r="AV183">
+        <v>1.44</v>
+      </c>
+      <c r="AW183">
+        <v>3.19</v>
+      </c>
+      <c r="AX183">
+        <v>1.16</v>
+      </c>
+      <c r="AY183">
+        <v>7.75</v>
+      </c>
+      <c r="AZ183">
+        <v>6</v>
+      </c>
+      <c r="BA183">
+        <v>1.12</v>
+      </c>
+      <c r="BB183">
+        <v>1.29</v>
+      </c>
+      <c r="BC183">
+        <v>1.55</v>
+      </c>
+      <c r="BD183">
+        <v>1.8</v>
+      </c>
+      <c r="BE183">
+        <v>2.29</v>
+      </c>
+      <c r="BF183">
+        <v>4</v>
+      </c>
+      <c r="BG183">
+        <v>4</v>
+      </c>
+      <c r="BH183">
+        <v>6</v>
+      </c>
+      <c r="BI183">
+        <v>2</v>
+      </c>
+      <c r="BJ183">
+        <v>10</v>
+      </c>
+      <c r="BK183">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,21 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['32', '55']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['41', '67', '79', '87']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -796,9 +811,6 @@
     <t>['19', '32', '84']</t>
   </si>
   <si>
-    <t>['66']</t>
-  </si>
-  <si>
     <t>['80', '90+2']</t>
   </si>
   <si>
@@ -877,9 +889,6 @@
     <t>['32', '35', '90']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['90']</t>
   </si>
   <si>
@@ -908,6 +917,18 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['52', '90+4']</t>
+  </si>
+  <si>
+    <t>['35', '90+5']</t>
+  </si>
+  <si>
+    <t>['35', '52']</t>
+  </si>
+  <si>
+    <t>['36', '89']</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1534,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1600,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT2">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1794,7 +1815,7 @@
         <v>1.8</v>
       </c>
       <c r="AT3">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1982,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT4">
         <v>1.2</v>
@@ -2086,7 +2107,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2173,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT5">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2364,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT6">
         <v>1.4</v>
@@ -2555,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT7">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2746,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT8">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2850,7 +2871,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -2937,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT9">
         <v>0.9</v>
@@ -3131,7 +3152,7 @@
         <v>1.1</v>
       </c>
       <c r="AT10">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3232,7 +3253,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3423,7 +3444,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3614,7 +3635,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3996,7 +4017,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4187,7 +4208,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4277,7 +4298,7 @@
         <v>1.4</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4378,7 +4399,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4951,7 +4972,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5038,10 +5059,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
+        <v>1.55</v>
+      </c>
+      <c r="AT20">
         <v>1.7</v>
-      </c>
-      <c r="AT20">
-        <v>1.56</v>
       </c>
       <c r="AU20">
         <v>1.67</v>
@@ -5142,7 +5163,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5333,7 +5354,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5420,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT22">
         <v>1.4</v>
@@ -5611,10 +5632,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT23">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU23">
         <v>1.21</v>
@@ -5715,7 +5736,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5802,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT24">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU24">
         <v>2.46</v>
@@ -5993,10 +6014,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT25">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU25">
         <v>1.59</v>
@@ -6097,7 +6118,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6184,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT26">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU26">
         <v>1.5</v>
@@ -6375,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU27">
         <v>2.41</v>
@@ -6479,7 +6500,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6569,7 +6590,7 @@
         <v>1.1</v>
       </c>
       <c r="AT28">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU28">
         <v>2.35</v>
@@ -6861,7 +6882,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -7052,7 +7073,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7243,7 +7264,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8007,7 +8028,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8198,7 +8219,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8389,7 +8410,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -8479,7 +8500,7 @@
         <v>1.91</v>
       </c>
       <c r="AT38">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU38">
         <v>1.6</v>
@@ -8580,7 +8601,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8667,10 +8688,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT39">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU39">
         <v>1.88</v>
@@ -8771,7 +8792,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8858,10 +8879,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU40">
         <v>1.35</v>
@@ -8962,7 +8983,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9049,10 +9070,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT41">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU41">
         <v>2.12</v>
@@ -9431,10 +9452,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT43">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU43">
         <v>1.79</v>
@@ -9535,7 +9556,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9622,7 +9643,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT44">
         <v>0.9</v>
@@ -9726,7 +9747,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9813,10 +9834,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT45">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU45">
         <v>1.91</v>
@@ -9917,7 +9938,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10007,7 +10028,7 @@
         <v>1.36</v>
       </c>
       <c r="AT46">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU46">
         <v>2.43</v>
@@ -10299,7 +10320,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10681,7 +10702,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10872,7 +10893,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11063,7 +11084,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11254,7 +11275,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11445,7 +11466,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11532,7 +11553,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT54">
         <v>1.91</v>
@@ -11917,7 +11938,7 @@
         <v>1.36</v>
       </c>
       <c r="AT56">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU56">
         <v>2.04</v>
@@ -12108,7 +12129,7 @@
         <v>1.91</v>
       </c>
       <c r="AT57">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU57">
         <v>2</v>
@@ -12487,10 +12508,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT59">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU59">
         <v>1.88</v>
@@ -12678,7 +12699,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT60">
         <v>0.9</v>
@@ -12782,7 +12803,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12869,10 +12890,10 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT61">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU61">
         <v>1.71</v>
@@ -12973,7 +12994,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -13060,7 +13081,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT62">
         <v>0.91</v>
@@ -13164,7 +13185,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13254,7 +13275,7 @@
         <v>2.09</v>
       </c>
       <c r="AT63">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU63">
         <v>1.48</v>
@@ -13355,7 +13376,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13442,10 +13463,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU64">
         <v>1.87</v>
@@ -13546,7 +13567,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13928,7 +13949,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14119,7 +14140,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14400,7 +14421,7 @@
         <v>1.27</v>
       </c>
       <c r="AT69">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU69">
         <v>1.34</v>
@@ -14501,7 +14522,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14692,7 +14713,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14779,7 +14800,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -14883,7 +14904,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15074,7 +15095,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15161,7 +15182,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT73">
         <v>1.64</v>
@@ -15456,7 +15477,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15543,10 +15564,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT75">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU75">
         <v>2.03</v>
@@ -15647,7 +15668,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15737,7 +15758,7 @@
         <v>1.27</v>
       </c>
       <c r="AT76">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU76">
         <v>1.38</v>
@@ -15838,7 +15859,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -15925,7 +15946,7 @@
         <v>2.5</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT77">
         <v>1.91</v>
@@ -16029,7 +16050,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16119,7 +16140,7 @@
         <v>1.91</v>
       </c>
       <c r="AT78">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU78">
         <v>1.99</v>
@@ -16307,7 +16328,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT79">
         <v>1.45</v>
@@ -16498,10 +16519,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU80">
         <v>1.93</v>
@@ -16602,7 +16623,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16692,7 +16713,7 @@
         <v>1.36</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU81">
         <v>1.93</v>
@@ -16793,7 +16814,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16883,7 +16904,7 @@
         <v>0.55</v>
       </c>
       <c r="AT82">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU82">
         <v>1.24</v>
@@ -16984,7 +17005,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17175,7 +17196,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17262,7 +17283,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT84">
         <v>1.36</v>
@@ -17748,7 +17769,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17835,7 +17856,7 @@
         <v>2.5</v>
       </c>
       <c r="AS87">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT87">
         <v>1.3</v>
@@ -17939,7 +17960,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18029,7 +18050,7 @@
         <v>1.18</v>
       </c>
       <c r="AT88">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU88">
         <v>1.7</v>
@@ -18130,7 +18151,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18321,7 +18342,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18602,7 +18623,7 @@
         <v>1.27</v>
       </c>
       <c r="AT91">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU91">
         <v>1.43</v>
@@ -18790,7 +18811,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT92">
         <v>1.64</v>
@@ -18981,7 +19002,7 @@
         <v>1.6</v>
       </c>
       <c r="AS93">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT93">
         <v>1.45</v>
@@ -19085,7 +19106,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19172,7 +19193,7 @@
         <v>2.6</v>
       </c>
       <c r="AS94">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT94">
         <v>1.91</v>
@@ -19276,7 +19297,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19366,7 +19387,7 @@
         <v>1.91</v>
       </c>
       <c r="AT95">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU95">
         <v>1.81</v>
@@ -19554,10 +19575,10 @@
         <v>0.6</v>
       </c>
       <c r="AS96">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU96">
         <v>1.79</v>
@@ -19658,7 +19679,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19748,7 +19769,7 @@
         <v>0.55</v>
       </c>
       <c r="AT97">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU97">
         <v>1.34</v>
@@ -20040,7 +20061,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20130,7 +20151,7 @@
         <v>2.09</v>
       </c>
       <c r="AT99">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU99">
         <v>1.55</v>
@@ -20231,7 +20252,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20422,7 +20443,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20509,7 +20530,7 @@
         <v>2.2</v>
       </c>
       <c r="AS101">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT101">
         <v>1.36</v>
@@ -20613,7 +20634,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20894,7 +20915,7 @@
         <v>1.4</v>
       </c>
       <c r="AT103">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU103">
         <v>1.43</v>
@@ -20995,7 +21016,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21186,7 +21207,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21464,7 +21485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -21568,7 +21589,7 @@
         <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21658,7 +21679,7 @@
         <v>0.6</v>
       </c>
       <c r="AT107">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU107">
         <v>1.63</v>
@@ -21759,7 +21780,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21846,7 +21867,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT108">
         <v>0.9</v>
@@ -22040,7 +22061,7 @@
         <v>1.27</v>
       </c>
       <c r="AT109">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU109">
         <v>1.37</v>
@@ -22231,7 +22252,7 @@
         <v>2.09</v>
       </c>
       <c r="AT110">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU110">
         <v>1.49</v>
@@ -22419,7 +22440,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT111">
         <v>1.64</v>
@@ -22523,7 +22544,7 @@
         <v>98</v>
       </c>
       <c r="P112" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22610,7 +22631,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT112">
         <v>1.45</v>
@@ -22801,7 +22822,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT113">
         <v>1.36</v>
@@ -23096,7 +23117,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23186,7 +23207,7 @@
         <v>0.55</v>
       </c>
       <c r="AT115">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU115">
         <v>1.39</v>
@@ -23287,7 +23308,7 @@
         <v>98</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23377,7 +23398,7 @@
         <v>1.18</v>
       </c>
       <c r="AT116">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU116">
         <v>1.86</v>
@@ -23756,7 +23777,7 @@
         <v>0.83</v>
       </c>
       <c r="AS118">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT118">
         <v>0.91</v>
@@ -23860,7 +23881,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -23950,7 +23971,7 @@
         <v>1.4</v>
       </c>
       <c r="AT119">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU119">
         <v>1.53</v>
@@ -24138,7 +24159,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT120">
         <v>1.2</v>
@@ -24329,7 +24350,7 @@
         <v>2.17</v>
       </c>
       <c r="AS121">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT121">
         <v>1.3</v>
@@ -24523,7 +24544,7 @@
         <v>0.6</v>
       </c>
       <c r="AT122">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU122">
         <v>1.74</v>
@@ -24711,7 +24732,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT123">
         <v>0.9</v>
@@ -25006,7 +25027,7 @@
         <v>85</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25093,10 +25114,10 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT125">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU125">
         <v>1.47</v>
@@ -25197,7 +25218,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>15</v>
@@ -25475,10 +25496,10 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT127">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU127">
         <v>1.59</v>
@@ -25579,7 +25600,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -26048,7 +26069,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT130">
         <v>1</v>
@@ -26152,7 +26173,7 @@
         <v>169</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26242,7 +26263,7 @@
         <v>1.27</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU131">
         <v>1.4</v>
@@ -26343,7 +26364,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26433,7 +26454,7 @@
         <v>1.18</v>
       </c>
       <c r="AT132">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU132">
         <v>1.88</v>
@@ -26624,7 +26645,7 @@
         <v>0.55</v>
       </c>
       <c r="AT133">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU133">
         <v>1.42</v>
@@ -26725,7 +26746,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26916,7 +26937,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27003,7 +27024,7 @@
         <v>1.71</v>
       </c>
       <c r="AS135">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT135">
         <v>1.64</v>
@@ -27107,7 +27128,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27298,7 +27319,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27385,10 +27406,10 @@
         <v>1.14</v>
       </c>
       <c r="AS137">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT137">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU137">
         <v>1.62</v>
@@ -27579,7 +27600,7 @@
         <v>1.1</v>
       </c>
       <c r="AT138">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU138">
         <v>1.82</v>
@@ -27767,7 +27788,7 @@
         <v>0.71</v>
       </c>
       <c r="AS139">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT139">
         <v>0.9</v>
@@ -27961,7 +27982,7 @@
         <v>1.4</v>
       </c>
       <c r="AT140">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU140">
         <v>1.53</v>
@@ -28062,7 +28083,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28149,7 +28170,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT141">
         <v>1.4</v>
@@ -28253,7 +28274,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28340,10 +28361,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT142">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU142">
         <v>1.68</v>
@@ -28444,7 +28465,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28531,7 +28552,7 @@
         <v>1.29</v>
       </c>
       <c r="AS143">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT143">
         <v>0.9</v>
@@ -28722,7 +28743,7 @@
         <v>1.57</v>
       </c>
       <c r="AS144">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT144">
         <v>1.2</v>
@@ -28916,7 +28937,7 @@
         <v>1.8</v>
       </c>
       <c r="AT145">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU145">
         <v>1.75</v>
@@ -29017,7 +29038,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29208,7 +29229,7 @@
         <v>85</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29298,7 +29319,7 @@
         <v>0.6</v>
       </c>
       <c r="AT147">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU147">
         <v>1.73</v>
@@ -29399,7 +29420,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29489,7 +29510,7 @@
         <v>1.4</v>
       </c>
       <c r="AT148">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU148">
         <v>1.45</v>
@@ -30163,7 +30184,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30250,7 +30271,7 @@
         <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT152">
         <v>1.36</v>
@@ -30545,7 +30566,7 @@
         <v>182</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30927,7 +30948,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31309,7 +31330,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31500,7 +31521,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>12</v>
@@ -31590,7 +31611,7 @@
         <v>1.18</v>
       </c>
       <c r="AT159">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU159">
         <v>1.81</v>
@@ -31691,7 +31712,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="Q160">
         <v>8</v>
@@ -31882,7 +31903,7 @@
         <v>188</v>
       </c>
       <c r="P161" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32073,7 +32094,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32455,7 +32476,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32542,10 +32563,10 @@
         <v>1.63</v>
       </c>
       <c r="AS164">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT164">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU164">
         <v>1.92</v>
@@ -32646,7 +32667,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32736,7 +32757,7 @@
         <v>1.8</v>
       </c>
       <c r="AT165">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU165">
         <v>1.72</v>
@@ -32924,7 +32945,7 @@
         <v>1.63</v>
       </c>
       <c r="AS166">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT166">
         <v>1.4</v>
@@ -33028,7 +33049,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33115,10 +33136,10 @@
         <v>1.22</v>
       </c>
       <c r="AS167">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT167">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU167">
         <v>1.94</v>
@@ -33219,7 +33240,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33306,10 +33327,10 @@
         <v>1.25</v>
       </c>
       <c r="AS168">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT168">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU168">
         <v>1.71</v>
@@ -33500,7 +33521,7 @@
         <v>1.1</v>
       </c>
       <c r="AT169">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU169">
         <v>1.78</v>
@@ -33688,10 +33709,10 @@
         <v>0.89</v>
       </c>
       <c r="AS170">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT170">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU170">
         <v>1.49</v>
@@ -33792,7 +33813,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33879,7 +33900,7 @@
         <v>1.5</v>
       </c>
       <c r="AS171">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT171">
         <v>1.2</v>
@@ -33983,7 +34004,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34070,7 +34091,7 @@
         <v>0.63</v>
       </c>
       <c r="AS172">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT172">
         <v>0.9</v>
@@ -34556,7 +34577,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34938,7 +34959,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -35129,7 +35150,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35511,7 +35532,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35702,7 +35723,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36084,7 +36105,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36210,13 +36231,13 @@
         <v>2.29</v>
       </c>
       <c r="BF183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH183">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI183">
         <v>2</v>
@@ -36225,7 +36246,1344 @@
         <v>10</v>
       </c>
       <c r="BK183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2812407</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F184">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>68</v>
+      </c>
+      <c r="H184" t="s">
+        <v>66</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>205</v>
+      </c>
+      <c r="P184" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q184">
+        <v>7</v>
+      </c>
+      <c r="R184">
+        <v>4</v>
+      </c>
+      <c r="S184">
+        <v>11</v>
+      </c>
+      <c r="T184">
+        <v>3.2</v>
+      </c>
+      <c r="U184">
+        <v>2.05</v>
+      </c>
+      <c r="V184">
+        <v>3.25</v>
+      </c>
+      <c r="W184">
+        <v>1.41</v>
+      </c>
+      <c r="X184">
+        <v>2.7</v>
+      </c>
+      <c r="Y184">
+        <v>2.95</v>
+      </c>
+      <c r="Z184">
+        <v>1.35</v>
+      </c>
+      <c r="AA184">
+        <v>7.4</v>
+      </c>
+      <c r="AB184">
+        <v>1.06</v>
+      </c>
+      <c r="AC184">
+        <v>2.38</v>
+      </c>
+      <c r="AD184">
+        <v>3.25</v>
+      </c>
+      <c r="AE184">
+        <v>2.7</v>
+      </c>
+      <c r="AF184">
+        <v>1.06</v>
+      </c>
+      <c r="AG184">
+        <v>8</v>
+      </c>
+      <c r="AH184">
+        <v>1.33</v>
+      </c>
+      <c r="AI184">
+        <v>3.2</v>
+      </c>
+      <c r="AJ184">
+        <v>2</v>
+      </c>
+      <c r="AK184">
+        <v>1.76</v>
+      </c>
+      <c r="AL184">
+        <v>1.75</v>
+      </c>
+      <c r="AM184">
+        <v>2</v>
+      </c>
+      <c r="AN184">
+        <v>1.4</v>
+      </c>
+      <c r="AO184">
+        <v>1.25</v>
+      </c>
+      <c r="AP184">
+        <v>1.5</v>
+      </c>
+      <c r="AQ184">
+        <v>0.67</v>
+      </c>
+      <c r="AR184">
+        <v>1</v>
+      </c>
+      <c r="AS184">
+        <v>0.9</v>
+      </c>
+      <c r="AT184">
+        <v>0.91</v>
+      </c>
+      <c r="AU184">
+        <v>1.52</v>
+      </c>
+      <c r="AV184">
+        <v>1.41</v>
+      </c>
+      <c r="AW184">
+        <v>2.93</v>
+      </c>
+      <c r="AX184">
+        <v>1.71</v>
+      </c>
+      <c r="AY184">
+        <v>5.75</v>
+      </c>
+      <c r="AZ184">
+        <v>2.45</v>
+      </c>
+      <c r="BA184">
+        <v>1.14</v>
+      </c>
+      <c r="BB184">
+        <v>1.3</v>
+      </c>
+      <c r="BC184">
+        <v>1.61</v>
+      </c>
+      <c r="BD184">
+        <v>1.88</v>
+      </c>
+      <c r="BE184">
+        <v>2.41</v>
+      </c>
+      <c r="BF184">
         <v>6</v>
+      </c>
+      <c r="BG184">
+        <v>2</v>
+      </c>
+      <c r="BH184">
+        <v>5</v>
+      </c>
+      <c r="BI184">
+        <v>2</v>
+      </c>
+      <c r="BJ184">
+        <v>11</v>
+      </c>
+      <c r="BK184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2812403</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44975.52083333334</v>
+      </c>
+      <c r="F185">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>70</v>
+      </c>
+      <c r="H185" t="s">
+        <v>79</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>184</v>
+      </c>
+      <c r="P185" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q185">
+        <v>10</v>
+      </c>
+      <c r="R185">
+        <v>8</v>
+      </c>
+      <c r="S185">
+        <v>18</v>
+      </c>
+      <c r="T185">
+        <v>3</v>
+      </c>
+      <c r="U185">
+        <v>1.95</v>
+      </c>
+      <c r="V185">
+        <v>3.75</v>
+      </c>
+      <c r="W185">
+        <v>1.51</v>
+      </c>
+      <c r="X185">
+        <v>2.4</v>
+      </c>
+      <c r="Y185">
+        <v>3.25</v>
+      </c>
+      <c r="Z185">
+        <v>1.3</v>
+      </c>
+      <c r="AA185">
+        <v>8.9</v>
+      </c>
+      <c r="AB185">
+        <v>1.04</v>
+      </c>
+      <c r="AC185">
+        <v>2.23</v>
+      </c>
+      <c r="AD185">
+        <v>2.88</v>
+      </c>
+      <c r="AE185">
+        <v>3.35</v>
+      </c>
+      <c r="AF185">
+        <v>1.05</v>
+      </c>
+      <c r="AG185">
+        <v>7</v>
+      </c>
+      <c r="AH185">
+        <v>1.42</v>
+      </c>
+      <c r="AI185">
+        <v>2.75</v>
+      </c>
+      <c r="AJ185">
+        <v>2.5</v>
+      </c>
+      <c r="AK185">
+        <v>1.5</v>
+      </c>
+      <c r="AL185">
+        <v>1.95</v>
+      </c>
+      <c r="AM185">
+        <v>1.8</v>
+      </c>
+      <c r="AN185">
+        <v>1.28</v>
+      </c>
+      <c r="AO185">
+        <v>1.28</v>
+      </c>
+      <c r="AP185">
+        <v>1.6</v>
+      </c>
+      <c r="AQ185">
+        <v>1</v>
+      </c>
+      <c r="AR185">
+        <v>1.6</v>
+      </c>
+      <c r="AS185">
+        <v>0.9</v>
+      </c>
+      <c r="AT185">
+        <v>1.73</v>
+      </c>
+      <c r="AU185">
+        <v>1.9</v>
+      </c>
+      <c r="AV185">
+        <v>1.35</v>
+      </c>
+      <c r="AW185">
+        <v>3.25</v>
+      </c>
+      <c r="AX185">
+        <v>1.48</v>
+      </c>
+      <c r="AY185">
+        <v>6</v>
+      </c>
+      <c r="AZ185">
+        <v>3.05</v>
+      </c>
+      <c r="BA185">
+        <v>1.17</v>
+      </c>
+      <c r="BB185">
+        <v>1.37</v>
+      </c>
+      <c r="BC185">
+        <v>1.71</v>
+      </c>
+      <c r="BD185">
+        <v>2.09</v>
+      </c>
+      <c r="BE185">
+        <v>2.75</v>
+      </c>
+      <c r="BF185">
+        <v>10</v>
+      </c>
+      <c r="BG185">
+        <v>11</v>
+      </c>
+      <c r="BH185">
+        <v>4</v>
+      </c>
+      <c r="BI185">
+        <v>2</v>
+      </c>
+      <c r="BJ185">
+        <v>14</v>
+      </c>
+      <c r="BK185">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2812409</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44975.52083333334</v>
+      </c>
+      <c r="F186">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>72</v>
+      </c>
+      <c r="H186" t="s">
+        <v>77</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>206</v>
+      </c>
+      <c r="P186" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q186">
+        <v>6</v>
+      </c>
+      <c r="R186">
+        <v>6</v>
+      </c>
+      <c r="S186">
+        <v>12</v>
+      </c>
+      <c r="T186">
+        <v>2.8</v>
+      </c>
+      <c r="U186">
+        <v>2.1</v>
+      </c>
+      <c r="V186">
+        <v>3.6</v>
+      </c>
+      <c r="W186">
+        <v>1.39</v>
+      </c>
+      <c r="X186">
+        <v>2.8</v>
+      </c>
+      <c r="Y186">
+        <v>2.75</v>
+      </c>
+      <c r="Z186">
+        <v>1.4</v>
+      </c>
+      <c r="AA186">
+        <v>6.95</v>
+      </c>
+      <c r="AB186">
+        <v>1.07</v>
+      </c>
+      <c r="AC186">
+        <v>2.2</v>
+      </c>
+      <c r="AD186">
+        <v>3.4</v>
+      </c>
+      <c r="AE186">
+        <v>3.1</v>
+      </c>
+      <c r="AF186">
+        <v>1.06</v>
+      </c>
+      <c r="AG186">
+        <v>8</v>
+      </c>
+      <c r="AH186">
+        <v>1.28</v>
+      </c>
+      <c r="AI186">
+        <v>3.5</v>
+      </c>
+      <c r="AJ186">
+        <v>1.87</v>
+      </c>
+      <c r="AK186">
+        <v>1.87</v>
+      </c>
+      <c r="AL186">
+        <v>1.72</v>
+      </c>
+      <c r="AM186">
+        <v>2.05</v>
+      </c>
+      <c r="AN186">
+        <v>1.3</v>
+      </c>
+      <c r="AO186">
+        <v>1.25</v>
+      </c>
+      <c r="AP186">
+        <v>1.66</v>
+      </c>
+      <c r="AQ186">
+        <v>1.33</v>
+      </c>
+      <c r="AR186">
+        <v>1.56</v>
+      </c>
+      <c r="AS186">
+        <v>1.2</v>
+      </c>
+      <c r="AT186">
+        <v>1.7</v>
+      </c>
+      <c r="AU186">
+        <v>1.9</v>
+      </c>
+      <c r="AV186">
+        <v>1.36</v>
+      </c>
+      <c r="AW186">
+        <v>3.26</v>
+      </c>
+      <c r="AX186">
+        <v>1.54</v>
+      </c>
+      <c r="AY186">
+        <v>6</v>
+      </c>
+      <c r="AZ186">
+        <v>2.85</v>
+      </c>
+      <c r="BA186">
+        <v>1.14</v>
+      </c>
+      <c r="BB186">
+        <v>1.28</v>
+      </c>
+      <c r="BC186">
+        <v>1.6</v>
+      </c>
+      <c r="BD186">
+        <v>2</v>
+      </c>
+      <c r="BE186">
+        <v>2.39</v>
+      </c>
+      <c r="BF186">
+        <v>7</v>
+      </c>
+      <c r="BG186">
+        <v>5</v>
+      </c>
+      <c r="BH186">
+        <v>3</v>
+      </c>
+      <c r="BI186">
+        <v>6</v>
+      </c>
+      <c r="BJ186">
+        <v>10</v>
+      </c>
+      <c r="BK186">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2812408</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44976.33333333334</v>
+      </c>
+      <c r="F187">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>67</v>
+      </c>
+      <c r="H187" t="s">
+        <v>82</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>207</v>
+      </c>
+      <c r="P187" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q187">
+        <v>12</v>
+      </c>
+      <c r="R187">
+        <v>5</v>
+      </c>
+      <c r="S187">
+        <v>17</v>
+      </c>
+      <c r="T187">
+        <v>2.95</v>
+      </c>
+      <c r="U187">
+        <v>2</v>
+      </c>
+      <c r="V187">
+        <v>3.75</v>
+      </c>
+      <c r="W187">
+        <v>1.45</v>
+      </c>
+      <c r="X187">
+        <v>2.55</v>
+      </c>
+      <c r="Y187">
+        <v>3.05</v>
+      </c>
+      <c r="Z187">
+        <v>1.33</v>
+      </c>
+      <c r="AA187">
+        <v>7.9</v>
+      </c>
+      <c r="AB187">
+        <v>1.05</v>
+      </c>
+      <c r="AC187">
+        <v>2.47</v>
+      </c>
+      <c r="AD187">
+        <v>3.18</v>
+      </c>
+      <c r="AE187">
+        <v>2.81</v>
+      </c>
+      <c r="AF187">
+        <v>1.08</v>
+      </c>
+      <c r="AG187">
+        <v>7</v>
+      </c>
+      <c r="AH187">
+        <v>1.36</v>
+      </c>
+      <c r="AI187">
+        <v>3</v>
+      </c>
+      <c r="AJ187">
+        <v>2.15</v>
+      </c>
+      <c r="AK187">
+        <v>1.57</v>
+      </c>
+      <c r="AL187">
+        <v>1.83</v>
+      </c>
+      <c r="AM187">
+        <v>1.9</v>
+      </c>
+      <c r="AN187">
+        <v>1.28</v>
+      </c>
+      <c r="AO187">
+        <v>1.28</v>
+      </c>
+      <c r="AP187">
+        <v>1.6</v>
+      </c>
+      <c r="AQ187">
+        <v>1.1</v>
+      </c>
+      <c r="AR187">
+        <v>1.1</v>
+      </c>
+      <c r="AS187">
+        <v>1</v>
+      </c>
+      <c r="AT187">
+        <v>1.27</v>
+      </c>
+      <c r="AU187">
+        <v>1.7</v>
+      </c>
+      <c r="AV187">
+        <v>1.57</v>
+      </c>
+      <c r="AW187">
+        <v>3.27</v>
+      </c>
+      <c r="AX187">
+        <v>1.42</v>
+      </c>
+      <c r="AY187">
+        <v>6.5</v>
+      </c>
+      <c r="AZ187">
+        <v>3.15</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>1.17</v>
+      </c>
+      <c r="BC187">
+        <v>1.34</v>
+      </c>
+      <c r="BD187">
+        <v>1.69</v>
+      </c>
+      <c r="BE187">
+        <v>2</v>
+      </c>
+      <c r="BF187">
+        <v>4</v>
+      </c>
+      <c r="BG187">
+        <v>8</v>
+      </c>
+      <c r="BH187">
+        <v>9</v>
+      </c>
+      <c r="BI187">
+        <v>3</v>
+      </c>
+      <c r="BJ187">
+        <v>13</v>
+      </c>
+      <c r="BK187">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>2812411</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F188">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>71</v>
+      </c>
+      <c r="H188" t="s">
+        <v>80</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>4</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>5</v>
+      </c>
+      <c r="O188" t="s">
+        <v>208</v>
+      </c>
+      <c r="P188" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q188">
+        <v>2</v>
+      </c>
+      <c r="R188">
+        <v>1</v>
+      </c>
+      <c r="S188">
+        <v>3</v>
+      </c>
+      <c r="T188">
+        <v>1.98</v>
+      </c>
+      <c r="U188">
+        <v>2.34</v>
+      </c>
+      <c r="V188">
+        <v>6.1</v>
+      </c>
+      <c r="W188">
+        <v>1.33</v>
+      </c>
+      <c r="X188">
+        <v>3.05</v>
+      </c>
+      <c r="Y188">
+        <v>2.55</v>
+      </c>
+      <c r="Z188">
+        <v>1.46</v>
+      </c>
+      <c r="AA188">
+        <v>5.95</v>
+      </c>
+      <c r="AB188">
+        <v>1.1</v>
+      </c>
+      <c r="AC188">
+        <v>1.36</v>
+      </c>
+      <c r="AD188">
+        <v>4.74</v>
+      </c>
+      <c r="AE188">
+        <v>8</v>
+      </c>
+      <c r="AF188">
+        <v>1.05</v>
+      </c>
+      <c r="AG188">
+        <v>9</v>
+      </c>
+      <c r="AH188">
+        <v>1.22</v>
+      </c>
+      <c r="AI188">
+        <v>4</v>
+      </c>
+      <c r="AJ188">
+        <v>1.7</v>
+      </c>
+      <c r="AK188">
+        <v>1.95</v>
+      </c>
+      <c r="AL188">
+        <v>1.86</v>
+      </c>
+      <c r="AM188">
+        <v>1.9</v>
+      </c>
+      <c r="AN188">
+        <v>1.09</v>
+      </c>
+      <c r="AO188">
+        <v>1.18</v>
+      </c>
+      <c r="AP188">
+        <v>2.57</v>
+      </c>
+      <c r="AQ188">
+        <v>2.78</v>
+      </c>
+      <c r="AR188">
+        <v>1.4</v>
+      </c>
+      <c r="AS188">
+        <v>2.8</v>
+      </c>
+      <c r="AT188">
+        <v>1.27</v>
+      </c>
+      <c r="AU188">
+        <v>1.58</v>
+      </c>
+      <c r="AV188">
+        <v>1.57</v>
+      </c>
+      <c r="AW188">
+        <v>3.15</v>
+      </c>
+      <c r="AX188">
+        <v>1.18</v>
+      </c>
+      <c r="AY188">
+        <v>8</v>
+      </c>
+      <c r="AZ188">
+        <v>5.75</v>
+      </c>
+      <c r="BA188">
+        <v>1.15</v>
+      </c>
+      <c r="BB188">
+        <v>1.31</v>
+      </c>
+      <c r="BC188">
+        <v>1.58</v>
+      </c>
+      <c r="BD188">
+        <v>1.93</v>
+      </c>
+      <c r="BE188">
+        <v>2.36</v>
+      </c>
+      <c r="BF188">
+        <v>2</v>
+      </c>
+      <c r="BG188">
+        <v>3</v>
+      </c>
+      <c r="BH188">
+        <v>3</v>
+      </c>
+      <c r="BI188">
+        <v>4</v>
+      </c>
+      <c r="BJ188">
+        <v>5</v>
+      </c>
+      <c r="BK188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>2812252</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44976.52083333334</v>
+      </c>
+      <c r="F189">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>65</v>
+      </c>
+      <c r="H189" t="s">
+        <v>81</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>150</v>
+      </c>
+      <c r="P189" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q189">
+        <v>5</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>7</v>
+      </c>
+      <c r="T189">
+        <v>2.47</v>
+      </c>
+      <c r="U189">
+        <v>2.11</v>
+      </c>
+      <c r="V189">
+        <v>4.62</v>
+      </c>
+      <c r="W189">
+        <v>1.4</v>
+      </c>
+      <c r="X189">
+        <v>2.75</v>
+      </c>
+      <c r="Y189">
+        <v>2.75</v>
+      </c>
+      <c r="Z189">
+        <v>1.4</v>
+      </c>
+      <c r="AA189">
+        <v>7.5</v>
+      </c>
+      <c r="AB189">
+        <v>1.07</v>
+      </c>
+      <c r="AC189">
+        <v>2</v>
+      </c>
+      <c r="AD189">
+        <v>3.25</v>
+      </c>
+      <c r="AE189">
+        <v>3.2</v>
+      </c>
+      <c r="AF189">
+        <v>1.07</v>
+      </c>
+      <c r="AG189">
+        <v>7.5</v>
+      </c>
+      <c r="AH189">
+        <v>1.36</v>
+      </c>
+      <c r="AI189">
+        <v>3</v>
+      </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
+      <c r="AK189">
+        <v>1.67</v>
+      </c>
+      <c r="AL189">
+        <v>1.83</v>
+      </c>
+      <c r="AM189">
+        <v>1.93</v>
+      </c>
+      <c r="AN189">
+        <v>1.23</v>
+      </c>
+      <c r="AO189">
+        <v>1.27</v>
+      </c>
+      <c r="AP189">
+        <v>1.85</v>
+      </c>
+      <c r="AQ189">
+        <v>2.2</v>
+      </c>
+      <c r="AR189">
+        <v>0.89</v>
+      </c>
+      <c r="AS189">
+        <v>2.27</v>
+      </c>
+      <c r="AT189">
+        <v>0.8</v>
+      </c>
+      <c r="AU189">
+        <v>1.89</v>
+      </c>
+      <c r="AV189">
+        <v>1.54</v>
+      </c>
+      <c r="AW189">
+        <v>3.43</v>
+      </c>
+      <c r="AX189">
+        <v>1.35</v>
+      </c>
+      <c r="AY189">
+        <v>6.5</v>
+      </c>
+      <c r="AZ189">
+        <v>3.55</v>
+      </c>
+      <c r="BA189">
+        <v>1.17</v>
+      </c>
+      <c r="BB189">
+        <v>1.28</v>
+      </c>
+      <c r="BC189">
+        <v>1.59</v>
+      </c>
+      <c r="BD189">
+        <v>2</v>
+      </c>
+      <c r="BE189">
+        <v>2.38</v>
+      </c>
+      <c r="BF189">
+        <v>2</v>
+      </c>
+      <c r="BG189">
+        <v>4</v>
+      </c>
+      <c r="BH189">
+        <v>4</v>
+      </c>
+      <c r="BI189">
+        <v>3</v>
+      </c>
+      <c r="BJ189">
+        <v>6</v>
+      </c>
+      <c r="BK189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2812404</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44976.52083333334</v>
+      </c>
+      <c r="F190">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>69</v>
+      </c>
+      <c r="H190" t="s">
+        <v>76</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>209</v>
+      </c>
+      <c r="P190" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q190">
+        <v>6</v>
+      </c>
+      <c r="R190">
+        <v>6</v>
+      </c>
+      <c r="S190">
+        <v>12</v>
+      </c>
+      <c r="T190">
+        <v>2.88</v>
+      </c>
+      <c r="U190">
+        <v>2.14</v>
+      </c>
+      <c r="V190">
+        <v>3.56</v>
+      </c>
+      <c r="W190">
+        <v>1.4</v>
+      </c>
+      <c r="X190">
+        <v>2.75</v>
+      </c>
+      <c r="Y190">
+        <v>2.75</v>
+      </c>
+      <c r="Z190">
+        <v>1.4</v>
+      </c>
+      <c r="AA190">
+        <v>6.95</v>
+      </c>
+      <c r="AB190">
+        <v>1.07</v>
+      </c>
+      <c r="AC190">
+        <v>2.22</v>
+      </c>
+      <c r="AD190">
+        <v>3.2</v>
+      </c>
+      <c r="AE190">
+        <v>2.81</v>
+      </c>
+      <c r="AF190">
+        <v>1.06</v>
+      </c>
+      <c r="AG190">
+        <v>8</v>
+      </c>
+      <c r="AH190">
+        <v>1.28</v>
+      </c>
+      <c r="AI190">
+        <v>3.5</v>
+      </c>
+      <c r="AJ190">
+        <v>1.94</v>
+      </c>
+      <c r="AK190">
+        <v>1.9</v>
+      </c>
+      <c r="AL190">
+        <v>1.68</v>
+      </c>
+      <c r="AM190">
+        <v>2.13</v>
+      </c>
+      <c r="AN190">
+        <v>1.38</v>
+      </c>
+      <c r="AO190">
+        <v>1.28</v>
+      </c>
+      <c r="AP190">
+        <v>1.56</v>
+      </c>
+      <c r="AQ190">
+        <v>1.7</v>
+      </c>
+      <c r="AR190">
+        <v>1.11</v>
+      </c>
+      <c r="AS190">
+        <v>1.55</v>
+      </c>
+      <c r="AT190">
+        <v>1.3</v>
+      </c>
+      <c r="AU190">
+        <v>1.79</v>
+      </c>
+      <c r="AV190">
+        <v>1.49</v>
+      </c>
+      <c r="AW190">
+        <v>3.28</v>
+      </c>
+      <c r="AX190">
+        <v>1.92</v>
+      </c>
+      <c r="AY190">
+        <v>7.2</v>
+      </c>
+      <c r="AZ190">
+        <v>2.28</v>
+      </c>
+      <c r="BA190">
+        <v>1.2</v>
+      </c>
+      <c r="BB190">
+        <v>1.38</v>
+      </c>
+      <c r="BC190">
+        <v>1.67</v>
+      </c>
+      <c r="BD190">
+        <v>2.12</v>
+      </c>
+      <c r="BE190">
+        <v>2.85</v>
+      </c>
+      <c r="BF190">
+        <v>4</v>
+      </c>
+      <c r="BG190">
+        <v>4</v>
+      </c>
+      <c r="BH190">
+        <v>7</v>
+      </c>
+      <c r="BI190">
+        <v>3</v>
+      </c>
+      <c r="BJ190">
+        <v>11</v>
+      </c>
+      <c r="BK190">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,9 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -929,6 +932,12 @@
   </si>
   <si>
     <t>['36', '89']</t>
+  </si>
+  <si>
+    <t>['7', '50']</t>
+  </si>
+  <si>
+    <t>['44', '72']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1543,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2107,7 +2116,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2194,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT5">
         <v>1.27</v>
@@ -2388,7 +2397,7 @@
         <v>1.55</v>
       </c>
       <c r="AT6">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2871,7 +2880,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -3253,7 +3262,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3444,7 +3453,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3635,7 +3644,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3722,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -4017,7 +4026,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4208,7 +4217,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4399,7 +4408,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4680,7 +4689,7 @@
         <v>1.18</v>
       </c>
       <c r="AT18">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4972,7 +4981,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5163,7 +5172,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5354,7 +5363,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5444,7 +5453,7 @@
         <v>2.27</v>
       </c>
       <c r="AT22">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU22">
         <v>1.77</v>
@@ -5736,7 +5745,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5823,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT24">
         <v>1.73</v>
@@ -6118,7 +6127,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6500,7 +6509,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6882,7 +6891,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -7073,7 +7082,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7264,7 +7273,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7354,7 +7363,7 @@
         <v>0.55</v>
       </c>
       <c r="AT32">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU32">
         <v>1.18</v>
@@ -7733,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT34">
         <v>0.9</v>
@@ -8028,7 +8037,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8219,7 +8228,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8410,7 +8419,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -8601,7 +8610,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8792,7 +8801,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8983,7 +8992,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9556,7 +9565,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9747,7 +9756,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9938,7 +9947,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10219,7 +10228,7 @@
         <v>1.8</v>
       </c>
       <c r="AT47">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10320,7 +10329,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10702,7 +10711,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10893,7 +10902,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11084,7 +11093,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11275,7 +11284,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11362,7 +11371,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT53">
         <v>1.2</v>
@@ -11466,7 +11475,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11553,7 +11562,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT54">
         <v>1.91</v>
@@ -11747,7 +11756,7 @@
         <v>2.09</v>
       </c>
       <c r="AT55">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU55">
         <v>1.7</v>
@@ -12803,7 +12812,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12994,7 +13003,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -13185,7 +13194,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13376,7 +13385,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13567,7 +13576,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13949,7 +13958,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14140,7 +14149,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14230,7 +14239,7 @@
         <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU68">
         <v>1.64</v>
@@ -14418,7 +14427,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT69">
         <v>1.7</v>
@@ -14522,7 +14531,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14612,7 +14621,7 @@
         <v>0.55</v>
       </c>
       <c r="AT70">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU70">
         <v>1.32</v>
@@ -14713,7 +14722,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14904,7 +14913,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15095,7 +15104,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15182,7 +15191,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT73">
         <v>1.64</v>
@@ -15477,7 +15486,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15668,7 +15677,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15755,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT76">
         <v>1.27</v>
@@ -15859,7 +15868,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -16050,7 +16059,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16331,7 +16340,7 @@
         <v>1.2</v>
       </c>
       <c r="AT79">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU79">
         <v>1.89</v>
@@ -16623,7 +16632,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16814,7 +16823,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17005,7 +17014,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17196,7 +17205,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17283,7 +17292,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT84">
         <v>1.36</v>
@@ -17769,7 +17778,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17960,7 +17969,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18151,7 +18160,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18241,7 +18250,7 @@
         <v>1.4</v>
       </c>
       <c r="AT89">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU89">
         <v>1.51</v>
@@ -18620,7 +18629,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT91">
         <v>0.8</v>
@@ -19005,7 +19014,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU93">
         <v>1.77</v>
@@ -19106,7 +19115,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19297,7 +19306,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19679,7 +19688,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -20061,7 +20070,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20252,7 +20261,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20443,7 +20452,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20634,7 +20643,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21016,7 +21025,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21207,7 +21216,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21297,7 +21306,7 @@
         <v>1.8</v>
       </c>
       <c r="AT105">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU105">
         <v>1.89</v>
@@ -21589,7 +21598,7 @@
         <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21780,7 +21789,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21867,7 +21876,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT108">
         <v>0.9</v>
@@ -22058,7 +22067,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT109">
         <v>1.73</v>
@@ -22544,7 +22553,7 @@
         <v>98</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22634,7 +22643,7 @@
         <v>1.55</v>
       </c>
       <c r="AT112">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU112">
         <v>1.88</v>
@@ -23117,7 +23126,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23308,7 +23317,7 @@
         <v>98</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23881,7 +23890,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -25027,7 +25036,7 @@
         <v>85</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25114,7 +25123,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT125">
         <v>1.3</v>
@@ -25218,7 +25227,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>15</v>
@@ -25308,7 +25317,7 @@
         <v>1.1</v>
       </c>
       <c r="AT126">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU126">
         <v>1.85</v>
@@ -25600,7 +25609,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -26173,7 +26182,7 @@
         <v>169</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26260,7 +26269,7 @@
         <v>0.43</v>
       </c>
       <c r="AS131">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT131">
         <v>0.91</v>
@@ -26364,7 +26373,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26746,7 +26755,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26937,7 +26946,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27128,7 +27137,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27218,7 +27227,7 @@
         <v>1.36</v>
       </c>
       <c r="AT136">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU136">
         <v>1.86</v>
@@ -27319,7 +27328,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27788,7 +27797,7 @@
         <v>0.71</v>
       </c>
       <c r="AS139">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT139">
         <v>0.9</v>
@@ -28083,7 +28092,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28173,7 +28182,7 @@
         <v>0.9</v>
       </c>
       <c r="AT141">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU141">
         <v>2.01</v>
@@ -28274,7 +28283,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28465,7 +28474,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -29038,7 +29047,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29229,7 +29238,7 @@
         <v>85</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29420,7 +29429,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -30184,7 +30193,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30465,7 +30474,7 @@
         <v>2.09</v>
       </c>
       <c r="AT153">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU153">
         <v>1.57</v>
@@ -30566,7 +30575,7 @@
         <v>182</v>
       </c>
       <c r="P154" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30653,7 +30662,7 @@
         <v>1.88</v>
       </c>
       <c r="AS154">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT154">
         <v>1.64</v>
@@ -30844,7 +30853,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT155">
         <v>1.3</v>
@@ -30948,7 +30957,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31330,7 +31339,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31521,7 +31530,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q159">
         <v>12</v>
@@ -31903,7 +31912,7 @@
         <v>188</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31993,7 +32002,7 @@
         <v>1.4</v>
       </c>
       <c r="AT161">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU161">
         <v>1.46</v>
@@ -32094,7 +32103,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32476,7 +32485,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32667,7 +32676,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32948,7 +32957,7 @@
         <v>2.8</v>
       </c>
       <c r="AT166">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU166">
         <v>1.62</v>
@@ -33049,7 +33058,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33240,7 +33249,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33709,7 +33718,7 @@
         <v>0.89</v>
       </c>
       <c r="AS170">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT170">
         <v>1.27</v>
@@ -33813,7 +33822,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34004,7 +34013,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34282,7 +34291,7 @@
         <v>2.1</v>
       </c>
       <c r="AS173">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT173">
         <v>1.91</v>
@@ -34577,7 +34586,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34959,7 +34968,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -35150,7 +35159,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35532,7 +35541,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35723,7 +35732,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35813,7 +35822,7 @@
         <v>0.6</v>
       </c>
       <c r="AT181">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU181">
         <v>1.65</v>
@@ -36004,7 +36013,7 @@
         <v>1.36</v>
       </c>
       <c r="AT182">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU182">
         <v>1.68</v>
@@ -36105,7 +36114,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36383,7 +36392,7 @@
         <v>1</v>
       </c>
       <c r="AS184">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT184">
         <v>0.91</v>
@@ -36487,7 +36496,7 @@
         <v>184</v>
       </c>
       <c r="P185" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q185">
         <v>10</v>
@@ -36678,7 +36687,7 @@
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36869,7 +36878,7 @@
         <v>207</v>
       </c>
       <c r="P187" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q187">
         <v>12</v>
@@ -37442,7 +37451,7 @@
         <v>209</v>
       </c>
       <c r="P190" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37584,6 +37593,388 @@
       </c>
       <c r="BK190">
         <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2812419</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44981.625</v>
+      </c>
+      <c r="F191">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>68</v>
+      </c>
+      <c r="H191" t="s">
+        <v>73</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191" t="s">
+        <v>132</v>
+      </c>
+      <c r="P191" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q191">
+        <v>4</v>
+      </c>
+      <c r="R191">
+        <v>4</v>
+      </c>
+      <c r="S191">
+        <v>8</v>
+      </c>
+      <c r="T191">
+        <v>3.6</v>
+      </c>
+      <c r="U191">
+        <v>2</v>
+      </c>
+      <c r="V191">
+        <v>2.9</v>
+      </c>
+      <c r="W191">
+        <v>1.44</v>
+      </c>
+      <c r="X191">
+        <v>2.62</v>
+      </c>
+      <c r="Y191">
+        <v>3</v>
+      </c>
+      <c r="Z191">
+        <v>1.36</v>
+      </c>
+      <c r="AA191">
+        <v>7.5</v>
+      </c>
+      <c r="AB191">
+        <v>1.07</v>
+      </c>
+      <c r="AC191">
+        <v>2.88</v>
+      </c>
+      <c r="AD191">
+        <v>3.2</v>
+      </c>
+      <c r="AE191">
+        <v>2.18</v>
+      </c>
+      <c r="AF191">
+        <v>1.08</v>
+      </c>
+      <c r="AG191">
+        <v>7</v>
+      </c>
+      <c r="AH191">
+        <v>1.4</v>
+      </c>
+      <c r="AI191">
+        <v>2.75</v>
+      </c>
+      <c r="AJ191">
+        <v>2.3</v>
+      </c>
+      <c r="AK191">
+        <v>1.57</v>
+      </c>
+      <c r="AL191">
+        <v>1.91</v>
+      </c>
+      <c r="AM191">
+        <v>1.8</v>
+      </c>
+      <c r="AN191">
+        <v>1.55</v>
+      </c>
+      <c r="AO191">
+        <v>1.33</v>
+      </c>
+      <c r="AP191">
+        <v>1.36</v>
+      </c>
+      <c r="AQ191">
+        <v>0.9</v>
+      </c>
+      <c r="AR191">
+        <v>1.45</v>
+      </c>
+      <c r="AS191">
+        <v>0.82</v>
+      </c>
+      <c r="AT191">
+        <v>1.58</v>
+      </c>
+      <c r="AU191">
+        <v>1.53</v>
+      </c>
+      <c r="AV191">
+        <v>1.23</v>
+      </c>
+      <c r="AW191">
+        <v>2.76</v>
+      </c>
+      <c r="AX191">
+        <v>2.43</v>
+      </c>
+      <c r="AY191">
+        <v>7.8</v>
+      </c>
+      <c r="AZ191">
+        <v>1.77</v>
+      </c>
+      <c r="BA191">
+        <v>1.17</v>
+      </c>
+      <c r="BB191">
+        <v>1.36</v>
+      </c>
+      <c r="BC191">
+        <v>1.64</v>
+      </c>
+      <c r="BD191">
+        <v>2.07</v>
+      </c>
+      <c r="BE191">
+        <v>2.75</v>
+      </c>
+      <c r="BF191">
+        <v>8</v>
+      </c>
+      <c r="BG191">
+        <v>6</v>
+      </c>
+      <c r="BH191">
+        <v>6</v>
+      </c>
+      <c r="BI191">
+        <v>7</v>
+      </c>
+      <c r="BJ191">
+        <v>14</v>
+      </c>
+      <c r="BK191">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>2812414</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44982.33333333334</v>
+      </c>
+      <c r="F192">
+        <v>22</v>
+      </c>
+      <c r="G192" t="s">
+        <v>76</v>
+      </c>
+      <c r="H192" t="s">
+        <v>78</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>210</v>
+      </c>
+      <c r="P192" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q192">
+        <v>3</v>
+      </c>
+      <c r="R192">
+        <v>5</v>
+      </c>
+      <c r="S192">
+        <v>8</v>
+      </c>
+      <c r="T192">
+        <v>3.75</v>
+      </c>
+      <c r="U192">
+        <v>1.95</v>
+      </c>
+      <c r="V192">
+        <v>3.1</v>
+      </c>
+      <c r="W192">
+        <v>1.5</v>
+      </c>
+      <c r="X192">
+        <v>2.4</v>
+      </c>
+      <c r="Y192">
+        <v>3.2</v>
+      </c>
+      <c r="Z192">
+        <v>1.3</v>
+      </c>
+      <c r="AA192">
+        <v>8</v>
+      </c>
+      <c r="AB192">
+        <v>1.05</v>
+      </c>
+      <c r="AC192">
+        <v>2.9</v>
+      </c>
+      <c r="AD192">
+        <v>3.1</v>
+      </c>
+      <c r="AE192">
+        <v>2.4</v>
+      </c>
+      <c r="AF192">
+        <v>1.07</v>
+      </c>
+      <c r="AG192">
+        <v>7</v>
+      </c>
+      <c r="AH192">
+        <v>1.4</v>
+      </c>
+      <c r="AI192">
+        <v>2.7</v>
+      </c>
+      <c r="AJ192">
+        <v>2.2</v>
+      </c>
+      <c r="AK192">
+        <v>1.65</v>
+      </c>
+      <c r="AL192">
+        <v>1.91</v>
+      </c>
+      <c r="AM192">
+        <v>1.8</v>
+      </c>
+      <c r="AN192">
+        <v>1.6</v>
+      </c>
+      <c r="AO192">
+        <v>1.35</v>
+      </c>
+      <c r="AP192">
+        <v>1.36</v>
+      </c>
+      <c r="AQ192">
+        <v>1.27</v>
+      </c>
+      <c r="AR192">
+        <v>1.4</v>
+      </c>
+      <c r="AS192">
+        <v>1.17</v>
+      </c>
+      <c r="AT192">
+        <v>1.55</v>
+      </c>
+      <c r="AU192">
+        <v>1.44</v>
+      </c>
+      <c r="AV192">
+        <v>1.58</v>
+      </c>
+      <c r="AW192">
+        <v>3.02</v>
+      </c>
+      <c r="AX192">
+        <v>2.08</v>
+      </c>
+      <c r="AY192">
+        <v>7.6</v>
+      </c>
+      <c r="AZ192">
+        <v>2</v>
+      </c>
+      <c r="BA192">
+        <v>1.19</v>
+      </c>
+      <c r="BB192">
+        <v>1.29</v>
+      </c>
+      <c r="BC192">
+        <v>1.5</v>
+      </c>
+      <c r="BD192">
+        <v>1.88</v>
+      </c>
+      <c r="BE192">
+        <v>2.43</v>
+      </c>
+      <c r="BF192">
+        <v>3</v>
+      </c>
+      <c r="BG192">
+        <v>6</v>
+      </c>
+      <c r="BH192">
+        <v>6</v>
+      </c>
+      <c r="BI192">
+        <v>6</v>
+      </c>
+      <c r="BJ192">
+        <v>9</v>
+      </c>
+      <c r="BK192">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,15 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['27', '47']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -784,9 +793,6 @@
     <t>['40']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['9', '71']</t>
   </si>
   <si>
@@ -842,9 +848,6 @@
   </si>
   <si>
     <t>['38']</t>
-  </si>
-  <si>
-    <t>['33']</t>
   </si>
   <si>
     <t>['6', '15', '52']</t>
@@ -938,6 +941,15 @@
   </si>
   <si>
     <t>['44', '72']</t>
+  </si>
+  <si>
+    <t>['14', '38']</t>
+  </si>
+  <si>
+    <t>['7', '79']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1555,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1821,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT3">
         <v>0.8</v>
@@ -2116,7 +2128,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2880,7 +2892,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -3262,7 +3274,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3352,7 +3364,7 @@
         <v>1.36</v>
       </c>
       <c r="AT11">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3453,7 +3465,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3543,7 +3555,7 @@
         <v>0.55</v>
       </c>
       <c r="AT12">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3644,7 +3656,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4026,7 +4038,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4116,7 +4128,7 @@
         <v>1.91</v>
       </c>
       <c r="AT15">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4217,7 +4229,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4304,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT16">
         <v>0.91</v>
@@ -4408,7 +4420,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4498,7 +4510,7 @@
         <v>0.6</v>
       </c>
       <c r="AT17">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4686,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT18">
         <v>1.58</v>
@@ -4877,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT19">
         <v>0.91</v>
@@ -4981,7 +4993,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5172,7 +5184,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5363,7 +5375,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5745,7 +5757,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6127,7 +6139,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6509,7 +6521,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6787,10 +6799,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT29">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU29">
         <v>1.76</v>
@@ -6891,7 +6903,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -7082,7 +7094,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7172,7 +7184,7 @@
         <v>0.6</v>
       </c>
       <c r="AT31">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU31">
         <v>1.24</v>
@@ -7273,7 +7285,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7551,7 +7563,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -7745,7 +7757,7 @@
         <v>1.17</v>
       </c>
       <c r="AT34">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU34">
         <v>1.65</v>
@@ -7936,7 +7948,7 @@
         <v>2.09</v>
       </c>
       <c r="AT35">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU35">
         <v>1.56</v>
@@ -8037,7 +8049,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8124,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT36">
         <v>0.91</v>
@@ -8228,7 +8240,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8315,7 +8327,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT37">
         <v>1.3</v>
@@ -8419,7 +8431,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -8610,7 +8622,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8801,7 +8813,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8992,7 +9004,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9565,7 +9577,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9756,7 +9768,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9947,7 +9959,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10225,7 +10237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
         <v>1.58</v>
@@ -10329,7 +10341,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10416,10 +10428,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT48">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU48">
         <v>1.24</v>
@@ -10607,10 +10619,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT49">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
         <v>1.59</v>
@@ -10711,7 +10723,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10902,7 +10914,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10992,7 +11004,7 @@
         <v>0.6</v>
       </c>
       <c r="AT51">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU51">
         <v>1.56</v>
@@ -11093,7 +11105,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11180,7 +11192,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT52">
         <v>1.3</v>
@@ -11284,7 +11296,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11475,7 +11487,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11565,7 +11577,7 @@
         <v>0.82</v>
       </c>
       <c r="AT54">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -12329,7 +12341,7 @@
         <v>1.1</v>
       </c>
       <c r="AT58">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU58">
         <v>1.97</v>
@@ -12812,7 +12824,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13003,7 +13015,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -13194,7 +13206,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13385,7 +13397,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13576,7 +13588,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13854,10 +13866,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT66">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU66">
         <v>1.4</v>
@@ -13958,7 +13970,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14045,10 +14057,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT67">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU67">
         <v>1.81</v>
@@ -14149,7 +14161,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14236,7 +14248,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT68">
         <v>1.58</v>
@@ -14531,7 +14543,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14722,7 +14734,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14913,7 +14925,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15000,7 +15012,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT72">
         <v>1.2</v>
@@ -15104,7 +15116,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15194,7 +15206,7 @@
         <v>0.82</v>
       </c>
       <c r="AT73">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU73">
         <v>1.77</v>
@@ -15486,7 +15498,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15677,7 +15689,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15868,7 +15880,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -15958,7 +15970,7 @@
         <v>0.9</v>
       </c>
       <c r="AT77">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU77">
         <v>1.94</v>
@@ -16059,7 +16071,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16632,7 +16644,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16823,7 +16835,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17014,7 +17026,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17104,7 +17116,7 @@
         <v>0.6</v>
       </c>
       <c r="AT83">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU83">
         <v>1.69</v>
@@ -17205,7 +17217,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17295,7 +17307,7 @@
         <v>0.82</v>
       </c>
       <c r="AT84">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU84">
         <v>1.64</v>
@@ -17486,7 +17498,7 @@
         <v>1.1</v>
       </c>
       <c r="AT85">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -17674,7 +17686,7 @@
         <v>1.5</v>
       </c>
       <c r="AS86">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17778,7 +17790,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17969,7 +17981,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18056,7 +18068,7 @@
         <v>1.25</v>
       </c>
       <c r="AS88">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT88">
         <v>1.7</v>
@@ -18160,7 +18172,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18247,7 +18259,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT89">
         <v>1.55</v>
@@ -18438,7 +18450,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT90">
         <v>1.2</v>
@@ -18823,7 +18835,7 @@
         <v>1.2</v>
       </c>
       <c r="AT92">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU92">
         <v>1.81</v>
@@ -19115,7 +19127,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19205,7 +19217,7 @@
         <v>1.55</v>
       </c>
       <c r="AT94">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU94">
         <v>1.96</v>
@@ -19306,7 +19318,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19688,7 +19700,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -20070,7 +20082,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20261,7 +20273,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20348,7 +20360,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT100">
         <v>0.9</v>
@@ -20452,7 +20464,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20542,7 +20554,7 @@
         <v>2.8</v>
       </c>
       <c r="AT101">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU101">
         <v>1.54</v>
@@ -20643,7 +20655,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20730,7 +20742,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT102">
         <v>1.2</v>
@@ -20921,7 +20933,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT103">
         <v>1.3</v>
@@ -21025,7 +21037,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21216,7 +21228,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21303,7 +21315,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT105">
         <v>1.55</v>
@@ -21598,7 +21610,7 @@
         <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21789,7 +21801,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21879,7 +21891,7 @@
         <v>0.82</v>
       </c>
       <c r="AT108">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU108">
         <v>1.44</v>
@@ -22452,7 +22464,7 @@
         <v>2.27</v>
       </c>
       <c r="AT111">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU111">
         <v>1.85</v>
@@ -22553,7 +22565,7 @@
         <v>98</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22834,7 +22846,7 @@
         <v>1</v>
       </c>
       <c r="AT113">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU113">
         <v>1.74</v>
@@ -23126,7 +23138,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23317,7 +23329,7 @@
         <v>98</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23404,7 +23416,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT116">
         <v>1.27</v>
@@ -23598,7 +23610,7 @@
         <v>1.36</v>
       </c>
       <c r="AT117">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU117">
         <v>1.93</v>
@@ -23890,7 +23902,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -23977,7 +23989,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT119">
         <v>0.8</v>
@@ -24744,7 +24756,7 @@
         <v>1</v>
       </c>
       <c r="AT123">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU123">
         <v>1.66</v>
@@ -24932,7 +24944,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT124">
         <v>0.9</v>
@@ -25036,7 +25048,7 @@
         <v>85</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25227,7 +25239,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>15</v>
@@ -25609,7 +25621,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25696,10 +25708,10 @@
         <v>2</v>
       </c>
       <c r="AS128">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT128">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU128">
         <v>1.38</v>
@@ -25890,7 +25902,7 @@
         <v>1.91</v>
       </c>
       <c r="AT129">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU129">
         <v>1.82</v>
@@ -26182,7 +26194,7 @@
         <v>169</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26373,7 +26385,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26460,7 +26472,7 @@
         <v>1.14</v>
       </c>
       <c r="AS132">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT132">
         <v>1.27</v>
@@ -26755,7 +26767,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26946,7 +26958,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27036,7 +27048,7 @@
         <v>1.55</v>
       </c>
       <c r="AT135">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU135">
         <v>1.85</v>
@@ -27137,7 +27149,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27328,7 +27340,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27988,7 +28000,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT140">
         <v>1.27</v>
@@ -28092,7 +28104,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28283,7 +28295,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28474,7 +28486,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28564,7 +28576,7 @@
         <v>2.27</v>
       </c>
       <c r="AT143">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU143">
         <v>1.9</v>
@@ -28943,7 +28955,7 @@
         <v>1.38</v>
       </c>
       <c r="AS145">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT145">
         <v>1.27</v>
@@ -29047,7 +29059,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29238,7 +29250,7 @@
         <v>85</v>
       </c>
       <c r="P147" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29429,7 +29441,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29516,7 +29528,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT148">
         <v>0.91</v>
@@ -29707,7 +29719,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT149">
         <v>0.91</v>
@@ -29901,7 +29913,7 @@
         <v>0.55</v>
       </c>
       <c r="AT150">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU150">
         <v>1.44</v>
@@ -30193,7 +30205,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30283,7 +30295,7 @@
         <v>1.55</v>
       </c>
       <c r="AT152">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU152">
         <v>1.86</v>
@@ -30575,7 +30587,7 @@
         <v>182</v>
       </c>
       <c r="P154" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30665,7 +30677,7 @@
         <v>1.17</v>
       </c>
       <c r="AT154">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU154">
         <v>1.41</v>
@@ -30957,7 +30969,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31047,7 +31059,7 @@
         <v>0.55</v>
       </c>
       <c r="AT156">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU156">
         <v>1.39</v>
@@ -31339,7 +31351,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31426,10 +31438,10 @@
         <v>2</v>
       </c>
       <c r="AS158">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT158">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU158">
         <v>1.54</v>
@@ -31530,7 +31542,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q159">
         <v>12</v>
@@ -31617,7 +31629,7 @@
         <v>0.78</v>
       </c>
       <c r="AS159">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT159">
         <v>0.91</v>
@@ -31811,7 +31823,7 @@
         <v>2.09</v>
       </c>
       <c r="AT160">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU160">
         <v>1.57</v>
@@ -31912,7 +31924,7 @@
         <v>188</v>
       </c>
       <c r="P161" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31999,7 +32011,7 @@
         <v>1.67</v>
       </c>
       <c r="AS161">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT161">
         <v>1.58</v>
@@ -32103,7 +32115,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32384,7 +32396,7 @@
         <v>1.91</v>
       </c>
       <c r="AT163">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU163">
         <v>1.92</v>
@@ -32485,7 +32497,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32676,7 +32688,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32763,7 +32775,7 @@
         <v>1.67</v>
       </c>
       <c r="AS165">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT165">
         <v>1.73</v>
@@ -33058,7 +33070,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33249,7 +33261,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33822,7 +33834,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34013,7 +34025,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34294,7 +34306,7 @@
         <v>1.17</v>
       </c>
       <c r="AT173">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU173">
         <v>1.46</v>
@@ -34482,10 +34494,10 @@
         <v>1.5</v>
       </c>
       <c r="AS174">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT174">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU174">
         <v>1.5</v>
@@ -34586,7 +34598,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34676,7 +34688,7 @@
         <v>2.09</v>
       </c>
       <c r="AT175">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU175">
         <v>1.65</v>
@@ -34968,7 +34980,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -35055,7 +35067,7 @@
         <v>0.7</v>
       </c>
       <c r="AS177">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT177">
         <v>0.91</v>
@@ -35159,7 +35171,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35246,10 +35258,10 @@
         <v>1.5</v>
       </c>
       <c r="AS178">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT178">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU178">
         <v>1.75</v>
@@ -35541,7 +35553,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35628,7 +35640,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT180">
         <v>1</v>
@@ -35732,7 +35744,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36114,7 +36126,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36496,7 +36508,7 @@
         <v>184</v>
       </c>
       <c r="P185" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q185">
         <v>10</v>
@@ -36687,7 +36699,7 @@
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36878,7 +36890,7 @@
         <v>207</v>
       </c>
       <c r="P187" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q187">
         <v>12</v>
@@ -37451,7 +37463,7 @@
         <v>209</v>
       </c>
       <c r="P190" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37642,7 +37654,7 @@
         <v>132</v>
       </c>
       <c r="P191" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37833,7 +37845,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q192">
         <v>3</v>
@@ -37975,6 +37987,770 @@
       </c>
       <c r="BK192">
         <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2812418</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44982.45833333334</v>
+      </c>
+      <c r="F193">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>82</v>
+      </c>
+      <c r="H193" t="s">
+        <v>69</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>211</v>
+      </c>
+      <c r="P193" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q193">
+        <v>6</v>
+      </c>
+      <c r="R193">
+        <v>8</v>
+      </c>
+      <c r="S193">
+        <v>14</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
+        <v>2.2</v>
+      </c>
+      <c r="V193">
+        <v>4</v>
+      </c>
+      <c r="W193">
+        <v>1.36</v>
+      </c>
+      <c r="X193">
+        <v>3</v>
+      </c>
+      <c r="Y193">
+        <v>2.75</v>
+      </c>
+      <c r="Z193">
+        <v>1.4</v>
+      </c>
+      <c r="AA193">
+        <v>7</v>
+      </c>
+      <c r="AB193">
+        <v>1.1</v>
+      </c>
+      <c r="AC193">
+        <v>2.1</v>
+      </c>
+      <c r="AD193">
+        <v>3.3</v>
+      </c>
+      <c r="AE193">
+        <v>3.4</v>
+      </c>
+      <c r="AF193">
+        <v>1.01</v>
+      </c>
+      <c r="AG193">
+        <v>10.25</v>
+      </c>
+      <c r="AH193">
+        <v>1.22</v>
+      </c>
+      <c r="AI193">
+        <v>3.72</v>
+      </c>
+      <c r="AJ193">
+        <v>1.73</v>
+      </c>
+      <c r="AK193">
+        <v>2.05</v>
+      </c>
+      <c r="AL193">
+        <v>1.67</v>
+      </c>
+      <c r="AM193">
+        <v>2.1</v>
+      </c>
+      <c r="AN193">
+        <v>1.3</v>
+      </c>
+      <c r="AO193">
+        <v>1.26</v>
+      </c>
+      <c r="AP193">
+        <v>1.73</v>
+      </c>
+      <c r="AQ193">
+        <v>1.4</v>
+      </c>
+      <c r="AR193">
+        <v>0.9</v>
+      </c>
+      <c r="AS193">
+        <v>1.36</v>
+      </c>
+      <c r="AT193">
+        <v>0.91</v>
+      </c>
+      <c r="AU193">
+        <v>1.55</v>
+      </c>
+      <c r="AV193">
+        <v>1.47</v>
+      </c>
+      <c r="AW193">
+        <v>3.02</v>
+      </c>
+      <c r="AX193">
+        <v>1.65</v>
+      </c>
+      <c r="AY193">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ193">
+        <v>2.76</v>
+      </c>
+      <c r="BA193">
+        <v>1.14</v>
+      </c>
+      <c r="BB193">
+        <v>1.28</v>
+      </c>
+      <c r="BC193">
+        <v>1.53</v>
+      </c>
+      <c r="BD193">
+        <v>1.83</v>
+      </c>
+      <c r="BE193">
+        <v>2.23</v>
+      </c>
+      <c r="BF193">
+        <v>6</v>
+      </c>
+      <c r="BG193">
+        <v>3</v>
+      </c>
+      <c r="BH193">
+        <v>2</v>
+      </c>
+      <c r="BI193">
+        <v>7</v>
+      </c>
+      <c r="BJ193">
+        <v>8</v>
+      </c>
+      <c r="BK193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2812420</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44982.52083333334</v>
+      </c>
+      <c r="F194">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>66</v>
+      </c>
+      <c r="H194" t="s">
+        <v>71</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194" t="s">
+        <v>212</v>
+      </c>
+      <c r="P194" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q194">
+        <v>6</v>
+      </c>
+      <c r="R194">
+        <v>4</v>
+      </c>
+      <c r="S194">
+        <v>10</v>
+      </c>
+      <c r="T194">
+        <v>4.33</v>
+      </c>
+      <c r="U194">
+        <v>2.2</v>
+      </c>
+      <c r="V194">
+        <v>2.4</v>
+      </c>
+      <c r="W194">
+        <v>1.38</v>
+      </c>
+      <c r="X194">
+        <v>2.8</v>
+      </c>
+      <c r="Y194">
+        <v>2.8</v>
+      </c>
+      <c r="Z194">
+        <v>1.38</v>
+      </c>
+      <c r="AA194">
+        <v>6</v>
+      </c>
+      <c r="AB194">
+        <v>1.09</v>
+      </c>
+      <c r="AC194">
+        <v>3.5</v>
+      </c>
+      <c r="AD194">
+        <v>3.3</v>
+      </c>
+      <c r="AE194">
+        <v>2.05</v>
+      </c>
+      <c r="AF194">
+        <v>1.01</v>
+      </c>
+      <c r="AG194">
+        <v>9.4</v>
+      </c>
+      <c r="AH194">
+        <v>1.29</v>
+      </c>
+      <c r="AI194">
+        <v>3.3</v>
+      </c>
+      <c r="AJ194">
+        <v>1.91</v>
+      </c>
+      <c r="AK194">
+        <v>1.85</v>
+      </c>
+      <c r="AL194">
+        <v>1.74</v>
+      </c>
+      <c r="AM194">
+        <v>1.98</v>
+      </c>
+      <c r="AN194">
+        <v>1.88</v>
+      </c>
+      <c r="AO194">
+        <v>1.3</v>
+      </c>
+      <c r="AP194">
+        <v>1.25</v>
+      </c>
+      <c r="AQ194">
+        <v>1.8</v>
+      </c>
+      <c r="AR194">
+        <v>1.91</v>
+      </c>
+      <c r="AS194">
+        <v>1.73</v>
+      </c>
+      <c r="AT194">
+        <v>1.83</v>
+      </c>
+      <c r="AU194">
+        <v>1.67</v>
+      </c>
+      <c r="AV194">
+        <v>1.62</v>
+      </c>
+      <c r="AW194">
+        <v>3.29</v>
+      </c>
+      <c r="AX194">
+        <v>2.53</v>
+      </c>
+      <c r="AY194">
+        <v>7.9</v>
+      </c>
+      <c r="AZ194">
+        <v>1.72</v>
+      </c>
+      <c r="BA194">
+        <v>1.17</v>
+      </c>
+      <c r="BB194">
+        <v>1.32</v>
+      </c>
+      <c r="BC194">
+        <v>1.56</v>
+      </c>
+      <c r="BD194">
+        <v>2</v>
+      </c>
+      <c r="BE194">
+        <v>2.5</v>
+      </c>
+      <c r="BF194">
+        <v>5</v>
+      </c>
+      <c r="BG194">
+        <v>6</v>
+      </c>
+      <c r="BH194">
+        <v>8</v>
+      </c>
+      <c r="BI194">
+        <v>9</v>
+      </c>
+      <c r="BJ194">
+        <v>13</v>
+      </c>
+      <c r="BK194">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2812416</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44983.33333333334</v>
+      </c>
+      <c r="F195">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>79</v>
+      </c>
+      <c r="H195" t="s">
+        <v>72</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>177</v>
+      </c>
+      <c r="P195" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q195">
+        <v>2</v>
+      </c>
+      <c r="R195">
+        <v>11</v>
+      </c>
+      <c r="S195">
+        <v>13</v>
+      </c>
+      <c r="T195">
+        <v>3.2</v>
+      </c>
+      <c r="U195">
+        <v>2.05</v>
+      </c>
+      <c r="V195">
+        <v>3.6</v>
+      </c>
+      <c r="W195">
+        <v>1.44</v>
+      </c>
+      <c r="X195">
+        <v>2.63</v>
+      </c>
+      <c r="Y195">
+        <v>3.4</v>
+      </c>
+      <c r="Z195">
+        <v>1.3</v>
+      </c>
+      <c r="AA195">
+        <v>10</v>
+      </c>
+      <c r="AB195">
+        <v>1.06</v>
+      </c>
+      <c r="AC195">
+        <v>2.25</v>
+      </c>
+      <c r="AD195">
+        <v>3.1</v>
+      </c>
+      <c r="AE195">
+        <v>3</v>
+      </c>
+      <c r="AF195">
+        <v>1.08</v>
+      </c>
+      <c r="AG195">
+        <v>7</v>
+      </c>
+      <c r="AH195">
+        <v>1.38</v>
+      </c>
+      <c r="AI195">
+        <v>2.9</v>
+      </c>
+      <c r="AJ195">
+        <v>2.23</v>
+      </c>
+      <c r="AK195">
+        <v>1.62</v>
+      </c>
+      <c r="AL195">
+        <v>1.83</v>
+      </c>
+      <c r="AM195">
+        <v>1.83</v>
+      </c>
+      <c r="AN195">
+        <v>1.28</v>
+      </c>
+      <c r="AO195">
+        <v>1.37</v>
+      </c>
+      <c r="AP195">
+        <v>1.52</v>
+      </c>
+      <c r="AQ195">
+        <v>1.4</v>
+      </c>
+      <c r="AR195">
+        <v>1.36</v>
+      </c>
+      <c r="AS195">
+        <v>1.27</v>
+      </c>
+      <c r="AT195">
+        <v>1.5</v>
+      </c>
+      <c r="AU195">
+        <v>1.47</v>
+      </c>
+      <c r="AV195">
+        <v>1.61</v>
+      </c>
+      <c r="AW195">
+        <v>3.08</v>
+      </c>
+      <c r="AX195">
+        <v>2.05</v>
+      </c>
+      <c r="AY195">
+        <v>7.6</v>
+      </c>
+      <c r="AZ195">
+        <v>2.05</v>
+      </c>
+      <c r="BA195">
+        <v>1.22</v>
+      </c>
+      <c r="BB195">
+        <v>1.41</v>
+      </c>
+      <c r="BC195">
+        <v>1.7</v>
+      </c>
+      <c r="BD195">
+        <v>2.15</v>
+      </c>
+      <c r="BE195">
+        <v>2.85</v>
+      </c>
+      <c r="BF195">
+        <v>8</v>
+      </c>
+      <c r="BG195">
+        <v>5</v>
+      </c>
+      <c r="BH195">
+        <v>2</v>
+      </c>
+      <c r="BI195">
+        <v>4</v>
+      </c>
+      <c r="BJ195">
+        <v>10</v>
+      </c>
+      <c r="BK195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2812417</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44983.33333333334</v>
+      </c>
+      <c r="F196">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>81</v>
+      </c>
+      <c r="H196" t="s">
+        <v>70</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>213</v>
+      </c>
+      <c r="P196" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q196">
+        <v>6</v>
+      </c>
+      <c r="R196">
+        <v>1</v>
+      </c>
+      <c r="S196">
+        <v>7</v>
+      </c>
+      <c r="T196">
+        <v>3</v>
+      </c>
+      <c r="U196">
+        <v>2.1</v>
+      </c>
+      <c r="V196">
+        <v>3.6</v>
+      </c>
+      <c r="W196">
+        <v>1.4</v>
+      </c>
+      <c r="X196">
+        <v>2.75</v>
+      </c>
+      <c r="Y196">
+        <v>3</v>
+      </c>
+      <c r="Z196">
+        <v>1.36</v>
+      </c>
+      <c r="AA196">
+        <v>9</v>
+      </c>
+      <c r="AB196">
+        <v>1.07</v>
+      </c>
+      <c r="AC196">
+        <v>2.2</v>
+      </c>
+      <c r="AD196">
+        <v>3.2</v>
+      </c>
+      <c r="AE196">
+        <v>2.9</v>
+      </c>
+      <c r="AF196">
+        <v>1.06</v>
+      </c>
+      <c r="AG196">
+        <v>8</v>
+      </c>
+      <c r="AH196">
+        <v>1.33</v>
+      </c>
+      <c r="AI196">
+        <v>3.2</v>
+      </c>
+      <c r="AJ196">
+        <v>2.1</v>
+      </c>
+      <c r="AK196">
+        <v>1.68</v>
+      </c>
+      <c r="AL196">
+        <v>1.8</v>
+      </c>
+      <c r="AM196">
+        <v>1.91</v>
+      </c>
+      <c r="AN196">
+        <v>1.3</v>
+      </c>
+      <c r="AO196">
+        <v>1.25</v>
+      </c>
+      <c r="AP196">
+        <v>1.57</v>
+      </c>
+      <c r="AQ196">
+        <v>1.18</v>
+      </c>
+      <c r="AR196">
+        <v>1.64</v>
+      </c>
+      <c r="AS196">
+        <v>1.17</v>
+      </c>
+      <c r="AT196">
+        <v>1.58</v>
+      </c>
+      <c r="AU196">
+        <v>1.88</v>
+      </c>
+      <c r="AV196">
+        <v>1.5</v>
+      </c>
+      <c r="AW196">
+        <v>3.38</v>
+      </c>
+      <c r="AX196">
+        <v>1.72</v>
+      </c>
+      <c r="AY196">
+        <v>7.9</v>
+      </c>
+      <c r="AZ196">
+        <v>2.53</v>
+      </c>
+      <c r="BA196">
+        <v>1.17</v>
+      </c>
+      <c r="BB196">
+        <v>1.3</v>
+      </c>
+      <c r="BC196">
+        <v>1.54</v>
+      </c>
+      <c r="BD196">
+        <v>1.9</v>
+      </c>
+      <c r="BE196">
+        <v>2.47</v>
+      </c>
+      <c r="BF196">
+        <v>3</v>
+      </c>
+      <c r="BG196">
+        <v>3</v>
+      </c>
+      <c r="BH196">
+        <v>12</v>
+      </c>
+      <c r="BI196">
+        <v>3</v>
+      </c>
+      <c r="BJ196">
+        <v>15</v>
+      </c>
+      <c r="BK196">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
   <si>
     <t>['90+6']</t>
@@ -1311,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK196"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1558,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2027,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2128,7 +2131,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2892,7 +2895,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -3274,7 +3277,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3465,7 +3468,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3552,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT12">
         <v>1.58</v>
@@ -3656,7 +3659,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3746,7 +3749,7 @@
         <v>1.17</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3934,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4038,7 +4041,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4229,7 +4232,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4420,7 +4423,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4507,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT17">
         <v>1.5</v>
@@ -4993,7 +4996,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5184,7 +5187,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5375,7 +5378,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5757,7 +5760,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6139,7 +6142,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6521,7 +6524,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6903,7 +6906,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -6993,7 +6996,7 @@
         <v>1.91</v>
       </c>
       <c r="AT30">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU30">
         <v>0.91</v>
@@ -7094,7 +7097,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7181,7 +7184,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT31">
         <v>1.83</v>
@@ -7285,7 +7288,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7372,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT32">
         <v>1.58</v>
@@ -7566,7 +7569,7 @@
         <v>1.36</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU33">
         <v>1.41</v>
@@ -7945,7 +7948,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT35">
         <v>1.5</v>
@@ -8049,7 +8052,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8240,7 +8243,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8330,7 +8333,7 @@
         <v>1.17</v>
       </c>
       <c r="AT37">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8431,7 +8434,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -8622,7 +8625,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8813,7 +8816,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9004,7 +9007,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9577,7 +9580,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9768,7 +9771,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9959,7 +9962,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10341,7 +10344,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10723,7 +10726,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10810,10 +10813,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU50">
         <v>1.13</v>
@@ -10914,7 +10917,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11001,7 +11004,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT51">
         <v>1.58</v>
@@ -11105,7 +11108,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11195,7 +11198,7 @@
         <v>1.36</v>
       </c>
       <c r="AT52">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU52">
         <v>1.63</v>
@@ -11296,7 +11299,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11386,7 +11389,7 @@
         <v>1.17</v>
       </c>
       <c r="AT53">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU53">
         <v>1.55</v>
@@ -11487,7 +11490,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11765,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT55">
         <v>1.55</v>
@@ -12824,7 +12827,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13015,7 +13018,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -13206,7 +13209,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13293,7 +13296,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT63">
         <v>1.27</v>
@@ -13397,7 +13400,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13588,7 +13591,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13675,10 +13678,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT65">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU65">
         <v>1.6</v>
@@ -13970,7 +13973,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14161,7 +14164,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14543,7 +14546,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14630,7 +14633,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT70">
         <v>1.55</v>
@@ -14734,7 +14737,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14824,7 +14827,7 @@
         <v>2.8</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU71">
         <v>1.38</v>
@@ -14925,7 +14928,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15015,7 +15018,7 @@
         <v>1.17</v>
       </c>
       <c r="AT72">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU72">
         <v>1.85</v>
@@ -15116,7 +15119,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15394,7 +15397,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>0.9</v>
@@ -15498,7 +15501,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15880,7 +15883,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -16071,7 +16074,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16644,7 +16647,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16835,7 +16838,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16922,7 +16925,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT82">
         <v>1.3</v>
@@ -17026,7 +17029,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17113,7 +17116,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT83">
         <v>0.91</v>
@@ -17217,7 +17220,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17689,7 +17692,7 @@
         <v>1.73</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU86">
         <v>1.84</v>
@@ -17790,7 +17793,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17880,7 +17883,7 @@
         <v>2.8</v>
       </c>
       <c r="AT87">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -17981,7 +17984,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18172,7 +18175,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18453,7 +18456,7 @@
         <v>1.36</v>
       </c>
       <c r="AT90">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU90">
         <v>1.34</v>
@@ -19127,7 +19130,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19318,7 +19321,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19700,7 +19703,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19787,7 +19790,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT97">
         <v>1.27</v>
@@ -20082,7 +20085,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20169,7 +20172,7 @@
         <v>1.4</v>
       </c>
       <c r="AS99">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT99">
         <v>1.73</v>
@@ -20273,7 +20276,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20464,7 +20467,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20655,7 +20658,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20745,7 +20748,7 @@
         <v>1.27</v>
       </c>
       <c r="AT102">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU102">
         <v>1.59</v>
@@ -21037,7 +21040,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21127,7 +21130,7 @@
         <v>1.1</v>
       </c>
       <c r="AT104">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU104">
         <v>1.94</v>
@@ -21228,7 +21231,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21509,7 +21512,7 @@
         <v>0.9</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU106">
         <v>2.03</v>
@@ -21610,7 +21613,7 @@
         <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21697,7 +21700,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT107">
         <v>1.7</v>
@@ -21801,7 +21804,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22270,7 +22273,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT110">
         <v>0.91</v>
@@ -22565,7 +22568,7 @@
         <v>98</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23138,7 +23141,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23225,7 +23228,7 @@
         <v>1.17</v>
       </c>
       <c r="AS115">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT115">
         <v>1.27</v>
@@ -23902,7 +23905,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24183,7 +24186,7 @@
         <v>0.9</v>
       </c>
       <c r="AT120">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU120">
         <v>2.07</v>
@@ -24374,7 +24377,7 @@
         <v>1.2</v>
       </c>
       <c r="AT121">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU121">
         <v>1.75</v>
@@ -24562,7 +24565,7 @@
         <v>1.14</v>
       </c>
       <c r="AS122">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT122">
         <v>1.27</v>
@@ -25239,7 +25242,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q126">
         <v>15</v>
@@ -25621,7 +25624,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -26093,7 +26096,7 @@
         <v>2.27</v>
       </c>
       <c r="AT130">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU130">
         <v>1.86</v>
@@ -26194,7 +26197,7 @@
         <v>169</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26385,7 +26388,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26663,7 +26666,7 @@
         <v>1.57</v>
       </c>
       <c r="AS133">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT133">
         <v>1.73</v>
@@ -26767,7 +26770,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26854,7 +26857,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT134">
         <v>0.91</v>
@@ -26958,7 +26961,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27149,7 +27152,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27340,7 +27343,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -28104,7 +28107,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28295,7 +28298,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28486,7 +28489,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28767,7 +28770,7 @@
         <v>1.2</v>
       </c>
       <c r="AT144">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU144">
         <v>1.81</v>
@@ -29059,7 +29062,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29149,7 +29152,7 @@
         <v>1.91</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU146">
         <v>1.85</v>
@@ -29250,7 +29253,7 @@
         <v>85</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29337,7 +29340,7 @@
         <v>1.5</v>
       </c>
       <c r="AS147">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT147">
         <v>1.73</v>
@@ -29441,7 +29444,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29910,7 +29913,7 @@
         <v>2.13</v>
       </c>
       <c r="AS150">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT150">
         <v>1.83</v>
@@ -30104,7 +30107,7 @@
         <v>1.36</v>
       </c>
       <c r="AT151">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU151">
         <v>1.82</v>
@@ -30205,7 +30208,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30483,7 +30486,7 @@
         <v>1.88</v>
       </c>
       <c r="AS153">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT153">
         <v>1.58</v>
@@ -30587,7 +30590,7 @@
         <v>182</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30868,7 +30871,7 @@
         <v>1.17</v>
       </c>
       <c r="AT155">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU155">
         <v>1.47</v>
@@ -30969,7 +30972,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31056,7 +31059,7 @@
         <v>1.33</v>
       </c>
       <c r="AS156">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT156">
         <v>1.5</v>
@@ -31250,7 +31253,7 @@
         <v>1.36</v>
       </c>
       <c r="AT157">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU157">
         <v>1.75</v>
@@ -31351,7 +31354,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31542,7 +31545,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q159">
         <v>12</v>
@@ -31820,7 +31823,7 @@
         <v>1.67</v>
       </c>
       <c r="AS160">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT160">
         <v>1.58</v>
@@ -31924,7 +31927,7 @@
         <v>188</v>
       </c>
       <c r="P161" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32115,7 +32118,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32202,7 +32205,7 @@
         <v>0.67</v>
       </c>
       <c r="AS162">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT162">
         <v>0.91</v>
@@ -32497,7 +32500,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32688,7 +32691,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33070,7 +33073,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33261,7 +33264,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33834,7 +33837,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33924,7 +33927,7 @@
         <v>1.55</v>
       </c>
       <c r="AT171">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU171">
         <v>1.83</v>
@@ -34025,7 +34028,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34598,7 +34601,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34685,7 +34688,7 @@
         <v>1</v>
       </c>
       <c r="AS175">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT175">
         <v>0.91</v>
@@ -34876,10 +34879,10 @@
         <v>1.33</v>
       </c>
       <c r="AS176">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT176">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU176">
         <v>1.47</v>
@@ -34980,7 +34983,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -35171,7 +35174,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35452,7 +35455,7 @@
         <v>1.91</v>
       </c>
       <c r="AT179">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU179">
         <v>2.03</v>
@@ -35553,7 +35556,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35643,7 +35646,7 @@
         <v>1.17</v>
       </c>
       <c r="AT180">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU180">
         <v>1.86</v>
@@ -35744,7 +35747,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35831,7 +35834,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT181">
         <v>1.58</v>
@@ -36126,7 +36129,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36508,7 +36511,7 @@
         <v>184</v>
       </c>
       <c r="P185" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q185">
         <v>10</v>
@@ -36699,7 +36702,7 @@
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36890,7 +36893,7 @@
         <v>207</v>
       </c>
       <c r="P187" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q187">
         <v>12</v>
@@ -37463,7 +37466,7 @@
         <v>209</v>
       </c>
       <c r="P190" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37654,7 +37657,7 @@
         <v>132</v>
       </c>
       <c r="P191" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37845,7 +37848,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q192">
         <v>3</v>
@@ -38036,7 +38039,7 @@
         <v>211</v>
       </c>
       <c r="P193" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -38227,7 +38230,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38418,7 +38421,7 @@
         <v>177</v>
       </c>
       <c r="P195" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38609,7 +38612,7 @@
         <v>213</v>
       </c>
       <c r="P196" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38751,6 +38754,579 @@
       </c>
       <c r="BK196">
         <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2812415</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F197">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>80</v>
+      </c>
+      <c r="H197" t="s">
+        <v>67</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>85</v>
+      </c>
+      <c r="P197" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q197">
+        <v>10</v>
+      </c>
+      <c r="R197">
+        <v>4</v>
+      </c>
+      <c r="S197">
+        <v>14</v>
+      </c>
+      <c r="T197">
+        <v>2.88</v>
+      </c>
+      <c r="U197">
+        <v>2.1</v>
+      </c>
+      <c r="V197">
+        <v>3.75</v>
+      </c>
+      <c r="W197">
+        <v>1.4</v>
+      </c>
+      <c r="X197">
+        <v>2.75</v>
+      </c>
+      <c r="Y197">
+        <v>3</v>
+      </c>
+      <c r="Z197">
+        <v>1.36</v>
+      </c>
+      <c r="AA197">
+        <v>8</v>
+      </c>
+      <c r="AB197">
+        <v>1.08</v>
+      </c>
+      <c r="AC197">
+        <v>2.15</v>
+      </c>
+      <c r="AD197">
+        <v>3.2</v>
+      </c>
+      <c r="AE197">
+        <v>3</v>
+      </c>
+      <c r="AF197">
+        <v>1.07</v>
+      </c>
+      <c r="AG197">
+        <v>7.5</v>
+      </c>
+      <c r="AH197">
+        <v>1.33</v>
+      </c>
+      <c r="AI197">
+        <v>3.1</v>
+      </c>
+      <c r="AJ197">
+        <v>1.98</v>
+      </c>
+      <c r="AK197">
+        <v>1.78</v>
+      </c>
+      <c r="AL197">
+        <v>1.8</v>
+      </c>
+      <c r="AM197">
+        <v>1.91</v>
+      </c>
+      <c r="AN197">
+        <v>1.25</v>
+      </c>
+      <c r="AO197">
+        <v>1.33</v>
+      </c>
+      <c r="AP197">
+        <v>1.62</v>
+      </c>
+      <c r="AQ197">
+        <v>0.6</v>
+      </c>
+      <c r="AR197">
+        <v>1</v>
+      </c>
+      <c r="AS197">
+        <v>0.55</v>
+      </c>
+      <c r="AT197">
+        <v>1.18</v>
+      </c>
+      <c r="AU197">
+        <v>1.6</v>
+      </c>
+      <c r="AV197">
+        <v>1.3</v>
+      </c>
+      <c r="AW197">
+        <v>2.9</v>
+      </c>
+      <c r="AX197">
+        <v>1.62</v>
+      </c>
+      <c r="AY197">
+        <v>8.5</v>
+      </c>
+      <c r="AZ197">
+        <v>2.73</v>
+      </c>
+      <c r="BA197">
+        <v>1.09</v>
+      </c>
+      <c r="BB197">
+        <v>1.25</v>
+      </c>
+      <c r="BC197">
+        <v>1.39</v>
+      </c>
+      <c r="BD197">
+        <v>1.7</v>
+      </c>
+      <c r="BE197">
+        <v>2</v>
+      </c>
+      <c r="BF197">
+        <v>4</v>
+      </c>
+      <c r="BG197">
+        <v>8</v>
+      </c>
+      <c r="BH197">
+        <v>7</v>
+      </c>
+      <c r="BI197">
+        <v>6</v>
+      </c>
+      <c r="BJ197">
+        <v>11</v>
+      </c>
+      <c r="BK197">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2812413</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F198">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>75</v>
+      </c>
+      <c r="H198" t="s">
+        <v>65</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>214</v>
+      </c>
+      <c r="P198" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q198">
+        <v>3</v>
+      </c>
+      <c r="R198">
+        <v>10</v>
+      </c>
+      <c r="S198">
+        <v>13</v>
+      </c>
+      <c r="T198">
+        <v>4.6</v>
+      </c>
+      <c r="U198">
+        <v>2.03</v>
+      </c>
+      <c r="V198">
+        <v>2.53</v>
+      </c>
+      <c r="W198">
+        <v>1.46</v>
+      </c>
+      <c r="X198">
+        <v>2.61</v>
+      </c>
+      <c r="Y198">
+        <v>3.15</v>
+      </c>
+      <c r="Z198">
+        <v>1.33</v>
+      </c>
+      <c r="AA198">
+        <v>8.4</v>
+      </c>
+      <c r="AB198">
+        <v>1.05</v>
+      </c>
+      <c r="AC198">
+        <v>4</v>
+      </c>
+      <c r="AD198">
+        <v>3.3</v>
+      </c>
+      <c r="AE198">
+        <v>1.8</v>
+      </c>
+      <c r="AF198">
+        <v>1.04</v>
+      </c>
+      <c r="AG198">
+        <v>7.7</v>
+      </c>
+      <c r="AH198">
+        <v>1.36</v>
+      </c>
+      <c r="AI198">
+        <v>2.83</v>
+      </c>
+      <c r="AJ198">
+        <v>2.25</v>
+      </c>
+      <c r="AK198">
+        <v>1.6</v>
+      </c>
+      <c r="AL198">
+        <v>1.94</v>
+      </c>
+      <c r="AM198">
+        <v>1.77</v>
+      </c>
+      <c r="AN198">
+        <v>1.81</v>
+      </c>
+      <c r="AO198">
+        <v>1.29</v>
+      </c>
+      <c r="AP198">
+        <v>1.23</v>
+      </c>
+      <c r="AQ198">
+        <v>0.55</v>
+      </c>
+      <c r="AR198">
+        <v>1.3</v>
+      </c>
+      <c r="AS198">
+        <v>0.75</v>
+      </c>
+      <c r="AT198">
+        <v>1.18</v>
+      </c>
+      <c r="AU198">
+        <v>1.44</v>
+      </c>
+      <c r="AV198">
+        <v>1.6</v>
+      </c>
+      <c r="AW198">
+        <v>3.04</v>
+      </c>
+      <c r="AX198">
+        <v>2.68</v>
+      </c>
+      <c r="AY198">
+        <v>8</v>
+      </c>
+      <c r="AZ198">
+        <v>1.65</v>
+      </c>
+      <c r="BA198">
+        <v>1.15</v>
+      </c>
+      <c r="BB198">
+        <v>1.29</v>
+      </c>
+      <c r="BC198">
+        <v>1.47</v>
+      </c>
+      <c r="BD198">
+        <v>1.85</v>
+      </c>
+      <c r="BE198">
+        <v>2.35</v>
+      </c>
+      <c r="BF198">
+        <v>3</v>
+      </c>
+      <c r="BG198">
+        <v>6</v>
+      </c>
+      <c r="BH198">
+        <v>3</v>
+      </c>
+      <c r="BI198">
+        <v>17</v>
+      </c>
+      <c r="BJ198">
+        <v>6</v>
+      </c>
+      <c r="BK198">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2812412</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44983.52083333334</v>
+      </c>
+      <c r="F199">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>77</v>
+      </c>
+      <c r="H199" t="s">
+        <v>74</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199" t="s">
+        <v>85</v>
+      </c>
+      <c r="P199" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q199">
+        <v>4</v>
+      </c>
+      <c r="R199">
+        <v>5</v>
+      </c>
+      <c r="S199">
+        <v>9</v>
+      </c>
+      <c r="T199">
+        <v>2.7</v>
+      </c>
+      <c r="U199">
+        <v>2.1</v>
+      </c>
+      <c r="V199">
+        <v>3.75</v>
+      </c>
+      <c r="W199">
+        <v>1.41</v>
+      </c>
+      <c r="X199">
+        <v>2.7</v>
+      </c>
+      <c r="Y199">
+        <v>2.95</v>
+      </c>
+      <c r="Z199">
+        <v>1.35</v>
+      </c>
+      <c r="AA199">
+        <v>7.4</v>
+      </c>
+      <c r="AB199">
+        <v>1.06</v>
+      </c>
+      <c r="AC199">
+        <v>1.95</v>
+      </c>
+      <c r="AD199">
+        <v>3.3</v>
+      </c>
+      <c r="AE199">
+        <v>3.3</v>
+      </c>
+      <c r="AF199">
+        <v>1.06</v>
+      </c>
+      <c r="AG199">
+        <v>8</v>
+      </c>
+      <c r="AH199">
+        <v>1.33</v>
+      </c>
+      <c r="AI199">
+        <v>3.2</v>
+      </c>
+      <c r="AJ199">
+        <v>1.98</v>
+      </c>
+      <c r="AK199">
+        <v>1.78</v>
+      </c>
+      <c r="AL199">
+        <v>1.8</v>
+      </c>
+      <c r="AM199">
+        <v>1.95</v>
+      </c>
+      <c r="AN199">
+        <v>1.25</v>
+      </c>
+      <c r="AO199">
+        <v>1.25</v>
+      </c>
+      <c r="AP199">
+        <v>1.72</v>
+      </c>
+      <c r="AQ199">
+        <v>2.09</v>
+      </c>
+      <c r="AR199">
+        <v>1.2</v>
+      </c>
+      <c r="AS199">
+        <v>2</v>
+      </c>
+      <c r="AT199">
+        <v>1.18</v>
+      </c>
+      <c r="AU199">
+        <v>1.66</v>
+      </c>
+      <c r="AV199">
+        <v>1.29</v>
+      </c>
+      <c r="AW199">
+        <v>2.95</v>
+      </c>
+      <c r="AX199">
+        <v>1.51</v>
+      </c>
+      <c r="AY199">
+        <v>8.5</v>
+      </c>
+      <c r="AZ199">
+        <v>3.12</v>
+      </c>
+      <c r="BA199">
+        <v>1.18</v>
+      </c>
+      <c r="BB199">
+        <v>1.33</v>
+      </c>
+      <c r="BC199">
+        <v>1.58</v>
+      </c>
+      <c r="BD199">
+        <v>2.03</v>
+      </c>
+      <c r="BE199">
+        <v>2.65</v>
+      </c>
+      <c r="BF199">
+        <v>4</v>
+      </c>
+      <c r="BG199">
+        <v>2</v>
+      </c>
+      <c r="BH199">
+        <v>4</v>
+      </c>
+      <c r="BI199">
+        <v>7</v>
+      </c>
+      <c r="BJ199">
+        <v>8</v>
+      </c>
+      <c r="BK199">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,15 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['82', '90+1']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -898,9 +907,6 @@
     <t>['32', '35', '90']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -953,6 +959,12 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['76', '86']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1570,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1645,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT2">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1839,7 +1851,7 @@
         <v>1.73</v>
       </c>
       <c r="AT3">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2027,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT4">
         <v>1.18</v>
@@ -2131,7 +2143,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2221,7 +2233,7 @@
         <v>0.82</v>
       </c>
       <c r="AT5">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2409,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT6">
         <v>1.55</v>
@@ -2600,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT7">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2791,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT8">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2895,7 +2907,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -2982,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT9">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3173,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT10">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3277,7 +3289,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3364,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
         <v>0.91</v>
@@ -3468,7 +3480,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3659,7 +3671,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4041,7 +4053,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4128,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT15">
         <v>1.83</v>
@@ -4232,7 +4244,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4322,7 +4334,7 @@
         <v>1.27</v>
       </c>
       <c r="AT16">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4423,7 +4435,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4895,7 +4907,7 @@
         <v>1.36</v>
       </c>
       <c r="AT19">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4996,7 +5008,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5083,10 +5095,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT20">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU20">
         <v>1.67</v>
@@ -5187,7 +5199,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5274,10 +5286,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU21">
         <v>2.13</v>
@@ -5378,7 +5390,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5465,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT22">
         <v>1.55</v>
@@ -5656,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT23">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU23">
         <v>1.21</v>
@@ -5760,7 +5772,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5850,7 +5862,7 @@
         <v>0.82</v>
       </c>
       <c r="AT24">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU24">
         <v>2.46</v>
@@ -6038,10 +6050,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT25">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU25">
         <v>1.59</v>
@@ -6142,7 +6154,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6229,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU26">
         <v>1.5</v>
@@ -6420,10 +6432,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT27">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU27">
         <v>2.41</v>
@@ -6524,7 +6536,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6611,10 +6623,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT28">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU28">
         <v>2.35</v>
@@ -6906,7 +6918,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -6993,7 +7005,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT30">
         <v>1.18</v>
@@ -7097,7 +7109,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7288,7 +7300,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8052,7 +8064,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8142,7 +8154,7 @@
         <v>1.73</v>
       </c>
       <c r="AT36">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU36">
         <v>2.17</v>
@@ -8243,7 +8255,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8434,7 +8446,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -8521,10 +8533,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT38">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU38">
         <v>1.6</v>
@@ -8625,7 +8637,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8712,10 +8724,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT39">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU39">
         <v>1.88</v>
@@ -8816,7 +8828,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8903,10 +8915,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT40">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU40">
         <v>1.35</v>
@@ -9007,7 +9019,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9094,10 +9106,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT41">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU41">
         <v>2.12</v>
@@ -9285,10 +9297,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT42">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU42">
         <v>2.15</v>
@@ -9476,10 +9488,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT43">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU43">
         <v>1.79</v>
@@ -9580,7 +9592,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9667,10 +9679,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT44">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU44">
         <v>1.82</v>
@@ -9771,7 +9783,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9858,10 +9870,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT45">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU45">
         <v>1.91</v>
@@ -9962,7 +9974,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10049,10 +10061,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU46">
         <v>2.43</v>
@@ -10344,7 +10356,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10726,7 +10738,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10917,7 +10929,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11108,7 +11120,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11299,7 +11311,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11490,7 +11502,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11959,10 +11971,10 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT56">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU56">
         <v>2.04</v>
@@ -12150,10 +12162,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT57">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU57">
         <v>2</v>
@@ -12341,7 +12353,7 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT58">
         <v>1.83</v>
@@ -12532,10 +12544,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT59">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU59">
         <v>1.88</v>
@@ -12723,10 +12735,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT60">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU60">
         <v>1.88</v>
@@ -12827,7 +12839,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12914,10 +12926,10 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT61">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU61">
         <v>1.71</v>
@@ -13018,7 +13030,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -13105,10 +13117,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT62">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU62">
         <v>1.84</v>
@@ -13209,7 +13221,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13299,7 +13311,7 @@
         <v>2</v>
       </c>
       <c r="AT63">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU63">
         <v>1.48</v>
@@ -13400,7 +13412,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13487,10 +13499,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT64">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU64">
         <v>1.87</v>
@@ -13591,7 +13603,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13973,7 +13985,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14164,7 +14176,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14445,7 +14457,7 @@
         <v>1.17</v>
       </c>
       <c r="AT69">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU69">
         <v>1.34</v>
@@ -14546,7 +14558,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14737,7 +14749,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14824,7 +14836,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT71">
         <v>1.18</v>
@@ -14928,7 +14940,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15119,7 +15131,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15400,7 +15412,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU74">
         <v>1.54</v>
@@ -15501,7 +15513,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15588,10 +15600,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT75">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU75">
         <v>2.03</v>
@@ -15782,7 +15794,7 @@
         <v>1.17</v>
       </c>
       <c r="AT76">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU76">
         <v>1.38</v>
@@ -15883,7 +15895,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -15970,7 +15982,7 @@
         <v>2.5</v>
       </c>
       <c r="AS77">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT77">
         <v>1.83</v>
@@ -16074,7 +16086,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16161,10 +16173,10 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT78">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU78">
         <v>1.99</v>
@@ -16352,7 +16364,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT79">
         <v>1.58</v>
@@ -16543,10 +16555,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT80">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU80">
         <v>1.93</v>
@@ -16647,7 +16659,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16734,10 +16746,10 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT81">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU81">
         <v>1.93</v>
@@ -16838,7 +16850,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16928,7 +16940,7 @@
         <v>0.75</v>
       </c>
       <c r="AT82">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU82">
         <v>1.24</v>
@@ -17029,7 +17041,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17220,7 +17232,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17498,7 +17510,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT85">
         <v>1.58</v>
@@ -17793,7 +17805,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17880,7 +17892,7 @@
         <v>2.5</v>
       </c>
       <c r="AS87">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT87">
         <v>1.18</v>
@@ -17984,7 +17996,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18074,7 +18086,7 @@
         <v>1.17</v>
       </c>
       <c r="AT88">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU88">
         <v>1.7</v>
@@ -18175,7 +18187,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18647,7 +18659,7 @@
         <v>1.17</v>
       </c>
       <c r="AT91">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU91">
         <v>1.43</v>
@@ -18835,7 +18847,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT92">
         <v>1.58</v>
@@ -19026,7 +19038,7 @@
         <v>1.6</v>
       </c>
       <c r="AS93">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT93">
         <v>1.58</v>
@@ -19130,7 +19142,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19217,7 +19229,7 @@
         <v>2.6</v>
       </c>
       <c r="AS94">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT94">
         <v>1.83</v>
@@ -19321,7 +19333,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19408,10 +19420,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT95">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU95">
         <v>1.81</v>
@@ -19599,10 +19611,10 @@
         <v>0.6</v>
       </c>
       <c r="AS96">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT96">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU96">
         <v>1.79</v>
@@ -19703,7 +19715,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19793,7 +19805,7 @@
         <v>0.75</v>
       </c>
       <c r="AT97">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU97">
         <v>1.34</v>
@@ -19981,10 +19993,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU98">
         <v>1.97</v>
@@ -20085,7 +20097,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20175,7 +20187,7 @@
         <v>2</v>
       </c>
       <c r="AT99">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU99">
         <v>1.55</v>
@@ -20276,7 +20288,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20366,7 +20378,7 @@
         <v>1.17</v>
       </c>
       <c r="AT100">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU100">
         <v>1.82</v>
@@ -20467,7 +20479,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20554,7 +20566,7 @@
         <v>2.2</v>
       </c>
       <c r="AS101">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT101">
         <v>1.5</v>
@@ -20658,7 +20670,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20939,7 +20951,7 @@
         <v>1.36</v>
       </c>
       <c r="AT103">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU103">
         <v>1.43</v>
@@ -21040,7 +21052,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21127,7 +21139,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT104">
         <v>1.18</v>
@@ -21231,7 +21243,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21509,7 +21521,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT106">
         <v>1.18</v>
@@ -21613,7 +21625,7 @@
         <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21703,7 +21715,7 @@
         <v>0.55</v>
       </c>
       <c r="AT107">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU107">
         <v>1.63</v>
@@ -21804,7 +21816,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22085,7 +22097,7 @@
         <v>1.17</v>
       </c>
       <c r="AT109">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU109">
         <v>1.37</v>
@@ -22276,7 +22288,7 @@
         <v>2</v>
       </c>
       <c r="AT110">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU110">
         <v>1.49</v>
@@ -22464,7 +22476,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT111">
         <v>1.58</v>
@@ -22568,7 +22580,7 @@
         <v>98</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22655,7 +22667,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT112">
         <v>1.58</v>
@@ -22846,7 +22858,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT113">
         <v>1.5</v>
@@ -23037,10 +23049,10 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT114">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU114">
         <v>1.75</v>
@@ -23141,7 +23153,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23231,7 +23243,7 @@
         <v>0.75</v>
       </c>
       <c r="AT115">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU115">
         <v>1.39</v>
@@ -23422,7 +23434,7 @@
         <v>1.17</v>
       </c>
       <c r="AT116">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU116">
         <v>1.86</v>
@@ -23610,7 +23622,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT117">
         <v>1.83</v>
@@ -23801,10 +23813,10 @@
         <v>0.83</v>
       </c>
       <c r="AS118">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT118">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU118">
         <v>1.82</v>
@@ -23905,7 +23917,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -23995,7 +24007,7 @@
         <v>1.27</v>
       </c>
       <c r="AT119">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU119">
         <v>1.53</v>
@@ -24183,7 +24195,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT120">
         <v>1.18</v>
@@ -24374,7 +24386,7 @@
         <v>2.17</v>
       </c>
       <c r="AS121">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT121">
         <v>1.18</v>
@@ -24568,7 +24580,7 @@
         <v>0.55</v>
       </c>
       <c r="AT122">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU122">
         <v>1.74</v>
@@ -24756,7 +24768,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT123">
         <v>0.91</v>
@@ -24950,7 +24962,7 @@
         <v>1.73</v>
       </c>
       <c r="AT124">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU124">
         <v>1.88</v>
@@ -25141,7 +25153,7 @@
         <v>0.82</v>
       </c>
       <c r="AT125">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU125">
         <v>1.47</v>
@@ -25242,7 +25254,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>15</v>
@@ -25329,7 +25341,7 @@
         <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT126">
         <v>1.55</v>
@@ -25520,10 +25532,10 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT127">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU127">
         <v>1.59</v>
@@ -25624,7 +25636,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25902,7 +25914,7 @@
         <v>1.57</v>
       </c>
       <c r="AS129">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT129">
         <v>1.5</v>
@@ -26093,7 +26105,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT130">
         <v>1.18</v>
@@ -26197,7 +26209,7 @@
         <v>169</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26287,7 +26299,7 @@
         <v>1.17</v>
       </c>
       <c r="AT131">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU131">
         <v>1.4</v>
@@ -26388,7 +26400,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26478,7 +26490,7 @@
         <v>1.17</v>
       </c>
       <c r="AT132">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU132">
         <v>1.88</v>
@@ -26669,7 +26681,7 @@
         <v>0.75</v>
       </c>
       <c r="AT133">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU133">
         <v>1.42</v>
@@ -26770,7 +26782,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26860,7 +26872,7 @@
         <v>2</v>
       </c>
       <c r="AT134">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU134">
         <v>1.51</v>
@@ -26961,7 +26973,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27048,7 +27060,7 @@
         <v>1.71</v>
       </c>
       <c r="AS135">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT135">
         <v>1.58</v>
@@ -27152,7 +27164,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27239,7 +27251,7 @@
         <v>1.71</v>
       </c>
       <c r="AS136">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT136">
         <v>1.58</v>
@@ -27343,7 +27355,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27430,10 +27442,10 @@
         <v>1.14</v>
       </c>
       <c r="AS137">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT137">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU137">
         <v>1.62</v>
@@ -27621,10 +27633,10 @@
         <v>1.29</v>
       </c>
       <c r="AS138">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT138">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU138">
         <v>1.82</v>
@@ -27815,7 +27827,7 @@
         <v>0.82</v>
       </c>
       <c r="AT139">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU139">
         <v>1.48</v>
@@ -28006,7 +28018,7 @@
         <v>1.27</v>
       </c>
       <c r="AT140">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU140">
         <v>1.53</v>
@@ -28107,7 +28119,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28194,7 +28206,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT141">
         <v>1.55</v>
@@ -28298,7 +28310,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28385,10 +28397,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT142">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU142">
         <v>1.68</v>
@@ -28489,7 +28501,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28576,7 +28588,7 @@
         <v>1.29</v>
       </c>
       <c r="AS143">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT143">
         <v>0.91</v>
@@ -28767,7 +28779,7 @@
         <v>1.57</v>
       </c>
       <c r="AS144">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT144">
         <v>1.18</v>
@@ -28961,7 +28973,7 @@
         <v>1.73</v>
       </c>
       <c r="AT145">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU145">
         <v>1.75</v>
@@ -29062,7 +29074,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29149,7 +29161,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT146">
         <v>1.18</v>
@@ -29253,7 +29265,7 @@
         <v>85</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29343,7 +29355,7 @@
         <v>0.55</v>
       </c>
       <c r="AT147">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU147">
         <v>1.73</v>
@@ -29444,7 +29456,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29534,7 +29546,7 @@
         <v>1.36</v>
       </c>
       <c r="AT148">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU148">
         <v>1.45</v>
@@ -29725,7 +29737,7 @@
         <v>1.17</v>
       </c>
       <c r="AT149">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU149">
         <v>1.9</v>
@@ -30104,7 +30116,7 @@
         <v>1.86</v>
       </c>
       <c r="AS151">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT151">
         <v>1.18</v>
@@ -30208,7 +30220,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30295,7 +30307,7 @@
         <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT152">
         <v>1.5</v>
@@ -30590,7 +30602,7 @@
         <v>182</v>
       </c>
       <c r="P154" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30972,7 +30984,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31250,7 +31262,7 @@
         <v>1.13</v>
       </c>
       <c r="AS157">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT157">
         <v>1.18</v>
@@ -31354,7 +31366,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31545,7 +31557,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q159">
         <v>12</v>
@@ -31635,7 +31647,7 @@
         <v>1.17</v>
       </c>
       <c r="AT159">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU159">
         <v>1.81</v>
@@ -31927,7 +31939,7 @@
         <v>188</v>
       </c>
       <c r="P161" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32118,7 +32130,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32208,7 +32220,7 @@
         <v>0.55</v>
       </c>
       <c r="AT162">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU162">
         <v>1.68</v>
@@ -32396,7 +32408,7 @@
         <v>1.13</v>
       </c>
       <c r="AS163">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT163">
         <v>0.91</v>
@@ -32500,7 +32512,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32587,10 +32599,10 @@
         <v>1.63</v>
       </c>
       <c r="AS164">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT164">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU164">
         <v>1.92</v>
@@ -32691,7 +32703,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32781,7 +32793,7 @@
         <v>1.73</v>
       </c>
       <c r="AT165">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU165">
         <v>1.72</v>
@@ -32969,7 +32981,7 @@
         <v>1.63</v>
       </c>
       <c r="AS166">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT166">
         <v>1.55</v>
@@ -33073,7 +33085,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33160,10 +33172,10 @@
         <v>1.22</v>
       </c>
       <c r="AS167">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT167">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU167">
         <v>1.94</v>
@@ -33264,7 +33276,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33351,10 +33363,10 @@
         <v>1.25</v>
       </c>
       <c r="AS168">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT168">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU168">
         <v>1.71</v>
@@ -33542,10 +33554,10 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT169">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU169">
         <v>1.78</v>
@@ -33736,7 +33748,7 @@
         <v>0.82</v>
       </c>
       <c r="AT170">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU170">
         <v>1.49</v>
@@ -33837,7 +33849,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33924,7 +33936,7 @@
         <v>1.5</v>
       </c>
       <c r="AS171">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT171">
         <v>1.18</v>
@@ -34028,7 +34040,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34115,10 +34127,10 @@
         <v>0.63</v>
       </c>
       <c r="AS172">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT172">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU172">
         <v>2.02</v>
@@ -34601,7 +34613,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34983,7 +34995,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -35073,7 +35085,7 @@
         <v>1.27</v>
       </c>
       <c r="AT177">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU177">
         <v>1.54</v>
@@ -35174,7 +35186,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35452,7 +35464,7 @@
         <v>1.44</v>
       </c>
       <c r="AS179">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT179">
         <v>1.18</v>
@@ -35556,7 +35568,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35747,7 +35759,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36025,7 +36037,7 @@
         <v>1.44</v>
       </c>
       <c r="AS182">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT182">
         <v>1.55</v>
@@ -36129,7 +36141,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36216,10 +36228,10 @@
         <v>0.89</v>
       </c>
       <c r="AS183">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT183">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU183">
         <v>1.75</v>
@@ -36410,7 +36422,7 @@
         <v>0.82</v>
       </c>
       <c r="AT184">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU184">
         <v>1.52</v>
@@ -36511,7 +36523,7 @@
         <v>184</v>
       </c>
       <c r="P185" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q185">
         <v>10</v>
@@ -36598,10 +36610,10 @@
         <v>1.6</v>
       </c>
       <c r="AS185">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT185">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU185">
         <v>1.9</v>
@@ -36702,7 +36714,7 @@
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36789,10 +36801,10 @@
         <v>1.56</v>
       </c>
       <c r="AS186">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT186">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU186">
         <v>1.9</v>
@@ -36893,7 +36905,7 @@
         <v>207</v>
       </c>
       <c r="P187" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q187">
         <v>12</v>
@@ -36980,10 +36992,10 @@
         <v>1.1</v>
       </c>
       <c r="AS187">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT187">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU187">
         <v>1.7</v>
@@ -37171,10 +37183,10 @@
         <v>1.4</v>
       </c>
       <c r="AS188">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT188">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU188">
         <v>1.58</v>
@@ -37362,10 +37374,10 @@
         <v>0.89</v>
       </c>
       <c r="AS189">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT189">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU189">
         <v>1.89</v>
@@ -37466,7 +37478,7 @@
         <v>209</v>
       </c>
       <c r="P190" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37553,10 +37565,10 @@
         <v>1.11</v>
       </c>
       <c r="AS190">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT190">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU190">
         <v>1.79</v>
@@ -37657,7 +37669,7 @@
         <v>132</v>
       </c>
       <c r="P191" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37848,7 +37860,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q192">
         <v>3</v>
@@ -38039,7 +38051,7 @@
         <v>211</v>
       </c>
       <c r="P193" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -38230,7 +38242,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38421,7 +38433,7 @@
         <v>177</v>
       </c>
       <c r="P195" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38612,7 +38624,7 @@
         <v>213</v>
       </c>
       <c r="P196" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39327,6 +39339,1725 @@
       </c>
       <c r="BK199">
         <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2812422</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44989.33333333334</v>
+      </c>
+      <c r="F200">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>69</v>
+      </c>
+      <c r="H200" t="s">
+        <v>79</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>85</v>
+      </c>
+      <c r="P200" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q200">
+        <v>12</v>
+      </c>
+      <c r="R200">
+        <v>9</v>
+      </c>
+      <c r="S200">
+        <v>21</v>
+      </c>
+      <c r="T200">
+        <v>3.4</v>
+      </c>
+      <c r="U200">
+        <v>2.02</v>
+      </c>
+      <c r="V200">
+        <v>2.79</v>
+      </c>
+      <c r="W200">
+        <v>1.36</v>
+      </c>
+      <c r="X200">
+        <v>3</v>
+      </c>
+      <c r="Y200">
+        <v>2.62</v>
+      </c>
+      <c r="Z200">
+        <v>1.44</v>
+      </c>
+      <c r="AA200">
+        <v>6</v>
+      </c>
+      <c r="AB200">
+        <v>1.11</v>
+      </c>
+      <c r="AC200">
+        <v>2.87</v>
+      </c>
+      <c r="AD200">
+        <v>3.1</v>
+      </c>
+      <c r="AE200">
+        <v>2.2</v>
+      </c>
+      <c r="AF200">
+        <v>1.06</v>
+      </c>
+      <c r="AG200">
+        <v>8</v>
+      </c>
+      <c r="AH200">
+        <v>1.29</v>
+      </c>
+      <c r="AI200">
+        <v>3.5</v>
+      </c>
+      <c r="AJ200">
+        <v>1.8</v>
+      </c>
+      <c r="AK200">
+        <v>1.83</v>
+      </c>
+      <c r="AL200">
+        <v>1.67</v>
+      </c>
+      <c r="AM200">
+        <v>2.1</v>
+      </c>
+      <c r="AN200">
+        <v>1.48</v>
+      </c>
+      <c r="AO200">
+        <v>1.24</v>
+      </c>
+      <c r="AP200">
+        <v>1.34</v>
+      </c>
+      <c r="AQ200">
+        <v>1.55</v>
+      </c>
+      <c r="AR200">
+        <v>1.73</v>
+      </c>
+      <c r="AS200">
+        <v>1.42</v>
+      </c>
+      <c r="AT200">
+        <v>1.83</v>
+      </c>
+      <c r="AU200">
+        <v>1.77</v>
+      </c>
+      <c r="AV200">
+        <v>1.41</v>
+      </c>
+      <c r="AW200">
+        <v>3.18</v>
+      </c>
+      <c r="AX200">
+        <v>1.8</v>
+      </c>
+      <c r="AY200">
+        <v>6</v>
+      </c>
+      <c r="AZ200">
+        <v>2.3</v>
+      </c>
+      <c r="BA200">
+        <v>1.15</v>
+      </c>
+      <c r="BB200">
+        <v>1.31</v>
+      </c>
+      <c r="BC200">
+        <v>1.67</v>
+      </c>
+      <c r="BD200">
+        <v>2.03</v>
+      </c>
+      <c r="BE200">
+        <v>2.57</v>
+      </c>
+      <c r="BF200">
+        <v>4</v>
+      </c>
+      <c r="BG200">
+        <v>5</v>
+      </c>
+      <c r="BH200">
+        <v>9</v>
+      </c>
+      <c r="BI200">
+        <v>13</v>
+      </c>
+      <c r="BJ200">
+        <v>13</v>
+      </c>
+      <c r="BK200">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2812425</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44989.33333333334</v>
+      </c>
+      <c r="F201">
+        <v>23</v>
+      </c>
+      <c r="G201" t="s">
+        <v>73</v>
+      </c>
+      <c r="H201" t="s">
+        <v>66</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>157</v>
+      </c>
+      <c r="P201" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q201">
+        <v>5</v>
+      </c>
+      <c r="R201">
+        <v>3</v>
+      </c>
+      <c r="S201">
+        <v>8</v>
+      </c>
+      <c r="T201">
+        <v>2.66</v>
+      </c>
+      <c r="U201">
+        <v>1.99</v>
+      </c>
+      <c r="V201">
+        <v>3.69</v>
+      </c>
+      <c r="W201">
+        <v>1.44</v>
+      </c>
+      <c r="X201">
+        <v>2.67</v>
+      </c>
+      <c r="Y201">
+        <v>3.05</v>
+      </c>
+      <c r="Z201">
+        <v>1.35</v>
+      </c>
+      <c r="AA201">
+        <v>8</v>
+      </c>
+      <c r="AB201">
+        <v>1.06</v>
+      </c>
+      <c r="AC201">
+        <v>1.95</v>
+      </c>
+      <c r="AD201">
+        <v>3</v>
+      </c>
+      <c r="AE201">
+        <v>3.6</v>
+      </c>
+      <c r="AF201">
+        <v>1.07</v>
+      </c>
+      <c r="AG201">
+        <v>7</v>
+      </c>
+      <c r="AH201">
+        <v>1.36</v>
+      </c>
+      <c r="AI201">
+        <v>2.87</v>
+      </c>
+      <c r="AJ201">
+        <v>2.15</v>
+      </c>
+      <c r="AK201">
+        <v>1.6</v>
+      </c>
+      <c r="AL201">
+        <v>1.88</v>
+      </c>
+      <c r="AM201">
+        <v>1.82</v>
+      </c>
+      <c r="AN201">
+        <v>1.23</v>
+      </c>
+      <c r="AO201">
+        <v>1.23</v>
+      </c>
+      <c r="AP201">
+        <v>1.66</v>
+      </c>
+      <c r="AQ201">
+        <v>1.1</v>
+      </c>
+      <c r="AR201">
+        <v>0.91</v>
+      </c>
+      <c r="AS201">
+        <v>1.09</v>
+      </c>
+      <c r="AT201">
+        <v>0.92</v>
+      </c>
+      <c r="AU201">
+        <v>1.72</v>
+      </c>
+      <c r="AV201">
+        <v>1.36</v>
+      </c>
+      <c r="AW201">
+        <v>3.08</v>
+      </c>
+      <c r="AX201">
+        <v>1.36</v>
+      </c>
+      <c r="AY201">
+        <v>7</v>
+      </c>
+      <c r="AZ201">
+        <v>3.6</v>
+      </c>
+      <c r="BA201">
+        <v>1.13</v>
+      </c>
+      <c r="BB201">
+        <v>1.27</v>
+      </c>
+      <c r="BC201">
+        <v>1.58</v>
+      </c>
+      <c r="BD201">
+        <v>1.9</v>
+      </c>
+      <c r="BE201">
+        <v>2.35</v>
+      </c>
+      <c r="BF201">
+        <v>5</v>
+      </c>
+      <c r="BG201">
+        <v>2</v>
+      </c>
+      <c r="BH201">
+        <v>4</v>
+      </c>
+      <c r="BI201">
+        <v>7</v>
+      </c>
+      <c r="BJ201">
+        <v>9</v>
+      </c>
+      <c r="BK201">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2812424</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44989.45833333334</v>
+      </c>
+      <c r="F202">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>71</v>
+      </c>
+      <c r="H202" t="s">
+        <v>68</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202" t="s">
+        <v>215</v>
+      </c>
+      <c r="P202" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q202">
+        <v>7</v>
+      </c>
+      <c r="R202">
+        <v>4</v>
+      </c>
+      <c r="S202">
+        <v>11</v>
+      </c>
+      <c r="T202">
+        <v>1.91</v>
+      </c>
+      <c r="U202">
+        <v>2.29</v>
+      </c>
+      <c r="V202">
+        <v>5.42</v>
+      </c>
+      <c r="W202">
+        <v>1.36</v>
+      </c>
+      <c r="X202">
+        <v>3</v>
+      </c>
+      <c r="Y202">
+        <v>2.67</v>
+      </c>
+      <c r="Z202">
+        <v>1.44</v>
+      </c>
+      <c r="AA202">
+        <v>6.55</v>
+      </c>
+      <c r="AB202">
+        <v>1.09</v>
+      </c>
+      <c r="AC202">
+        <v>1.4</v>
+      </c>
+      <c r="AD202">
+        <v>4.4</v>
+      </c>
+      <c r="AE202">
+        <v>7.25</v>
+      </c>
+      <c r="AF202">
+        <v>1.01</v>
+      </c>
+      <c r="AG202">
+        <v>9.9</v>
+      </c>
+      <c r="AH202">
+        <v>1.24</v>
+      </c>
+      <c r="AI202">
+        <v>3.54</v>
+      </c>
+      <c r="AJ202">
+        <v>1.73</v>
+      </c>
+      <c r="AK202">
+        <v>1.92</v>
+      </c>
+      <c r="AL202">
+        <v>2.05</v>
+      </c>
+      <c r="AM202">
+        <v>1.66</v>
+      </c>
+      <c r="AN202">
+        <v>1.06</v>
+      </c>
+      <c r="AO202">
+        <v>1.18</v>
+      </c>
+      <c r="AP202">
+        <v>2.78</v>
+      </c>
+      <c r="AQ202">
+        <v>2.8</v>
+      </c>
+      <c r="AR202">
+        <v>0.91</v>
+      </c>
+      <c r="AS202">
+        <v>2.82</v>
+      </c>
+      <c r="AT202">
+        <v>0.83</v>
+      </c>
+      <c r="AU202">
+        <v>1.5</v>
+      </c>
+      <c r="AV202">
+        <v>1.24</v>
+      </c>
+      <c r="AW202">
+        <v>2.74</v>
+      </c>
+      <c r="AX202">
+        <v>1.23</v>
+      </c>
+      <c r="AY202">
+        <v>7.75</v>
+      </c>
+      <c r="AZ202">
+        <v>5</v>
+      </c>
+      <c r="BA202">
+        <v>1.17</v>
+      </c>
+      <c r="BB202">
+        <v>1.35</v>
+      </c>
+      <c r="BC202">
+        <v>1.71</v>
+      </c>
+      <c r="BD202">
+        <v>2.09</v>
+      </c>
+      <c r="BE202">
+        <v>2.71</v>
+      </c>
+      <c r="BF202">
+        <v>6</v>
+      </c>
+      <c r="BG202">
+        <v>2</v>
+      </c>
+      <c r="BH202">
+        <v>2</v>
+      </c>
+      <c r="BI202">
+        <v>8</v>
+      </c>
+      <c r="BJ202">
+        <v>8</v>
+      </c>
+      <c r="BK202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2812421</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44989.52083333334</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>74</v>
+      </c>
+      <c r="H203" t="s">
+        <v>76</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>216</v>
+      </c>
+      <c r="P203" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q203">
+        <v>1</v>
+      </c>
+      <c r="R203">
+        <v>5</v>
+      </c>
+      <c r="S203">
+        <v>6</v>
+      </c>
+      <c r="T203">
+        <v>2.8</v>
+      </c>
+      <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
+        <v>3.7</v>
+      </c>
+      <c r="W203">
+        <v>1.5</v>
+      </c>
+      <c r="X203">
+        <v>2.62</v>
+      </c>
+      <c r="Y203">
+        <v>3.36</v>
+      </c>
+      <c r="Z203">
+        <v>1.24</v>
+      </c>
+      <c r="AA203">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB203">
+        <v>1.04</v>
+      </c>
+      <c r="AC203">
+        <v>2.25</v>
+      </c>
+      <c r="AD203">
+        <v>3.05</v>
+      </c>
+      <c r="AE203">
+        <v>3.1</v>
+      </c>
+      <c r="AF203">
+        <v>1.08</v>
+      </c>
+      <c r="AG203">
+        <v>7</v>
+      </c>
+      <c r="AH203">
+        <v>1.4</v>
+      </c>
+      <c r="AI203">
+        <v>2.8</v>
+      </c>
+      <c r="AJ203">
+        <v>2.17</v>
+      </c>
+      <c r="AK203">
+        <v>1.57</v>
+      </c>
+      <c r="AL203">
+        <v>1.91</v>
+      </c>
+      <c r="AM203">
+        <v>1.8</v>
+      </c>
+      <c r="AN203">
+        <v>1.29</v>
+      </c>
+      <c r="AO203">
+        <v>1.35</v>
+      </c>
+      <c r="AP203">
+        <v>1.62</v>
+      </c>
+      <c r="AQ203">
+        <v>1.36</v>
+      </c>
+      <c r="AR203">
+        <v>1.3</v>
+      </c>
+      <c r="AS203">
+        <v>1.33</v>
+      </c>
+      <c r="AT203">
+        <v>1.27</v>
+      </c>
+      <c r="AU203">
+        <v>1.66</v>
+      </c>
+      <c r="AV203">
+        <v>1.46</v>
+      </c>
+      <c r="AW203">
+        <v>3.12</v>
+      </c>
+      <c r="AX203">
+        <v>1.62</v>
+      </c>
+      <c r="AY203">
+        <v>5.75</v>
+      </c>
+      <c r="AZ203">
+        <v>2.6</v>
+      </c>
+      <c r="BA203">
+        <v>1.21</v>
+      </c>
+      <c r="BB203">
+        <v>1.41</v>
+      </c>
+      <c r="BC203">
+        <v>1.75</v>
+      </c>
+      <c r="BD203">
+        <v>2.21</v>
+      </c>
+      <c r="BE203">
+        <v>2.98</v>
+      </c>
+      <c r="BF203">
+        <v>5</v>
+      </c>
+      <c r="BG203">
+        <v>5</v>
+      </c>
+      <c r="BH203">
+        <v>4</v>
+      </c>
+      <c r="BI203">
+        <v>6</v>
+      </c>
+      <c r="BJ203">
+        <v>9</v>
+      </c>
+      <c r="BK203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2812423</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44990.33333333334</v>
+      </c>
+      <c r="F204">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>65</v>
+      </c>
+      <c r="H204" t="s">
+        <v>82</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204" t="s">
+        <v>102</v>
+      </c>
+      <c r="P204" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q204">
+        <v>7</v>
+      </c>
+      <c r="R204">
+        <v>8</v>
+      </c>
+      <c r="S204">
+        <v>15</v>
+      </c>
+      <c r="T204">
+        <v>2.35</v>
+      </c>
+      <c r="U204">
+        <v>2.1</v>
+      </c>
+      <c r="V204">
+        <v>4.5</v>
+      </c>
+      <c r="W204">
+        <v>1.36</v>
+      </c>
+      <c r="X204">
+        <v>3</v>
+      </c>
+      <c r="Y204">
+        <v>2.75</v>
+      </c>
+      <c r="Z204">
+        <v>1.4</v>
+      </c>
+      <c r="AA204">
+        <v>7</v>
+      </c>
+      <c r="AB204">
+        <v>1.08</v>
+      </c>
+      <c r="AC204">
+        <v>1.62</v>
+      </c>
+      <c r="AD204">
+        <v>3.48</v>
+      </c>
+      <c r="AE204">
+        <v>4.73</v>
+      </c>
+      <c r="AF204">
+        <v>1.06</v>
+      </c>
+      <c r="AG204">
+        <v>8</v>
+      </c>
+      <c r="AH204">
+        <v>1.33</v>
+      </c>
+      <c r="AI204">
+        <v>3.25</v>
+      </c>
+      <c r="AJ204">
+        <v>1.91</v>
+      </c>
+      <c r="AK204">
+        <v>1.77</v>
+      </c>
+      <c r="AL204">
+        <v>1.85</v>
+      </c>
+      <c r="AM204">
+        <v>1.85</v>
+      </c>
+      <c r="AN204">
+        <v>1.21</v>
+      </c>
+      <c r="AO204">
+        <v>1.27</v>
+      </c>
+      <c r="AP204">
+        <v>1.98</v>
+      </c>
+      <c r="AQ204">
+        <v>2.27</v>
+      </c>
+      <c r="AR204">
+        <v>1.27</v>
+      </c>
+      <c r="AS204">
+        <v>2.33</v>
+      </c>
+      <c r="AT204">
+        <v>1.17</v>
+      </c>
+      <c r="AU204">
+        <v>1.79</v>
+      </c>
+      <c r="AV204">
+        <v>1.58</v>
+      </c>
+      <c r="AW204">
+        <v>3.37</v>
+      </c>
+      <c r="AX204">
+        <v>1.3</v>
+      </c>
+      <c r="AY204">
+        <v>7.25</v>
+      </c>
+      <c r="AZ204">
+        <v>3.95</v>
+      </c>
+      <c r="BA204">
+        <v>1.09</v>
+      </c>
+      <c r="BB204">
+        <v>1.22</v>
+      </c>
+      <c r="BC204">
+        <v>1.41</v>
+      </c>
+      <c r="BD204">
+        <v>1.72</v>
+      </c>
+      <c r="BE204">
+        <v>2.15</v>
+      </c>
+      <c r="BF204">
+        <v>3</v>
+      </c>
+      <c r="BG204">
+        <v>2</v>
+      </c>
+      <c r="BH204">
+        <v>5</v>
+      </c>
+      <c r="BI204">
+        <v>6</v>
+      </c>
+      <c r="BJ204">
+        <v>8</v>
+      </c>
+      <c r="BK204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2812427</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>78</v>
+      </c>
+      <c r="H205" t="s">
+        <v>77</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>109</v>
+      </c>
+      <c r="P205" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q205">
+        <v>8</v>
+      </c>
+      <c r="R205">
+        <v>5</v>
+      </c>
+      <c r="S205">
+        <v>13</v>
+      </c>
+      <c r="T205">
+        <v>2.7</v>
+      </c>
+      <c r="U205">
+        <v>2.05</v>
+      </c>
+      <c r="V205">
+        <v>3.8</v>
+      </c>
+      <c r="W205">
+        <v>1.42</v>
+      </c>
+      <c r="X205">
+        <v>2.65</v>
+      </c>
+      <c r="Y205">
+        <v>2.95</v>
+      </c>
+      <c r="Z205">
+        <v>1.35</v>
+      </c>
+      <c r="AA205">
+        <v>7.75</v>
+      </c>
+      <c r="AB205">
+        <v>1.07</v>
+      </c>
+      <c r="AC205">
+        <v>2.16</v>
+      </c>
+      <c r="AD205">
+        <v>3.02</v>
+      </c>
+      <c r="AE205">
+        <v>3.12</v>
+      </c>
+      <c r="AF205">
+        <v>1.05</v>
+      </c>
+      <c r="AG205">
+        <v>8</v>
+      </c>
+      <c r="AH205">
+        <v>1.3</v>
+      </c>
+      <c r="AI205">
+        <v>3.25</v>
+      </c>
+      <c r="AJ205">
+        <v>1.91</v>
+      </c>
+      <c r="AK205">
+        <v>1.73</v>
+      </c>
+      <c r="AL205">
+        <v>1.83</v>
+      </c>
+      <c r="AM205">
+        <v>1.85</v>
+      </c>
+      <c r="AN205">
+        <v>1.31</v>
+      </c>
+      <c r="AO205">
+        <v>1.3</v>
+      </c>
+      <c r="AP205">
+        <v>1.7</v>
+      </c>
+      <c r="AQ205">
+        <v>1.91</v>
+      </c>
+      <c r="AR205">
+        <v>1.7</v>
+      </c>
+      <c r="AS205">
+        <v>1.83</v>
+      </c>
+      <c r="AT205">
+        <v>1.64</v>
+      </c>
+      <c r="AU205">
+        <v>1.98</v>
+      </c>
+      <c r="AV205">
+        <v>1.37</v>
+      </c>
+      <c r="AW205">
+        <v>3.35</v>
+      </c>
+      <c r="AX205">
+        <v>1.47</v>
+      </c>
+      <c r="AY205">
+        <v>8.4</v>
+      </c>
+      <c r="AZ205">
+        <v>3.26</v>
+      </c>
+      <c r="BA205">
+        <v>1.11</v>
+      </c>
+      <c r="BB205">
+        <v>1.27</v>
+      </c>
+      <c r="BC205">
+        <v>1.48</v>
+      </c>
+      <c r="BD205">
+        <v>1.83</v>
+      </c>
+      <c r="BE205">
+        <v>2.35</v>
+      </c>
+      <c r="BF205">
+        <v>5</v>
+      </c>
+      <c r="BG205">
+        <v>4</v>
+      </c>
+      <c r="BH205">
+        <v>6</v>
+      </c>
+      <c r="BI205">
+        <v>5</v>
+      </c>
+      <c r="BJ205">
+        <v>11</v>
+      </c>
+      <c r="BK205">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2812428</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>67</v>
+      </c>
+      <c r="H206" t="s">
+        <v>75</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>217</v>
+      </c>
+      <c r="P206" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q206">
+        <v>12</v>
+      </c>
+      <c r="R206">
+        <v>4</v>
+      </c>
+      <c r="S206">
+        <v>16</v>
+      </c>
+      <c r="T206">
+        <v>2.65</v>
+      </c>
+      <c r="U206">
+        <v>2.05</v>
+      </c>
+      <c r="V206">
+        <v>4</v>
+      </c>
+      <c r="W206">
+        <v>1.42</v>
+      </c>
+      <c r="X206">
+        <v>2.6</v>
+      </c>
+      <c r="Y206">
+        <v>2.95</v>
+      </c>
+      <c r="Z206">
+        <v>1.34</v>
+      </c>
+      <c r="AA206">
+        <v>8</v>
+      </c>
+      <c r="AB206">
+        <v>1.07</v>
+      </c>
+      <c r="AC206">
+        <v>1.85</v>
+      </c>
+      <c r="AD206">
+        <v>3.39</v>
+      </c>
+      <c r="AE206">
+        <v>3.59</v>
+      </c>
+      <c r="AF206">
+        <v>1.07</v>
+      </c>
+      <c r="AG206">
+        <v>7</v>
+      </c>
+      <c r="AH206">
+        <v>1.27</v>
+      </c>
+      <c r="AI206">
+        <v>3.4</v>
+      </c>
+      <c r="AJ206">
+        <v>1.93</v>
+      </c>
+      <c r="AK206">
+        <v>1.75</v>
+      </c>
+      <c r="AL206">
+        <v>1.91</v>
+      </c>
+      <c r="AM206">
+        <v>1.8</v>
+      </c>
+      <c r="AN206">
+        <v>1.25</v>
+      </c>
+      <c r="AO206">
+        <v>1.25</v>
+      </c>
+      <c r="AP206">
+        <v>1.75</v>
+      </c>
+      <c r="AQ206">
+        <v>1</v>
+      </c>
+      <c r="AR206">
+        <v>0.9</v>
+      </c>
+      <c r="AS206">
+        <v>1.17</v>
+      </c>
+      <c r="AT206">
+        <v>0.82</v>
+      </c>
+      <c r="AU206">
+        <v>1.72</v>
+      </c>
+      <c r="AV206">
+        <v>1.41</v>
+      </c>
+      <c r="AW206">
+        <v>3.13</v>
+      </c>
+      <c r="AX206">
+        <v>1.4</v>
+      </c>
+      <c r="AY206">
+        <v>6.75</v>
+      </c>
+      <c r="AZ206">
+        <v>3.25</v>
+      </c>
+      <c r="BA206">
+        <v>1.1</v>
+      </c>
+      <c r="BB206">
+        <v>1.22</v>
+      </c>
+      <c r="BC206">
+        <v>1.42</v>
+      </c>
+      <c r="BD206">
+        <v>1.73</v>
+      </c>
+      <c r="BE206">
+        <v>1.95</v>
+      </c>
+      <c r="BF206">
+        <v>5</v>
+      </c>
+      <c r="BG206">
+        <v>2</v>
+      </c>
+      <c r="BH206">
+        <v>6</v>
+      </c>
+      <c r="BI206">
+        <v>5</v>
+      </c>
+      <c r="BJ206">
+        <v>11</v>
+      </c>
+      <c r="BK206">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2812429</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44990.52083333334</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>70</v>
+      </c>
+      <c r="H207" t="s">
+        <v>80</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>85</v>
+      </c>
+      <c r="P207" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q207">
+        <v>5</v>
+      </c>
+      <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>7</v>
+      </c>
+      <c r="T207">
+        <v>2.49</v>
+      </c>
+      <c r="U207">
+        <v>2.06</v>
+      </c>
+      <c r="V207">
+        <v>4.6</v>
+      </c>
+      <c r="W207">
+        <v>1.42</v>
+      </c>
+      <c r="X207">
+        <v>2.65</v>
+      </c>
+      <c r="Y207">
+        <v>2.9</v>
+      </c>
+      <c r="Z207">
+        <v>1.35</v>
+      </c>
+      <c r="AA207">
+        <v>7.75</v>
+      </c>
+      <c r="AB207">
+        <v>1.07</v>
+      </c>
+      <c r="AC207">
+        <v>1.87</v>
+      </c>
+      <c r="AD207">
+        <v>3.2</v>
+      </c>
+      <c r="AE207">
+        <v>3.75</v>
+      </c>
+      <c r="AF207">
+        <v>1.03</v>
+      </c>
+      <c r="AG207">
+        <v>8.5</v>
+      </c>
+      <c r="AH207">
+        <v>1.32</v>
+      </c>
+      <c r="AI207">
+        <v>3.1</v>
+      </c>
+      <c r="AJ207">
+        <v>2.01</v>
+      </c>
+      <c r="AK207">
+        <v>1.79</v>
+      </c>
+      <c r="AL207">
+        <v>1.83</v>
+      </c>
+      <c r="AM207">
+        <v>1.9</v>
+      </c>
+      <c r="AN207">
+        <v>1.18</v>
+      </c>
+      <c r="AO207">
+        <v>1.22</v>
+      </c>
+      <c r="AP207">
+        <v>1.9</v>
+      </c>
+      <c r="AQ207">
+        <v>0.9</v>
+      </c>
+      <c r="AR207">
+        <v>1.27</v>
+      </c>
+      <c r="AS207">
+        <v>0.82</v>
+      </c>
+      <c r="AT207">
+        <v>1.42</v>
+      </c>
+      <c r="AU207">
+        <v>1.91</v>
+      </c>
+      <c r="AV207">
+        <v>1.51</v>
+      </c>
+      <c r="AW207">
+        <v>3.42</v>
+      </c>
+      <c r="AX207">
+        <v>1.5</v>
+      </c>
+      <c r="AY207">
+        <v>6</v>
+      </c>
+      <c r="AZ207">
+        <v>2.95</v>
+      </c>
+      <c r="BA207">
+        <v>1.14</v>
+      </c>
+      <c r="BB207">
+        <v>1.29</v>
+      </c>
+      <c r="BC207">
+        <v>1.54</v>
+      </c>
+      <c r="BD207">
+        <v>1.9</v>
+      </c>
+      <c r="BE207">
+        <v>2.48</v>
+      </c>
+      <c r="BF207">
+        <v>6</v>
+      </c>
+      <c r="BG207">
+        <v>5</v>
+      </c>
+      <c r="BH207">
+        <v>8</v>
+      </c>
+      <c r="BI207">
+        <v>3</v>
+      </c>
+      <c r="BJ207">
+        <v>14</v>
+      </c>
+      <c r="BK207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2812426</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44990.52083333334</v>
+      </c>
+      <c r="F208">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>72</v>
+      </c>
+      <c r="H208" t="s">
+        <v>81</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>2</v>
+      </c>
+      <c r="O208" t="s">
+        <v>92</v>
+      </c>
+      <c r="P208" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q208">
+        <v>8</v>
+      </c>
+      <c r="R208">
+        <v>4</v>
+      </c>
+      <c r="S208">
+        <v>12</v>
+      </c>
+      <c r="T208">
+        <v>2.57</v>
+      </c>
+      <c r="U208">
+        <v>2.15</v>
+      </c>
+      <c r="V208">
+        <v>3.98</v>
+      </c>
+      <c r="W208">
+        <v>1.35</v>
+      </c>
+      <c r="X208">
+        <v>2.9</v>
+      </c>
+      <c r="Y208">
+        <v>2.8</v>
+      </c>
+      <c r="Z208">
+        <v>1.37</v>
+      </c>
+      <c r="AA208">
+        <v>6.5</v>
+      </c>
+      <c r="AB208">
+        <v>1.08</v>
+      </c>
+      <c r="AC208">
+        <v>1.99</v>
+      </c>
+      <c r="AD208">
+        <v>3.26</v>
+      </c>
+      <c r="AE208">
+        <v>3.27</v>
+      </c>
+      <c r="AF208">
+        <v>1.02</v>
+      </c>
+      <c r="AG208">
+        <v>9.5</v>
+      </c>
+      <c r="AH208">
+        <v>1.25</v>
+      </c>
+      <c r="AI208">
+        <v>3.5</v>
+      </c>
+      <c r="AJ208">
+        <v>1.79</v>
+      </c>
+      <c r="AK208">
+        <v>1.88</v>
+      </c>
+      <c r="AL208">
+        <v>1.8</v>
+      </c>
+      <c r="AM208">
+        <v>1.91</v>
+      </c>
+      <c r="AN208">
+        <v>1.29</v>
+      </c>
+      <c r="AO208">
+        <v>1.26</v>
+      </c>
+      <c r="AP208">
+        <v>1.54</v>
+      </c>
+      <c r="AQ208">
+        <v>1.2</v>
+      </c>
+      <c r="AR208">
+        <v>0.8</v>
+      </c>
+      <c r="AS208">
+        <v>1.18</v>
+      </c>
+      <c r="AT208">
+        <v>0.82</v>
+      </c>
+      <c r="AU208">
+        <v>1.86</v>
+      </c>
+      <c r="AV208">
+        <v>1.5</v>
+      </c>
+      <c r="AW208">
+        <v>3.36</v>
+      </c>
+      <c r="AX208">
+        <v>1.55</v>
+      </c>
+      <c r="AY208">
+        <v>6.25</v>
+      </c>
+      <c r="AZ208">
+        <v>2.7</v>
+      </c>
+      <c r="BA208">
+        <v>1.17</v>
+      </c>
+      <c r="BB208">
+        <v>1.34</v>
+      </c>
+      <c r="BC208">
+        <v>1.62</v>
+      </c>
+      <c r="BD208">
+        <v>2.06</v>
+      </c>
+      <c r="BE208">
+        <v>2.67</v>
+      </c>
+      <c r="BF208">
+        <v>8</v>
+      </c>
+      <c r="BG208">
+        <v>3</v>
+      </c>
+      <c r="BH208">
+        <v>5</v>
+      </c>
+      <c r="BI208">
+        <v>3</v>
+      </c>
+      <c r="BJ208">
+        <v>13</v>
+      </c>
+      <c r="BK208">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,9 @@
     <t>['82', '90+1']</t>
   </si>
   <si>
+    <t>['8', '60', '90+3']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -965,6 +968,9 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1576,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2143,7 +2149,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2803,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT8">
         <v>1.83</v>
@@ -2907,7 +2913,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -3289,7 +3295,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3480,7 +3486,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3671,7 +3677,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4053,7 +4059,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4244,7 +4250,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4435,7 +4441,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4716,7 +4722,7 @@
         <v>1.17</v>
       </c>
       <c r="AT18">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5008,7 +5014,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5199,7 +5205,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5390,7 +5396,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5668,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT23">
         <v>1.27</v>
@@ -5772,7 +5778,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6154,7 +6160,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6536,7 +6542,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6918,7 +6924,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -7109,7 +7115,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7300,7 +7306,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7390,7 +7396,7 @@
         <v>0.75</v>
       </c>
       <c r="AT32">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU32">
         <v>1.18</v>
@@ -8064,7 +8070,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8255,7 +8261,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8446,7 +8452,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -8637,7 +8643,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8828,7 +8834,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8915,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT40">
         <v>0.92</v>
@@ -9019,7 +9025,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9592,7 +9598,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9783,7 +9789,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9974,7 +9980,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10255,7 +10261,7 @@
         <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10356,7 +10362,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10738,7 +10744,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10929,7 +10935,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11120,7 +11126,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11311,7 +11317,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11502,7 +11508,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12839,7 +12845,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13030,7 +13036,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -13221,7 +13227,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13412,7 +13418,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13603,7 +13609,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13985,7 +13991,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14176,7 +14182,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14266,7 +14272,7 @@
         <v>1.27</v>
       </c>
       <c r="AT68">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU68">
         <v>1.64</v>
@@ -14558,7 +14564,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14749,7 +14755,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14836,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT71">
         <v>1.18</v>
@@ -14940,7 +14946,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15131,7 +15137,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15513,7 +15519,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15895,7 +15901,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -16086,7 +16092,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16367,7 +16373,7 @@
         <v>1.18</v>
       </c>
       <c r="AT79">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU79">
         <v>1.89</v>
@@ -16659,7 +16665,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16850,7 +16856,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17041,7 +17047,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17232,7 +17238,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17805,7 +17811,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17892,7 +17898,7 @@
         <v>2.5</v>
       </c>
       <c r="AS87">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT87">
         <v>1.18</v>
@@ -17996,7 +18002,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18187,7 +18193,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19041,7 +19047,7 @@
         <v>1.17</v>
       </c>
       <c r="AT93">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU93">
         <v>1.77</v>
@@ -19142,7 +19148,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19333,7 +19339,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19715,7 +19721,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -20097,7 +20103,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20288,7 +20294,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20479,7 +20485,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20566,7 +20572,7 @@
         <v>2.2</v>
       </c>
       <c r="AS101">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT101">
         <v>1.5</v>
@@ -20670,7 +20676,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21052,7 +21058,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21243,7 +21249,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21625,7 +21631,7 @@
         <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21816,7 +21822,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22580,7 +22586,7 @@
         <v>98</v>
       </c>
       <c r="P112" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22670,7 +22676,7 @@
         <v>1.42</v>
       </c>
       <c r="AT112">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU112">
         <v>1.88</v>
@@ -23153,7 +23159,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23917,7 +23923,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -25254,7 +25260,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>15</v>
@@ -25532,7 +25538,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT127">
         <v>1.64</v>
@@ -25636,7 +25642,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -26209,7 +26215,7 @@
         <v>169</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26400,7 +26406,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26782,7 +26788,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26973,7 +26979,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27164,7 +27170,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27254,7 +27260,7 @@
         <v>1.33</v>
       </c>
       <c r="AT136">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU136">
         <v>1.86</v>
@@ -27355,7 +27361,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27442,7 +27448,7 @@
         <v>1.14</v>
       </c>
       <c r="AS137">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT137">
         <v>0.82</v>
@@ -28119,7 +28125,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28310,7 +28316,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28501,7 +28507,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -29074,7 +29080,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29265,7 +29271,7 @@
         <v>85</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29456,7 +29462,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -30220,7 +30226,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30501,7 +30507,7 @@
         <v>2</v>
       </c>
       <c r="AT153">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU153">
         <v>1.57</v>
@@ -30602,7 +30608,7 @@
         <v>182</v>
       </c>
       <c r="P154" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30984,7 +30990,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31366,7 +31372,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31557,7 +31563,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q159">
         <v>12</v>
@@ -32029,7 +32035,7 @@
         <v>1.36</v>
       </c>
       <c r="AT161">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU161">
         <v>1.46</v>
@@ -32130,7 +32136,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32512,7 +32518,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32703,7 +32709,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32981,7 +32987,7 @@
         <v>1.63</v>
       </c>
       <c r="AS166">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT166">
         <v>1.55</v>
@@ -33085,7 +33091,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33276,7 +33282,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33849,7 +33855,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34040,7 +34046,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34613,7 +34619,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34995,7 +35001,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -35186,7 +35192,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35568,7 +35574,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35759,7 +35765,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35849,7 +35855,7 @@
         <v>0.55</v>
       </c>
       <c r="AT181">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU181">
         <v>1.65</v>
@@ -36141,7 +36147,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36523,7 +36529,7 @@
         <v>184</v>
       </c>
       <c r="P185" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q185">
         <v>10</v>
@@ -36714,7 +36720,7 @@
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36905,7 +36911,7 @@
         <v>207</v>
       </c>
       <c r="P187" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q187">
         <v>12</v>
@@ -37183,7 +37189,7 @@
         <v>1.4</v>
       </c>
       <c r="AS188">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT188">
         <v>1.42</v>
@@ -37478,7 +37484,7 @@
         <v>209</v>
       </c>
       <c r="P190" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37669,7 +37675,7 @@
         <v>132</v>
       </c>
       <c r="P191" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37759,7 +37765,7 @@
         <v>0.82</v>
       </c>
       <c r="AT191">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU191">
         <v>1.53</v>
@@ -37860,7 +37866,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q192">
         <v>3</v>
@@ -38051,7 +38057,7 @@
         <v>211</v>
       </c>
       <c r="P193" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -38242,7 +38248,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38433,7 +38439,7 @@
         <v>177</v>
       </c>
       <c r="P195" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38624,7 +38630,7 @@
         <v>213</v>
       </c>
       <c r="P196" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39388,7 +39394,7 @@
         <v>85</v>
       </c>
       <c r="P200" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q200">
         <v>12</v>
@@ -39579,7 +39585,7 @@
         <v>157</v>
       </c>
       <c r="P201" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39857,7 +39863,7 @@
         <v>0.91</v>
       </c>
       <c r="AS202">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT202">
         <v>0.83</v>
@@ -39961,7 +39967,7 @@
         <v>216</v>
       </c>
       <c r="P203" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q203">
         <v>1</v>
@@ -40725,7 +40731,7 @@
         <v>85</v>
       </c>
       <c r="P207" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41058,6 +41064,197 @@
       </c>
       <c r="BK208">
         <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2812430</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44995.625</v>
+      </c>
+      <c r="F209">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>71</v>
+      </c>
+      <c r="H209" t="s">
+        <v>73</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>3</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>218</v>
+      </c>
+      <c r="P209" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q209">
+        <v>4</v>
+      </c>
+      <c r="R209">
+        <v>3</v>
+      </c>
+      <c r="S209">
+        <v>7</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
+        <v>2.05</v>
+      </c>
+      <c r="V209">
+        <v>4.1</v>
+      </c>
+      <c r="W209">
+        <v>1.42</v>
+      </c>
+      <c r="X209">
+        <v>2.65</v>
+      </c>
+      <c r="Y209">
+        <v>2.95</v>
+      </c>
+      <c r="Z209">
+        <v>1.35</v>
+      </c>
+      <c r="AA209">
+        <v>7.75</v>
+      </c>
+      <c r="AB209">
+        <v>1.07</v>
+      </c>
+      <c r="AC209">
+        <v>1.85</v>
+      </c>
+      <c r="AD209">
+        <v>3.3</v>
+      </c>
+      <c r="AE209">
+        <v>4.2</v>
+      </c>
+      <c r="AF209">
+        <v>1.06</v>
+      </c>
+      <c r="AG209">
+        <v>8</v>
+      </c>
+      <c r="AH209">
+        <v>1.33</v>
+      </c>
+      <c r="AI209">
+        <v>3.25</v>
+      </c>
+      <c r="AJ209">
+        <v>2</v>
+      </c>
+      <c r="AK209">
+        <v>1.75</v>
+      </c>
+      <c r="AL209">
+        <v>1.87</v>
+      </c>
+      <c r="AM209">
+        <v>1.82</v>
+      </c>
+      <c r="AN209">
+        <v>1.25</v>
+      </c>
+      <c r="AO209">
+        <v>1.28</v>
+      </c>
+      <c r="AP209">
+        <v>1.83</v>
+      </c>
+      <c r="AQ209">
+        <v>2.82</v>
+      </c>
+      <c r="AR209">
+        <v>1.58</v>
+      </c>
+      <c r="AS209">
+        <v>2.83</v>
+      </c>
+      <c r="AT209">
+        <v>1.46</v>
+      </c>
+      <c r="AU209">
+        <v>1.48</v>
+      </c>
+      <c r="AV209">
+        <v>1.26</v>
+      </c>
+      <c r="AW209">
+        <v>2.74</v>
+      </c>
+      <c r="AX209">
+        <v>1.55</v>
+      </c>
+      <c r="AY209">
+        <v>8</v>
+      </c>
+      <c r="AZ209">
+        <v>2.98</v>
+      </c>
+      <c r="BA209">
+        <v>1.19</v>
+      </c>
+      <c r="BB209">
+        <v>1.38</v>
+      </c>
+      <c r="BC209">
+        <v>1.78</v>
+      </c>
+      <c r="BD209">
+        <v>2.18</v>
+      </c>
+      <c r="BE209">
+        <v>2.88</v>
+      </c>
+      <c r="BF209">
+        <v>10</v>
+      </c>
+      <c r="BG209">
+        <v>5</v>
+      </c>
+      <c r="BH209">
+        <v>4</v>
+      </c>
+      <c r="BI209">
+        <v>3</v>
+      </c>
+      <c r="BJ209">
+        <v>14</v>
+      </c>
+      <c r="BK209">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1332,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3958,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="AT14">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT16">
         <v>0.92</v>
@@ -6820,7 +6820,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
         <v>1.58</v>
@@ -8351,7 +8351,7 @@
         <v>1.17</v>
       </c>
       <c r="AT37">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -10449,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
         <v>0.91</v>
@@ -11216,7 +11216,7 @@
         <v>1.36</v>
       </c>
       <c r="AT52">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU52">
         <v>1.63</v>
@@ -13699,7 +13699,7 @@
         <v>0.55</v>
       </c>
       <c r="AT65">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU65">
         <v>1.6</v>
@@ -14269,7 +14269,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT68">
         <v>1.46</v>
@@ -17901,7 +17901,7 @@
         <v>2.83</v>
       </c>
       <c r="AT87">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -18280,7 +18280,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT89">
         <v>1.55</v>
@@ -20763,7 +20763,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT102">
         <v>1.18</v>
@@ -21148,7 +21148,7 @@
         <v>1.09</v>
       </c>
       <c r="AT104">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU104">
         <v>1.94</v>
@@ -24010,7 +24010,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT119">
         <v>0.82</v>
@@ -24395,7 +24395,7 @@
         <v>1.18</v>
       </c>
       <c r="AT121">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU121">
         <v>1.75</v>
@@ -28021,7 +28021,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT140">
         <v>1.17</v>
@@ -30125,7 +30125,7 @@
         <v>1.33</v>
       </c>
       <c r="AT151">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU151">
         <v>1.82</v>
@@ -30889,7 +30889,7 @@
         <v>1.17</v>
       </c>
       <c r="AT155">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU155">
         <v>1.47</v>
@@ -31459,7 +31459,7 @@
         <v>2</v>
       </c>
       <c r="AS158">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT158">
         <v>1.83</v>
@@ -35088,7 +35088,7 @@
         <v>0.7</v>
       </c>
       <c r="AS177">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT177">
         <v>0.83</v>
@@ -35473,7 +35473,7 @@
         <v>1.83</v>
       </c>
       <c r="AT179">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU179">
         <v>2.03</v>
@@ -38526,7 +38526,7 @@
         <v>1.36</v>
       </c>
       <c r="AS195">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT195">
         <v>1.5</v>
@@ -39102,7 +39102,7 @@
         <v>0.75</v>
       </c>
       <c r="AT198">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU198">
         <v>1.44</v>
@@ -41255,6 +41255,197 @@
       </c>
       <c r="BK209">
         <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2812434</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44996.33333333334</v>
+      </c>
+      <c r="F210">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s">
+        <v>79</v>
+      </c>
+      <c r="H210" t="s">
+        <v>65</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>206</v>
+      </c>
+      <c r="P210" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q210">
+        <v>4</v>
+      </c>
+      <c r="R210">
+        <v>6</v>
+      </c>
+      <c r="S210">
+        <v>10</v>
+      </c>
+      <c r="T210">
+        <v>3.25</v>
+      </c>
+      <c r="U210">
+        <v>1.93</v>
+      </c>
+      <c r="V210">
+        <v>3.4</v>
+      </c>
+      <c r="W210">
+        <v>1.51</v>
+      </c>
+      <c r="X210">
+        <v>2.37</v>
+      </c>
+      <c r="Y210">
+        <v>3.4</v>
+      </c>
+      <c r="Z210">
+        <v>1.28</v>
+      </c>
+      <c r="AA210">
+        <v>9.5</v>
+      </c>
+      <c r="AB210">
+        <v>1.05</v>
+      </c>
+      <c r="AC210">
+        <v>2.65</v>
+      </c>
+      <c r="AD210">
+        <v>3</v>
+      </c>
+      <c r="AE210">
+        <v>2.87</v>
+      </c>
+      <c r="AF210">
+        <v>1.08</v>
+      </c>
+      <c r="AG210">
+        <v>7</v>
+      </c>
+      <c r="AH210">
+        <v>1.42</v>
+      </c>
+      <c r="AI210">
+        <v>2.75</v>
+      </c>
+      <c r="AJ210">
+        <v>2.34</v>
+      </c>
+      <c r="AK210">
+        <v>1.53</v>
+      </c>
+      <c r="AL210">
+        <v>1.98</v>
+      </c>
+      <c r="AM210">
+        <v>1.71</v>
+      </c>
+      <c r="AN210">
+        <v>1.36</v>
+      </c>
+      <c r="AO210">
+        <v>1.29</v>
+      </c>
+      <c r="AP210">
+        <v>1.41</v>
+      </c>
+      <c r="AQ210">
+        <v>1.27</v>
+      </c>
+      <c r="AR210">
+        <v>1.18</v>
+      </c>
+      <c r="AS210">
+        <v>1.25</v>
+      </c>
+      <c r="AT210">
+        <v>1.17</v>
+      </c>
+      <c r="AU210">
+        <v>1.47</v>
+      </c>
+      <c r="AV210">
+        <v>1.68</v>
+      </c>
+      <c r="AW210">
+        <v>3.15</v>
+      </c>
+      <c r="AX210">
+        <v>2</v>
+      </c>
+      <c r="AY210">
+        <v>5.75</v>
+      </c>
+      <c r="AZ210">
+        <v>2.05</v>
+      </c>
+      <c r="BA210">
+        <v>1.16</v>
+      </c>
+      <c r="BB210">
+        <v>1.32</v>
+      </c>
+      <c r="BC210">
+        <v>1.65</v>
+      </c>
+      <c r="BD210">
+        <v>1.95</v>
+      </c>
+      <c r="BE210">
+        <v>2.27</v>
+      </c>
+      <c r="BF210">
+        <v>2</v>
+      </c>
+      <c r="BG210">
+        <v>6</v>
+      </c>
+      <c r="BH210">
+        <v>6</v>
+      </c>
+      <c r="BI210">
+        <v>4</v>
+      </c>
+      <c r="BJ210">
+        <v>8</v>
+      </c>
+      <c r="BK210">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,18 @@
     <t>['8', '60', '90+3']</t>
   </si>
   <si>
+    <t>['27', '35']</t>
+  </si>
+  <si>
+    <t>['33', '71', '77']</t>
+  </si>
+  <si>
+    <t>['45', '53']</t>
+  </si>
+  <si>
+    <t>['3', '81']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -971,6 +983,12 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['23', '59']</t>
+  </si>
+  <si>
+    <t>['24', '69']</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1594,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1854,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT3">
         <v>0.82</v>
@@ -2048,7 +2066,7 @@
         <v>1.17</v>
       </c>
       <c r="AT4">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2149,7 +2167,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2236,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT5">
         <v>1.42</v>
@@ -2430,7 +2448,7 @@
         <v>1.42</v>
       </c>
       <c r="AT6">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2621,7 +2639,7 @@
         <v>0.82</v>
       </c>
       <c r="AT7">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2913,7 +2931,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -3295,7 +3313,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3385,7 +3403,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3486,7 +3504,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3573,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT12">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3677,7 +3695,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3764,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
+        <v>1.31</v>
+      </c>
+      <c r="AT13">
         <v>1.17</v>
-      </c>
-      <c r="AT13">
-        <v>1.18</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4059,7 +4077,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4250,7 +4268,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4441,7 +4459,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4528,10 +4546,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4719,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT18">
         <v>1.46</v>
@@ -4910,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>0.83</v>
@@ -5014,7 +5032,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5104,7 +5122,7 @@
         <v>1.42</v>
       </c>
       <c r="AT20">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU20">
         <v>1.67</v>
@@ -5205,7 +5223,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5396,7 +5414,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5486,7 +5504,7 @@
         <v>2.33</v>
       </c>
       <c r="AT22">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU22">
         <v>1.77</v>
@@ -5778,7 +5796,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5865,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT24">
         <v>1.83</v>
@@ -6160,7 +6178,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6542,7 +6560,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6823,7 +6841,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU29">
         <v>1.76</v>
@@ -6924,7 +6942,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -7014,7 +7032,7 @@
         <v>1.83</v>
       </c>
       <c r="AT30">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU30">
         <v>0.91</v>
@@ -7115,7 +7133,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7202,7 +7220,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT31">
         <v>1.83</v>
@@ -7306,7 +7324,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7393,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT32">
         <v>1.46</v>
@@ -7584,10 +7602,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU33">
         <v>1.41</v>
@@ -7775,10 +7793,10 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT34">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU34">
         <v>1.65</v>
@@ -7969,7 +7987,7 @@
         <v>2</v>
       </c>
       <c r="AT35">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU35">
         <v>1.56</v>
@@ -8070,7 +8088,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8157,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT36">
         <v>0.83</v>
@@ -8261,7 +8279,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8348,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT37">
         <v>1.17</v>
@@ -8452,7 +8470,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -8643,7 +8661,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8834,7 +8852,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9025,7 +9043,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9598,7 +9616,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9789,7 +9807,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9980,7 +9998,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10070,7 +10088,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU46">
         <v>2.43</v>
@@ -10258,7 +10276,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT47">
         <v>1.46</v>
@@ -10362,7 +10380,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10452,7 +10470,7 @@
         <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU48">
         <v>1.24</v>
@@ -10640,10 +10658,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU49">
         <v>1.59</v>
@@ -10744,7 +10762,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10831,10 +10849,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT50">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU50">
         <v>1.13</v>
@@ -10935,7 +10953,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11022,10 +11040,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT51">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU51">
         <v>1.56</v>
@@ -11126,7 +11144,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11213,7 +11231,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT52">
         <v>1.17</v>
@@ -11317,7 +11335,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11404,10 +11422,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT53">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU53">
         <v>1.55</v>
@@ -11508,7 +11526,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11595,7 +11613,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT54">
         <v>1.83</v>
@@ -11789,7 +11807,7 @@
         <v>2</v>
       </c>
       <c r="AT55">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU55">
         <v>1.7</v>
@@ -12845,7 +12863,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13036,7 +13054,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -13227,7 +13245,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13418,7 +13436,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13609,7 +13627,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13696,7 +13714,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT65">
         <v>1.17</v>
@@ -13887,10 +13905,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU66">
         <v>1.4</v>
@@ -13991,7 +14009,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14078,10 +14096,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT67">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU67">
         <v>1.81</v>
@@ -14182,7 +14200,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14460,10 +14478,10 @@
         <v>1.67</v>
       </c>
       <c r="AS69">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT69">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU69">
         <v>1.34</v>
@@ -14564,7 +14582,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14651,10 +14669,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT70">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU70">
         <v>1.32</v>
@@ -14755,7 +14773,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14845,7 +14863,7 @@
         <v>2.83</v>
       </c>
       <c r="AT71">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU71">
         <v>1.38</v>
@@ -14946,7 +14964,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15033,10 +15051,10 @@
         <v>2.33</v>
       </c>
       <c r="AS72">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT72">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>1.85</v>
@@ -15137,7 +15155,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15224,10 +15242,10 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT73">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU73">
         <v>1.77</v>
@@ -15519,7 +15537,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15797,7 +15815,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT76">
         <v>1.42</v>
@@ -15901,7 +15919,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -16092,7 +16110,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16665,7 +16683,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16856,7 +16874,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16943,7 +16961,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT82">
         <v>1.27</v>
@@ -17047,7 +17065,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17134,10 +17152,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT83">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU83">
         <v>1.69</v>
@@ -17238,7 +17256,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17325,10 +17343,10 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT84">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU84">
         <v>1.64</v>
@@ -17519,7 +17537,7 @@
         <v>1.09</v>
       </c>
       <c r="AT85">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -17707,10 +17725,10 @@
         <v>1.5</v>
       </c>
       <c r="AS86">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT86">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU86">
         <v>1.84</v>
@@ -17811,7 +17829,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18002,7 +18020,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18089,10 +18107,10 @@
         <v>1.25</v>
       </c>
       <c r="AS88">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT88">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU88">
         <v>1.7</v>
@@ -18193,7 +18211,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18283,7 +18301,7 @@
         <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU89">
         <v>1.51</v>
@@ -18471,10 +18489,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT90">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU90">
         <v>1.34</v>
@@ -18662,7 +18680,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT91">
         <v>0.82</v>
@@ -18856,7 +18874,7 @@
         <v>1.18</v>
       </c>
       <c r="AT92">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU92">
         <v>1.81</v>
@@ -19148,7 +19166,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19339,7 +19357,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19721,7 +19739,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19808,7 +19826,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT97">
         <v>1.17</v>
@@ -20103,7 +20121,7 @@
         <v>110</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20294,7 +20312,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20381,7 +20399,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT100">
         <v>0.82</v>
@@ -20485,7 +20503,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20575,7 +20593,7 @@
         <v>2.83</v>
       </c>
       <c r="AT101">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU101">
         <v>1.54</v>
@@ -20676,7 +20694,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20766,7 +20784,7 @@
         <v>1.25</v>
       </c>
       <c r="AT102">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU102">
         <v>1.59</v>
@@ -20954,7 +20972,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT103">
         <v>1.27</v>
@@ -21058,7 +21076,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21249,7 +21267,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21336,10 +21354,10 @@
         <v>1.6</v>
       </c>
       <c r="AS105">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT105">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU105">
         <v>1.89</v>
@@ -21530,7 +21548,7 @@
         <v>0.82</v>
       </c>
       <c r="AT106">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU106">
         <v>2.03</v>
@@ -21631,7 +21649,7 @@
         <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21718,10 +21736,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT107">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU107">
         <v>1.63</v>
@@ -21822,7 +21840,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21909,10 +21927,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT108">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU108">
         <v>1.44</v>
@@ -22100,7 +22118,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT109">
         <v>1.83</v>
@@ -22485,7 +22503,7 @@
         <v>2.33</v>
       </c>
       <c r="AT111">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU111">
         <v>1.85</v>
@@ -22586,7 +22604,7 @@
         <v>98</v>
       </c>
       <c r="P112" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22867,7 +22885,7 @@
         <v>1.17</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU113">
         <v>1.74</v>
@@ -23159,7 +23177,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23246,7 +23264,7 @@
         <v>1.17</v>
       </c>
       <c r="AS115">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT115">
         <v>1.42</v>
@@ -23437,7 +23455,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT116">
         <v>1.17</v>
@@ -23923,7 +23941,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24204,7 +24222,7 @@
         <v>0.82</v>
       </c>
       <c r="AT120">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>2.07</v>
@@ -24583,7 +24601,7 @@
         <v>1.14</v>
       </c>
       <c r="AS122">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT122">
         <v>1.17</v>
@@ -24777,7 +24795,7 @@
         <v>1.17</v>
       </c>
       <c r="AT123">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU123">
         <v>1.66</v>
@@ -24965,7 +24983,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT124">
         <v>0.82</v>
@@ -25156,7 +25174,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT125">
         <v>1.27</v>
@@ -25260,7 +25278,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>15</v>
@@ -25350,7 +25368,7 @@
         <v>1.09</v>
       </c>
       <c r="AT126">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU126">
         <v>1.85</v>
@@ -25541,7 +25559,7 @@
         <v>2.83</v>
       </c>
       <c r="AT127">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU127">
         <v>1.59</v>
@@ -25642,7 +25660,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25729,7 +25747,7 @@
         <v>2</v>
       </c>
       <c r="AS128">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT128">
         <v>1.83</v>
@@ -25923,7 +25941,7 @@
         <v>1.83</v>
       </c>
       <c r="AT129">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU129">
         <v>1.82</v>
@@ -26114,7 +26132,7 @@
         <v>2.33</v>
       </c>
       <c r="AT130">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU130">
         <v>1.86</v>
@@ -26215,7 +26233,7 @@
         <v>169</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26302,7 +26320,7 @@
         <v>0.43</v>
       </c>
       <c r="AS131">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT131">
         <v>0.92</v>
@@ -26406,7 +26424,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26493,7 +26511,7 @@
         <v>1.14</v>
       </c>
       <c r="AS132">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT132">
         <v>1.42</v>
@@ -26684,7 +26702,7 @@
         <v>1.57</v>
       </c>
       <c r="AS133">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT133">
         <v>1.83</v>
@@ -26788,7 +26806,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26979,7 +26997,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27069,7 +27087,7 @@
         <v>1.42</v>
       </c>
       <c r="AT135">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU135">
         <v>1.85</v>
@@ -27170,7 +27188,7 @@
         <v>85</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27361,7 +27379,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27830,7 +27848,7 @@
         <v>0.71</v>
       </c>
       <c r="AS139">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT139">
         <v>0.82</v>
@@ -28125,7 +28143,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28215,7 +28233,7 @@
         <v>0.82</v>
       </c>
       <c r="AT141">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU141">
         <v>2.01</v>
@@ -28316,7 +28334,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28406,7 +28424,7 @@
         <v>1.17</v>
       </c>
       <c r="AT142">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU142">
         <v>1.68</v>
@@ -28507,7 +28525,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28597,7 +28615,7 @@
         <v>2.33</v>
       </c>
       <c r="AT143">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU143">
         <v>1.9</v>
@@ -28788,7 +28806,7 @@
         <v>1.18</v>
       </c>
       <c r="AT144">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU144">
         <v>1.81</v>
@@ -28976,7 +28994,7 @@
         <v>1.38</v>
       </c>
       <c r="AS145">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT145">
         <v>1.42</v>
@@ -29080,7 +29098,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29170,7 +29188,7 @@
         <v>1.83</v>
       </c>
       <c r="AT146">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU146">
         <v>1.85</v>
@@ -29271,7 +29289,7 @@
         <v>85</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29358,7 +29376,7 @@
         <v>1.5</v>
       </c>
       <c r="AS147">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT147">
         <v>1.83</v>
@@ -29462,7 +29480,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29549,7 +29567,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT148">
         <v>0.92</v>
@@ -29740,7 +29758,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT149">
         <v>0.83</v>
@@ -29931,7 +29949,7 @@
         <v>2.13</v>
       </c>
       <c r="AS150">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT150">
         <v>1.83</v>
@@ -30226,7 +30244,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30316,7 +30334,7 @@
         <v>1.42</v>
       </c>
       <c r="AT152">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU152">
         <v>1.86</v>
@@ -30608,7 +30626,7 @@
         <v>182</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30695,10 +30713,10 @@
         <v>1.88</v>
       </c>
       <c r="AS154">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT154">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU154">
         <v>1.41</v>
@@ -30886,7 +30904,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT155">
         <v>1.17</v>
@@ -30990,7 +31008,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31077,10 +31095,10 @@
         <v>1.33</v>
       </c>
       <c r="AS156">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT156">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU156">
         <v>1.39</v>
@@ -31271,7 +31289,7 @@
         <v>1.33</v>
       </c>
       <c r="AT157">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU157">
         <v>1.75</v>
@@ -31372,7 +31390,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31563,7 +31581,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q159">
         <v>12</v>
@@ -31650,7 +31668,7 @@
         <v>0.78</v>
       </c>
       <c r="AS159">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT159">
         <v>0.92</v>
@@ -31844,7 +31862,7 @@
         <v>2</v>
       </c>
       <c r="AT160">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU160">
         <v>1.57</v>
@@ -32032,7 +32050,7 @@
         <v>1.67</v>
       </c>
       <c r="AS161">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT161">
         <v>1.46</v>
@@ -32136,7 +32154,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32223,7 +32241,7 @@
         <v>0.67</v>
       </c>
       <c r="AS162">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT162">
         <v>0.83</v>
@@ -32417,7 +32435,7 @@
         <v>1.83</v>
       </c>
       <c r="AT163">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU163">
         <v>1.92</v>
@@ -32518,7 +32536,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32608,7 +32626,7 @@
         <v>2.33</v>
       </c>
       <c r="AT164">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU164">
         <v>1.92</v>
@@ -32709,7 +32727,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32796,7 +32814,7 @@
         <v>1.67</v>
       </c>
       <c r="AS165">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT165">
         <v>1.83</v>
@@ -32990,7 +33008,7 @@
         <v>2.83</v>
       </c>
       <c r="AT166">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU166">
         <v>1.62</v>
@@ -33091,7 +33109,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33282,7 +33300,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33751,7 +33769,7 @@
         <v>0.89</v>
       </c>
       <c r="AS170">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT170">
         <v>1.17</v>
@@ -33855,7 +33873,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33945,7 +33963,7 @@
         <v>1.42</v>
       </c>
       <c r="AT171">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU171">
         <v>1.83</v>
@@ -34046,7 +34064,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34324,7 +34342,7 @@
         <v>2.1</v>
       </c>
       <c r="AS173">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT173">
         <v>1.83</v>
@@ -34515,10 +34533,10 @@
         <v>1.5</v>
       </c>
       <c r="AS174">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT174">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU174">
         <v>1.5</v>
@@ -34619,7 +34637,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34709,7 +34727,7 @@
         <v>2</v>
       </c>
       <c r="AT175">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU175">
         <v>1.65</v>
@@ -34897,10 +34915,10 @@
         <v>1.33</v>
       </c>
       <c r="AS176">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT176">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU176">
         <v>1.47</v>
@@ -35001,7 +35019,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -35192,7 +35210,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35279,10 +35297,10 @@
         <v>1.5</v>
       </c>
       <c r="AS178">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT178">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU178">
         <v>1.75</v>
@@ -35574,7 +35592,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35661,10 +35679,10 @@
         <v>1</v>
       </c>
       <c r="AS180">
+        <v>1.31</v>
+      </c>
+      <c r="AT180">
         <v>1.17</v>
-      </c>
-      <c r="AT180">
-        <v>1.18</v>
       </c>
       <c r="AU180">
         <v>1.86</v>
@@ -35765,7 +35783,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35852,7 +35870,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT181">
         <v>1.46</v>
@@ -36046,7 +36064,7 @@
         <v>1.33</v>
       </c>
       <c r="AT182">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU182">
         <v>1.68</v>
@@ -36147,7 +36165,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36425,7 +36443,7 @@
         <v>1</v>
       </c>
       <c r="AS184">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT184">
         <v>0.92</v>
@@ -36529,7 +36547,7 @@
         <v>184</v>
       </c>
       <c r="P185" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q185">
         <v>10</v>
@@ -36720,7 +36738,7 @@
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36810,7 +36828,7 @@
         <v>1.18</v>
       </c>
       <c r="AT186">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU186">
         <v>1.9</v>
@@ -36911,7 +36929,7 @@
         <v>207</v>
       </c>
       <c r="P187" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q187">
         <v>12</v>
@@ -37484,7 +37502,7 @@
         <v>209</v>
       </c>
       <c r="P190" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37675,7 +37693,7 @@
         <v>132</v>
       </c>
       <c r="P191" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37762,7 +37780,7 @@
         <v>1.45</v>
       </c>
       <c r="AS191">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT191">
         <v>1.46</v>
@@ -37866,7 +37884,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q192">
         <v>3</v>
@@ -37953,10 +37971,10 @@
         <v>1.4</v>
       </c>
       <c r="AS192">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT192">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU192">
         <v>1.44</v>
@@ -38057,7 +38075,7 @@
         <v>211</v>
       </c>
       <c r="P193" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -38144,10 +38162,10 @@
         <v>0.9</v>
       </c>
       <c r="AS193">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT193">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU193">
         <v>1.55</v>
@@ -38248,7 +38266,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38335,7 +38353,7 @@
         <v>1.91</v>
       </c>
       <c r="AS194">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT194">
         <v>1.83</v>
@@ -38439,7 +38457,7 @@
         <v>177</v>
       </c>
       <c r="P195" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38529,7 +38547,7 @@
         <v>1.25</v>
       </c>
       <c r="AT195">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU195">
         <v>1.47</v>
@@ -38630,7 +38648,7 @@
         <v>213</v>
       </c>
       <c r="P196" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38717,10 +38735,10 @@
         <v>1.64</v>
       </c>
       <c r="AS196">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT196">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU196">
         <v>1.88</v>
@@ -38908,10 +38926,10 @@
         <v>1</v>
       </c>
       <c r="AS197">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT197">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU197">
         <v>1.6</v>
@@ -39099,7 +39117,7 @@
         <v>1.3</v>
       </c>
       <c r="AS198">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT198">
         <v>1.17</v>
@@ -39293,7 +39311,7 @@
         <v>2</v>
       </c>
       <c r="AT199">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU199">
         <v>1.66</v>
@@ -39394,7 +39412,7 @@
         <v>85</v>
       </c>
       <c r="P200" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q200">
         <v>12</v>
@@ -39585,7 +39603,7 @@
         <v>157</v>
       </c>
       <c r="P201" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39967,7 +39985,7 @@
         <v>216</v>
       </c>
       <c r="P203" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q203">
         <v>1</v>
@@ -40439,7 +40457,7 @@
         <v>1.83</v>
       </c>
       <c r="AT205">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU205">
         <v>1.98</v>
@@ -40731,7 +40749,7 @@
         <v>85</v>
       </c>
       <c r="P207" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41113,7 +41131,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41446,6 +41464,1343 @@
       </c>
       <c r="BK210">
         <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2812436</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>68</v>
+      </c>
+      <c r="H211" t="s">
+        <v>67</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>3</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>2</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="O211" t="s">
+        <v>219</v>
+      </c>
+      <c r="P211" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q211">
+        <v>7</v>
+      </c>
+      <c r="R211">
+        <v>4</v>
+      </c>
+      <c r="S211">
+        <v>11</v>
+      </c>
+      <c r="T211">
+        <v>2.95</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+      <c r="V211">
+        <v>3.4</v>
+      </c>
+      <c r="W211">
+        <v>1.44</v>
+      </c>
+      <c r="X211">
+        <v>2.67</v>
+      </c>
+      <c r="Y211">
+        <v>3.05</v>
+      </c>
+      <c r="Z211">
+        <v>1.35</v>
+      </c>
+      <c r="AA211">
+        <v>7.9</v>
+      </c>
+      <c r="AB211">
+        <v>1.06</v>
+      </c>
+      <c r="AC211">
+        <v>2.4</v>
+      </c>
+      <c r="AD211">
+        <v>3.15</v>
+      </c>
+      <c r="AE211">
+        <v>2.8</v>
+      </c>
+      <c r="AF211">
+        <v>1.07</v>
+      </c>
+      <c r="AG211">
+        <v>7.5</v>
+      </c>
+      <c r="AH211">
+        <v>1.33</v>
+      </c>
+      <c r="AI211">
+        <v>3.1</v>
+      </c>
+      <c r="AJ211">
+        <v>2</v>
+      </c>
+      <c r="AK211">
+        <v>1.7</v>
+      </c>
+      <c r="AL211">
+        <v>1.83</v>
+      </c>
+      <c r="AM211">
+        <v>1.85</v>
+      </c>
+      <c r="AN211">
+        <v>1.4</v>
+      </c>
+      <c r="AO211">
+        <v>1.31</v>
+      </c>
+      <c r="AP211">
+        <v>1.55</v>
+      </c>
+      <c r="AQ211">
+        <v>0.82</v>
+      </c>
+      <c r="AR211">
+        <v>1.18</v>
+      </c>
+      <c r="AS211">
+        <v>0.83</v>
+      </c>
+      <c r="AT211">
+        <v>1.17</v>
+      </c>
+      <c r="AU211">
+        <v>1.58</v>
+      </c>
+      <c r="AV211">
+        <v>1.33</v>
+      </c>
+      <c r="AW211">
+        <v>2.91</v>
+      </c>
+      <c r="AX211">
+        <v>1.68</v>
+      </c>
+      <c r="AY211">
+        <v>8</v>
+      </c>
+      <c r="AZ211">
+        <v>2.6</v>
+      </c>
+      <c r="BA211">
+        <v>1.08</v>
+      </c>
+      <c r="BB211">
+        <v>1.19</v>
+      </c>
+      <c r="BC211">
+        <v>1.55</v>
+      </c>
+      <c r="BD211">
+        <v>1.88</v>
+      </c>
+      <c r="BE211">
+        <v>2.29</v>
+      </c>
+      <c r="BF211">
+        <v>6</v>
+      </c>
+      <c r="BG211">
+        <v>3</v>
+      </c>
+      <c r="BH211">
+        <v>5</v>
+      </c>
+      <c r="BI211">
+        <v>4</v>
+      </c>
+      <c r="BJ211">
+        <v>11</v>
+      </c>
+      <c r="BK211">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2812437</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F212">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s">
+        <v>76</v>
+      </c>
+      <c r="H212" t="s">
+        <v>72</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>220</v>
+      </c>
+      <c r="P212" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q212">
+        <v>1</v>
+      </c>
+      <c r="R212">
+        <v>4</v>
+      </c>
+      <c r="S212">
+        <v>5</v>
+      </c>
+      <c r="T212">
+        <v>3.1</v>
+      </c>
+      <c r="U212">
+        <v>2</v>
+      </c>
+      <c r="V212">
+        <v>3.25</v>
+      </c>
+      <c r="W212">
+        <v>1.44</v>
+      </c>
+      <c r="X212">
+        <v>2.55</v>
+      </c>
+      <c r="Y212">
+        <v>3.1</v>
+      </c>
+      <c r="Z212">
+        <v>1.32</v>
+      </c>
+      <c r="AA212">
+        <v>8.5</v>
+      </c>
+      <c r="AB212">
+        <v>1.06</v>
+      </c>
+      <c r="AC212">
+        <v>2.55</v>
+      </c>
+      <c r="AD212">
+        <v>3.05</v>
+      </c>
+      <c r="AE212">
+        <v>2.6</v>
+      </c>
+      <c r="AF212">
+        <v>1.08</v>
+      </c>
+      <c r="AG212">
+        <v>7</v>
+      </c>
+      <c r="AH212">
+        <v>1.38</v>
+      </c>
+      <c r="AI212">
+        <v>2.9</v>
+      </c>
+      <c r="AJ212">
+        <v>2.1</v>
+      </c>
+      <c r="AK212">
+        <v>1.65</v>
+      </c>
+      <c r="AL212">
+        <v>1.9</v>
+      </c>
+      <c r="AM212">
+        <v>1.78</v>
+      </c>
+      <c r="AN212">
+        <v>1.44</v>
+      </c>
+      <c r="AO212">
+        <v>1.32</v>
+      </c>
+      <c r="AP212">
+        <v>1.49</v>
+      </c>
+      <c r="AQ212">
+        <v>1.17</v>
+      </c>
+      <c r="AR212">
+        <v>1.5</v>
+      </c>
+      <c r="AS212">
+        <v>1.31</v>
+      </c>
+      <c r="AT212">
+        <v>1.38</v>
+      </c>
+      <c r="AU212">
+        <v>1.43</v>
+      </c>
+      <c r="AV212">
+        <v>1.58</v>
+      </c>
+      <c r="AW212">
+        <v>3.01</v>
+      </c>
+      <c r="AX212">
+        <v>2.3</v>
+      </c>
+      <c r="AY212">
+        <v>6</v>
+      </c>
+      <c r="AZ212">
+        <v>1.74</v>
+      </c>
+      <c r="BA212">
+        <v>1.17</v>
+      </c>
+      <c r="BB212">
+        <v>1.34</v>
+      </c>
+      <c r="BC212">
+        <v>1.69</v>
+      </c>
+      <c r="BD212">
+        <v>2.07</v>
+      </c>
+      <c r="BE212">
+        <v>2.71</v>
+      </c>
+      <c r="BF212">
+        <v>8</v>
+      </c>
+      <c r="BG212">
+        <v>2</v>
+      </c>
+      <c r="BH212">
+        <v>1</v>
+      </c>
+      <c r="BI212">
+        <v>3</v>
+      </c>
+      <c r="BJ212">
+        <v>9</v>
+      </c>
+      <c r="BK212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2812438</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44996.52083333334</v>
+      </c>
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>66</v>
+      </c>
+      <c r="H213" t="s">
+        <v>70</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>1</v>
+      </c>
+      <c r="O213" t="s">
+        <v>85</v>
+      </c>
+      <c r="P213" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q213">
+        <v>7</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>9</v>
+      </c>
+      <c r="T213">
+        <v>3.1</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>3.25</v>
+      </c>
+      <c r="W213">
+        <v>1.43</v>
+      </c>
+      <c r="X213">
+        <v>2.6</v>
+      </c>
+      <c r="Y213">
+        <v>3</v>
+      </c>
+      <c r="Z213">
+        <v>1.34</v>
+      </c>
+      <c r="AA213">
+        <v>8</v>
+      </c>
+      <c r="AB213">
+        <v>1.07</v>
+      </c>
+      <c r="AC213">
+        <v>2.5</v>
+      </c>
+      <c r="AD213">
+        <v>3.1</v>
+      </c>
+      <c r="AE213">
+        <v>2.65</v>
+      </c>
+      <c r="AF213">
+        <v>1.07</v>
+      </c>
+      <c r="AG213">
+        <v>7.5</v>
+      </c>
+      <c r="AH213">
+        <v>1.36</v>
+      </c>
+      <c r="AI213">
+        <v>2.95</v>
+      </c>
+      <c r="AJ213">
+        <v>2</v>
+      </c>
+      <c r="AK213">
+        <v>1.7</v>
+      </c>
+      <c r="AL213">
+        <v>1.83</v>
+      </c>
+      <c r="AM213">
+        <v>1.85</v>
+      </c>
+      <c r="AN213">
+        <v>1.44</v>
+      </c>
+      <c r="AO213">
+        <v>1.32</v>
+      </c>
+      <c r="AP213">
+        <v>1.49</v>
+      </c>
+      <c r="AQ213">
+        <v>1.73</v>
+      </c>
+      <c r="AR213">
+        <v>1.58</v>
+      </c>
+      <c r="AS213">
+        <v>1.58</v>
+      </c>
+      <c r="AT213">
+        <v>1.69</v>
+      </c>
+      <c r="AU213">
+        <v>1.66</v>
+      </c>
+      <c r="AV213">
+        <v>1.45</v>
+      </c>
+      <c r="AW213">
+        <v>3.11</v>
+      </c>
+      <c r="AX213">
+        <v>2</v>
+      </c>
+      <c r="AY213">
+        <v>5.5</v>
+      </c>
+      <c r="AZ213">
+        <v>2</v>
+      </c>
+      <c r="BA213">
+        <v>1.14</v>
+      </c>
+      <c r="BB213">
+        <v>1.28</v>
+      </c>
+      <c r="BC213">
+        <v>1.61</v>
+      </c>
+      <c r="BD213">
+        <v>1.85</v>
+      </c>
+      <c r="BE213">
+        <v>2.4</v>
+      </c>
+      <c r="BF213">
+        <v>5</v>
+      </c>
+      <c r="BG213">
+        <v>4</v>
+      </c>
+      <c r="BH213">
+        <v>5</v>
+      </c>
+      <c r="BI213">
+        <v>5</v>
+      </c>
+      <c r="BJ213">
+        <v>10</v>
+      </c>
+      <c r="BK213">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2812435</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>75</v>
+      </c>
+      <c r="H214" t="s">
+        <v>69</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>3</v>
+      </c>
+      <c r="O214" t="s">
+        <v>221</v>
+      </c>
+      <c r="P214" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q214">
+        <v>3</v>
+      </c>
+      <c r="R214">
+        <v>7</v>
+      </c>
+      <c r="S214">
+        <v>10</v>
+      </c>
+      <c r="T214">
+        <v>3.2</v>
+      </c>
+      <c r="U214">
+        <v>2.1</v>
+      </c>
+      <c r="V214">
+        <v>3</v>
+      </c>
+      <c r="W214">
+        <v>1.38</v>
+      </c>
+      <c r="X214">
+        <v>2.8</v>
+      </c>
+      <c r="Y214">
+        <v>2.65</v>
+      </c>
+      <c r="Z214">
+        <v>1.41</v>
+      </c>
+      <c r="AA214">
+        <v>6.75</v>
+      </c>
+      <c r="AB214">
+        <v>1.09</v>
+      </c>
+      <c r="AC214">
+        <v>2.5</v>
+      </c>
+      <c r="AD214">
+        <v>3.4</v>
+      </c>
+      <c r="AE214">
+        <v>2.36</v>
+      </c>
+      <c r="AF214">
+        <v>1.05</v>
+      </c>
+      <c r="AG214">
+        <v>9.25</v>
+      </c>
+      <c r="AH214">
+        <v>1.27</v>
+      </c>
+      <c r="AI214">
+        <v>3.4</v>
+      </c>
+      <c r="AJ214">
+        <v>1.81</v>
+      </c>
+      <c r="AK214">
+        <v>1.94</v>
+      </c>
+      <c r="AL214">
+        <v>1.68</v>
+      </c>
+      <c r="AM214">
+        <v>2.05</v>
+      </c>
+      <c r="AN214">
+        <v>1.51</v>
+      </c>
+      <c r="AO214">
+        <v>1.31</v>
+      </c>
+      <c r="AP214">
+        <v>1.43</v>
+      </c>
+      <c r="AQ214">
+        <v>0.75</v>
+      </c>
+      <c r="AR214">
+        <v>0.91</v>
+      </c>
+      <c r="AS214">
+        <v>0.92</v>
+      </c>
+      <c r="AT214">
+        <v>0.83</v>
+      </c>
+      <c r="AU214">
+        <v>1.39</v>
+      </c>
+      <c r="AV214">
+        <v>1.45</v>
+      </c>
+      <c r="AW214">
+        <v>2.84</v>
+      </c>
+      <c r="AX214">
+        <v>2.05</v>
+      </c>
+      <c r="AY214">
+        <v>7.7</v>
+      </c>
+      <c r="AZ214">
+        <v>2.05</v>
+      </c>
+      <c r="BA214">
+        <v>1.1</v>
+      </c>
+      <c r="BB214">
+        <v>1.22</v>
+      </c>
+      <c r="BC214">
+        <v>1.4</v>
+      </c>
+      <c r="BD214">
+        <v>1.68</v>
+      </c>
+      <c r="BE214">
+        <v>2.12</v>
+      </c>
+      <c r="BF214">
+        <v>5</v>
+      </c>
+      <c r="BG214">
+        <v>3</v>
+      </c>
+      <c r="BH214">
+        <v>4</v>
+      </c>
+      <c r="BI214">
+        <v>6</v>
+      </c>
+      <c r="BJ214">
+        <v>9</v>
+      </c>
+      <c r="BK214">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2812432</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>81</v>
+      </c>
+      <c r="H215" t="s">
+        <v>78</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>2</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>222</v>
+      </c>
+      <c r="P215" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q215">
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <v>-1</v>
+      </c>
+      <c r="S215">
+        <v>-1</v>
+      </c>
+      <c r="T215">
+        <v>3.2</v>
+      </c>
+      <c r="U215">
+        <v>1.98</v>
+      </c>
+      <c r="V215">
+        <v>3.3</v>
+      </c>
+      <c r="W215">
+        <v>1.44</v>
+      </c>
+      <c r="X215">
+        <v>2.55</v>
+      </c>
+      <c r="Y215">
+        <v>3</v>
+      </c>
+      <c r="Z215">
+        <v>1.33</v>
+      </c>
+      <c r="AA215">
+        <v>8.25</v>
+      </c>
+      <c r="AB215">
+        <v>1.06</v>
+      </c>
+      <c r="AC215">
+        <v>2.4</v>
+      </c>
+      <c r="AD215">
+        <v>3.2</v>
+      </c>
+      <c r="AE215">
+        <v>2.55</v>
+      </c>
+      <c r="AF215">
+        <v>1.07</v>
+      </c>
+      <c r="AG215">
+        <v>7.75</v>
+      </c>
+      <c r="AH215">
+        <v>1.36</v>
+      </c>
+      <c r="AI215">
+        <v>2.87</v>
+      </c>
+      <c r="AJ215">
+        <v>1.98</v>
+      </c>
+      <c r="AK215">
+        <v>1.77</v>
+      </c>
+      <c r="AL215">
+        <v>1.85</v>
+      </c>
+      <c r="AM215">
+        <v>1.83</v>
+      </c>
+      <c r="AN215">
+        <v>1.44</v>
+      </c>
+      <c r="AO215">
+        <v>1.33</v>
+      </c>
+      <c r="AP215">
+        <v>1.47</v>
+      </c>
+      <c r="AQ215">
+        <v>1.17</v>
+      </c>
+      <c r="AR215">
+        <v>1.55</v>
+      </c>
+      <c r="AS215">
+        <v>1.31</v>
+      </c>
+      <c r="AT215">
+        <v>1.42</v>
+      </c>
+      <c r="AU215">
+        <v>1.89</v>
+      </c>
+      <c r="AV215">
+        <v>1.59</v>
+      </c>
+      <c r="AW215">
+        <v>3.48</v>
+      </c>
+      <c r="AX215">
+        <v>1.88</v>
+      </c>
+      <c r="AY215">
+        <v>7.8</v>
+      </c>
+      <c r="AZ215">
+        <v>2.25</v>
+      </c>
+      <c r="BA215">
+        <v>1.11</v>
+      </c>
+      <c r="BB215">
+        <v>1.29</v>
+      </c>
+      <c r="BC215">
+        <v>1.5</v>
+      </c>
+      <c r="BD215">
+        <v>1.85</v>
+      </c>
+      <c r="BE215">
+        <v>2.43</v>
+      </c>
+      <c r="BF215">
+        <v>3</v>
+      </c>
+      <c r="BG215">
+        <v>0</v>
+      </c>
+      <c r="BH215">
+        <v>0</v>
+      </c>
+      <c r="BI215">
+        <v>0</v>
+      </c>
+      <c r="BJ215">
+        <v>3</v>
+      </c>
+      <c r="BK215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2812431</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44997.52083333334</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>80</v>
+      </c>
+      <c r="H216" t="s">
+        <v>74</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>85</v>
+      </c>
+      <c r="P216" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q216">
+        <v>11</v>
+      </c>
+      <c r="R216">
+        <v>3</v>
+      </c>
+      <c r="S216">
+        <v>14</v>
+      </c>
+      <c r="T216">
+        <v>3.25</v>
+      </c>
+      <c r="U216">
+        <v>2</v>
+      </c>
+      <c r="V216">
+        <v>3.2</v>
+      </c>
+      <c r="W216">
+        <v>1.44</v>
+      </c>
+      <c r="X216">
+        <v>2.55</v>
+      </c>
+      <c r="Y216">
+        <v>3</v>
+      </c>
+      <c r="Z216">
+        <v>1.33</v>
+      </c>
+      <c r="AA216">
+        <v>8.25</v>
+      </c>
+      <c r="AB216">
+        <v>1.06</v>
+      </c>
+      <c r="AC216">
+        <v>2.49</v>
+      </c>
+      <c r="AD216">
+        <v>3.2</v>
+      </c>
+      <c r="AE216">
+        <v>2.46</v>
+      </c>
+      <c r="AF216">
+        <v>1.07</v>
+      </c>
+      <c r="AG216">
+        <v>7.75</v>
+      </c>
+      <c r="AH216">
+        <v>1.36</v>
+      </c>
+      <c r="AI216">
+        <v>2.9</v>
+      </c>
+      <c r="AJ216">
+        <v>2.18</v>
+      </c>
+      <c r="AK216">
+        <v>1.64</v>
+      </c>
+      <c r="AL216">
+        <v>1.85</v>
+      </c>
+      <c r="AM216">
+        <v>1.83</v>
+      </c>
+      <c r="AN216">
+        <v>1.47</v>
+      </c>
+      <c r="AO216">
+        <v>1.33</v>
+      </c>
+      <c r="AP216">
+        <v>1.46</v>
+      </c>
+      <c r="AQ216">
+        <v>0.55</v>
+      </c>
+      <c r="AR216">
+        <v>1.18</v>
+      </c>
+      <c r="AS216">
+        <v>0.5</v>
+      </c>
+      <c r="AT216">
+        <v>1.33</v>
+      </c>
+      <c r="AU216">
+        <v>1.57</v>
+      </c>
+      <c r="AV216">
+        <v>1.26</v>
+      </c>
+      <c r="AW216">
+        <v>2.83</v>
+      </c>
+      <c r="AX216">
+        <v>1.76</v>
+      </c>
+      <c r="AY216">
+        <v>5.75</v>
+      </c>
+      <c r="AZ216">
+        <v>2.3</v>
+      </c>
+      <c r="BA216">
+        <v>1.2</v>
+      </c>
+      <c r="BB216">
+        <v>1.39</v>
+      </c>
+      <c r="BC216">
+        <v>1.75</v>
+      </c>
+      <c r="BD216">
+        <v>2.14</v>
+      </c>
+      <c r="BE216">
+        <v>2.88</v>
+      </c>
+      <c r="BF216">
+        <v>3</v>
+      </c>
+      <c r="BG216">
+        <v>5</v>
+      </c>
+      <c r="BH216">
+        <v>6</v>
+      </c>
+      <c r="BI216">
+        <v>3</v>
+      </c>
+      <c r="BJ216">
+        <v>9</v>
+      </c>
+      <c r="BK216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2812433</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44997.52083333334</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>82</v>
+      </c>
+      <c r="H217" t="s">
+        <v>77</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>214</v>
+      </c>
+      <c r="P217" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q217">
+        <v>4</v>
+      </c>
+      <c r="R217">
+        <v>8</v>
+      </c>
+      <c r="S217">
+        <v>12</v>
+      </c>
+      <c r="T217">
+        <v>3.4</v>
+      </c>
+      <c r="U217">
+        <v>2.05</v>
+      </c>
+      <c r="V217">
+        <v>2.9</v>
+      </c>
+      <c r="W217">
+        <v>1.4</v>
+      </c>
+      <c r="X217">
+        <v>2.7</v>
+      </c>
+      <c r="Y217">
+        <v>2.87</v>
+      </c>
+      <c r="Z217">
+        <v>1.36</v>
+      </c>
+      <c r="AA217">
+        <v>7.5</v>
+      </c>
+      <c r="AB217">
+        <v>1.07</v>
+      </c>
+      <c r="AC217">
+        <v>2.69</v>
+      </c>
+      <c r="AD217">
+        <v>3.3</v>
+      </c>
+      <c r="AE217">
+        <v>2.25</v>
+      </c>
+      <c r="AF217">
+        <v>1.06</v>
+      </c>
+      <c r="AG217">
+        <v>8.75</v>
+      </c>
+      <c r="AH217">
+        <v>1.32</v>
+      </c>
+      <c r="AI217">
+        <v>3.1</v>
+      </c>
+      <c r="AJ217">
+        <v>2.02</v>
+      </c>
+      <c r="AK217">
+        <v>1.78</v>
+      </c>
+      <c r="AL217">
+        <v>1.78</v>
+      </c>
+      <c r="AM217">
+        <v>1.9</v>
+      </c>
+      <c r="AN217">
+        <v>1.55</v>
+      </c>
+      <c r="AO217">
+        <v>1.3</v>
+      </c>
+      <c r="AP217">
+        <v>1.4</v>
+      </c>
+      <c r="AQ217">
+        <v>1.36</v>
+      </c>
+      <c r="AR217">
+        <v>1.64</v>
+      </c>
+      <c r="AS217">
+        <v>1.33</v>
+      </c>
+      <c r="AT217">
+        <v>1.58</v>
+      </c>
+      <c r="AU217">
+        <v>1.54</v>
+      </c>
+      <c r="AV217">
+        <v>1.36</v>
+      </c>
+      <c r="AW217">
+        <v>2.9</v>
+      </c>
+      <c r="AX217">
+        <v>2.05</v>
+      </c>
+      <c r="AY217">
+        <v>5.5</v>
+      </c>
+      <c r="AZ217">
+        <v>2</v>
+      </c>
+      <c r="BA217">
+        <v>1.1</v>
+      </c>
+      <c r="BB217">
+        <v>1.22</v>
+      </c>
+      <c r="BC217">
+        <v>1.42</v>
+      </c>
+      <c r="BD217">
+        <v>1.78</v>
+      </c>
+      <c r="BE217">
+        <v>2.16</v>
+      </c>
+      <c r="BF217">
+        <v>2</v>
+      </c>
+      <c r="BG217">
+        <v>6</v>
+      </c>
+      <c r="BH217">
+        <v>4</v>
+      </c>
+      <c r="BI217">
+        <v>6</v>
+      </c>
+      <c r="BJ217">
+        <v>6</v>
+      </c>
+      <c r="BK217">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -42280,13 +42280,13 @@
         <v>85</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R215">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S215">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T215">
         <v>3.2</v>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT4" t="n">
         <v>1.33</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>1.58</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT14" t="n">
         <v>1.17</v>
@@ -3542,7 +3542,7 @@
         <v>1.83</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2.83</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU23" t="n">
         <v>1.21</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>1.17</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT26" t="n">
         <v>0.82</v>
@@ -6790,7 +6790,7 @@
         <v>0.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU31" t="n">
         <v>1.24</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT35" t="n">
         <v>1.38</v>
@@ -7805,7 +7805,7 @@
         <v>1.58</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU36" t="n">
         <v>2.17</v>
@@ -8211,7 +8211,7 @@
         <v>1.83</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -9023,7 +9023,7 @@
         <v>1.09</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU42" t="n">
         <v>2.15</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
         <v>0.82</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT45" t="n">
         <v>1.42</v>
@@ -11459,7 +11459,7 @@
         <v>0.83</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT55" t="n">
         <v>1.42</v>
@@ -12271,7 +12271,7 @@
         <v>1.09</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU58" t="n">
         <v>1.97</v>
@@ -12474,7 +12474,7 @@
         <v>1.18</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU59" t="n">
         <v>1.88</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU62" t="n">
         <v>1.84</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT63" t="n">
         <v>1.17</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT64" t="n">
         <v>0.92</v>
@@ -15516,7 +15516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT74" t="n">
         <v>0.82</v>
@@ -16125,10 +16125,10 @@
         <v>2.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU77" t="n">
         <v>1.94</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT80" t="n">
         <v>1.83</v>
@@ -17143,7 +17143,7 @@
         <v>0.92</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU82" t="n">
         <v>1.24</v>
@@ -19373,7 +19373,7 @@
         <v>1.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT93" t="n">
         <v>1.46</v>
@@ -19579,7 +19579,7 @@
         <v>1.42</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU94" t="n">
         <v>1.96</v>
@@ -20391,7 +20391,7 @@
         <v>1.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU98" t="n">
         <v>1.97</v>
@@ -20591,7 +20591,7 @@
         <v>1.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT99" t="n">
         <v>1.83</v>
@@ -21406,7 +21406,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU103" t="n">
         <v>1.43</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
         <v>1.17</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT110" t="n">
         <v>0.92</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT113" t="n">
         <v>1.38</v>
@@ -23639,7 +23639,7 @@
         <v>1.83</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -24248,7 +24248,7 @@
         <v>1.33</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU117" t="n">
         <v>1.93</v>
@@ -24451,7 +24451,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU118" t="n">
         <v>1.82</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
         <v>1.33</v>
@@ -25463,7 +25463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT123" t="n">
         <v>0.83</v>
@@ -25872,7 +25872,7 @@
         <v>0.83</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26481,7 +26481,7 @@
         <v>1.33</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU128" t="n">
         <v>1.38</v>
@@ -27696,10 +27696,10 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU134" t="n">
         <v>1.51</v>
@@ -28511,7 +28511,7 @@
         <v>1.09</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU138" t="n">
         <v>1.82</v>
@@ -29117,7 +29117,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT141" t="n">
         <v>1.42</v>
@@ -29320,7 +29320,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT142" t="n">
         <v>1.58</v>
@@ -30744,7 +30744,7 @@
         <v>1.31</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU149" t="n">
         <v>1.9</v>
@@ -30947,7 +30947,7 @@
         <v>0.92</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU150" t="n">
         <v>1.44</v>
@@ -31553,7 +31553,7 @@
         <v>1.88</v>
       </c>
       <c r="AS153" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT153" t="n">
         <v>1.46</v>
@@ -32571,7 +32571,7 @@
         <v>1.25</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU158" t="n">
         <v>1.54</v>
@@ -32974,7 +32974,7 @@
         <v>1.67</v>
       </c>
       <c r="AS160" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT160" t="n">
         <v>1.69</v>
@@ -33383,7 +33383,7 @@
         <v>0.5</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU162" t="n">
         <v>1.68</v>
@@ -34598,10 +34598,10 @@
         <v>1.25</v>
       </c>
       <c r="AS168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT168" t="n">
         <v>1.17</v>
-      </c>
-      <c r="AT168" t="n">
-        <v>1.27</v>
       </c>
       <c r="AU168" t="n">
         <v>1.71</v>
@@ -35410,7 +35410,7 @@
         <v>0.63</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT172" t="n">
         <v>0.82</v>
@@ -35616,7 +35616,7 @@
         <v>1.31</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU173" t="n">
         <v>1.46</v>
@@ -36019,7 +36019,7 @@
         <v>1</v>
       </c>
       <c r="AS175" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT175" t="n">
         <v>0.83</v>
@@ -36428,7 +36428,7 @@
         <v>1.25</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU177" t="n">
         <v>1.54</v>
@@ -38049,7 +38049,7 @@
         <v>1.6</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT185" t="n">
         <v>1.83</v>
@@ -38455,7 +38455,7 @@
         <v>1.1</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT187" t="n">
         <v>1.17</v>
@@ -39067,7 +39067,7 @@
         <v>1.42</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU190" t="n">
         <v>1.79</v>
@@ -39879,7 +39879,7 @@
         <v>1.58</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU194" t="n">
         <v>1.67</v>
@@ -40891,7 +40891,7 @@
         <v>1.2</v>
       </c>
       <c r="AS199" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT199" t="n">
         <v>1.33</v>
@@ -41503,7 +41503,7 @@
         <v>2.83</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU202" t="n">
         <v>1.5</v>
@@ -41706,7 +41706,7 @@
         <v>1.33</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU203" t="n">
         <v>1.66</v>
@@ -42312,7 +42312,7 @@
         <v>0.9</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT206" t="n">
         <v>0.82</v>
@@ -42515,7 +42515,7 @@
         <v>1.27</v>
       </c>
       <c r="AS207" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT207" t="n">
         <v>1.42</v>
@@ -44600,6 +44600,615 @@
       </c>
       <c r="BK217" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2812441</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45003.33333333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>6</v>
+      </c>
+      <c r="R218" t="n">
+        <v>9</v>
+      </c>
+      <c r="S218" t="n">
+        <v>15</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V218" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2812442</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>25</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>CD Feirense</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>3</v>
+      </c>
+      <c r="R219" t="n">
+        <v>5</v>
+      </c>
+      <c r="S219" t="n">
+        <v>8</v>
+      </c>
+      <c r="T219" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V219" t="n">
+        <v>4</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2812447</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45003.52083333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>25</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>CD Nacional</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['35', '77']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>5</v>
+      </c>
+      <c r="R220" t="n">
+        <v>9</v>
+      </c>
+      <c r="S220" t="n">
+        <v>14</v>
+      </c>
+      <c r="T220" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.38</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>1.08</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>1.31</v>
@@ -1715,7 +1715,7 @@
         <v>1.54</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT8" t="n">
         <v>1.77</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>1.08</v>
@@ -2730,7 +2730,7 @@
         <v>1.23</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.31</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.08</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT16" t="n">
         <v>0.85</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT18" t="n">
         <v>1.46</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT19" t="n">
         <v>0.77</v>
@@ -4557,7 +4557,7 @@
         <v>1.54</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU20" t="n">
         <v>1.67</v>
@@ -4963,7 +4963,7 @@
         <v>2.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU23" t="n">
         <v>1.21</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>1.77</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
         <v>1.31</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU29" t="n">
         <v>1.76</v>
@@ -6587,7 +6587,7 @@
         <v>1.92</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU30" t="n">
         <v>0.91</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT31" t="n">
         <v>1.92</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT32" t="n">
         <v>1.46</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU33" t="n">
         <v>1.41</v>
@@ -7399,7 +7399,7 @@
         <v>1.31</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU34" t="n">
         <v>1.65</v>
@@ -7602,7 +7602,7 @@
         <v>2.08</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.56</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT36" t="n">
         <v>0.77</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8211,7 +8211,7 @@
         <v>1.92</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT40" t="n">
         <v>0.85</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
         <v>0.77</v>
@@ -9835,7 +9835,7 @@
         <v>1.23</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU46" t="n">
         <v>2.43</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT47" t="n">
         <v>1.46</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU48" t="n">
         <v>1.24</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.59</v>
@@ -10644,10 +10644,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU50" t="n">
         <v>1.13</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU51" t="n">
         <v>1.56</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -11256,7 +11256,7 @@
         <v>1.31</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU53" t="n">
         <v>1.55</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
         <v>1.92</v>
@@ -11662,7 +11662,7 @@
         <v>2.08</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>1.92</v>
@@ -12474,7 +12474,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU59" t="n">
         <v>1.88</v>
@@ -13689,10 +13689,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -13892,10 +13892,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.4</v>
@@ -14095,10 +14095,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU67" t="n">
         <v>1.81</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT68" t="n">
         <v>1.46</v>
@@ -14504,7 +14504,7 @@
         <v>1.31</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU69" t="n">
         <v>1.34</v>
@@ -14704,10 +14704,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU70" t="n">
         <v>1.32</v>
@@ -14907,10 +14907,10 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU71" t="n">
         <v>1.38</v>
@@ -15110,10 +15110,10 @@
         <v>2.33</v>
       </c>
       <c r="AS72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT72" t="n">
         <v>1.31</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.85</v>
@@ -15313,10 +15313,10 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU73" t="n">
         <v>1.77</v>
@@ -17140,10 +17140,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU82" t="n">
         <v>1.24</v>
@@ -17343,10 +17343,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU83" t="n">
         <v>1.69</v>
@@ -17546,10 +17546,10 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU84" t="n">
         <v>1.64</v>
@@ -17749,10 +17749,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU85" t="n">
         <v>2</v>
@@ -17952,10 +17952,10 @@
         <v>1.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -18155,10 +18155,10 @@
         <v>2.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU87" t="n">
         <v>1.49</v>
@@ -18358,10 +18358,10 @@
         <v>1.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU88" t="n">
         <v>1.7</v>
@@ -18561,10 +18561,10 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU89" t="n">
         <v>1.51</v>
@@ -18764,10 +18764,10 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU90" t="n">
         <v>1.34</v>
@@ -19173,7 +19173,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT97" t="n">
         <v>1.08</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT100" t="n">
         <v>0.75</v>
@@ -20997,10 +20997,10 @@
         <v>2.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU101" t="n">
         <v>1.54</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU102" t="n">
         <v>1.59</v>
@@ -21403,10 +21403,10 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU103" t="n">
         <v>1.43</v>
@@ -21606,10 +21606,10 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT104" t="n">
         <v>1.08</v>
-      </c>
-      <c r="AT104" t="n">
-        <v>1.17</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -21809,10 +21809,10 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU105" t="n">
         <v>1.89</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU106" t="n">
         <v>2.03</v>
@@ -22215,10 +22215,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU107" t="n">
         <v>1.63</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU108" t="n">
         <v>1.44</v>
@@ -23030,7 +23030,7 @@
         <v>2.38</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU111" t="n">
         <v>1.85</v>
@@ -23436,7 +23436,7 @@
         <v>1.08</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.74</v>
@@ -23839,7 +23839,7 @@
         <v>1.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT115" t="n">
         <v>1.31</v>
@@ -24042,7 +24042,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT116" t="n">
         <v>1.08</v>
@@ -24651,7 +24651,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU120" t="n">
         <v>2.07</v>
@@ -25060,7 +25060,7 @@
         <v>1.33</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU121" t="n">
         <v>1.75</v>
@@ -25260,7 +25260,7 @@
         <v>1.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT122" t="n">
         <v>1.08</v>
@@ -25466,7 +25466,7 @@
         <v>1.08</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU123" t="n">
         <v>1.66</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT124" t="n">
         <v>0.75</v>
@@ -25869,10 +25869,10 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26072,10 +26072,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU126" t="n">
         <v>1.85</v>
@@ -26275,10 +26275,10 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU127" t="n">
         <v>1.59</v>
@@ -26478,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT128" t="n">
         <v>1.92</v>
@@ -26684,7 +26684,7 @@
         <v>1.92</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.82</v>
@@ -26887,7 +26887,7 @@
         <v>2.38</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU130" t="n">
         <v>1.86</v>
@@ -27290,7 +27290,7 @@
         <v>1.14</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT132" t="n">
         <v>1.31</v>
@@ -27493,7 +27493,7 @@
         <v>1.57</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT133" t="n">
         <v>1.77</v>
@@ -27902,7 +27902,7 @@
         <v>1.54</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU135" t="n">
         <v>1.85</v>
@@ -28305,7 +28305,7 @@
         <v>1.14</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -28508,10 +28508,10 @@
         <v>1.29</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU138" t="n">
         <v>1.82</v>
@@ -28711,7 +28711,7 @@
         <v>0.71</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT139" t="n">
         <v>0.75</v>
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT140" t="n">
         <v>1.08</v>
@@ -29120,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU141" t="n">
         <v>2.01</v>
@@ -29323,7 +29323,7 @@
         <v>1.08</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU142" t="n">
         <v>1.68</v>
@@ -29526,7 +29526,7 @@
         <v>2.38</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU143" t="n">
         <v>1.9</v>
@@ -29729,7 +29729,7 @@
         <v>1.33</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU144" t="n">
         <v>1.81</v>
@@ -29929,7 +29929,7 @@
         <v>1.38</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT145" t="n">
         <v>1.31</v>
@@ -30135,7 +30135,7 @@
         <v>1.92</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU146" t="n">
         <v>1.85</v>
@@ -30335,7 +30335,7 @@
         <v>1.5</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT147" t="n">
         <v>1.77</v>
@@ -30538,7 +30538,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT148" t="n">
         <v>0.85</v>
@@ -30741,7 +30741,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT149" t="n">
         <v>0.77</v>
@@ -30944,7 +30944,7 @@
         <v>2.13</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT150" t="n">
         <v>1.92</v>
@@ -31150,7 +31150,7 @@
         <v>1.23</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU151" t="n">
         <v>1.82</v>
@@ -31353,7 +31353,7 @@
         <v>1.54</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU152" t="n">
         <v>1.86</v>
@@ -31759,7 +31759,7 @@
         <v>1.31</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU154" t="n">
         <v>1.41</v>
@@ -31962,7 +31962,7 @@
         <v>1.31</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU155" t="n">
         <v>1.47</v>
@@ -32162,10 +32162,10 @@
         <v>1.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -32368,7 +32368,7 @@
         <v>1.23</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32568,7 +32568,7 @@
         <v>2</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT158" t="n">
         <v>1.92</v>
@@ -32771,7 +32771,7 @@
         <v>0.78</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT159" t="n">
         <v>0.85</v>
@@ -32977,7 +32977,7 @@
         <v>2.08</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU160" t="n">
         <v>1.57</v>
@@ -33177,7 +33177,7 @@
         <v>1.67</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT161" t="n">
         <v>1.46</v>
@@ -33380,7 +33380,7 @@
         <v>0.67</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT162" t="n">
         <v>0.77</v>
@@ -33586,7 +33586,7 @@
         <v>1.92</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU163" t="n">
         <v>1.92</v>
@@ -33789,7 +33789,7 @@
         <v>2.38</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU164" t="n">
         <v>1.92</v>
@@ -33989,7 +33989,7 @@
         <v>1.67</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT165" t="n">
         <v>1.77</v>
@@ -34192,10 +34192,10 @@
         <v>1.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU166" t="n">
         <v>1.62</v>
@@ -34601,7 +34601,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU168" t="n">
         <v>1.71</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT169" t="n">
         <v>1</v>
@@ -35004,7 +35004,7 @@
         <v>0.89</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT170" t="n">
         <v>1.08</v>
@@ -35210,7 +35210,7 @@
         <v>1.54</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU171" t="n">
         <v>1.83</v>
@@ -35816,10 +35816,10 @@
         <v>1.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU174" t="n">
         <v>1.5</v>
@@ -36022,7 +36022,7 @@
         <v>2.08</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU175" t="n">
         <v>1.65</v>
@@ -36222,10 +36222,10 @@
         <v>1.33</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU176" t="n">
         <v>1.47</v>
@@ -36425,7 +36425,7 @@
         <v>0.7</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT177" t="n">
         <v>0.77</v>
@@ -36628,10 +36628,10 @@
         <v>1.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU178" t="n">
         <v>1.75</v>
@@ -36834,7 +36834,7 @@
         <v>1.92</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU179" t="n">
         <v>2.03</v>
@@ -37034,10 +37034,10 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU180" t="n">
         <v>1.86</v>
@@ -37237,7 +37237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT181" t="n">
         <v>1.46</v>
@@ -37443,7 +37443,7 @@
         <v>1.23</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU182" t="n">
         <v>1.68</v>
@@ -37643,7 +37643,7 @@
         <v>0.89</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT183" t="n">
         <v>0.75</v>
@@ -37846,7 +37846,7 @@
         <v>1</v>
       </c>
       <c r="AS184" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT184" t="n">
         <v>0.85</v>
@@ -38255,7 +38255,7 @@
         <v>1.33</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU186" t="n">
         <v>1.9</v>
@@ -38658,7 +38658,7 @@
         <v>1.4</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT188" t="n">
         <v>1.31</v>
@@ -39067,7 +39067,7 @@
         <v>1.54</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU190" t="n">
         <v>1.79</v>
@@ -39267,7 +39267,7 @@
         <v>1.45</v>
       </c>
       <c r="AS191" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT191" t="n">
         <v>1.46</v>
@@ -39473,7 +39473,7 @@
         <v>1.31</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU192" t="n">
         <v>1.44</v>
@@ -39673,10 +39673,10 @@
         <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU193" t="n">
         <v>1.55</v>
@@ -39876,7 +39876,7 @@
         <v>1.91</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT194" t="n">
         <v>1.92</v>
@@ -40079,10 +40079,10 @@
         <v>1.36</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU195" t="n">
         <v>1.47</v>
@@ -40282,10 +40282,10 @@
         <v>1.64</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU196" t="n">
         <v>1.88</v>
@@ -40485,10 +40485,10 @@
         <v>1</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU197" t="n">
         <v>1.6</v>
@@ -40688,10 +40688,10 @@
         <v>1.3</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU198" t="n">
         <v>1.44</v>
@@ -40894,7 +40894,7 @@
         <v>2.08</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU199" t="n">
         <v>1.66</v>
@@ -41297,7 +41297,7 @@
         <v>0.91</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT201" t="n">
         <v>0.85</v>
@@ -41500,7 +41500,7 @@
         <v>0.91</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT202" t="n">
         <v>0.77</v>
@@ -41706,7 +41706,7 @@
         <v>1.23</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU203" t="n">
         <v>1.66</v>
@@ -42112,7 +42112,7 @@
         <v>1.92</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU205" t="n">
         <v>1.98</v>
@@ -42921,7 +42921,7 @@
         <v>1.58</v>
       </c>
       <c r="AS209" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AT209" t="n">
         <v>1.46</v>
@@ -43124,10 +43124,10 @@
         <v>1.18</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU210" t="n">
         <v>1.47</v>
@@ -43327,10 +43327,10 @@
         <v>1.18</v>
       </c>
       <c r="AS211" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU211" t="n">
         <v>1.58</v>
@@ -43533,7 +43533,7 @@
         <v>1.31</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU212" t="n">
         <v>1.43</v>
@@ -43733,10 +43733,10 @@
         <v>1.58</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU213" t="n">
         <v>1.66</v>
@@ -43936,10 +43936,10 @@
         <v>0.91</v>
       </c>
       <c r="AS214" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU214" t="n">
         <v>1.39</v>
@@ -44139,10 +44139,10 @@
         <v>1.55</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU215" t="n">
         <v>1.89</v>
@@ -44342,10 +44342,10 @@
         <v>1.18</v>
       </c>
       <c r="AS216" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU216" t="n">
         <v>1.57</v>
@@ -44545,10 +44545,10 @@
         <v>1.64</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU217" t="n">
         <v>1.54</v>
@@ -44751,7 +44751,7 @@
         <v>2.08</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU218" t="n">
         <v>1.63</v>
@@ -45966,7 +45966,7 @@
         <v>1.83</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT224" t="n">
         <v>1.77</v>
@@ -46427,6 +46427,1833 @@
       </c>
       <c r="BK226" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2812455</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45017.29166666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>26</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>3</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['9', '60']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>3</v>
+      </c>
+      <c r="R227" t="n">
+        <v>9</v>
+      </c>
+      <c r="S227" t="n">
+        <v>12</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2812453</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45017.36458333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>CD Mafra</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Benfica II</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>2</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>4</v>
+      </c>
+      <c r="R228" t="n">
+        <v>4</v>
+      </c>
+      <c r="S228" t="n">
+        <v>8</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V228" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X228" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2812456</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>26</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>CD Feirense</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>11</v>
+      </c>
+      <c r="R229" t="n">
+        <v>5</v>
+      </c>
+      <c r="S229" t="n">
+        <v>16</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V229" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2812450</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45017.47916666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>CD Tondela</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>6</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2</v>
+      </c>
+      <c r="S230" t="n">
+        <v>8</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2812448</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45018.29166666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>26</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Leixões</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>3</v>
+      </c>
+      <c r="K231" t="n">
+        <v>4</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>3</v>
+      </c>
+      <c r="N231" t="n">
+        <v>5</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['26', '74']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['9', '13', '19']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>6</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
+      <c r="S231" t="n">
+        <v>6</v>
+      </c>
+      <c r="T231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2812452</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45018.29166666666</v>
+      </c>
+      <c r="F232" t="n">
+        <v>26</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Belenenses</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="n">
+        <v>2</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>3</v>
+      </c>
+      <c r="N232" t="n">
+        <v>4</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['35', '54', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>3</v>
+      </c>
+      <c r="R232" t="n">
+        <v>3</v>
+      </c>
+      <c r="S232" t="n">
+        <v>6</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2812449</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F233" t="n">
+        <v>26</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Sporting Covilhã</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>2</v>
+      </c>
+      <c r="K233" t="n">
+        <v>2</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['16', '35']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>7</v>
+      </c>
+      <c r="R233" t="n">
+        <v>4</v>
+      </c>
+      <c r="S233" t="n">
+        <v>11</v>
+      </c>
+      <c r="T233" t="n">
+        <v>4</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V233" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2812454</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45018.47916666666</v>
+      </c>
+      <c r="F234" t="n">
+        <v>26</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Vilafranquense</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>CD Nacional</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>4</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>4</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['46', '49', '80', '84']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>3</v>
+      </c>
+      <c r="R234" t="n">
+        <v>5</v>
+      </c>
+      <c r="S234" t="n">
+        <v>8</v>
+      </c>
+      <c r="T234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V234" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2812451</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45019.58333333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>26</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>FC Penafiel</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Porto II</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>2</v>
+      </c>
+      <c r="K235" t="n">
+        <v>2</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>2</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['1', '34']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>10</v>
+      </c>
+      <c r="R235" t="n">
+        <v>3</v>
+      </c>
+      <c r="S235" t="n">
+        <v>13</v>
+      </c>
+      <c r="T235" t="n">
+        <v>3</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK235"/>
+  <dimension ref="A1:BK244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT2" t="n">
         <v>1.31</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>1.31</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT6" t="n">
         <v>1.54</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT7" t="n">
         <v>1.69</v>
@@ -2121,7 +2121,7 @@
         <v>2.69</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT11" t="n">
         <v>0.85</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT13" t="n">
         <v>1.08</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1.08</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.38</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.29</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.23</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT20" t="n">
         <v>1.69</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU21" t="n">
         <v>2.13</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT22" t="n">
         <v>1.54</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU24" t="n">
         <v>2.46</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU25" t="n">
         <v>1.59</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>2.41</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU28" t="n">
         <v>2.35</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>1.31</v>
@@ -6790,7 +6790,7 @@
         <v>0.46</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU31" t="n">
         <v>1.24</v>
@@ -6993,7 +6993,7 @@
         <v>0.86</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT34" t="n">
         <v>0.85</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>1.5</v>
@@ -7805,7 +7805,7 @@
         <v>1.54</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU36" t="n">
         <v>2.17</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
         <v>1.31</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU39" t="n">
         <v>1.88</v>
@@ -8617,7 +8617,7 @@
         <v>2.69</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU41" t="n">
         <v>2.12</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU42" t="n">
         <v>2.15</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9426,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU44" t="n">
         <v>1.82</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU45" t="n">
         <v>1.91</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT46" t="n">
         <v>1.69</v>
@@ -10038,7 +10038,7 @@
         <v>1.54</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU47" t="n">
         <v>1.61</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT53" t="n">
         <v>1.31</v>
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>1.54</v>
@@ -11862,10 +11862,10 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU56" t="n">
         <v>2.04</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU58" t="n">
         <v>1.97</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT59" t="n">
         <v>1.31</v>
@@ -12674,10 +12674,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU60" t="n">
         <v>1.88</v>
@@ -12877,10 +12877,10 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU61" t="n">
         <v>1.71</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU62" t="n">
         <v>1.84</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU63" t="n">
         <v>1.48</v>
@@ -13486,10 +13486,10 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.87</v>
@@ -14301,7 +14301,7 @@
         <v>1.38</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU68" t="n">
         <v>1.64</v>
@@ -14501,7 +14501,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT69" t="n">
         <v>1.69</v>
@@ -15516,10 +15516,10 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU74" t="n">
         <v>1.54</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT75" t="n">
         <v>1</v>
@@ -15922,10 +15922,10 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU76" t="n">
         <v>1.38</v>
@@ -16125,10 +16125,10 @@
         <v>2.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU77" t="n">
         <v>1.94</v>
@@ -16328,10 +16328,10 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU78" t="n">
         <v>1.99</v>
@@ -16531,10 +16531,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU79" t="n">
         <v>1.89</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU80" t="n">
         <v>1.93</v>
@@ -16937,10 +16937,10 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.93</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT92" t="n">
         <v>1.64</v>
@@ -19373,10 +19373,10 @@
         <v>1.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU93" t="n">
         <v>1.77</v>
@@ -19576,10 +19576,10 @@
         <v>2.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU94" t="n">
         <v>1.96</v>
@@ -19779,10 +19779,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -19982,10 +19982,10 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.79</v>
@@ -20188,7 +20188,7 @@
         <v>0.86</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU97" t="n">
         <v>1.34</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU98" t="n">
         <v>1.97</v>
@@ -20591,10 +20591,10 @@
         <v>1.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20797,7 +20797,7 @@
         <v>1.29</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU100" t="n">
         <v>1.82</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT106" t="n">
         <v>1.08</v>
@@ -22621,10 +22621,10 @@
         <v>1.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU109" t="n">
         <v>1.37</v>
@@ -22824,10 +22824,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.49</v>
@@ -23027,7 +23027,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT111" t="n">
         <v>1.64</v>
@@ -23230,10 +23230,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU112" t="n">
         <v>1.88</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT113" t="n">
         <v>1.5</v>
@@ -23636,10 +23636,10 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -23842,7 +23842,7 @@
         <v>0.86</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU115" t="n">
         <v>1.39</v>
@@ -24045,7 +24045,7 @@
         <v>1.29</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU116" t="n">
         <v>1.86</v>
@@ -24245,10 +24245,10 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU117" t="n">
         <v>1.93</v>
@@ -24448,10 +24448,10 @@
         <v>0.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU118" t="n">
         <v>1.82</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT120" t="n">
         <v>1.31</v>
@@ -25057,7 +25057,7 @@
         <v>2.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT121" t="n">
         <v>1.08</v>
@@ -25263,7 +25263,7 @@
         <v>0.46</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU122" t="n">
         <v>1.74</v>
@@ -25463,7 +25463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT123" t="n">
         <v>0.85</v>
@@ -25669,7 +25669,7 @@
         <v>1.54</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU124" t="n">
         <v>1.88</v>
@@ -26481,7 +26481,7 @@
         <v>1.23</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU128" t="n">
         <v>1.38</v>
@@ -26681,7 +26681,7 @@
         <v>1.57</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
         <v>1.5</v>
@@ -26884,7 +26884,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT130" t="n">
         <v>1.08</v>
@@ -27087,10 +27087,10 @@
         <v>0.43</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.4</v>
@@ -27293,7 +27293,7 @@
         <v>1.29</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU132" t="n">
         <v>1.88</v>
@@ -27496,7 +27496,7 @@
         <v>0.86</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU133" t="n">
         <v>1.42</v>
@@ -27696,10 +27696,10 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU134" t="n">
         <v>1.51</v>
@@ -27899,7 +27899,7 @@
         <v>1.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT135" t="n">
         <v>1.64</v>
@@ -28102,10 +28102,10 @@
         <v>1.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU136" t="n">
         <v>1.86</v>
@@ -28714,7 +28714,7 @@
         <v>1</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU139" t="n">
         <v>1.48</v>
@@ -28917,7 +28917,7 @@
         <v>1.38</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU140" t="n">
         <v>1.53</v>
@@ -29117,7 +29117,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT141" t="n">
         <v>1.54</v>
@@ -29320,7 +29320,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT142" t="n">
         <v>1.69</v>
@@ -29523,7 +29523,7 @@
         <v>1.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT143" t="n">
         <v>0.85</v>
@@ -29726,7 +29726,7 @@
         <v>1.57</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT144" t="n">
         <v>1.31</v>
@@ -29932,7 +29932,7 @@
         <v>1.54</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU145" t="n">
         <v>1.75</v>
@@ -30132,7 +30132,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT146" t="n">
         <v>1.08</v>
@@ -30338,7 +30338,7 @@
         <v>0.46</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU147" t="n">
         <v>1.73</v>
@@ -30541,7 +30541,7 @@
         <v>1.23</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -30744,7 +30744,7 @@
         <v>1.29</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU149" t="n">
         <v>1.9</v>
@@ -30947,7 +30947,7 @@
         <v>0.86</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU150" t="n">
         <v>1.44</v>
@@ -31147,7 +31147,7 @@
         <v>1.86</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT151" t="n">
         <v>1.08</v>
@@ -31350,7 +31350,7 @@
         <v>1.38</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT152" t="n">
         <v>1.5</v>
@@ -31553,10 +31553,10 @@
         <v>1.88</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU153" t="n">
         <v>1.57</v>
@@ -31756,7 +31756,7 @@
         <v>1.88</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT154" t="n">
         <v>1.64</v>
@@ -31959,7 +31959,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT155" t="n">
         <v>1.08</v>
@@ -32365,7 +32365,7 @@
         <v>1.13</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT157" t="n">
         <v>1.08</v>
@@ -32571,7 +32571,7 @@
         <v>1.38</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU158" t="n">
         <v>1.54</v>
@@ -32774,7 +32774,7 @@
         <v>1.29</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU159" t="n">
         <v>1.81</v>
@@ -32974,7 +32974,7 @@
         <v>1.67</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT160" t="n">
         <v>1.64</v>
@@ -33180,7 +33180,7 @@
         <v>1.23</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU161" t="n">
         <v>1.46</v>
@@ -33383,7 +33383,7 @@
         <v>0.46</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU162" t="n">
         <v>1.68</v>
@@ -33583,7 +33583,7 @@
         <v>1.13</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT163" t="n">
         <v>0.85</v>
@@ -33786,7 +33786,7 @@
         <v>1.63</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT164" t="n">
         <v>1.69</v>
@@ -33992,7 +33992,7 @@
         <v>1.54</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU165" t="n">
         <v>1.72</v>
@@ -34395,10 +34395,10 @@
         <v>1.22</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU167" t="n">
         <v>1.94</v>
@@ -34598,7 +34598,7 @@
         <v>1.25</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT168" t="n">
         <v>1.31</v>
@@ -35007,7 +35007,7 @@
         <v>1</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU170" t="n">
         <v>1.49</v>
@@ -35207,7 +35207,7 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT171" t="n">
         <v>1.31</v>
@@ -35410,10 +35410,10 @@
         <v>0.63</v>
       </c>
       <c r="AS172" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU172" t="n">
         <v>2.02</v>
@@ -35613,10 +35613,10 @@
         <v>2.1</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU173" t="n">
         <v>1.46</v>
@@ -36019,7 +36019,7 @@
         <v>1</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT175" t="n">
         <v>0.85</v>
@@ -36428,7 +36428,7 @@
         <v>1.38</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU177" t="n">
         <v>1.54</v>
@@ -36831,7 +36831,7 @@
         <v>1.44</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT179" t="n">
         <v>1.08</v>
@@ -37240,7 +37240,7 @@
         <v>0.46</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU181" t="n">
         <v>1.65</v>
@@ -37440,7 +37440,7 @@
         <v>1.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT182" t="n">
         <v>1.54</v>
@@ -37646,7 +37646,7 @@
         <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU183" t="n">
         <v>1.75</v>
@@ -37849,7 +37849,7 @@
         <v>1</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU184" t="n">
         <v>1.52</v>
@@ -38049,10 +38049,10 @@
         <v>1.6</v>
       </c>
       <c r="AS185" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU185" t="n">
         <v>1.9</v>
@@ -38252,7 +38252,7 @@
         <v>1.56</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT186" t="n">
         <v>1.69</v>
@@ -38455,10 +38455,10 @@
         <v>1.1</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU187" t="n">
         <v>1.7</v>
@@ -38661,7 +38661,7 @@
         <v>2.69</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -38861,7 +38861,7 @@
         <v>0.89</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT189" t="n">
         <v>1</v>
@@ -39064,7 +39064,7 @@
         <v>1.11</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT190" t="n">
         <v>1.31</v>
@@ -39270,7 +39270,7 @@
         <v>1</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU191" t="n">
         <v>1.53</v>
@@ -39470,7 +39470,7 @@
         <v>1.4</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT192" t="n">
         <v>1.54</v>
@@ -39879,7 +39879,7 @@
         <v>1.54</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU194" t="n">
         <v>1.67</v>
@@ -40891,7 +40891,7 @@
         <v>1.2</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT199" t="n">
         <v>1.31</v>
@@ -41094,10 +41094,10 @@
         <v>1.73</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU200" t="n">
         <v>1.77</v>
@@ -41300,7 +41300,7 @@
         <v>1</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU201" t="n">
         <v>1.72</v>
@@ -41503,7 +41503,7 @@
         <v>2.69</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU202" t="n">
         <v>1.5</v>
@@ -41703,7 +41703,7 @@
         <v>1.3</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT203" t="n">
         <v>1.31</v>
@@ -41906,10 +41906,10 @@
         <v>1.27</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU204" t="n">
         <v>1.79</v>
@@ -42109,7 +42109,7 @@
         <v>1.7</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT205" t="n">
         <v>1.69</v>
@@ -42312,10 +42312,10 @@
         <v>0.9</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU206" t="n">
         <v>1.72</v>
@@ -42515,10 +42515,10 @@
         <v>1.27</v>
       </c>
       <c r="AS207" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU207" t="n">
         <v>1.91</v>
@@ -42718,7 +42718,7 @@
         <v>0.8</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT208" t="n">
         <v>1</v>
@@ -42924,7 +42924,7 @@
         <v>2.69</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU209" t="n">
         <v>1.48</v>
@@ -43530,7 +43530,7 @@
         <v>1.5</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT212" t="n">
         <v>1.5</v>
@@ -44748,7 +44748,7 @@
         <v>1.27</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT218" t="n">
         <v>1.31</v>
@@ -44951,10 +44951,10 @@
         <v>0.83</v>
       </c>
       <c r="AS219" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU219" t="n">
         <v>1.9</v>
@@ -45154,10 +45154,10 @@
         <v>1.83</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU220" t="n">
         <v>1.72</v>
@@ -45357,7 +45357,7 @@
         <v>0.82</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT221" t="n">
         <v>1</v>
@@ -45560,10 +45560,10 @@
         <v>0.92</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU222" t="n">
         <v>1.75</v>
@@ -45763,10 +45763,10 @@
         <v>0.82</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU223" t="n">
         <v>1.94</v>
@@ -45969,7 +45969,7 @@
         <v>1</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU224" t="n">
         <v>1.67</v>
@@ -46169,10 +46169,10 @@
         <v>1.42</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU225" t="n">
         <v>1.74</v>
@@ -46372,10 +46372,10 @@
         <v>1.17</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU226" t="n">
         <v>1.86</v>
@@ -48254,6 +48254,1833 @@
       </c>
       <c r="BK235" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2812460</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45023.29166666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>27</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>CD Nacional</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>3</v>
+      </c>
+      <c r="N236" t="n">
+        <v>3</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['22', '82', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>4</v>
+      </c>
+      <c r="R236" t="n">
+        <v>6</v>
+      </c>
+      <c r="S236" t="n">
+        <v>10</v>
+      </c>
+      <c r="T236" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U236" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V236" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2812458</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45023.41666666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>27</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>3</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>4</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['1', '63', '68']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>4</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2</v>
+      </c>
+      <c r="S237" t="n">
+        <v>6</v>
+      </c>
+      <c r="T237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2</v>
+      </c>
+      <c r="V237" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2812459</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45023.47916666666</v>
+      </c>
+      <c r="F238" t="n">
+        <v>27</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>CD Mafra</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="n">
+        <v>2</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+      <c r="M238" t="n">
+        <v>2</v>
+      </c>
+      <c r="N238" t="n">
+        <v>4</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['4', '90+8']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['10', '68']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>8</v>
+      </c>
+      <c r="R238" t="n">
+        <v>6</v>
+      </c>
+      <c r="S238" t="n">
+        <v>14</v>
+      </c>
+      <c r="T238" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2812461</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45024.29166666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>27</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Benfica II</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Belenenses</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>4</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2</v>
+      </c>
+      <c r="S239" t="n">
+        <v>6</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V239" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X239" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2812462</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45024.29166666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>27</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Vilafranquense</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>2</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>2</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>2</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['15', '26']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>6</v>
+      </c>
+      <c r="R240" t="n">
+        <v>9</v>
+      </c>
+      <c r="S240" t="n">
+        <v>15</v>
+      </c>
+      <c r="T240" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V240" t="n">
+        <v>4</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2812465</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>27</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>CD Tondela</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Leixões</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
+      </c>
+      <c r="M241" t="n">
+        <v>3</v>
+      </c>
+      <c r="N241" t="n">
+        <v>5</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['59', '90+2']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['37', '50', '70']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>5</v>
+      </c>
+      <c r="R241" t="n">
+        <v>4</v>
+      </c>
+      <c r="S241" t="n">
+        <v>9</v>
+      </c>
+      <c r="T241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2812457</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F242" t="n">
+        <v>27</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Porto II</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>2</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="n">
+        <v>3</v>
+      </c>
+      <c r="L242" t="n">
+        <v>4</v>
+      </c>
+      <c r="M242" t="n">
+        <v>2</v>
+      </c>
+      <c r="N242" t="n">
+        <v>6</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['16', '45+3', '78', '90+1']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['6', '65']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>4</v>
+      </c>
+      <c r="R242" t="n">
+        <v>4</v>
+      </c>
+      <c r="S242" t="n">
+        <v>8</v>
+      </c>
+      <c r="T242" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V242" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2812463</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F243" t="n">
+        <v>27</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Sporting Covilhã</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="n">
+        <v>3</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="n">
+        <v>4</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['34', '47', '90+2']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>2</v>
+      </c>
+      <c r="R243" t="n">
+        <v>3</v>
+      </c>
+      <c r="S243" t="n">
+        <v>5</v>
+      </c>
+      <c r="T243" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U243" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V243" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2812464</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>27</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>CD Feirense</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>FC Penafiel</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="n">
+        <v>3</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['21', '75']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>8</v>
+      </c>
+      <c r="R244" t="n">
+        <v>3</v>
+      </c>
+      <c r="S244" t="n">
+        <v>11</v>
+      </c>
+      <c r="T244" t="n">
+        <v>3</v>
+      </c>
+      <c r="U244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK244"/>
+  <dimension ref="A1:BK245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT36" t="n">
         <v>0.71</v>
@@ -8008,7 +8008,7 @@
         <v>1.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT47" t="n">
         <v>1.36</v>
@@ -11053,7 +11053,7 @@
         <v>1.23</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -13692,7 +13692,7 @@
         <v>0.46</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -14095,7 +14095,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT67" t="n">
         <v>0.85</v>
@@ -17952,7 +17952,7 @@
         <v>1.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT86" t="n">
         <v>1.08</v>
@@ -18158,7 +18158,7 @@
         <v>2.69</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU87" t="n">
         <v>1.49</v>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT105" t="n">
         <v>1.54</v>
@@ -25060,7 +25060,7 @@
         <v>1.46</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU121" t="n">
         <v>1.75</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT124" t="n">
         <v>0.6899999999999999</v>
@@ -29929,7 +29929,7 @@
         <v>1.38</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT145" t="n">
         <v>1.43</v>
@@ -31150,7 +31150,7 @@
         <v>1.14</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU151" t="n">
         <v>1.82</v>
@@ -31962,7 +31962,7 @@
         <v>1.43</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU155" t="n">
         <v>1.47</v>
@@ -33989,7 +33989,7 @@
         <v>1.67</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT165" t="n">
         <v>1.64</v>
@@ -36628,7 +36628,7 @@
         <v>1.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT178" t="n">
         <v>1.5</v>
@@ -36834,7 +36834,7 @@
         <v>2</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU179" t="n">
         <v>2.03</v>
@@ -39876,7 +39876,7 @@
         <v>1.91</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT194" t="n">
         <v>1.79</v>
@@ -40691,7 +40691,7 @@
         <v>0.86</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU198" t="n">
         <v>1.44</v>
@@ -43127,7 +43127,7 @@
         <v>1.38</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU210" t="n">
         <v>1.47</v>
@@ -43733,7 +43733,7 @@
         <v>1.58</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT213" t="n">
         <v>1.64</v>
@@ -46578,7 +46578,7 @@
         <v>1</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU227" t="n">
         <v>1.59</v>
@@ -47184,7 +47184,7 @@
         <v>1.33</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT230" t="n">
         <v>1.31</v>
@@ -50081,6 +50081,209 @@
       </c>
       <c r="BK244" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2812473</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45030.58333333334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>28</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>2</v>
+      </c>
+      <c r="N245" t="n">
+        <v>3</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['24', '67']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>6</v>
+      </c>
+      <c r="R245" t="n">
+        <v>6</v>
+      </c>
+      <c r="S245" t="n">
+        <v>12</v>
+      </c>
+      <c r="T245" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V245" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK245"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.43</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT5" t="n">
         <v>1.43</v>
@@ -1715,7 +1715,7 @@
         <v>1.43</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT7" t="n">
         <v>1.69</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT8" t="n">
         <v>1.64</v>
@@ -2324,7 +2324,7 @@
         <v>1.46</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT10" t="n">
         <v>1.21</v>
@@ -2730,7 +2730,7 @@
         <v>1.14</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.43</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT18" t="n">
         <v>1.36</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT19" t="n">
         <v>0.71</v>
@@ -4760,7 +4760,7 @@
         <v>1.14</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU21" t="n">
         <v>2.13</v>
@@ -4963,7 +4963,7 @@
         <v>2.43</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU23" t="n">
         <v>1.21</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT24" t="n">
         <v>1.64</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT25" t="n">
         <v>1.21</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT28" t="n">
         <v>1.43</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU30" t="n">
         <v>0.91</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT31" t="n">
         <v>1.79</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.41</v>
@@ -7399,7 +7399,7 @@
         <v>1.43</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU34" t="n">
         <v>1.65</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU35" t="n">
         <v>1.56</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT37" t="n">
         <v>1.21</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT42" t="n">
         <v>0.71</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>2.43</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU44" t="n">
         <v>1.82</v>
@@ -10241,7 +10241,7 @@
         <v>1.38</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU48" t="n">
         <v>1.24</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU49" t="n">
         <v>1.59</v>
@@ -10647,7 +10647,7 @@
         <v>0.86</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.13</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT51" t="n">
         <v>1.64</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT52" t="n">
         <v>1.21</v>
@@ -11256,7 +11256,7 @@
         <v>1.43</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU53" t="n">
         <v>1.55</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT54" t="n">
         <v>1.79</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT58" t="n">
         <v>1.79</v>
@@ -12474,7 +12474,7 @@
         <v>1.46</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU59" t="n">
         <v>1.88</v>
@@ -12677,7 +12677,7 @@
         <v>1.43</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU60" t="n">
         <v>1.88</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT65" t="n">
         <v>1.21</v>
@@ -13892,10 +13892,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU66" t="n">
         <v>1.4</v>
@@ -14098,7 +14098,7 @@
         <v>1.43</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU67" t="n">
         <v>1.81</v>
@@ -14707,7 +14707,7 @@
         <v>0.86</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.32</v>
@@ -14907,10 +14907,10 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.38</v>
@@ -15110,10 +15110,10 @@
         <v>2.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU72" t="n">
         <v>1.85</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT73" t="n">
         <v>1.64</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU74" t="n">
         <v>1.54</v>
@@ -16125,7 +16125,7 @@
         <v>2.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT77" t="n">
         <v>1.79</v>
@@ -17143,7 +17143,7 @@
         <v>0.86</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU82" t="n">
         <v>1.24</v>
@@ -17343,10 +17343,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU83" t="n">
         <v>1.69</v>
@@ -17546,10 +17546,10 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU84" t="n">
         <v>1.64</v>
@@ -17749,7 +17749,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT85" t="n">
         <v>1.64</v>
@@ -17955,7 +17955,7 @@
         <v>1.43</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -18155,7 +18155,7 @@
         <v>2.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT87" t="n">
         <v>1.21</v>
@@ -18358,7 +18358,7 @@
         <v>1.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT88" t="n">
         <v>1.69</v>
@@ -18564,7 +18564,7 @@
         <v>1.38</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU89" t="n">
         <v>1.51</v>
@@ -18764,10 +18764,10 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU90" t="n">
         <v>1.34</v>
@@ -20794,10 +20794,10 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU100" t="n">
         <v>1.82</v>
@@ -20997,10 +20997,10 @@
         <v>2.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU101" t="n">
         <v>1.54</v>
@@ -21203,7 +21203,7 @@
         <v>1.38</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU102" t="n">
         <v>1.59</v>
@@ -21403,10 +21403,10 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU103" t="n">
         <v>1.43</v>
@@ -21606,7 +21606,7 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT104" t="n">
         <v>1.21</v>
@@ -21812,7 +21812,7 @@
         <v>1.43</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.89</v>
@@ -22012,10 +22012,10 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>2.03</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT107" t="n">
         <v>1.69</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU108" t="n">
         <v>1.44</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU113" t="n">
         <v>1.74</v>
@@ -24042,7 +24042,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT116" t="n">
         <v>1.21</v>
@@ -24854,10 +24854,10 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU120" t="n">
         <v>2.07</v>
@@ -25260,7 +25260,7 @@
         <v>1.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT122" t="n">
         <v>1.21</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU123" t="n">
         <v>1.66</v>
@@ -25669,7 +25669,7 @@
         <v>1.43</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU124" t="n">
         <v>1.88</v>
@@ -25869,10 +25869,10 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26072,10 +26072,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU126" t="n">
         <v>1.85</v>
@@ -26275,7 +26275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT127" t="n">
         <v>1.69</v>
@@ -26478,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT128" t="n">
         <v>1.79</v>
@@ -26684,7 +26684,7 @@
         <v>2</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU129" t="n">
         <v>1.82</v>
@@ -26887,7 +26887,7 @@
         <v>2.43</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.86</v>
@@ -27290,7 +27290,7 @@
         <v>1.14</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT132" t="n">
         <v>1.43</v>
@@ -28305,7 +28305,7 @@
         <v>1.14</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -28508,10 +28508,10 @@
         <v>1.29</v>
       </c>
       <c r="AS138" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU138" t="n">
         <v>1.82</v>
@@ -28711,10 +28711,10 @@
         <v>0.71</v>
       </c>
       <c r="AS139" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU139" t="n">
         <v>1.48</v>
@@ -29117,10 +29117,10 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>2.01</v>
@@ -29526,7 +29526,7 @@
         <v>2.43</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU143" t="n">
         <v>1.9</v>
@@ -29729,7 +29729,7 @@
         <v>1.46</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU144" t="n">
         <v>1.81</v>
@@ -30135,7 +30135,7 @@
         <v>2</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU146" t="n">
         <v>1.85</v>
@@ -30335,7 +30335,7 @@
         <v>1.5</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT147" t="n">
         <v>1.64</v>
@@ -30538,7 +30538,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -30741,7 +30741,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT149" t="n">
         <v>0.71</v>
@@ -31353,7 +31353,7 @@
         <v>1.43</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU152" t="n">
         <v>1.86</v>
@@ -32165,7 +32165,7 @@
         <v>0.86</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -32368,7 +32368,7 @@
         <v>1.14</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32771,7 +32771,7 @@
         <v>0.78</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT159" t="n">
         <v>1</v>
@@ -33177,7 +33177,7 @@
         <v>1.67</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT161" t="n">
         <v>1.36</v>
@@ -33380,7 +33380,7 @@
         <v>0.67</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT162" t="n">
         <v>0.71</v>
@@ -33586,7 +33586,7 @@
         <v>2</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU163" t="n">
         <v>1.92</v>
@@ -34192,10 +34192,10 @@
         <v>1.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU166" t="n">
         <v>1.62</v>
@@ -34601,7 +34601,7 @@
         <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU168" t="n">
         <v>1.71</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT169" t="n">
         <v>1</v>
@@ -35004,7 +35004,7 @@
         <v>0.89</v>
       </c>
       <c r="AS170" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT170" t="n">
         <v>1.21</v>
@@ -35210,7 +35210,7 @@
         <v>1.43</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU171" t="n">
         <v>1.83</v>
@@ -35410,10 +35410,10 @@
         <v>0.63</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU172" t="n">
         <v>2.02</v>
@@ -35816,7 +35816,7 @@
         <v>1.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT174" t="n">
         <v>1.64</v>
@@ -36022,7 +36022,7 @@
         <v>2</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU175" t="n">
         <v>1.65</v>
@@ -36225,7 +36225,7 @@
         <v>0.86</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU176" t="n">
         <v>1.47</v>
@@ -36631,7 +36631,7 @@
         <v>1.43</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU178" t="n">
         <v>1.75</v>
@@ -37034,10 +37034,10 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU180" t="n">
         <v>1.86</v>
@@ -37237,7 +37237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT181" t="n">
         <v>1.36</v>
@@ -37443,7 +37443,7 @@
         <v>1.14</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU182" t="n">
         <v>1.68</v>
@@ -37643,10 +37643,10 @@
         <v>0.89</v>
       </c>
       <c r="AS183" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU183" t="n">
         <v>1.75</v>
@@ -37846,7 +37846,7 @@
         <v>1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38049,7 +38049,7 @@
         <v>1.6</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT185" t="n">
         <v>1.64</v>
@@ -38658,7 +38658,7 @@
         <v>1.4</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT188" t="n">
         <v>1.43</v>
@@ -39067,7 +39067,7 @@
         <v>1.43</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU190" t="n">
         <v>1.79</v>
@@ -39267,7 +39267,7 @@
         <v>1.45</v>
       </c>
       <c r="AS191" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT191" t="n">
         <v>1.36</v>
@@ -39473,7 +39473,7 @@
         <v>1.43</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU192" t="n">
         <v>1.44</v>
@@ -39673,10 +39673,10 @@
         <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU193" t="n">
         <v>1.55</v>
@@ -40082,7 +40082,7 @@
         <v>1.38</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU195" t="n">
         <v>1.47</v>
@@ -40282,7 +40282,7 @@
         <v>1.64</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT196" t="n">
         <v>1.64</v>
@@ -40485,10 +40485,10 @@
         <v>1</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU197" t="n">
         <v>1.6</v>
@@ -40894,7 +40894,7 @@
         <v>2</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU199" t="n">
         <v>1.66</v>
@@ -41297,7 +41297,7 @@
         <v>0.91</v>
       </c>
       <c r="AS201" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT201" t="n">
         <v>1</v>
@@ -41500,7 +41500,7 @@
         <v>0.91</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT202" t="n">
         <v>0.71</v>
@@ -41706,7 +41706,7 @@
         <v>1.14</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU203" t="n">
         <v>1.66</v>
@@ -42315,7 +42315,7 @@
         <v>1</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU206" t="n">
         <v>1.72</v>
@@ -42515,7 +42515,7 @@
         <v>1.27</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT207" t="n">
         <v>1.43</v>
@@ -42921,7 +42921,7 @@
         <v>1.58</v>
       </c>
       <c r="AS209" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT209" t="n">
         <v>1.36</v>
@@ -43327,10 +43327,10 @@
         <v>1.18</v>
       </c>
       <c r="AS211" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU211" t="n">
         <v>1.58</v>
@@ -43533,7 +43533,7 @@
         <v>1.43</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU212" t="n">
         <v>1.43</v>
@@ -43939,7 +43939,7 @@
         <v>0.86</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU214" t="n">
         <v>1.39</v>
@@ -44139,10 +44139,10 @@
         <v>1.55</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU215" t="n">
         <v>1.89</v>
@@ -44342,10 +44342,10 @@
         <v>1.18</v>
       </c>
       <c r="AS216" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU216" t="n">
         <v>1.57</v>
@@ -44545,7 +44545,7 @@
         <v>1.64</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT217" t="n">
         <v>1.69</v>
@@ -44751,7 +44751,7 @@
         <v>2</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU218" t="n">
         <v>1.63</v>
@@ -44951,7 +44951,7 @@
         <v>0.83</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT219" t="n">
         <v>0.71</v>
@@ -45766,7 +45766,7 @@
         <v>2</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU223" t="n">
         <v>1.94</v>
@@ -45966,7 +45966,7 @@
         <v>1.83</v>
       </c>
       <c r="AS224" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT224" t="n">
         <v>1.64</v>
@@ -46575,7 +46575,7 @@
         <v>1.17</v>
       </c>
       <c r="AS227" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT227" t="n">
         <v>1.21</v>
@@ -46778,10 +46778,10 @@
         <v>0.83</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU228" t="n">
         <v>1.89</v>
@@ -46981,7 +46981,7 @@
         <v>1.69</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT229" t="n">
         <v>1.64</v>
@@ -47187,7 +47187,7 @@
         <v>1.43</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU230" t="n">
         <v>1.65</v>
@@ -47387,10 +47387,10 @@
         <v>1.42</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU231" t="n">
         <v>1.47</v>
@@ -47590,10 +47590,10 @@
         <v>1.17</v>
       </c>
       <c r="AS232" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU232" t="n">
         <v>1.53</v>
@@ -47999,7 +47999,7 @@
         <v>1.38</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU234" t="n">
         <v>1.42</v>
@@ -48199,10 +48199,10 @@
         <v>1.38</v>
       </c>
       <c r="AS235" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU235" t="n">
         <v>1.6</v>
@@ -49826,7 +49826,7 @@
         <v>1.43</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU243" t="n">
         <v>1.42</v>
@@ -50026,7 +50026,7 @@
         <v>1.46</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT244" t="n">
         <v>1.36</v>
@@ -50284,6 +50284,1427 @@
       </c>
       <c r="BK245" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2812466</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45031.29166666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>28</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Belenenses</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="n">
+        <v>2</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>6</v>
+      </c>
+      <c r="R246" t="n">
+        <v>5</v>
+      </c>
+      <c r="S246" t="n">
+        <v>11</v>
+      </c>
+      <c r="T246" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V246" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2812474</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45031.41666666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>28</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>CD Tondela</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>2</v>
+      </c>
+      <c r="N247" t="n">
+        <v>3</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['62', '69']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>11</v>
+      </c>
+      <c r="R247" t="n">
+        <v>1</v>
+      </c>
+      <c r="S247" t="n">
+        <v>12</v>
+      </c>
+      <c r="T247" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2</v>
+      </c>
+      <c r="V247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X247" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2812469</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45031.47916666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>28</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Leixões</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Sporting Covilhã</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>2</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>2</v>
+      </c>
+      <c r="L248" t="n">
+        <v>3</v>
+      </c>
+      <c r="M248" t="n">
+        <v>2</v>
+      </c>
+      <c r="N248" t="n">
+        <v>5</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['25', '42', '73']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['50', '70']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>6</v>
+      </c>
+      <c r="R248" t="n">
+        <v>9</v>
+      </c>
+      <c r="S248" t="n">
+        <v>15</v>
+      </c>
+      <c r="T248" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V248" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X248" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2812468</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45031.47916666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>28</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>CD Mafra</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>6</v>
+      </c>
+      <c r="R249" t="n">
+        <v>3</v>
+      </c>
+      <c r="S249" t="n">
+        <v>9</v>
+      </c>
+      <c r="T249" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V249" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X249" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2812471</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45032.29166666666</v>
+      </c>
+      <c r="F250" t="n">
+        <v>28</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Benfica II</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>2</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>2</v>
+      </c>
+      <c r="L250" t="n">
+        <v>7</v>
+      </c>
+      <c r="M250" t="n">
+        <v>4</v>
+      </c>
+      <c r="N250" t="n">
+        <v>11</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['29', '35', '57', '75', '78', '83', '90+4']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['53', '72', '74', '85']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>5</v>
+      </c>
+      <c r="R250" t="n">
+        <v>6</v>
+      </c>
+      <c r="S250" t="n">
+        <v>11</v>
+      </c>
+      <c r="T250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V250" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X250" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2812467</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45032.41666666666</v>
+      </c>
+      <c r="F251" t="n">
+        <v>28</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>CD Feirense</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Porto II</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>2</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>2</v>
+      </c>
+      <c r="L251" t="n">
+        <v>3</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>3</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['28', '44', '90+4']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>3</v>
+      </c>
+      <c r="R251" t="n">
+        <v>12</v>
+      </c>
+      <c r="S251" t="n">
+        <v>15</v>
+      </c>
+      <c r="T251" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V251" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2812472</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45032.47916666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>28</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>FC Penafiel</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>CD Nacional</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>3</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>3</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['45+1', '65', '79']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>12</v>
+      </c>
+      <c r="R252" t="n">
+        <v>5</v>
+      </c>
+      <c r="S252" t="n">
+        <v>17</v>
+      </c>
+      <c r="T252" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V252" t="n">
+        <v>4</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal LigaPro_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK252"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.29</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>1.43</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU20" t="n">
         <v>1.67</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT29" t="n">
         <v>1.64</v>
@@ -9835,7 +9835,7 @@
         <v>1.14</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU46" t="n">
         <v>2.43</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT48" t="n">
         <v>0.79</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT68" t="n">
         <v>1.36</v>
@@ -14504,7 +14504,7 @@
         <v>1.43</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU69" t="n">
         <v>1.34</v>
@@ -18361,7 +18361,7 @@
         <v>1.4</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU88" t="n">
         <v>1.7</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT89" t="n">
         <v>1.5</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT102" t="n">
         <v>1.43</v>
@@ -22218,7 +22218,7 @@
         <v>0.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU107" t="n">
         <v>1.63</v>
@@ -24651,7 +24651,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -26278,7 +26278,7 @@
         <v>2.71</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU127" t="n">
         <v>1.59</v>
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT140" t="n">
         <v>1.21</v>
@@ -29323,7 +29323,7 @@
         <v>1</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU142" t="n">
         <v>1.68</v>
@@ -32568,7 +32568,7 @@
         <v>2</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT158" t="n">
         <v>1.79</v>
@@ -33789,7 +33789,7 @@
         <v>2.43</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU164" t="n">
         <v>1.92</v>
@@ -36425,7 +36425,7 @@
         <v>0.7</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT177" t="n">
         <v>0.71</v>
@@ -38255,7 +38255,7 @@
         <v>1.46</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU186" t="n">
         <v>1.9</v>
@@ -40079,7 +40079,7 @@
         <v>1.36</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT195" t="n">
         <v>1.4</v>
@@ -42112,7 +42112,7 @@
         <v>2</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU205" t="n">
         <v>1.98</v>
@@ -43124,7 +43124,7 @@
         <v>1.18</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT210" t="n">
         <v>1.21</v>
@@ -44548,7 +44548,7 @@
         <v>1.36</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU217" t="n">
         <v>1.54</v>
@@ -47796,7 +47796,7 @@
         <v>0.86</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU233" t="n">
         <v>1.38</v>
@@ -47996,7 +47996,7 @@
         <v>1.17</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT234" t="n">
         <v>1</v>
@@ -51705,6 +51705,209 @@
       </c>
       <c r="BK252" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2812470</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Portugal LigaPro</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45033.67708333334</v>
+      </c>
+      <c r="F253" t="n">
+        <v>28</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Vilafranquense</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>2</v>
+      </c>
+      <c r="R253" t="n">
+        <v>5</v>
+      </c>
+      <c r="S253" t="n">
+        <v>7</v>
+      </c>
+      <c r="T253" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V253" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
